--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6A1347-88A4-4933-89E3-CD4827317968}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04E1067F-77A7-45D4-8AE3-251C47E03223}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="9" r:id="rId1"/>
@@ -22,15 +22,10 @@
     <sheet name="할일 목록" sheetId="5" r:id="rId7"/>
     <sheet name="식단" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -40,6 +35,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>김태우</author>
+    <author>jdwdu</author>
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2F4C3EAB-4881-4AC1-890C-C24E2E04148B}">
@@ -701,6 +697,199 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">잠
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{607BE545-63A1-4874-8192-20DE7A61B301}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jdwdu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">잠
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="1" shapeId="0" xr:uid="{ED3DAA77-A8CD-43D6-A035-EE7E0E4C541E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jdwdu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>준비</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>및</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>댓글기능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실패</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
 </t>
         </r>
       </text>
@@ -6959,7 +7148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="153">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7622,6 +7811,10 @@
     <t>유산소</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7936,7 +8129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8141,6 +8334,9 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8159,18 +8355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8178,6 +8362,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8503,86 +8699,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F43CBC-5398-4E85-BE74-DE8164C70A1F}">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="27" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="4"/>
-    <col min="19" max="24" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="4"/>
-    <col min="28" max="28" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.59765625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="4"/>
+    <col min="20" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="4"/>
+    <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="70" t="s">
+      <c r="T1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70" t="s">
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="AA1" s="68" t="s">
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AB1" s="69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
@@ -8610,60 +8807,63 @@
       <c r="K2" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="O2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="P2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="Q2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="60" t="s">
+      <c r="T2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="60" t="s">
+      <c r="U2" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="60" t="s">
+      <c r="V2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="60" t="s">
+      <c r="X2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="60" t="s">
+      <c r="Y2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="60" t="s">
+      <c r="Z2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="60" t="s">
+      <c r="AA2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" s="63">
         <v>43374</v>
       </c>
@@ -8691,52 +8891,53 @@
         <v>81</v>
       </c>
       <c r="L3" s="61"/>
-      <c r="M3" s="61">
-        <f t="shared" ref="M3:M33" si="0">SUM(I3:L3)</f>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61">
+        <f t="shared" ref="N3:N33" si="0">SUM(I3:M3)</f>
         <v>291</v>
       </c>
-      <c r="N3" s="61"/>
       <c r="O3" s="61"/>
       <c r="P3" s="61"/>
-      <c r="Q3" s="61">
-        <f>SUM(N3:P3)</f>
-        <v>0</v>
-      </c>
+      <c r="Q3" s="61"/>
       <c r="R3" s="61">
-        <f t="shared" ref="R3:R34" si="1">H3+M3+Q3</f>
+        <f>SUM(O3:Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="61">
+        <f t="shared" ref="S3:S34" si="1">H3+N3+R3</f>
         <v>321</v>
       </c>
-      <c r="S3" s="61">
+      <c r="T3" s="61">
         <v>10</v>
       </c>
-      <c r="T3" s="61">
+      <c r="U3" s="61">
         <v>15</v>
       </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61">
-        <f>SUM(S3:U3)</f>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61">
+        <f>SUM(T3:V3)</f>
         <v>25</v>
       </c>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61">
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61">
         <v>240</v>
       </c>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61">
-        <f t="shared" ref="Z3:Z33" si="2">SUM(W3:Y3)</f>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61">
+        <f t="shared" ref="AA3:AA33" si="2">SUM(X3:Z3)</f>
         <v>240</v>
       </c>
-      <c r="AA3" s="61">
-        <f t="shared" ref="AA3:AA34" si="3">R3+V3+Z3</f>
+      <c r="AB3" s="61">
+        <f t="shared" ref="AB3:AB34" si="3">S3+W3+AA3</f>
         <v>586</v>
       </c>
-      <c r="AB3" s="62">
-        <f>AA3/60</f>
+      <c r="AC3" s="62">
+        <f>AB3/60</f>
         <v>9.7666666666666675</v>
       </c>
-      <c r="AD3" s="13"/>
-    </row>
-    <row r="4" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE3" s="13"/>
+    </row>
+    <row r="4" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="63">
         <v>43375</v>
       </c>
@@ -8763,55 +8964,56 @@
       <c r="K4" s="61">
         <v>40</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="61"/>
+      <c r="M4" s="61">
         <v>30</v>
       </c>
-      <c r="M4" s="61">
+      <c r="N4" s="61">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
-      <c r="N4" s="61"/>
       <c r="O4" s="61"/>
       <c r="P4" s="61"/>
-      <c r="Q4" s="61">
-        <f t="shared" ref="Q4:Q33" si="4">SUM(N4:P4)</f>
-        <v>0</v>
-      </c>
+      <c r="Q4" s="61"/>
       <c r="R4" s="61">
+        <f t="shared" ref="R4:R33" si="4">SUM(O4:Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="61">
         <f t="shared" si="1"/>
         <v>401</v>
       </c>
-      <c r="S4" s="61">
+      <c r="T4" s="61">
         <v>10</v>
       </c>
-      <c r="T4" s="61"/>
       <c r="U4" s="61"/>
-      <c r="V4" s="61">
-        <f t="shared" ref="V4:V34" si="5">SUM(S4:U4)</f>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61">
+        <f t="shared" ref="W4:W34" si="5">SUM(T4:V4)</f>
         <v>10</v>
       </c>
-      <c r="W4" s="61">
+      <c r="X4" s="61">
         <v>150</v>
       </c>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61">
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61">
         <v>120</v>
       </c>
-      <c r="Z4" s="61">
+      <c r="AA4" s="61">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="AA4" s="61">
+      <c r="AB4" s="61">
         <f t="shared" si="3"/>
         <v>681</v>
       </c>
-      <c r="AB4" s="62">
-        <f t="shared" ref="AB4:AB33" si="6">AA4/60</f>
+      <c r="AC4" s="62">
+        <f t="shared" ref="AC4:AC33" si="6">AB4/60</f>
         <v>11.35</v>
       </c>
-      <c r="AD4" s="13"/>
-    </row>
-    <row r="5" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE4" s="13"/>
+    </row>
+    <row r="5" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="66">
         <v>43376</v>
       </c>
@@ -8831,47 +9033,48 @@
       <c r="J5" s="61"/>
       <c r="K5" s="61"/>
       <c r="L5" s="61"/>
-      <c r="M5" s="61">
+      <c r="M5" s="61"/>
+      <c r="N5" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="61"/>
       <c r="O5" s="61"/>
       <c r="P5" s="61"/>
-      <c r="Q5" s="61">
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R5" s="61">
+      <c r="S5" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="61"/>
       <c r="T5" s="61"/>
       <c r="U5" s="61"/>
-      <c r="V5" s="61">
+      <c r="V5" s="61"/>
+      <c r="W5" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W5" s="61">
+      <c r="X5" s="61">
         <v>240</v>
       </c>
-      <c r="X5" s="61"/>
       <c r="Y5" s="61"/>
-      <c r="Z5" s="61">
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="AA5" s="61">
+      <c r="AB5" s="61">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="AB5" s="62">
+      <c r="AC5" s="62">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" s="63">
         <v>43377</v>
       </c>
@@ -8897,51 +9100,52 @@
         <v>119</v>
       </c>
       <c r="L6" s="61"/>
-      <c r="M6" s="61">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="N6" s="61"/>
       <c r="O6" s="61"/>
       <c r="P6" s="61"/>
-      <c r="Q6" s="61">
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R6" s="61">
+      <c r="S6" s="61">
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="S6" s="61">
+      <c r="T6" s="61">
         <v>30</v>
       </c>
-      <c r="T6" s="61"/>
       <c r="U6" s="61"/>
-      <c r="V6" s="61">
+      <c r="V6" s="61"/>
+      <c r="W6" s="61">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="W6" s="61">
+      <c r="X6" s="61">
         <v>210</v>
       </c>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61">
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61">
         <v>120</v>
       </c>
-      <c r="Z6" s="61">
+      <c r="AA6" s="61">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="AA6" s="61">
+      <c r="AB6" s="61">
         <f t="shared" si="3"/>
         <v>549</v>
       </c>
-      <c r="AB6" s="62">
+      <c r="AC6" s="62">
         <f t="shared" si="6"/>
         <v>9.15</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7" s="63">
         <v>43378</v>
       </c>
@@ -8963,51 +9167,52 @@
         <v>65</v>
       </c>
       <c r="L7" s="61"/>
-      <c r="M7" s="61">
+      <c r="M7" s="61"/>
+      <c r="N7" s="61">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="N7" s="61"/>
       <c r="O7" s="61"/>
       <c r="P7" s="61"/>
-      <c r="Q7" s="61">
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R7" s="61">
+      <c r="S7" s="61">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="S7" s="61">
+      <c r="T7" s="61">
         <v>5</v>
       </c>
-      <c r="T7" s="61"/>
       <c r="U7" s="61"/>
-      <c r="V7" s="61">
+      <c r="V7" s="61"/>
+      <c r="W7" s="61">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="W7" s="61">
+      <c r="X7" s="61">
         <v>160</v>
       </c>
-      <c r="X7" s="61">
+      <c r="Y7" s="61">
         <v>240</v>
       </c>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61">
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="AA7" s="61">
+      <c r="AB7" s="61">
         <f t="shared" si="3"/>
         <v>470</v>
       </c>
-      <c r="AB7" s="62">
+      <c r="AC7" s="62">
         <f t="shared" si="6"/>
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A8" s="63">
         <v>43379</v>
       </c>
@@ -9029,49 +9234,54 @@
       </c>
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61">
+      <c r="K8" s="61">
+        <v>45</v>
+      </c>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61">
         <v>70</v>
       </c>
-      <c r="M8" s="61">
+      <c r="N8" s="61">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="N8" s="61"/>
+        <v>115</v>
+      </c>
       <c r="O8" s="61"/>
       <c r="P8" s="61"/>
-      <c r="Q8" s="61">
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="61">
+      <c r="S8" s="61">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="S8" s="61"/>
+        <v>170</v>
+      </c>
       <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61">
+      <c r="U8" s="61">
+        <v>10</v>
+      </c>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="61"/>
+        <v>10</v>
+      </c>
       <c r="X8" s="61"/>
       <c r="Y8" s="61"/>
-      <c r="Z8" s="61">
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="61">
+      <c r="AB8" s="61">
         <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="AB8" s="62">
+        <v>180</v>
+      </c>
+      <c r="AC8" s="62">
         <f t="shared" si="6"/>
-        <v>2.0833333333333335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A9" s="63">
         <v>43380</v>
       </c>
@@ -9089,47 +9299,50 @@
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="K9" s="61">
+        <v>160</v>
+      </c>
       <c r="L9" s="61"/>
-      <c r="M9" s="61">
+      <c r="M9" s="61"/>
+      <c r="N9" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="61"/>
+        <v>160</v>
+      </c>
       <c r="O9" s="61"/>
       <c r="P9" s="61"/>
-      <c r="Q9" s="61">
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R9" s="61">
+      <c r="S9" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="61"/>
+        <v>160</v>
+      </c>
       <c r="T9" s="61"/>
       <c r="U9" s="61"/>
-      <c r="V9" s="61">
+      <c r="V9" s="61"/>
+      <c r="W9" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W9" s="61"/>
       <c r="X9" s="61"/>
       <c r="Y9" s="61"/>
-      <c r="Z9" s="61">
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="61">
+      <c r="AB9" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="62">
+        <v>160</v>
+      </c>
+      <c r="AC9" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A10" s="63">
         <v>43381</v>
       </c>
@@ -9147,47 +9360,54 @@
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61">
+      <c r="K10" s="61">
+        <v>290</v>
+      </c>
+      <c r="L10" s="61">
+        <v>75</v>
+      </c>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="61"/>
+        <v>365</v>
+      </c>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
-      <c r="Q10" s="61">
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R10" s="61">
+      <c r="S10" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="61"/>
+        <v>365</v>
+      </c>
       <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61">
+      <c r="U10" s="61">
+        <v>5</v>
+      </c>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="61"/>
+        <v>5</v>
+      </c>
       <c r="X10" s="61"/>
       <c r="Y10" s="61"/>
-      <c r="Z10" s="61">
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="61">
+      <c r="AB10" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="62">
+        <v>370</v>
+      </c>
+      <c r="AC10" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A11" s="63">
         <v>43382</v>
       </c>
@@ -9207,45 +9427,46 @@
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
-      <c r="M11" s="61">
+      <c r="M11" s="61"/>
+      <c r="N11" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="61"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
-      <c r="Q11" s="61">
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R11" s="61">
+      <c r="S11" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S11" s="61"/>
       <c r="T11" s="61"/>
       <c r="U11" s="61"/>
-      <c r="V11" s="61">
+      <c r="V11" s="61"/>
+      <c r="W11" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W11" s="61"/>
       <c r="X11" s="61"/>
       <c r="Y11" s="61"/>
-      <c r="Z11" s="61">
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="61">
+      <c r="AB11" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="62">
+      <c r="AC11" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12" s="63">
         <v>43383</v>
       </c>
@@ -9265,45 +9486,46 @@
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
       <c r="L12" s="61"/>
-      <c r="M12" s="61">
+      <c r="M12" s="61"/>
+      <c r="N12" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N12" s="61"/>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
-      <c r="Q12" s="61">
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R12" s="61">
+      <c r="S12" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S12" s="61"/>
       <c r="T12" s="61"/>
       <c r="U12" s="61"/>
-      <c r="V12" s="61">
+      <c r="V12" s="61"/>
+      <c r="W12" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W12" s="61"/>
       <c r="X12" s="61"/>
       <c r="Y12" s="61"/>
-      <c r="Z12" s="61">
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="61">
+      <c r="AB12" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="62">
+      <c r="AC12" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A13" s="63">
         <v>43384</v>
       </c>
@@ -9323,45 +9545,46 @@
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="61"/>
-      <c r="M13" s="61">
+      <c r="M13" s="61"/>
+      <c r="N13" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="61"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
-      <c r="Q13" s="61">
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="61">
+      <c r="S13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13" s="61"/>
       <c r="T13" s="61"/>
       <c r="U13" s="61"/>
-      <c r="V13" s="61">
+      <c r="V13" s="61"/>
+      <c r="W13" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W13" s="61"/>
       <c r="X13" s="61"/>
       <c r="Y13" s="61"/>
-      <c r="Z13" s="61">
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="61">
+      <c r="AB13" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="62">
+      <c r="AC13" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14" s="63">
         <v>43385</v>
       </c>
@@ -9381,45 +9604,46 @@
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
-      <c r="M14" s="61">
+      <c r="M14" s="61"/>
+      <c r="N14" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="61"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
-      <c r="Q14" s="61">
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R14" s="61">
+      <c r="S14" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S14" s="61"/>
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
-      <c r="V14" s="61">
+      <c r="V14" s="61"/>
+      <c r="W14" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W14" s="61"/>
       <c r="X14" s="61"/>
       <c r="Y14" s="61"/>
-      <c r="Z14" s="61">
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="61">
+      <c r="AB14" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="62">
+      <c r="AC14" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A15" s="63">
         <v>43386</v>
       </c>
@@ -9439,45 +9663,46 @@
       <c r="J15" s="61"/>
       <c r="K15" s="61"/>
       <c r="L15" s="61"/>
-      <c r="M15" s="61">
+      <c r="M15" s="61"/>
+      <c r="N15" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="61"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
-      <c r="Q15" s="61">
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="64">
+      <c r="S15" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S15" s="61"/>
       <c r="T15" s="61"/>
       <c r="U15" s="61"/>
-      <c r="V15" s="61">
+      <c r="V15" s="61"/>
+      <c r="W15" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W15" s="61"/>
       <c r="X15" s="61"/>
       <c r="Y15" s="61"/>
-      <c r="Z15" s="61">
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="61">
+      <c r="AB15" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="62">
+      <c r="AC15" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A16" s="63">
         <v>43387</v>
       </c>
@@ -9497,45 +9722,46 @@
       <c r="J16" s="61"/>
       <c r="K16" s="61"/>
       <c r="L16" s="61"/>
-      <c r="M16" s="61">
+      <c r="M16" s="61"/>
+      <c r="N16" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N16" s="61"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
-      <c r="Q16" s="61">
-        <f>SUM(N16:P16)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="64">
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61">
+        <f>SUM(O16:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S16" s="61"/>
       <c r="T16" s="61"/>
       <c r="U16" s="61"/>
-      <c r="V16" s="61">
+      <c r="V16" s="61"/>
+      <c r="W16" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W16" s="61"/>
       <c r="X16" s="61"/>
       <c r="Y16" s="61"/>
-      <c r="Z16" s="61">
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="61">
+      <c r="AB16" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="62">
+      <c r="AC16" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17" s="63">
         <v>43388</v>
       </c>
@@ -9555,45 +9781,46 @@
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
       <c r="L17" s="61"/>
-      <c r="M17" s="64">
+      <c r="M17" s="61"/>
+      <c r="N17" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N17" s="61"/>
       <c r="O17" s="61"/>
       <c r="P17" s="61"/>
-      <c r="Q17" s="61">
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="61">
+      <c r="S17" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S17" s="61"/>
       <c r="T17" s="61"/>
       <c r="U17" s="61"/>
-      <c r="V17" s="61">
+      <c r="V17" s="61"/>
+      <c r="W17" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W17" s="61"/>
       <c r="X17" s="61"/>
       <c r="Y17" s="61"/>
-      <c r="Z17" s="61">
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="61">
+      <c r="AB17" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="62">
+      <c r="AC17" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" s="63">
         <v>43389</v>
       </c>
@@ -9613,45 +9840,46 @@
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
-      <c r="M18" s="61">
+      <c r="M18" s="61"/>
+      <c r="N18" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N18" s="61"/>
       <c r="O18" s="61"/>
       <c r="P18" s="61"/>
-      <c r="Q18" s="61">
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="61">
+      <c r="S18" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S18" s="61"/>
       <c r="T18" s="61"/>
       <c r="U18" s="61"/>
-      <c r="V18" s="61">
+      <c r="V18" s="61"/>
+      <c r="W18" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W18" s="61"/>
       <c r="X18" s="61"/>
       <c r="Y18" s="61"/>
-      <c r="Z18" s="61">
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="61">
+      <c r="AB18" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="62">
+      <c r="AC18" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19" s="63">
         <v>43390</v>
       </c>
@@ -9671,45 +9899,46 @@
       <c r="J19" s="61"/>
       <c r="K19" s="61"/>
       <c r="L19" s="61"/>
-      <c r="M19" s="61">
+      <c r="M19" s="61"/>
+      <c r="N19" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N19" s="61"/>
       <c r="O19" s="61"/>
       <c r="P19" s="61"/>
-      <c r="Q19" s="61">
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="61">
+      <c r="S19" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S19" s="61"/>
       <c r="T19" s="61"/>
       <c r="U19" s="61"/>
-      <c r="V19" s="61">
+      <c r="V19" s="61"/>
+      <c r="W19" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W19" s="61"/>
       <c r="X19" s="61"/>
       <c r="Y19" s="61"/>
-      <c r="Z19" s="61">
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="61">
+      <c r="AB19" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="62">
+      <c r="AC19" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20" s="63">
         <v>43391</v>
       </c>
@@ -9729,45 +9958,46 @@
       <c r="J20" s="61"/>
       <c r="K20" s="61"/>
       <c r="L20" s="61"/>
-      <c r="M20" s="61">
+      <c r="M20" s="61"/>
+      <c r="N20" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="61"/>
       <c r="O20" s="61"/>
       <c r="P20" s="61"/>
-      <c r="Q20" s="61">
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R20" s="61">
+      <c r="S20" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="61"/>
       <c r="T20" s="61"/>
       <c r="U20" s="61"/>
-      <c r="V20" s="61">
+      <c r="V20" s="61"/>
+      <c r="W20" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W20" s="61"/>
       <c r="X20" s="61"/>
       <c r="Y20" s="61"/>
-      <c r="Z20" s="61">
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="61">
+      <c r="AB20" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="62">
+      <c r="AC20" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21" s="63">
         <v>43392</v>
       </c>
@@ -9787,45 +10017,46 @@
       <c r="J21" s="61"/>
       <c r="K21" s="61"/>
       <c r="L21" s="61"/>
-      <c r="M21" s="61">
+      <c r="M21" s="61"/>
+      <c r="N21" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="61"/>
       <c r="O21" s="61"/>
       <c r="P21" s="61"/>
-      <c r="Q21" s="61">
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R21" s="61">
+      <c r="S21" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S21" s="61"/>
       <c r="T21" s="61"/>
       <c r="U21" s="61"/>
-      <c r="V21" s="61">
+      <c r="V21" s="61"/>
+      <c r="W21" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W21" s="61"/>
       <c r="X21" s="61"/>
       <c r="Y21" s="61"/>
-      <c r="Z21" s="61">
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="61">
+      <c r="AB21" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="62">
+      <c r="AC21" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22" s="63">
         <v>43393</v>
       </c>
@@ -9845,45 +10076,46 @@
       <c r="J22" s="61"/>
       <c r="K22" s="61"/>
       <c r="L22" s="61"/>
-      <c r="M22" s="61">
+      <c r="M22" s="61"/>
+      <c r="N22" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="61"/>
       <c r="O22" s="61"/>
       <c r="P22" s="61"/>
-      <c r="Q22" s="61">
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="61">
+      <c r="S22" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S22" s="61"/>
       <c r="T22" s="61"/>
       <c r="U22" s="61"/>
-      <c r="V22" s="61">
+      <c r="V22" s="61"/>
+      <c r="W22" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W22" s="61"/>
       <c r="X22" s="61"/>
       <c r="Y22" s="61"/>
-      <c r="Z22" s="61">
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="61">
+      <c r="AB22" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="62">
+      <c r="AC22" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23" s="63">
         <v>43394</v>
       </c>
@@ -9903,45 +10135,46 @@
       <c r="J23" s="61"/>
       <c r="K23" s="61"/>
       <c r="L23" s="61"/>
-      <c r="M23" s="61">
+      <c r="M23" s="61"/>
+      <c r="N23" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="61"/>
       <c r="O23" s="61"/>
       <c r="P23" s="61"/>
-      <c r="Q23" s="61">
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R23" s="61">
+      <c r="S23" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S23" s="61"/>
       <c r="T23" s="61"/>
       <c r="U23" s="61"/>
-      <c r="V23" s="61">
+      <c r="V23" s="61"/>
+      <c r="W23" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W23" s="61"/>
       <c r="X23" s="61"/>
       <c r="Y23" s="61"/>
-      <c r="Z23" s="61">
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="61">
+      <c r="AB23" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="62">
+      <c r="AC23" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A24" s="63">
         <v>43395</v>
       </c>
@@ -9961,45 +10194,46 @@
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
       <c r="L24" s="61"/>
-      <c r="M24" s="65">
+      <c r="M24" s="61"/>
+      <c r="N24" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="61"/>
       <c r="O24" s="61"/>
       <c r="P24" s="61"/>
-      <c r="Q24" s="61">
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R24" s="61">
+      <c r="S24" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S24" s="61"/>
       <c r="T24" s="61"/>
       <c r="U24" s="61"/>
-      <c r="V24" s="61">
+      <c r="V24" s="61"/>
+      <c r="W24" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W24" s="61"/>
       <c r="X24" s="61"/>
       <c r="Y24" s="61"/>
-      <c r="Z24" s="61">
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="61">
+      <c r="AB24" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="62">
+      <c r="AC24" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A25" s="63">
         <v>43396</v>
       </c>
@@ -10019,45 +10253,46 @@
       <c r="J25" s="61"/>
       <c r="K25" s="61"/>
       <c r="L25" s="61"/>
-      <c r="M25" s="61">
+      <c r="M25" s="61"/>
+      <c r="N25" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N25" s="61"/>
       <c r="O25" s="61"/>
       <c r="P25" s="61"/>
-      <c r="Q25" s="61">
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R25" s="61">
+      <c r="S25" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S25" s="61"/>
       <c r="T25" s="61"/>
       <c r="U25" s="61"/>
-      <c r="V25" s="61">
+      <c r="V25" s="61"/>
+      <c r="W25" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W25" s="61"/>
       <c r="X25" s="61"/>
       <c r="Y25" s="61"/>
-      <c r="Z25" s="61">
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="61">
+      <c r="AB25" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="62">
+      <c r="AC25" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26" s="63">
         <v>43397</v>
       </c>
@@ -10077,45 +10312,46 @@
       <c r="J26" s="61"/>
       <c r="K26" s="61"/>
       <c r="L26" s="61"/>
-      <c r="M26" s="61">
+      <c r="M26" s="61"/>
+      <c r="N26" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N26" s="61"/>
       <c r="O26" s="61"/>
       <c r="P26" s="61"/>
-      <c r="Q26" s="61">
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R26" s="61">
+      <c r="S26" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S26" s="61"/>
       <c r="T26" s="61"/>
       <c r="U26" s="61"/>
-      <c r="V26" s="61">
+      <c r="V26" s="61"/>
+      <c r="W26" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W26" s="61"/>
       <c r="X26" s="61"/>
       <c r="Y26" s="61"/>
-      <c r="Z26" s="61">
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="61">
+      <c r="AB26" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="62">
+      <c r="AC26" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A27" s="63">
         <v>43398</v>
       </c>
@@ -10135,45 +10371,46 @@
       <c r="J27" s="61"/>
       <c r="K27" s="61"/>
       <c r="L27" s="61"/>
-      <c r="M27" s="61">
+      <c r="M27" s="61"/>
+      <c r="N27" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N27" s="61"/>
       <c r="O27" s="61"/>
       <c r="P27" s="61"/>
-      <c r="Q27" s="61">
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R27" s="61">
+      <c r="S27" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S27" s="61"/>
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
-      <c r="V27" s="61">
+      <c r="V27" s="61"/>
+      <c r="W27" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W27" s="61"/>
       <c r="X27" s="61"/>
       <c r="Y27" s="61"/>
-      <c r="Z27" s="61">
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="61">
+      <c r="AB27" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="62">
+      <c r="AC27" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28" s="63">
         <v>43399</v>
       </c>
@@ -10193,45 +10430,46 @@
       <c r="J28" s="61"/>
       <c r="K28" s="61"/>
       <c r="L28" s="61"/>
-      <c r="M28" s="61">
+      <c r="M28" s="61"/>
+      <c r="N28" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N28" s="61"/>
       <c r="O28" s="61"/>
       <c r="P28" s="61"/>
-      <c r="Q28" s="61">
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R28" s="61">
+      <c r="S28" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S28" s="61"/>
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
-      <c r="V28" s="61">
+      <c r="V28" s="61"/>
+      <c r="W28" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W28" s="61"/>
       <c r="X28" s="61"/>
       <c r="Y28" s="61"/>
-      <c r="Z28" s="61">
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="61">
+      <c r="AB28" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="62">
+      <c r="AC28" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A29" s="63">
         <v>43400</v>
       </c>
@@ -10251,45 +10489,46 @@
       <c r="J29" s="61"/>
       <c r="K29" s="61"/>
       <c r="L29" s="61"/>
-      <c r="M29" s="61">
+      <c r="M29" s="61"/>
+      <c r="N29" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="61"/>
       <c r="O29" s="61"/>
       <c r="P29" s="61"/>
-      <c r="Q29" s="61">
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R29" s="61">
+      <c r="S29" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S29" s="61"/>
       <c r="T29" s="61"/>
       <c r="U29" s="61"/>
-      <c r="V29" s="61">
+      <c r="V29" s="61"/>
+      <c r="W29" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W29" s="61"/>
       <c r="X29" s="61"/>
       <c r="Y29" s="61"/>
-      <c r="Z29" s="61">
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="61">
+      <c r="AB29" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="62">
+      <c r="AC29" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A30" s="63">
         <v>43401</v>
       </c>
@@ -10309,45 +10548,46 @@
       <c r="J30" s="61"/>
       <c r="K30" s="61"/>
       <c r="L30" s="61"/>
-      <c r="M30" s="61">
+      <c r="M30" s="61"/>
+      <c r="N30" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N30" s="61"/>
       <c r="O30" s="61"/>
       <c r="P30" s="61"/>
-      <c r="Q30" s="61">
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R30" s="61">
+      <c r="S30" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S30" s="61"/>
       <c r="T30" s="61"/>
       <c r="U30" s="61"/>
-      <c r="V30" s="61">
+      <c r="V30" s="61"/>
+      <c r="W30" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W30" s="61"/>
       <c r="X30" s="61"/>
       <c r="Y30" s="61"/>
-      <c r="Z30" s="61">
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="61">
+      <c r="AB30" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="62">
+      <c r="AC30" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A31" s="63">
         <v>43402</v>
       </c>
@@ -10367,45 +10607,46 @@
       <c r="J31" s="61"/>
       <c r="K31" s="61"/>
       <c r="L31" s="61"/>
-      <c r="M31" s="61">
+      <c r="M31" s="61"/>
+      <c r="N31" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="61"/>
       <c r="O31" s="61"/>
       <c r="P31" s="61"/>
-      <c r="Q31" s="61">
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R31" s="61">
+      <c r="S31" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S31" s="61"/>
       <c r="T31" s="61"/>
       <c r="U31" s="61"/>
-      <c r="V31" s="61">
+      <c r="V31" s="61"/>
+      <c r="W31" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W31" s="61"/>
       <c r="X31" s="61"/>
       <c r="Y31" s="61"/>
-      <c r="Z31" s="61">
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="61">
+      <c r="AB31" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="62">
+      <c r="AC31" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A32" s="63">
         <v>43403</v>
       </c>
@@ -10425,45 +10666,46 @@
       <c r="J32" s="61"/>
       <c r="K32" s="61"/>
       <c r="L32" s="61"/>
-      <c r="M32" s="61">
+      <c r="M32" s="61"/>
+      <c r="N32" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N32" s="61"/>
       <c r="O32" s="61"/>
       <c r="P32" s="61"/>
-      <c r="Q32" s="61">
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R32" s="64">
+      <c r="S32" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S32" s="61"/>
       <c r="T32" s="61"/>
       <c r="U32" s="61"/>
-      <c r="V32" s="61">
+      <c r="V32" s="61"/>
+      <c r="W32" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W32" s="61"/>
       <c r="X32" s="61"/>
       <c r="Y32" s="61"/>
-      <c r="Z32" s="61">
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="61">
+      <c r="AB32" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="62">
+      <c r="AC32" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A33" s="63">
         <v>43404</v>
       </c>
@@ -10483,45 +10725,46 @@
       <c r="J33" s="61"/>
       <c r="K33" s="61"/>
       <c r="L33" s="61"/>
-      <c r="M33" s="61">
+      <c r="M33" s="61"/>
+      <c r="N33" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N33" s="61"/>
       <c r="O33" s="61"/>
       <c r="P33" s="61"/>
-      <c r="Q33" s="61">
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R33" s="61">
+      <c r="S33" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S33" s="61"/>
       <c r="T33" s="61"/>
       <c r="U33" s="61"/>
-      <c r="V33" s="61">
+      <c r="V33" s="61"/>
+      <c r="W33" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W33" s="61"/>
       <c r="X33" s="61"/>
       <c r="Y33" s="61"/>
-      <c r="Z33" s="61">
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="61">
+      <c r="AB33" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="62">
+      <c r="AC33" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
@@ -10529,36 +10772,36 @@
         <f>SUM(H3:H33)</f>
         <v>215</v>
       </c>
-      <c r="M34" s="4">
-        <f>SUM(M3:M33)</f>
-        <v>886</v>
-      </c>
-      <c r="Q34" s="4">
-        <f>SUM(Q3:Q33)</f>
-        <v>0</v>
+      <c r="N34" s="4">
+        <f>SUM(N3:N33)</f>
+        <v>1456</v>
       </c>
       <c r="R34" s="4">
+        <f>SUM(R3:R33)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
         <f t="shared" si="1"/>
-        <v>1101</v>
-      </c>
-      <c r="V34" s="4">
+        <v>1671</v>
+      </c>
+      <c r="W34" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="4">
-        <f>SUM(Z3:Z33)</f>
+      <c r="AA34" s="4">
+        <f>SUM(AA3:AA33)</f>
         <v>1480</v>
       </c>
-      <c r="AA34" s="4">
+      <c r="AB34" s="4">
         <f t="shared" si="3"/>
-        <v>2581</v>
-      </c>
-      <c r="AB34" s="6">
-        <f>SUM(AB3:AB33)/31</f>
-        <v>1.4252688172043011</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+        <v>3151</v>
+      </c>
+      <c r="AC34" s="6">
+        <f>SUM(AC3:AC33)/31</f>
+        <v>1.7397849462365591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -10569,41 +10812,41 @@
         <f>H34/60</f>
         <v>3.5833333333333335</v>
       </c>
-      <c r="L35" s="37" t="s">
+      <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M35" s="15">
-        <f>M34/60</f>
-        <v>14.766666666666667</v>
-      </c>
-      <c r="P35" s="37" t="s">
+      <c r="N35" s="15">
+        <f>N34/60</f>
+        <v>24.266666666666666</v>
+      </c>
+      <c r="Q35" s="37" t="s">
         <v>3</v>
-      </c>
-      <c r="Q35" s="15">
-        <f>Q34/60</f>
-        <v>0</v>
       </c>
       <c r="R35" s="15">
         <f>R34/60</f>
-        <v>18.350000000000001</v>
-      </c>
-      <c r="Y35" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <f>S34/60</f>
+        <v>27.85</v>
+      </c>
+      <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="Z35" s="15">
-        <f>Z34/60</f>
+      <c r="AA35" s="15">
+        <f>AA34/60</f>
         <v>24.666666666666668</v>
       </c>
-      <c r="AA35" s="4">
-        <f>AA34/60</f>
-        <v>43.016666666666666</v>
-      </c>
-      <c r="AB35" s="15">
-        <f>AA34/60</f>
-        <v>43.016666666666666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB35" s="4">
+        <f>AB34/60</f>
+        <v>52.516666666666666</v>
+      </c>
+      <c r="AC35" s="15">
+        <f>AB34/60</f>
+        <v>52.516666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
@@ -10611,51 +10854,51 @@
         <f>H35/31</f>
         <v>0.11559139784946237</v>
       </c>
-      <c r="M36" s="4">
-        <f>M35/31</f>
-        <v>0.47634408602150541</v>
-      </c>
-      <c r="Q36" s="4">
-        <f>Q35/31</f>
-        <v>0</v>
+      <c r="N36" s="4">
+        <f>N35/31</f>
+        <v>0.78279569892473111</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
-        <v>0.59193548387096784</v>
-      </c>
-      <c r="Z36" s="4">
-        <f>Z35/31</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <f>S35/31</f>
+        <v>0.89838709677419359</v>
+      </c>
+      <c r="AA36" s="4">
+        <f>AA35/31</f>
         <v>0.79569892473118287</v>
       </c>
-      <c r="AB36" s="6">
-        <f>AB34</f>
-        <v>1.4252688172043011</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC36" s="6">
+        <f>AC34</f>
+        <v>1.7397849462365591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="4">
         <v>0.22388888888888889</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>2.6233333333333335</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <v>0.14277777777777778</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>2.99</v>
       </c>
-      <c r="Z37" s="11">
+      <c r="AA37" s="11">
         <v>3.24</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
@@ -10663,28 +10906,28 @@
         <f>H36-H37</f>
         <v>-0.10829749103942651</v>
       </c>
-      <c r="M38" s="4">
-        <f>M36-M37</f>
-        <v>-2.1469892473118279</v>
-      </c>
-      <c r="Q38" s="4">
-        <f>Q36-Q37</f>
-        <v>-0.14277777777777778</v>
+      <c r="N38" s="4">
+        <f>N36-N37</f>
+        <v>-1.8405376344086024</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
-        <v>-2.3980645161290326</v>
-      </c>
-      <c r="Z38" s="4">
-        <f>Z36-Z37</f>
+        <v>-0.14277777777777778</v>
+      </c>
+      <c r="S38" s="4">
+        <f>S36-S37</f>
+        <v>-2.0916129032258066</v>
+      </c>
+      <c r="AA38" s="4">
+        <f>AA36-AA37</f>
         <v>-2.4443010752688172</v>
       </c>
-      <c r="AB38" s="4">
-        <f>AB36-AB37</f>
-        <v>-5.1613978494623645</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC38" s="4">
+        <f>AC36-AC37</f>
+        <v>-4.8468817204301065</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -10692,7 +10935,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -10701,27 +10944,27 @@
         <v>403</v>
       </c>
       <c r="C40" s="4">
-        <f>AB35</f>
-        <v>43.016666666666666</v>
+        <f>AC35</f>
+        <v>52.516666666666666</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.10674110835401157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.1303143093465674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
       <c r="D41" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10741,18 +10984,18 @@
       <selection pane="bottomRight" activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.25" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.59765625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.19921875" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="4"/>
@@ -10760,66 +11003,66 @@
     <col min="22" max="22" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4"/>
     <col min="31" max="31" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="70" t="s">
+      <c r="U1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70" t="s">
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AD1" s="68" t="s">
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AD1" s="69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -10901,7 +11144,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="69"/>
+      <c r="AD2" s="70"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -10909,7 +11152,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43344</v>
       </c>
@@ -10959,7 +11202,7 @@
       </c>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43345</v>
       </c>
@@ -11003,7 +11246,7 @@
       </c>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43346</v>
       </c>
@@ -11055,7 +11298,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43347</v>
       </c>
@@ -11110,7 +11353,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43348</v>
       </c>
@@ -11180,7 +11423,7 @@
         <v>8.3666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43349</v>
       </c>
@@ -11244,7 +11487,7 @@
         <v>11.566666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43350</v>
       </c>
@@ -11296,7 +11539,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43351</v>
       </c>
@@ -11363,7 +11606,7 @@
         <v>7.8166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43352</v>
       </c>
@@ -11412,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>43353</v>
       </c>
@@ -11455,7 +11698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>43354</v>
       </c>
@@ -11507,7 +11750,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="24">
         <v>43355</v>
       </c>
@@ -11566,7 +11809,7 @@
         <v>7.2166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="24">
         <v>43356</v>
       </c>
@@ -11622,7 +11865,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="24">
         <v>43357</v>
       </c>
@@ -11680,7 +11923,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>43358</v>
       </c>
@@ -11738,7 +11981,7 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43359</v>
       </c>
@@ -11784,7 +12027,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43360</v>
       </c>
@@ -11836,7 +12079,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20" s="32">
         <v>43361</v>
       </c>
@@ -11907,7 +12150,7 @@
         <v>8.3833333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
         <v>43362</v>
       </c>
@@ -11977,7 +12220,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43363</v>
       </c>
@@ -12042,7 +12285,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43364</v>
       </c>
@@ -12105,7 +12348,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43365</v>
       </c>
@@ -12165,7 +12408,7 @@
         <v>9.3166666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" s="40">
         <v>43366</v>
       </c>
@@ -12222,7 +12465,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26" s="40">
         <v>43367</v>
       </c>
@@ -12274,7 +12517,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27" s="40">
         <v>43368</v>
       </c>
@@ -12320,7 +12563,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28" s="40">
         <v>43369</v>
       </c>
@@ -12369,7 +12612,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43370</v>
       </c>
@@ -12428,7 +12671,7 @@
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43371</v>
       </c>
@@ -12484,7 +12727,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43372</v>
       </c>
@@ -12533,7 +12776,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43373</v>
       </c>
@@ -12576,7 +12819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="H33" s="4">
         <f t="shared" si="7"/>
@@ -12611,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
@@ -12648,7 +12891,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -12697,7 +12940,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
@@ -12730,7 +12973,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -12756,7 +12999,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
@@ -12789,7 +13032,7 @@
         <v>0.25870967741935402</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -12797,7 +13040,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -12814,7 +13057,7 @@
         <v>0.5066666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <f>13*30</f>
         <v>390</v>
@@ -12854,18 +13097,18 @@
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
@@ -12876,65 +13119,65 @@
     <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="30" max="30" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="70" t="s">
+      <c r="T1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70" t="s">
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AC1" s="68" t="s">
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AC1" s="69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -13013,12 +13256,12 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="69"/>
+      <c r="AC2" s="70"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -13073,7 +13316,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -13135,7 +13378,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -13189,7 +13432,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -13240,7 +13483,7 @@
         <v>10.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -13286,7 +13529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -13332,7 +13575,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -13396,7 +13639,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -13439,7 +13682,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -13495,7 +13738,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -13560,7 +13803,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -13610,7 +13853,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -13656,7 +13899,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -13716,7 +13959,7 @@
         <v>7.7833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -13781,7 +14024,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -13842,7 +14085,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -13897,7 +14140,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -13946,7 +14189,7 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -13998,7 +14241,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -14038,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -14084,7 +14327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -14139,7 +14382,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -14182,7 +14425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -14231,7 +14474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -14277,7 +14520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -14326,7 +14569,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -14369,7 +14612,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -14415,7 +14658,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -14467,7 +14710,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -14519,7 +14762,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -14580,7 +14823,7 @@
         <v>10.833333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -14638,7 +14881,7 @@
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
         <v>320</v>
@@ -14672,7 +14915,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" s="58"/>
       <c r="G35" s="38" t="s">
         <v>1</v>
@@ -14711,7 +14954,7 @@
         <v>190.88333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" s="58"/>
       <c r="H36" s="4">
         <f>H35/31</f>
@@ -14734,10 +14977,10 @@
         <v>4.5822580645161297</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" s="58"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A38" s="58"/>
     </row>
   </sheetData>
@@ -14766,85 +15009,85 @@
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="70" t="s">
+      <c r="T1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="73" t="s">
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AB1" s="71" t="s">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AB1" s="72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -14920,9 +15163,9 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="72"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB2" s="73"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -14979,7 +15222,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -15038,7 +15281,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -15093,7 +15336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -15149,7 +15392,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -15210,7 +15453,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43288</v>
       </c>
@@ -15268,7 +15511,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43289</v>
       </c>
@@ -15327,7 +15570,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
@@ -15399,7 +15642,7 @@
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -15465,7 +15708,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -15534,7 +15777,7 @@
         <v>6.9333333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
@@ -15599,7 +15842,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -15663,7 +15906,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43295</v>
       </c>
@@ -15725,7 +15968,7 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43296</v>
       </c>
@@ -15779,7 +16022,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -15838,7 +16081,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
@@ -15896,7 +16139,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="48">
         <v>43299</v>
       </c>
@@ -15966,7 +16209,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -16027,7 +16270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -16093,7 +16336,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43302</v>
       </c>
@@ -16153,7 +16396,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43303</v>
       </c>
@@ -16205,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -16266,7 +16509,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -16332,7 +16575,7 @@
         <v>5.9333333333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -16391,7 +16634,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -16452,7 +16695,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -16504,7 +16747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43309</v>
       </c>
@@ -16568,7 +16811,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43310</v>
       </c>
@@ -16620,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -16672,7 +16915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -16724,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -16749,7 +16992,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -16776,7 +17019,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>142</v>
       </c>
@@ -16837,7 +17080,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -16898,7 +17141,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -16923,7 +17166,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -16948,7 +17191,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -16973,7 +17216,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -16998,7 +17241,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -17023,7 +17266,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -17048,7 +17291,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -17073,7 +17316,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -17098,7 +17341,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -17123,7 +17366,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -17173,9 +17416,9 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>122</v>
       </c>
@@ -17198,220 +17441,220 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="74" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="74"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="74"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="74"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="77" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="79" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="77"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75" t="s">
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="80" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="76"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74" t="s">
+      <c r="D14" s="78"/>
+      <c r="E14" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="76"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="78"/>
+      <c r="H14" s="81"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="76"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="80" t="s">
+      <c r="E16" s="78"/>
+      <c r="F16" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="76"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="81"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="76"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="76"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="81"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="80"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="77"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
         <v>0.875000000000001</v>
@@ -17419,14 +17662,14 @@
       <c r="C20" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="13">
         <f>B21-B3</f>
         <v>0.75000000000000133</v>
@@ -17434,22 +17677,25 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -17466,9 +17712,6 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17483,12 +17726,12 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H2" t="s">
         <v>114</v>
       </c>
@@ -17496,7 +17739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H3" t="s">
         <v>115</v>
       </c>
@@ -17504,7 +17747,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H4" t="s">
         <v>117</v>
       </c>
@@ -17530,15 +17773,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -17561,7 +17804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -17578,7 +17821,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -17595,7 +17838,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -17612,7 +17855,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
@@ -17632,7 +17875,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -17649,7 +17892,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
@@ -17669,7 +17912,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>7</v>
       </c>
@@ -17689,57 +17932,57 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>18</v>
       </c>
@@ -17758,32 +18001,32 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.75" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.69921875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.19921875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.3984375" style="4" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
@@ -17819,11 +18062,11 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
@@ -17865,7 +18108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -17898,7 +18141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -17950,7 +18193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -17986,7 +18229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -18001,7 +18244,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -18013,7 +18256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -18025,7 +18268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -18058,7 +18301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -18085,7 +18328,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -18118,7 +18361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -18159,7 +18402,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -18195,7 +18438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -18234,7 +18477,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -18273,7 +18516,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -18312,7 +18555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -18345,7 +18588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -18357,7 +18600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -18369,7 +18612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -18384,7 +18627,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -18396,7 +18639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -18408,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -18420,7 +18663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -18444,7 +18687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -18474,7 +18717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -18486,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -18498,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -18522,7 +18765,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -18534,7 +18777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -18546,7 +18789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -18558,7 +18801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -18573,7 +18816,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -18585,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04E1067F-77A7-45D4-8AE3-251C47E03223}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4028F570-F566-4415-9B73-96EE2A56789F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="9" r:id="rId1"/>
@@ -22,10 +22,15 @@
     <sheet name="할일 목록" sheetId="5" r:id="rId7"/>
     <sheet name="식단" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -890,6 +895,233 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{69D5A30B-A58C-404F-9178-894278C7D8DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>감기기운있어서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조금</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빨리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잤더니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>괜찮아짐</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>근데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일어남</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">..
 </t>
         </r>
       </text>
@@ -8129,7 +8361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8355,6 +8587,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8364,17 +8608,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8701,36 +8939,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F43CBC-5398-4E85-BE74-DE8164C70A1F}">
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.59765625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.19921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="4" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="4"/>
     <col min="20" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="4"/>
     <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>84</v>
       </c>
@@ -8775,7 +9013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
@@ -8863,7 +9101,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="63">
         <v>43374</v>
       </c>
@@ -8937,7 +9175,7 @@
       </c>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="63">
         <v>43375</v>
       </c>
@@ -9013,7 +9251,7 @@
       </c>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="66">
         <v>43376</v>
       </c>
@@ -9074,7 +9312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="63">
         <v>43377</v>
       </c>
@@ -9145,7 +9383,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="63">
         <v>43378</v>
       </c>
@@ -9212,7 +9450,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="63">
         <v>43379</v>
       </c>
@@ -9281,7 +9519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="63">
         <v>43380</v>
       </c>
@@ -9342,26 +9580,28 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="63">
         <v>43381</v>
       </c>
       <c r="B10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>50</v>
+      </c>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
       <c r="H10" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
       <c r="K10" s="61">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="L10" s="61">
         <v>75</v>
@@ -9369,7 +9609,7 @@
       <c r="M10" s="61"/>
       <c r="N10" s="61">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="O10" s="61"/>
       <c r="P10" s="61"/>
@@ -9380,7 +9620,7 @@
       </c>
       <c r="S10" s="61">
         <f t="shared" si="1"/>
-        <v>365</v>
+        <v>475</v>
       </c>
       <c r="T10" s="61"/>
       <c r="U10" s="61">
@@ -9392,26 +9632,28 @@
         <v>5</v>
       </c>
       <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
+      <c r="Y10" s="61">
+        <v>240</v>
+      </c>
       <c r="Z10" s="61"/>
       <c r="AA10" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AB10" s="61">
         <f t="shared" si="3"/>
-        <v>370</v>
+        <v>720</v>
       </c>
       <c r="AC10" s="62">
         <f t="shared" si="6"/>
-        <v>6.166666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="82">
         <v>43382</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="83" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="61"/>
@@ -9425,12 +9667,18 @@
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
+      <c r="K11" s="61">
+        <v>300</v>
+      </c>
+      <c r="L11" s="61">
+        <v>20</v>
+      </c>
+      <c r="M11" s="61">
+        <v>10</v>
+      </c>
       <c r="N11" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
@@ -9441,7 +9689,7 @@
       </c>
       <c r="S11" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="T11" s="61"/>
       <c r="U11" s="61"/>
@@ -9450,23 +9698,25 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X11" s="61"/>
+      <c r="X11" s="61">
+        <v>160</v>
+      </c>
       <c r="Y11" s="61"/>
       <c r="Z11" s="61"/>
       <c r="AA11" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB11" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="AC11" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+        <v>8.1666666666666661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="63">
         <v>43383</v>
       </c>
@@ -9475,21 +9725,25 @@
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="E12" s="61">
+        <v>40</v>
+      </c>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
       <c r="H12" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
+      <c r="K12" s="61">
+        <v>260</v>
+      </c>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="O12" s="61"/>
       <c r="P12" s="61"/>
@@ -9500,32 +9754,38 @@
       </c>
       <c r="S12" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
+      <c r="U12" s="61">
+        <v>10</v>
+      </c>
+      <c r="V12" s="61">
+        <v>30</v>
+      </c>
       <c r="W12" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="61"/>
+        <v>40</v>
+      </c>
+      <c r="X12" s="61">
+        <v>250</v>
+      </c>
       <c r="Y12" s="61"/>
       <c r="Z12" s="61"/>
       <c r="AA12" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AB12" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="AC12" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+        <v>9.8333333333333339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="63">
         <v>43384</v>
       </c>
@@ -9584,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="63">
         <v>43385</v>
       </c>
@@ -9643,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="63">
         <v>43386</v>
       </c>
@@ -9702,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="63">
         <v>43387</v>
       </c>
@@ -9761,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="63">
         <v>43388</v>
       </c>
@@ -9820,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="63">
         <v>43389</v>
       </c>
@@ -9879,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="63">
         <v>43390</v>
       </c>
@@ -9938,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="63">
         <v>43391</v>
       </c>
@@ -9997,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="63">
         <v>43392</v>
       </c>
@@ -10056,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="63">
         <v>43393</v>
       </c>
@@ -10115,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="63">
         <v>43394</v>
       </c>
@@ -10174,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="63">
         <v>43395</v>
       </c>
@@ -10233,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="63">
         <v>43396</v>
       </c>
@@ -10292,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="63">
         <v>43397</v>
       </c>
@@ -10351,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="63">
         <v>43398</v>
       </c>
@@ -10410,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="63">
         <v>43399</v>
       </c>
@@ -10469,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="63">
         <v>43400</v>
       </c>
@@ -10528,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="63">
         <v>43401</v>
       </c>
@@ -10587,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="63">
         <v>43402</v>
       </c>
@@ -10646,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="63">
         <v>43403</v>
       </c>
@@ -10705,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="63">
         <v>43404</v>
       </c>
@@ -10764,17 +11024,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>1456</v>
+        <v>2106</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -10782,7 +11042,7 @@
       </c>
       <c r="S34" s="4">
         <f t="shared" si="1"/>
-        <v>1671</v>
+        <v>2411</v>
       </c>
       <c r="W34" s="4">
         <f t="shared" si="5"/>
@@ -10790,18 +11050,18 @@
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>1480</v>
+        <v>2130</v>
       </c>
       <c r="AB34" s="4">
         <f t="shared" si="3"/>
-        <v>3151</v>
+        <v>4541</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>1.7397849462365591</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
+        <v>2.5086021505376346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -10810,14 +11070,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>3.5833333333333335</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>24.266666666666666</v>
+        <v>35.1</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -10828,54 +11088,54 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>27.85</v>
+        <v>40.18333333333333</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>24.666666666666668</v>
+        <v>35.5</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>52.516666666666666</v>
+        <v>75.683333333333337</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>52.516666666666666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
+        <v>75.683333333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
       <c r="H36" s="4">
-        <f>H35/31</f>
-        <v>0.11559139784946237</v>
+        <f>H35/10</f>
+        <v>0.5083333333333333</v>
       </c>
       <c r="N36" s="4">
-        <f>N35/31</f>
-        <v>0.78279569892473111</v>
+        <f>N35/10</f>
+        <v>3.5100000000000002</v>
       </c>
       <c r="R36" s="4">
-        <f>R35/31</f>
+        <f>R35/10</f>
         <v>0</v>
       </c>
       <c r="S36" s="4">
-        <f>S35/31</f>
-        <v>0.89838709677419359</v>
+        <f>S35/10</f>
+        <v>4.0183333333333326</v>
       </c>
       <c r="AA36" s="4">
-        <f>AA35/31</f>
-        <v>0.79569892473118287</v>
+        <f>AA35/10</f>
+        <v>3.55</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>1.7397849462365591</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
+        <v>2.5086021505376346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -10898,17 +11158,17 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>-0.10829749103942651</v>
+        <v>0.28444444444444439</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>-1.8405376344086024</v>
+        <v>0.88666666666666671</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -10916,18 +11176,18 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>-2.0916129032258066</v>
+        <v>1.0283333333333324</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>-2.4443010752688172</v>
+        <v>0.30999999999999961</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-4.8468817204301065</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
+        <v>-4.0780645161290305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -10935,7 +11195,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -10945,14 +11205,14 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>52.516666666666666</v>
+        <v>75.683333333333337</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.1303143093465674</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
+        <v>0.18779983457402813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D41" s="39"/>
     </row>
   </sheetData>
@@ -10984,18 +11244,18 @@
       <selection pane="bottomRight" activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.19921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="4"/>
@@ -11003,15 +11263,15 @@
     <col min="22" max="22" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4"/>
     <col min="31" max="31" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>84</v>
       </c>
@@ -11058,7 +11318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
@@ -11152,7 +11412,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43344</v>
       </c>
@@ -11202,7 +11462,7 @@
       </c>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43345</v>
       </c>
@@ -11246,7 +11506,7 @@
       </c>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43346</v>
       </c>
@@ -11298,7 +11558,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43347</v>
       </c>
@@ -11353,7 +11613,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43348</v>
       </c>
@@ -11423,7 +11683,7 @@
         <v>8.3666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43349</v>
       </c>
@@ -11487,7 +11747,7 @@
         <v>11.566666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43350</v>
       </c>
@@ -11539,7 +11799,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43351</v>
       </c>
@@ -11606,7 +11866,7 @@
         <v>7.8166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43352</v>
       </c>
@@ -11655,7 +11915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43353</v>
       </c>
@@ -11698,7 +11958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43354</v>
       </c>
@@ -11750,7 +12010,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43355</v>
       </c>
@@ -11809,7 +12069,7 @@
         <v>7.2166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43356</v>
       </c>
@@ -11865,7 +12125,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43357</v>
       </c>
@@ -11923,7 +12183,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43358</v>
       </c>
@@ -11981,7 +12241,7 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43359</v>
       </c>
@@ -12027,7 +12287,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43360</v>
       </c>
@@ -12079,7 +12339,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>43361</v>
       </c>
@@ -12150,7 +12410,7 @@
         <v>8.3833333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>43362</v>
       </c>
@@ -12220,7 +12480,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43363</v>
       </c>
@@ -12285,7 +12545,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43364</v>
       </c>
@@ -12348,7 +12608,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43365</v>
       </c>
@@ -12408,7 +12668,7 @@
         <v>9.3166666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43366</v>
       </c>
@@ -12465,7 +12725,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43367</v>
       </c>
@@ -12517,7 +12777,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43368</v>
       </c>
@@ -12563,7 +12823,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43369</v>
       </c>
@@ -12612,7 +12872,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43370</v>
       </c>
@@ -12671,7 +12931,7 @@
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43371</v>
       </c>
@@ -12727,7 +12987,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43372</v>
       </c>
@@ -12776,7 +13036,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43373</v>
       </c>
@@ -12819,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="H33" s="4">
         <f t="shared" si="7"/>
@@ -12854,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
@@ -12891,7 +13151,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -12940,7 +13200,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
@@ -12973,7 +13233,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -12999,7 +13259,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
@@ -13032,7 +13292,7 @@
         <v>0.25870967741935402</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -13040,7 +13300,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -13057,7 +13317,7 @@
         <v>0.5066666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f>13*30</f>
         <v>390</v>
@@ -13097,18 +13357,18 @@
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
@@ -13119,15 +13379,15 @@
     <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="30" max="30" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>84</v>
       </c>
@@ -13173,7 +13433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
@@ -13261,7 +13521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -13316,7 +13576,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -13378,7 +13638,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -13432,7 +13692,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -13483,7 +13743,7 @@
         <v>10.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -13529,7 +13789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -13575,7 +13835,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -13639,7 +13899,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -13682,7 +13942,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -13738,7 +13998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -13803,7 +14063,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -13853,7 +14113,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -13899,7 +14159,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -13959,7 +14219,7 @@
         <v>7.7833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -14024,7 +14284,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -14085,7 +14345,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -14140,7 +14400,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -14189,7 +14449,7 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -14241,7 +14501,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -14281,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -14327,7 +14587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -14382,7 +14642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -14425,7 +14685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -14474,7 +14734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -14520,7 +14780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -14569,7 +14829,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -14612,7 +14872,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -14658,7 +14918,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -14710,7 +14970,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -14762,7 +15022,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -14823,7 +15083,7 @@
         <v>10.833333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -14881,7 +15141,7 @@
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
         <v>320</v>
@@ -14915,7 +15175,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="G35" s="38" t="s">
         <v>1</v>
@@ -14954,7 +15214,7 @@
         <v>190.88333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="H36" s="4">
         <f>H35/31</f>
@@ -14977,10 +15237,10 @@
         <v>4.5822580645161297</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
     </row>
   </sheetData>
@@ -15009,36 +15269,36 @@
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.59765625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.75" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -15083,7 +15343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
@@ -15165,7 +15425,7 @@
       </c>
       <c r="AB2" s="73"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -15222,7 +15482,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -15281,7 +15541,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -15336,7 +15596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -15392,7 +15652,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -15453,7 +15713,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43288</v>
       </c>
@@ -15511,7 +15771,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43289</v>
       </c>
@@ -15570,7 +15830,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
@@ -15642,7 +15902,7 @@
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -15708,7 +15968,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -15777,7 +16037,7 @@
         <v>6.9333333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
@@ -15842,7 +16102,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -15906,7 +16166,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43295</v>
       </c>
@@ -15968,7 +16228,7 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43296</v>
       </c>
@@ -16022,7 +16282,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -16081,7 +16341,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
@@ -16139,7 +16399,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48">
         <v>43299</v>
       </c>
@@ -16209,7 +16469,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -16270,7 +16530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -16336,7 +16596,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43302</v>
       </c>
@@ -16396,7 +16656,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43303</v>
       </c>
@@ -16448,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -16509,7 +16769,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -16575,7 +16835,7 @@
         <v>5.9333333333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -16634,7 +16894,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -16695,7 +16955,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -16747,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43309</v>
       </c>
@@ -16811,7 +17071,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43310</v>
       </c>
@@ -16863,7 +17123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -16915,7 +17175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -16967,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -16992,7 +17252,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -17019,7 +17279,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>142</v>
       </c>
@@ -17080,7 +17340,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -17141,7 +17401,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -17166,7 +17426,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -17191,7 +17451,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -17216,7 +17476,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -17241,7 +17501,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -17266,7 +17526,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -17291,7 +17551,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -17316,7 +17576,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -17341,7 +17601,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -17366,7 +17626,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -17416,9 +17676,9 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>122</v>
       </c>
@@ -17441,63 +17701,63 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="75" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="75"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="75"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="75"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
@@ -17506,34 +17766,34 @@
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
       <c r="G8" s="74"/>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="79"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
@@ -17543,118 +17803,118 @@
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="80" t="s">
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="81"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="77"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78" t="s">
+      <c r="D14" s="75"/>
+      <c r="E14" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="81"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G14" s="75"/>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="77" t="s">
+      <c r="E16" s="75"/>
+      <c r="F16" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="81"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H16" s="77"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="77"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="81"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="77"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="78"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="77"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G19" s="81"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
         <v>0.875000000000001</v>
@@ -17669,7 +17929,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <f>B21-B3</f>
         <v>0.75000000000000133</v>
@@ -17677,22 +17937,25 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="C13:G13"/>
@@ -17709,9 +17972,6 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17726,12 +17986,12 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="43.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>114</v>
       </c>
@@ -17739,7 +17999,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
         <v>115</v>
       </c>
@@ -17747,7 +18007,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
         <v>117</v>
       </c>
@@ -17773,15 +18033,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.09765625" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -17804,7 +18064,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -17821,7 +18081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -17838,7 +18098,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -17855,7 +18115,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -17875,7 +18135,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -17892,7 +18152,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -17912,7 +18172,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -17932,57 +18192,57 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>18</v>
       </c>
@@ -18001,28 +18261,28 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.69921875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.19921875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.3984375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.375" style="4" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
@@ -18062,7 +18322,7 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>8</v>
       </c>
@@ -18108,7 +18368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -18141,7 +18401,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -18193,7 +18453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -18229,7 +18489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -18244,7 +18504,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -18256,7 +18516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -18268,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -18301,7 +18561,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -18328,7 +18588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -18361,7 +18621,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -18402,7 +18662,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -18438,7 +18698,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -18477,7 +18737,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -18516,7 +18776,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -18555,7 +18815,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -18588,7 +18848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -18600,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -18612,7 +18872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -18627,7 +18887,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -18639,7 +18899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -18651,7 +18911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -18663,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -18687,7 +18947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -18717,7 +18977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -18729,7 +18989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -18741,7 +19001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -18765,7 +19025,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -18777,7 +19037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -18789,7 +19049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -18801,7 +19061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -18816,7 +19076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -18828,7 +19088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4028F570-F566-4415-9B73-96EE2A56789F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99093592-FBF7-46FE-8974-4C742C9C65B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
@@ -1122,6 +1122,52 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">..
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{999487F7-4760-4362-83B3-F0AE38BC5D5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">코세라
 </t>
         </r>
       </text>
@@ -8569,6 +8615,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8587,18 +8639,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8608,11 +8648,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8940,10 +8986,10 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="28" ySplit="2" topLeftCell="AC7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA1" sqref="AA1"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8969,55 +9015,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71" t="s">
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AB1" s="69" t="s">
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AB1" s="71" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
@@ -9093,7 +9139,7 @@
       <c r="AA2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="70"/>
+      <c r="AB2" s="72"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -9650,10 +9696,10 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="82">
+      <c r="A11" s="69">
         <v>43382</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="70" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="61"/>
@@ -9795,20 +9841,28 @@
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
       <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="F13" s="61">
+        <v>45</v>
+      </c>
+      <c r="G13" s="61">
+        <v>13</v>
+      </c>
       <c r="H13" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="K13" s="61">
+        <v>105</v>
+      </c>
+      <c r="L13" s="61">
+        <v>170</v>
+      </c>
       <c r="M13" s="61"/>
       <c r="N13" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
@@ -9819,7 +9873,7 @@
       </c>
       <c r="S13" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="T13" s="61"/>
       <c r="U13" s="61"/>
@@ -9828,20 +9882,24 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X13" s="61"/>
+      <c r="X13" s="61">
+        <v>125</v>
+      </c>
       <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
+      <c r="Z13" s="61">
+        <v>120</v>
+      </c>
       <c r="AA13" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AB13" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="AC13" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.6333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
@@ -9852,22 +9910,26 @@
         <v>46</v>
       </c>
       <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="D14" s="61">
+        <v>30</v>
+      </c>
       <c r="E14" s="61"/>
       <c r="F14" s="61"/>
       <c r="G14" s="61"/>
       <c r="H14" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
+      <c r="K14" s="61">
+        <v>34</v>
+      </c>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
       <c r="N14" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
@@ -9878,29 +9940,37 @@
       </c>
       <c r="S14" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
+      <c r="U14" s="61">
+        <v>10</v>
+      </c>
+      <c r="V14" s="61">
+        <v>45</v>
+      </c>
       <c r="W14" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
+        <v>55</v>
+      </c>
+      <c r="X14" s="61">
+        <v>166</v>
+      </c>
+      <c r="Y14" s="61">
+        <v>240</v>
+      </c>
       <c r="Z14" s="61"/>
       <c r="AA14" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="AB14" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="AC14" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
@@ -9921,12 +9991,16 @@
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
+      <c r="K15" s="61">
+        <v>40</v>
+      </c>
       <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
+      <c r="M15" s="61">
+        <v>160</v>
+      </c>
       <c r="N15" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
@@ -9935,9 +10009,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="64">
+      <c r="S15" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T15" s="61"/>
       <c r="U15" s="61"/>
@@ -9948,18 +10022,20 @@
       </c>
       <c r="X15" s="61"/>
       <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
+      <c r="Z15" s="61">
+        <v>110</v>
+      </c>
       <c r="AA15" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB15" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AC15" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -9994,7 +10070,7 @@
         <f>SUM(O16:Q16)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="64">
+      <c r="S16" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10005,20 +10081,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X16" s="61"/>
+      <c r="X16" s="61">
+        <v>210</v>
+      </c>
       <c r="Y16" s="61"/>
       <c r="Z16" s="61"/>
       <c r="AA16" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB16" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AC16" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
@@ -10031,11 +10109,13 @@
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
       <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="F17" s="61">
+        <v>40</v>
+      </c>
       <c r="G17" s="61"/>
       <c r="H17" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -10055,29 +10135,33 @@
       </c>
       <c r="S17" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="61"/>
+        <v>40</v>
+      </c>
+      <c r="T17" s="61">
+        <v>20</v>
+      </c>
       <c r="U17" s="61"/>
       <c r="V17" s="61"/>
       <c r="W17" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
+      <c r="Y17" s="61">
+        <v>240</v>
+      </c>
       <c r="Z17" s="61"/>
       <c r="AA17" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AB17" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AC17" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
@@ -10097,13 +10181,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="J18" s="61">
+        <v>60</v>
+      </c>
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
       <c r="M18" s="61"/>
       <c r="N18" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O18" s="61"/>
       <c r="P18" s="61"/>
@@ -10114,29 +10200,35 @@
       </c>
       <c r="S18" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="61"/>
+        <v>60</v>
+      </c>
+      <c r="T18" s="61">
+        <v>20</v>
+      </c>
       <c r="U18" s="61"/>
       <c r="V18" s="61"/>
       <c r="W18" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="61"/>
+        <v>20</v>
+      </c>
+      <c r="X18" s="61">
+        <v>220</v>
+      </c>
       <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
+      <c r="Z18" s="61">
+        <v>120</v>
+      </c>
       <c r="AA18" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AB18" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AC18" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
@@ -11030,11 +11122,11 @@
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>305</v>
+        <v>433</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>2106</v>
+        <v>2675</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -11042,7 +11134,7 @@
       </c>
       <c r="S34" s="4">
         <f t="shared" si="1"/>
-        <v>2411</v>
+        <v>3108</v>
       </c>
       <c r="W34" s="4">
         <f t="shared" si="5"/>
@@ -11050,15 +11142,15 @@
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>2130</v>
+        <v>3681</v>
       </c>
       <c r="AB34" s="4">
         <f t="shared" si="3"/>
-        <v>4541</v>
+        <v>6789</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>2.5086021505376346</v>
+        <v>3.7682795698924734</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
@@ -11070,14 +11162,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>5.083333333333333</v>
+        <v>7.2166666666666668</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>35.1</v>
+        <v>44.583333333333336</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -11088,22 +11180,22 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>40.18333333333333</v>
+        <v>51.8</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>35.5</v>
+        <v>61.35</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>75.683333333333337</v>
+        <v>113.15</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>75.683333333333337</v>
+        <v>113.15</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
@@ -11111,28 +11203,28 @@
         <v>131</v>
       </c>
       <c r="H36" s="4">
-        <f>H35/10</f>
-        <v>0.5083333333333333</v>
+        <f>H35/16</f>
+        <v>0.45104166666666667</v>
       </c>
       <c r="N36" s="4">
-        <f>N35/10</f>
-        <v>3.5100000000000002</v>
+        <f>N35/16</f>
+        <v>2.7864583333333335</v>
       </c>
       <c r="R36" s="4">
-        <f>R35/10</f>
+        <f>R35/16</f>
         <v>0</v>
       </c>
       <c r="S36" s="4">
-        <f>S35/10</f>
-        <v>4.0183333333333326</v>
+        <f>S35/16</f>
+        <v>3.2374999999999998</v>
       </c>
       <c r="AA36" s="4">
-        <f>AA35/10</f>
-        <v>3.55</v>
+        <f>AA35/16</f>
+        <v>3.8343750000000001</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>2.5086021505376346</v>
+        <v>3.7682795698924734</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
@@ -11164,11 +11256,11 @@
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>0.28444444444444439</v>
+        <v>0.22715277777777779</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>0.88666666666666671</v>
+        <v>0.16312499999999996</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -11176,15 +11268,15 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>1.0283333333333324</v>
+        <v>0.24749999999999961</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>0.30999999999999961</v>
+        <v>0.59437499999999988</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-4.0780645161290305</v>
+        <v>-2.8183870967741917</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
@@ -11205,11 +11297,11 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>75.683333333333337</v>
+        <v>113.15</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.18779983457402813</v>
+        <v>0.28076923076923077</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
@@ -11272,57 +11364,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="71" t="s">
+      <c r="U1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71" t="s">
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AD1" s="69" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AD1" s="71" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -11404,7 +11496,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="70"/>
+      <c r="AD2" s="72"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -13388,56 +13480,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71" t="s">
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AC1" s="69" t="s">
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AC1" s="71" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -13516,7 +13608,7 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="70"/>
+      <c r="AC2" s="72"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
@@ -15299,55 +15391,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="74" t="s">
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AB1" s="72" t="s">
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AB1" s="74" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -15423,7 +15515,7 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="73"/>
+      <c r="AB2" s="75"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -17705,25 +17797,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="75" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80" t="s">
         <v>125</v>
       </c>
     </row>
@@ -17731,42 +17823,42 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="75"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="75"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="75"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="78" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="81" t="s">
         <v>1</v>
       </c>
     </row>
@@ -17774,47 +17866,47 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="78"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76" t="s">
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="82" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17822,97 +17914,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="77"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75" t="s">
+      <c r="D14" s="80"/>
+      <c r="E14" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="77"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="83"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="77"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="81" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="77"/>
+      <c r="H16" s="83"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="77"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="77"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="81"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="75"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="81"/>
+      <c r="G19" s="79"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -17922,9 +18014,9 @@
       <c r="C20" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="23" t="s">
         <v>126</v>
       </c>
@@ -17937,13 +18029,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -17953,9 +18045,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="C13:G13"/>
@@ -17972,6 +18061,9 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18283,10 +18375,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="71"/>
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
@@ -18323,10 +18415,10 @@
       <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99093592-FBF7-46FE-8974-4C742C9C65B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{229DC3AB-01B5-408D-BFD8-7E33E0C88EDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="9" r:id="rId1"/>
@@ -22,15 +22,10 @@
     <sheet name="할일 목록" sheetId="5" r:id="rId7"/>
     <sheet name="식단" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8639,6 +8634,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8646,18 +8653,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8986,35 +8981,35 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.59765625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" style="4" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="4"/>
     <col min="20" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="4"/>
     <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" s="73" t="s">
         <v>84</v>
       </c>
@@ -9059,7 +9054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
@@ -9147,7 +9142,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" s="63">
         <v>43374</v>
       </c>
@@ -9221,7 +9216,7 @@
       </c>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="63">
         <v>43375</v>
       </c>
@@ -9297,7 +9292,7 @@
       </c>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="66">
         <v>43376</v>
       </c>
@@ -9358,7 +9353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" s="63">
         <v>43377</v>
       </c>
@@ -9429,7 +9424,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7" s="63">
         <v>43378</v>
       </c>
@@ -9496,7 +9491,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A8" s="63">
         <v>43379</v>
       </c>
@@ -9565,7 +9560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A9" s="63">
         <v>43380</v>
       </c>
@@ -9626,7 +9621,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A10" s="63">
         <v>43381</v>
       </c>
@@ -9695,7 +9690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A11" s="69">
         <v>43382</v>
       </c>
@@ -9762,7 +9757,7 @@
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12" s="63">
         <v>43383</v>
       </c>
@@ -9831,7 +9826,7 @@
         <v>9.8333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A13" s="63">
         <v>43384</v>
       </c>
@@ -9902,7 +9897,7 @@
         <v>9.6333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14" s="63">
         <v>43385</v>
       </c>
@@ -9973,7 +9968,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A15" s="63">
         <v>43386</v>
       </c>
@@ -10038,7 +10033,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A16" s="63">
         <v>43387</v>
       </c>
@@ -10099,7 +10094,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17" s="63">
         <v>43388</v>
       </c>
@@ -10164,32 +10159,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" s="63">
         <v>43389</v>
       </c>
       <c r="B18" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="61">
+        <v>45</v>
+      </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
       <c r="F18" s="61"/>
       <c r="G18" s="61"/>
       <c r="H18" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I18" s="61"/>
       <c r="J18" s="61">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
       <c r="M18" s="61"/>
       <c r="N18" s="61">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="O18" s="61"/>
       <c r="P18" s="61"/>
@@ -10200,7 +10197,7 @@
       </c>
       <c r="S18" s="61">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="T18" s="61">
         <v>20</v>
@@ -10224,14 +10221,14 @@
       </c>
       <c r="AB18" s="61">
         <f t="shared" si="3"/>
-        <v>420</v>
+        <v>515</v>
       </c>
       <c r="AC18" s="62">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+        <v>8.5833333333333339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19" s="63">
         <v>43390</v>
       </c>
@@ -10268,29 +10265,35 @@
         <v>0</v>
       </c>
       <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
+      <c r="U19" s="61">
+        <v>15</v>
+      </c>
+      <c r="V19" s="61">
+        <v>15</v>
+      </c>
       <c r="W19" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="61"/>
+        <v>30</v>
+      </c>
+      <c r="X19" s="61">
+        <v>210</v>
+      </c>
       <c r="Y19" s="61"/>
       <c r="Z19" s="61"/>
       <c r="AA19" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB19" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AC19" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20" s="63">
         <v>43391</v>
       </c>
@@ -10307,13 +10310,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
+      <c r="J20" s="61">
+        <v>260</v>
+      </c>
       <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
+      <c r="L20" s="61">
+        <v>30</v>
+      </c>
+      <c r="M20" s="61">
+        <v>10</v>
+      </c>
       <c r="N20" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O20" s="61"/>
       <c r="P20" s="61"/>
@@ -10324,32 +10333,38 @@
       </c>
       <c r="S20" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
+        <v>300</v>
+      </c>
+      <c r="T20" s="61">
+        <v>20</v>
+      </c>
+      <c r="U20" s="61">
+        <v>5</v>
+      </c>
       <c r="V20" s="61"/>
       <c r="W20" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="61"/>
+        <v>25</v>
+      </c>
+      <c r="X20" s="61">
+        <v>140</v>
+      </c>
       <c r="Y20" s="61"/>
       <c r="Z20" s="61"/>
       <c r="AA20" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB20" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="AC20" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21" s="63">
         <v>43392</v>
       </c>
@@ -10366,13 +10381,15 @@
         <v>0</v>
       </c>
       <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
+      <c r="J21" s="61">
+        <v>95</v>
+      </c>
       <c r="K21" s="61"/>
       <c r="L21" s="61"/>
       <c r="M21" s="61"/>
       <c r="N21" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="O21" s="61"/>
       <c r="P21" s="61"/>
@@ -10383,7 +10400,7 @@
       </c>
       <c r="S21" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="T21" s="61"/>
       <c r="U21" s="61"/>
@@ -10401,14 +10418,14 @@
       </c>
       <c r="AB21" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AC21" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22" s="63">
         <v>43393</v>
       </c>
@@ -10467,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23" s="63">
         <v>43394</v>
       </c>
@@ -10526,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A24" s="63">
         <v>43395</v>
       </c>
@@ -10585,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A25" s="63">
         <v>43396</v>
       </c>
@@ -10644,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26" s="63">
         <v>43397</v>
       </c>
@@ -10703,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A27" s="63">
         <v>43398</v>
       </c>
@@ -10762,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28" s="63">
         <v>43399</v>
       </c>
@@ -10821,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A29" s="63">
         <v>43400</v>
       </c>
@@ -10880,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A30" s="63">
         <v>43401</v>
       </c>
@@ -10939,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A31" s="63">
         <v>43402</v>
       </c>
@@ -10998,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A32" s="63">
         <v>43403</v>
       </c>
@@ -11057,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A33" s="63">
         <v>43404</v>
       </c>
@@ -11116,17 +11133,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>2675</v>
+        <v>3120</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -11134,7 +11151,7 @@
       </c>
       <c r="S34" s="4">
         <f t="shared" si="1"/>
-        <v>3108</v>
+        <v>3598</v>
       </c>
       <c r="W34" s="4">
         <f t="shared" si="5"/>
@@ -11142,18 +11159,18 @@
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>3681</v>
+        <v>4031</v>
       </c>
       <c r="AB34" s="4">
         <f t="shared" si="3"/>
-        <v>6789</v>
+        <v>7629</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>3.7682795698924734</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+        <v>4.2494623655913983</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -11162,14 +11179,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>7.2166666666666668</v>
+        <v>7.9666666666666668</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>44.583333333333336</v>
+        <v>52</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -11180,35 +11197,35 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>51.8</v>
+        <v>59.966666666666669</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>61.35</v>
+        <v>67.183333333333337</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>113.15</v>
+        <v>127.15</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>113.15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+        <v>127.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
       <c r="H36" s="4">
         <f>H35/16</f>
-        <v>0.45104166666666667</v>
+        <v>0.49791666666666667</v>
       </c>
       <c r="N36" s="4">
         <f>N35/16</f>
-        <v>2.7864583333333335</v>
+        <v>3.25</v>
       </c>
       <c r="R36" s="4">
         <f>R35/16</f>
@@ -11216,18 +11233,18 @@
       </c>
       <c r="S36" s="4">
         <f>S35/16</f>
-        <v>3.2374999999999998</v>
+        <v>3.7479166666666668</v>
       </c>
       <c r="AA36" s="4">
         <f>AA35/16</f>
-        <v>3.8343750000000001</v>
+        <v>4.1989583333333336</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>3.7682795698924734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+        <v>4.2494623655913983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -11250,17 +11267,17 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>0.22715277777777779</v>
+        <v>0.27402777777777776</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>0.16312499999999996</v>
+        <v>0.62666666666666648</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -11268,18 +11285,18 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>0.24749999999999961</v>
+        <v>0.75791666666666657</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>0.59437499999999988</v>
+        <v>0.95895833333333336</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-2.8183870967741917</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+        <v>-2.3372043010752668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -11287,7 +11304,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -11297,14 +11314,14 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>113.15</v>
+        <v>127.15</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.28076923076923077</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0.31550868486352357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
       <c r="D41" s="39"/>
     </row>
   </sheetData>
@@ -11336,18 +11353,18 @@
       <selection pane="bottomRight" activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.25" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.59765625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.19921875" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="4"/>
@@ -11355,15 +11372,15 @@
     <col min="22" max="22" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4"/>
     <col min="31" max="31" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="73" t="s">
         <v>84</v>
       </c>
@@ -11410,7 +11427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
@@ -11504,7 +11521,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43344</v>
       </c>
@@ -11554,7 +11571,7 @@
       </c>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43345</v>
       </c>
@@ -11598,7 +11615,7 @@
       </c>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43346</v>
       </c>
@@ -11650,7 +11667,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43347</v>
       </c>
@@ -11705,7 +11722,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43348</v>
       </c>
@@ -11775,7 +11792,7 @@
         <v>8.3666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43349</v>
       </c>
@@ -11839,7 +11856,7 @@
         <v>11.566666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43350</v>
       </c>
@@ -11891,7 +11908,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43351</v>
       </c>
@@ -11958,7 +11975,7 @@
         <v>7.8166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43352</v>
       </c>
@@ -12007,7 +12024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>43353</v>
       </c>
@@ -12050,7 +12067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>43354</v>
       </c>
@@ -12102,7 +12119,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="24">
         <v>43355</v>
       </c>
@@ -12161,7 +12178,7 @@
         <v>7.2166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="24">
         <v>43356</v>
       </c>
@@ -12217,7 +12234,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="24">
         <v>43357</v>
       </c>
@@ -12275,7 +12292,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>43358</v>
       </c>
@@ -12333,7 +12350,7 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43359</v>
       </c>
@@ -12379,7 +12396,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43360</v>
       </c>
@@ -12431,7 +12448,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20" s="32">
         <v>43361</v>
       </c>
@@ -12502,7 +12519,7 @@
         <v>8.3833333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
         <v>43362</v>
       </c>
@@ -12572,7 +12589,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43363</v>
       </c>
@@ -12637,7 +12654,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43364</v>
       </c>
@@ -12700,7 +12717,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43365</v>
       </c>
@@ -12760,7 +12777,7 @@
         <v>9.3166666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" s="40">
         <v>43366</v>
       </c>
@@ -12817,7 +12834,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26" s="40">
         <v>43367</v>
       </c>
@@ -12869,7 +12886,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27" s="40">
         <v>43368</v>
       </c>
@@ -12915,7 +12932,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28" s="40">
         <v>43369</v>
       </c>
@@ -12964,7 +12981,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43370</v>
       </c>
@@ -13023,7 +13040,7 @@
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43371</v>
       </c>
@@ -13079,7 +13096,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43372</v>
       </c>
@@ -13128,7 +13145,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43373</v>
       </c>
@@ -13171,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="H33" s="4">
         <f t="shared" si="7"/>
@@ -13206,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
@@ -13243,7 +13260,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -13292,7 +13309,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
@@ -13325,7 +13342,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -13351,7 +13368,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
@@ -13384,7 +13401,7 @@
         <v>0.25870967741935402</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -13392,7 +13409,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -13409,7 +13426,7 @@
         <v>0.5066666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <f>13*30</f>
         <v>390</v>
@@ -13449,18 +13466,18 @@
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
@@ -13471,15 +13488,15 @@
     <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="30" max="30" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="73" t="s">
         <v>84</v>
       </c>
@@ -13525,7 +13542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
@@ -13613,7 +13630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -13668,7 +13685,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -13730,7 +13747,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -13784,7 +13801,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -13835,7 +13852,7 @@
         <v>10.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -13881,7 +13898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -13927,7 +13944,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -13991,7 +14008,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -14034,7 +14051,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -14090,7 +14107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -14155,7 +14172,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -14205,7 +14222,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -14251,7 +14268,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -14311,7 +14328,7 @@
         <v>7.7833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -14376,7 +14393,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -14437,7 +14454,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -14492,7 +14509,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -14541,7 +14558,7 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -14593,7 +14610,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -14633,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -14679,7 +14696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -14734,7 +14751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -14777,7 +14794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -14826,7 +14843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -14872,7 +14889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -14921,7 +14938,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -14964,7 +14981,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -15010,7 +15027,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -15062,7 +15079,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -15114,7 +15131,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -15175,7 +15192,7 @@
         <v>10.833333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -15233,7 +15250,7 @@
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
         <v>320</v>
@@ -15267,7 +15284,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" s="58"/>
       <c r="G35" s="38" t="s">
         <v>1</v>
@@ -15306,7 +15323,7 @@
         <v>190.88333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" s="58"/>
       <c r="H36" s="4">
         <f>H35/31</f>
@@ -15329,10 +15346,10 @@
         <v>4.5822580645161297</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" s="58"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A38" s="58"/>
     </row>
   </sheetData>
@@ -15361,36 +15378,36 @@
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -15435,7 +15452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
@@ -15517,7 +15534,7 @@
       </c>
       <c r="AB2" s="75"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -15574,7 +15591,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -15633,7 +15650,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -15688,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -15744,7 +15761,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -15805,7 +15822,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43288</v>
       </c>
@@ -15863,7 +15880,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43289</v>
       </c>
@@ -15922,7 +15939,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
@@ -15994,7 +16011,7 @@
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -16060,7 +16077,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -16129,7 +16146,7 @@
         <v>6.9333333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
@@ -16194,7 +16211,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -16258,7 +16275,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43295</v>
       </c>
@@ -16320,7 +16337,7 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43296</v>
       </c>
@@ -16374,7 +16391,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -16433,7 +16450,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
@@ -16491,7 +16508,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="48">
         <v>43299</v>
       </c>
@@ -16561,7 +16578,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -16622,7 +16639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -16688,7 +16705,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43302</v>
       </c>
@@ -16748,7 +16765,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43303</v>
       </c>
@@ -16800,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -16861,7 +16878,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -16927,7 +16944,7 @@
         <v>5.9333333333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -16986,7 +17003,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -17047,7 +17064,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -17099,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43309</v>
       </c>
@@ -17163,7 +17180,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43310</v>
       </c>
@@ -17215,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -17267,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -17319,7 +17336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -17344,7 +17361,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -17371,7 +17388,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>142</v>
       </c>
@@ -17432,7 +17449,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -17493,7 +17510,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -17518,7 +17535,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -17543,7 +17560,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -17568,7 +17585,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -17593,7 +17610,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -17618,7 +17635,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -17643,7 +17660,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -17668,7 +17685,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -17693,7 +17710,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -17718,7 +17735,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -17768,9 +17785,9 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>122</v>
       </c>
@@ -17793,63 +17810,63 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="77" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="77"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="77"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="77"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
@@ -17858,34 +17875,34 @@
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
       <c r="G8" s="76"/>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="80"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
@@ -17895,118 +17912,118 @@
       <c r="F11" s="76"/>
       <c r="G11" s="76"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="82" t="s">
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="83"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="79"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80" t="s">
+      <c r="D14" s="77"/>
+      <c r="E14" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="83"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="77"/>
+      <c r="H14" s="79"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="83"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="79"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="79" t="s">
+      <c r="E16" s="77"/>
+      <c r="F16" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="83"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="79"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="83"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="79"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="83"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="79"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="80"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="79"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="83"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
         <v>0.875000000000001</v>
@@ -18021,7 +18038,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="13">
         <f>B21-B3</f>
         <v>0.75000000000000133</v>
@@ -18029,22 +18046,25 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="C13:G13"/>
@@ -18061,9 +18081,6 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18078,12 +18095,12 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H2" t="s">
         <v>114</v>
       </c>
@@ -18091,7 +18108,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H3" t="s">
         <v>115</v>
       </c>
@@ -18099,7 +18116,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H4" t="s">
         <v>117</v>
       </c>
@@ -18125,15 +18142,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -18156,7 +18173,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -18173,7 +18190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -18190,7 +18207,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -18207,7 +18224,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
@@ -18227,7 +18244,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -18244,7 +18261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
@@ -18264,7 +18281,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>7</v>
       </c>
@@ -18284,57 +18301,57 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>18</v>
       </c>
@@ -18353,28 +18370,28 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.75" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.69921875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.19921875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.3984375" style="4" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -18414,7 +18431,7 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
@@ -18460,7 +18477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -18493,7 +18510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -18545,7 +18562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -18581,7 +18598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -18596,7 +18613,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -18608,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -18620,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -18653,7 +18670,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -18680,7 +18697,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -18713,7 +18730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -18754,7 +18771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -18790,7 +18807,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -18829,7 +18846,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -18868,7 +18885,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -18907,7 +18924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -18940,7 +18957,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -18952,7 +18969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -18964,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -18979,7 +18996,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -18991,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -19003,7 +19020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -19015,7 +19032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -19039,7 +19056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -19069,7 +19086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -19081,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -19093,7 +19110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -19117,7 +19134,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -19129,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -19141,7 +19158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -19153,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -19168,7 +19185,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -19180,7 +19197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{229DC3AB-01B5-408D-BFD8-7E33E0C88EDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FFCC2B-7D6E-4EB6-86E8-67D2F5568A5B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="9" r:id="rId1"/>
@@ -22,10 +22,15 @@
     <sheet name="할일 목록" sheetId="5" r:id="rId7"/>
     <sheet name="식단" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8981,35 +8986,35 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="28" ySplit="2" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.59765625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.19921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="4" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="4"/>
     <col min="20" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="4"/>
     <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>84</v>
       </c>
@@ -9054,7 +9059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
@@ -9142,7 +9147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="63">
         <v>43374</v>
       </c>
@@ -9216,7 +9221,7 @@
       </c>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="63">
         <v>43375</v>
       </c>
@@ -9292,7 +9297,7 @@
       </c>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="66">
         <v>43376</v>
       </c>
@@ -9353,7 +9358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="63">
         <v>43377</v>
       </c>
@@ -9424,7 +9429,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="63">
         <v>43378</v>
       </c>
@@ -9491,7 +9496,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="63">
         <v>43379</v>
       </c>
@@ -9560,7 +9565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="63">
         <v>43380</v>
       </c>
@@ -9621,7 +9626,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="63">
         <v>43381</v>
       </c>
@@ -9690,7 +9695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="69">
         <v>43382</v>
       </c>
@@ -9757,7 +9762,7 @@
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="63">
         <v>43383</v>
       </c>
@@ -9826,7 +9831,7 @@
         <v>9.8333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="63">
         <v>43384</v>
       </c>
@@ -9897,7 +9902,7 @@
         <v>9.6333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="63">
         <v>43385</v>
       </c>
@@ -9968,7 +9973,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="63">
         <v>43386</v>
       </c>
@@ -10033,7 +10038,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="63">
         <v>43387</v>
       </c>
@@ -10094,7 +10099,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="63">
         <v>43388</v>
       </c>
@@ -10159,7 +10164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="63">
         <v>43389</v>
       </c>
@@ -10228,7 +10233,7 @@
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="63">
         <v>43390</v>
       </c>
@@ -10293,7 +10298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="63">
         <v>43391</v>
       </c>
@@ -10364,7 +10369,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="63">
         <v>43392</v>
       </c>
@@ -10373,23 +10378,25 @@
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="E21" s="61">
+        <v>40</v>
+      </c>
       <c r="F21" s="61"/>
       <c r="G21" s="61"/>
       <c r="H21" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="61">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="K21" s="61"/>
       <c r="L21" s="61"/>
       <c r="M21" s="61"/>
       <c r="N21" s="61">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="O21" s="61"/>
       <c r="P21" s="61"/>
@@ -10400,7 +10407,7 @@
       </c>
       <c r="S21" s="61">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="T21" s="61"/>
       <c r="U21" s="61"/>
@@ -10409,23 +10416,27 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
+      <c r="X21" s="61">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="61">
+        <v>200</v>
+      </c>
       <c r="Z21" s="61"/>
       <c r="AA21" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB21" s="61">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>585</v>
       </c>
       <c r="AC21" s="62">
         <f t="shared" si="6"/>
-        <v>1.5833333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="63">
         <v>43393</v>
       </c>
@@ -10442,13 +10453,19 @@
         <v>0</v>
       </c>
       <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
+      <c r="J22" s="61">
+        <v>160</v>
+      </c>
       <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
+      <c r="L22" s="61">
+        <v>30</v>
+      </c>
+      <c r="M22" s="61">
+        <v>80</v>
+      </c>
       <c r="N22" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="O22" s="61"/>
       <c r="P22" s="61"/>
@@ -10459,7 +10476,7 @@
       </c>
       <c r="S22" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="T22" s="61"/>
       <c r="U22" s="61"/>
@@ -10477,14 +10494,14 @@
       </c>
       <c r="AB22" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AC22" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="63">
         <v>43394</v>
       </c>
@@ -10543,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="63">
         <v>43395</v>
       </c>
@@ -10562,11 +10579,13 @@
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="L24" s="61">
+        <v>30</v>
+      </c>
       <c r="M24" s="61"/>
       <c r="N24" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O24" s="61"/>
       <c r="P24" s="61"/>
@@ -10577,7 +10596,7 @@
       </c>
       <c r="S24" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T24" s="61"/>
       <c r="U24" s="61"/>
@@ -10587,22 +10606,27 @@
         <v>0</v>
       </c>
       <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
+      <c r="Y24" s="61">
+        <v>220</v>
+      </c>
       <c r="Z24" s="61"/>
       <c r="AA24" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AB24" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AC24" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AD24" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="63">
         <v>43396</v>
       </c>
@@ -10621,11 +10645,13 @@
       <c r="I25" s="61"/>
       <c r="J25" s="61"/>
       <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
+      <c r="L25" s="61">
+        <v>80</v>
+      </c>
       <c r="M25" s="61"/>
       <c r="N25" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O25" s="61"/>
       <c r="P25" s="61"/>
@@ -10636,32 +10662,41 @@
       </c>
       <c r="S25" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
+        <v>80</v>
+      </c>
+      <c r="T25" s="61">
+        <v>10</v>
+      </c>
+      <c r="U25" s="61">
+        <v>5</v>
+      </c>
       <c r="V25" s="61"/>
       <c r="W25" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="61"/>
+        <v>15</v>
+      </c>
+      <c r="X25" s="61">
+        <v>160</v>
+      </c>
       <c r="Y25" s="61"/>
       <c r="Z25" s="61"/>
       <c r="AA25" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB25" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="AC25" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+        <v>4.25</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="63">
         <v>43397</v>
       </c>
@@ -10720,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="63">
         <v>43398</v>
       </c>
@@ -10779,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="63">
         <v>43399</v>
       </c>
@@ -10838,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="63">
         <v>43400</v>
       </c>
@@ -10897,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="63">
         <v>43401</v>
       </c>
@@ -10956,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="63">
         <v>43402</v>
       </c>
@@ -11015,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="63">
         <v>43403</v>
       </c>
@@ -11074,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="63">
         <v>43404</v>
       </c>
@@ -11133,17 +11168,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>3120</v>
+        <v>3650</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -11151,7 +11186,7 @@
       </c>
       <c r="S34" s="4">
         <f t="shared" si="1"/>
-        <v>3598</v>
+        <v>4168</v>
       </c>
       <c r="W34" s="4">
         <f t="shared" si="5"/>
@@ -11159,18 +11194,18 @@
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>4031</v>
+        <v>4711</v>
       </c>
       <c r="AB34" s="4">
         <f t="shared" si="3"/>
-        <v>7629</v>
+        <v>8879</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>4.2494623655913983</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
+        <v>4.9295698924731184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -11179,14 +11214,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>7.9666666666666668</v>
+        <v>8.6333333333333329</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>52</v>
+        <v>60.833333333333336</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -11197,35 +11232,35 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>59.966666666666669</v>
+        <v>69.466666666666669</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>67.183333333333337</v>
+        <v>78.516666666666666</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>127.15</v>
+        <v>147.98333333333332</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>127.15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
+        <v>147.98333333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
       <c r="H36" s="4">
-        <f>H35/16</f>
-        <v>0.49791666666666667</v>
+        <f>H35/23</f>
+        <v>0.37536231884057969</v>
       </c>
       <c r="N36" s="4">
-        <f>N35/16</f>
-        <v>3.25</v>
+        <f>N35/23</f>
+        <v>2.6449275362318843</v>
       </c>
       <c r="R36" s="4">
         <f>R35/16</f>
@@ -11233,18 +11268,18 @@
       </c>
       <c r="S36" s="4">
         <f>S35/16</f>
-        <v>3.7479166666666668</v>
+        <v>4.3416666666666668</v>
       </c>
       <c r="AA36" s="4">
-        <f>AA35/16</f>
-        <v>4.1989583333333336</v>
+        <f>AA35/23</f>
+        <v>3.413768115942029</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>4.2494623655913983</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
+        <v>4.9295698924731184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -11267,17 +11302,17 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>0.27402777777777776</v>
+        <v>0.1514734299516908</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>0.62666666666666648</v>
+        <v>2.1594202898550741E-2</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -11285,18 +11320,18 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>0.75791666666666657</v>
+        <v>1.3516666666666666</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>0.95895833333333336</v>
+        <v>0.17376811594202879</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-2.3372043010752668</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
+        <v>-1.6570967741935467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -11304,7 +11339,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -11314,14 +11349,14 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>127.15</v>
+        <v>147.98333333333332</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.31550868486352357</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
+        <v>0.3672043010752688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D41" s="39"/>
     </row>
   </sheetData>
@@ -11353,18 +11388,18 @@
       <selection pane="bottomRight" activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.19921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="4"/>
@@ -11372,15 +11407,15 @@
     <col min="22" max="22" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4"/>
     <col min="31" max="31" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>84</v>
       </c>
@@ -11427,7 +11462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
@@ -11521,7 +11556,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43344</v>
       </c>
@@ -11571,7 +11606,7 @@
       </c>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43345</v>
       </c>
@@ -11615,7 +11650,7 @@
       </c>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43346</v>
       </c>
@@ -11667,7 +11702,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43347</v>
       </c>
@@ -11722,7 +11757,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43348</v>
       </c>
@@ -11792,7 +11827,7 @@
         <v>8.3666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43349</v>
       </c>
@@ -11856,7 +11891,7 @@
         <v>11.566666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43350</v>
       </c>
@@ -11908,7 +11943,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43351</v>
       </c>
@@ -11975,7 +12010,7 @@
         <v>7.8166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43352</v>
       </c>
@@ -12024,7 +12059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43353</v>
       </c>
@@ -12067,7 +12102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43354</v>
       </c>
@@ -12119,7 +12154,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43355</v>
       </c>
@@ -12178,7 +12213,7 @@
         <v>7.2166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43356</v>
       </c>
@@ -12234,7 +12269,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43357</v>
       </c>
@@ -12292,7 +12327,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43358</v>
       </c>
@@ -12350,7 +12385,7 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43359</v>
       </c>
@@ -12396,7 +12431,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43360</v>
       </c>
@@ -12448,7 +12483,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>43361</v>
       </c>
@@ -12519,7 +12554,7 @@
         <v>8.3833333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>43362</v>
       </c>
@@ -12589,7 +12624,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43363</v>
       </c>
@@ -12654,7 +12689,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43364</v>
       </c>
@@ -12717,7 +12752,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43365</v>
       </c>
@@ -12777,7 +12812,7 @@
         <v>9.3166666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43366</v>
       </c>
@@ -12834,7 +12869,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43367</v>
       </c>
@@ -12886,7 +12921,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43368</v>
       </c>
@@ -12932,7 +12967,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43369</v>
       </c>
@@ -12981,7 +13016,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43370</v>
       </c>
@@ -13040,7 +13075,7 @@
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43371</v>
       </c>
@@ -13096,7 +13131,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43372</v>
       </c>
@@ -13145,7 +13180,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43373</v>
       </c>
@@ -13188,7 +13223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="H33" s="4">
         <f t="shared" si="7"/>
@@ -13223,7 +13258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
@@ -13260,7 +13295,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -13309,7 +13344,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
@@ -13342,7 +13377,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -13368,7 +13403,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
@@ -13401,7 +13436,7 @@
         <v>0.25870967741935402</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -13409,7 +13444,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -13426,7 +13461,7 @@
         <v>0.5066666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f>13*30</f>
         <v>390</v>
@@ -13466,18 +13501,18 @@
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
@@ -13488,15 +13523,15 @@
     <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="30" max="30" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>84</v>
       </c>
@@ -13542,7 +13577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
@@ -13630,7 +13665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -13685,7 +13720,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -13747,7 +13782,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -13801,7 +13836,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -13852,7 +13887,7 @@
         <v>10.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -13898,7 +13933,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -13944,7 +13979,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -14008,7 +14043,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -14051,7 +14086,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -14107,7 +14142,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -14172,7 +14207,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -14222,7 +14257,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -14268,7 +14303,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -14328,7 +14363,7 @@
         <v>7.7833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -14393,7 +14428,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -14454,7 +14489,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -14509,7 +14544,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -14558,7 +14593,7 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -14610,7 +14645,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -14650,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -14696,7 +14731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -14751,7 +14786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -14794,7 +14829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -14843,7 +14878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -14889,7 +14924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -14938,7 +14973,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -14981,7 +15016,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -15027,7 +15062,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -15079,7 +15114,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -15131,7 +15166,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -15192,7 +15227,7 @@
         <v>10.833333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -15250,7 +15285,7 @@
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
         <v>320</v>
@@ -15284,7 +15319,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="G35" s="38" t="s">
         <v>1</v>
@@ -15323,7 +15358,7 @@
         <v>190.88333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="H36" s="4">
         <f>H35/31</f>
@@ -15346,10 +15381,10 @@
         <v>4.5822580645161297</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
     </row>
   </sheetData>
@@ -15378,36 +15413,36 @@
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.59765625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.75" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -15452,7 +15487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
@@ -15534,7 +15569,7 @@
       </c>
       <c r="AB2" s="75"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -15591,7 +15626,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -15650,7 +15685,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -15705,7 +15740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -15761,7 +15796,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -15822,7 +15857,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43288</v>
       </c>
@@ -15880,7 +15915,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43289</v>
       </c>
@@ -15939,7 +15974,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
@@ -16011,7 +16046,7 @@
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -16077,7 +16112,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -16146,7 +16181,7 @@
         <v>6.9333333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
@@ -16211,7 +16246,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -16275,7 +16310,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43295</v>
       </c>
@@ -16337,7 +16372,7 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43296</v>
       </c>
@@ -16391,7 +16426,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -16450,7 +16485,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
@@ -16508,7 +16543,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48">
         <v>43299</v>
       </c>
@@ -16578,7 +16613,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -16639,7 +16674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -16705,7 +16740,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43302</v>
       </c>
@@ -16765,7 +16800,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43303</v>
       </c>
@@ -16817,7 +16852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -16878,7 +16913,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -16944,7 +16979,7 @@
         <v>5.9333333333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -17003,7 +17038,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -17064,7 +17099,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -17116,7 +17151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43309</v>
       </c>
@@ -17180,7 +17215,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43310</v>
       </c>
@@ -17232,7 +17267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -17284,7 +17319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -17336,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -17361,7 +17396,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -17388,7 +17423,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>142</v>
       </c>
@@ -17449,7 +17484,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -17510,7 +17545,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -17535,7 +17570,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -17560,7 +17595,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -17585,7 +17620,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -17610,7 +17645,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -17635,7 +17670,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -17660,7 +17695,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -17685,7 +17720,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -17710,7 +17745,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -17735,7 +17770,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -17785,9 +17820,9 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>122</v>
       </c>
@@ -17810,7 +17845,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
@@ -17822,7 +17857,7 @@
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
@@ -17836,7 +17871,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
@@ -17846,7 +17881,7 @@
       <c r="G5" s="83"/>
       <c r="H5" s="77"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
@@ -17856,7 +17891,7 @@
       <c r="G6" s="83"/>
       <c r="H6" s="77"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
@@ -17866,7 +17901,7 @@
       <c r="G7" s="83"/>
       <c r="H7" s="77"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
@@ -17879,7 +17914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
@@ -17892,7 +17927,7 @@
       <c r="G9" s="77"/>
       <c r="H9" s="80"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
@@ -17902,7 +17937,7 @@
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
@@ -17912,7 +17947,7 @@
       <c r="F11" s="76"/>
       <c r="G11" s="76"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
@@ -17927,7 +17962,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
@@ -17940,7 +17975,7 @@
       <c r="G13" s="80"/>
       <c r="H13" s="79"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
@@ -17957,7 +17992,7 @@
       <c r="G14" s="77"/>
       <c r="H14" s="79"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
@@ -17968,7 +18003,7 @@
       <c r="G15" s="77"/>
       <c r="H15" s="79"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
@@ -17987,7 +18022,7 @@
       </c>
       <c r="H16" s="79"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
@@ -17998,7 +18033,7 @@
       <c r="G17" s="83"/>
       <c r="H17" s="79"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
@@ -18009,7 +18044,7 @@
       <c r="G18" s="83"/>
       <c r="H18" s="79"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
@@ -18023,7 +18058,7 @@
       </c>
       <c r="G19" s="83"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
         <v>0.875000000000001</v>
@@ -18038,7 +18073,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <f>B21-B3</f>
         <v>0.75000000000000133</v>
@@ -18054,20 +18089,14 @@
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -18081,6 +18110,12 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18095,12 +18130,12 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="43.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>114</v>
       </c>
@@ -18108,7 +18143,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
         <v>115</v>
       </c>
@@ -18116,7 +18151,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
         <v>117</v>
       </c>
@@ -18142,15 +18177,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.09765625" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -18173,7 +18208,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -18190,7 +18225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -18207,7 +18242,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -18224,7 +18259,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -18244,7 +18279,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -18261,7 +18296,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -18281,7 +18316,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -18301,57 +18336,57 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>18</v>
       </c>
@@ -18370,28 +18405,28 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.69921875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.19921875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.3984375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.375" style="4" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -18431,7 +18466,7 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
@@ -18477,7 +18512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -18510,7 +18545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -18562,7 +18597,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -18598,7 +18633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -18613,7 +18648,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -18625,7 +18660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -18637,7 +18672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -18670,7 +18705,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -18697,7 +18732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -18730,7 +18765,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -18771,7 +18806,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -18807,7 +18842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -18846,7 +18881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -18885,7 +18920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -18924,7 +18959,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -18957,7 +18992,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -18969,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -18981,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -18996,7 +19031,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -19008,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -19020,7 +19055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -19032,7 +19067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -19056,7 +19091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -19086,7 +19121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -19098,7 +19133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -19110,7 +19145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -19134,7 +19169,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -19146,7 +19181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -19158,7 +19193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -19170,7 +19205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -19185,7 +19220,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -19197,7 +19232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,36 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FFCC2B-7D6E-4EB6-86E8-67D2F5568A5B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EDF51A17-91C2-4B0F-B7D0-D8C47E0F2482}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" activeTab="2" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="9" r:id="rId1"/>
-    <sheet name="9월" sheetId="4" r:id="rId2"/>
-    <sheet name="8월" sheetId="1" r:id="rId3"/>
-    <sheet name="7월" sheetId="8" r:id="rId4"/>
-    <sheet name="9월 Daily Schedule" sheetId="7" r:id="rId5"/>
-    <sheet name="coding" sheetId="6" r:id="rId6"/>
-    <sheet name="할일 목록" sheetId="5" r:id="rId7"/>
-    <sheet name="식단" sheetId="2" r:id="rId8"/>
+    <sheet name="운동" sheetId="10" r:id="rId2"/>
+    <sheet name="노래" sheetId="11" r:id="rId3"/>
+    <sheet name="9월" sheetId="4" r:id="rId4"/>
+    <sheet name="8월" sheetId="1" r:id="rId5"/>
+    <sheet name="7월" sheetId="8" r:id="rId6"/>
+    <sheet name="9월 Daily Schedule" sheetId="7" r:id="rId7"/>
+    <sheet name="coding" sheetId="6" r:id="rId8"/>
+    <sheet name="할일 목록" sheetId="5" r:id="rId9"/>
+    <sheet name="식단" sheetId="2" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -7426,7 +7423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="188">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -8093,6 +8090,149 @@
     <t>기타</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>30(집청소)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(병원)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(운동영상)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이프니츠 유튜버</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 짜놓은 커리큘럼
+- 여러 논문의 연구결과를 바탕으로 짬
+- 실제 학생이라 나랑 유사
+- 운동한 본인이 몸이 좋음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당기기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3분할</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인클라인프레스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치프레스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리터리프레스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼두근</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바벨로우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이블로우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이두근</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스쿼트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데드리프트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레그컬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레그익스텐션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 기록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,8~10회/5set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,8~12회/4set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,10회/5set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,10~12회/5set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16kg,10회/4set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~6회/4set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">루틴은 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8105,7 +8245,7 @@
     <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8260,8 +8400,41 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8343,6 +8516,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -8390,7 +8573,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8406,8 +8589,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8621,6 +8813,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8639,18 +8834,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8660,11 +8843,41 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="강조색2" xfId="1" builtinId="33"/>
     <cellStyle name="강조색4" xfId="2" builtinId="41"/>
     <cellStyle name="강조색5" xfId="4" builtinId="45"/>
+    <cellStyle name="경고문" xfId="7" builtinId="11"/>
+    <cellStyle name="보통" xfId="6" builtinId="28"/>
+    <cellStyle name="좋음" xfId="5" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
@@ -8983,87 +9196,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F43CBC-5398-4E85-BE74-DE8164C70A1F}">
-  <dimension ref="A1:AE41"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.59765625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" style="4" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="4"/>
     <col min="20" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="4"/>
     <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A1" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73" t="s">
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AB1" s="71" t="s">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AB1" s="72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
@@ -9139,7 +9352,7 @@
       <c r="AA2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="72"/>
+      <c r="AB2" s="73"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -9147,7 +9360,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" s="63">
         <v>43374</v>
       </c>
@@ -9221,7 +9434,7 @@
       </c>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="63">
         <v>43375</v>
       </c>
@@ -9297,7 +9510,7 @@
       </c>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="66">
         <v>43376</v>
       </c>
@@ -9358,7 +9571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" s="63">
         <v>43377</v>
       </c>
@@ -9429,7 +9642,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7" s="63">
         <v>43378</v>
       </c>
@@ -9496,7 +9709,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A8" s="63">
         <v>43379</v>
       </c>
@@ -9565,7 +9778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A9" s="63">
         <v>43380</v>
       </c>
@@ -9626,7 +9839,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A10" s="63">
         <v>43381</v>
       </c>
@@ -9695,7 +9908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A11" s="69">
         <v>43382</v>
       </c>
@@ -9762,7 +9975,7 @@
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12" s="63">
         <v>43383</v>
       </c>
@@ -9831,7 +10044,7 @@
         <v>9.8333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A13" s="63">
         <v>43384</v>
       </c>
@@ -9902,7 +10115,7 @@
         <v>9.6333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14" s="63">
         <v>43385</v>
       </c>
@@ -9973,7 +10186,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A15" s="63">
         <v>43386</v>
       </c>
@@ -10038,7 +10251,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A16" s="63">
         <v>43387</v>
       </c>
@@ -10099,7 +10312,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="63">
         <v>43388</v>
       </c>
@@ -10164,7 +10377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="63">
         <v>43389</v>
       </c>
@@ -10233,7 +10446,7 @@
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A19" s="63">
         <v>43390</v>
       </c>
@@ -10298,7 +10511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A20" s="63">
         <v>43391</v>
       </c>
@@ -10369,7 +10582,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A21" s="63">
         <v>43392</v>
       </c>
@@ -10436,7 +10649,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A22" s="63">
         <v>43393</v>
       </c>
@@ -10501,7 +10714,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A23" s="63">
         <v>43394</v>
       </c>
@@ -10560,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A24" s="63">
         <v>43395</v>
       </c>
@@ -10626,7 +10839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A25" s="63">
         <v>43396</v>
       </c>
@@ -10665,7 +10878,7 @@
         <v>80</v>
       </c>
       <c r="T25" s="61">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="U25" s="61">
         <v>5</v>
@@ -10673,53 +10886,64 @@
       <c r="V25" s="61"/>
       <c r="W25" s="61">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="X25" s="61">
         <v>160</v>
       </c>
       <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
+      <c r="Z25" s="61">
+        <v>60</v>
+      </c>
       <c r="AA25" s="61">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AB25" s="61">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="AC25" s="62">
         <f t="shared" si="6"/>
-        <v>4.25</v>
+        <v>5.75</v>
       </c>
       <c r="AD25" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A26" s="63">
         <v>43397</v>
       </c>
       <c r="B26" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="61">
+        <v>30</v>
+      </c>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
       <c r="H26" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
+      <c r="K26" s="61">
+        <v>60</v>
+      </c>
+      <c r="L26" s="61">
+        <v>100</v>
+      </c>
       <c r="M26" s="61"/>
       <c r="N26" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="O26" s="61"/>
       <c r="P26" s="61"/>
@@ -10730,7 +10954,7 @@
       </c>
       <c r="S26" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="T26" s="61"/>
       <c r="U26" s="61"/>
@@ -10739,23 +10963,25 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X26" s="61"/>
+      <c r="X26" s="61">
+        <v>180</v>
+      </c>
       <c r="Y26" s="61"/>
       <c r="Z26" s="61"/>
       <c r="AA26" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB26" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AC26" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A27" s="63">
         <v>43398</v>
       </c>
@@ -10765,20 +10991,28 @@
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="F27" s="61">
+        <v>40</v>
+      </c>
+      <c r="G27" s="61">
+        <v>5</v>
+      </c>
       <c r="H27" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I27" s="61"/>
       <c r="J27" s="61"/>
       <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
+      <c r="L27" s="61">
+        <v>80</v>
+      </c>
+      <c r="M27" s="61">
+        <v>20</v>
+      </c>
       <c r="N27" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="61"/>
       <c r="P27" s="61"/>
@@ -10789,32 +11023,51 @@
       </c>
       <c r="S27" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
+        <v>145</v>
+      </c>
+      <c r="T27" s="61">
+        <v>120</v>
+      </c>
+      <c r="U27" s="61">
+        <v>10</v>
+      </c>
+      <c r="V27" s="61">
+        <v>30</v>
+      </c>
       <c r="W27" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="61"/>
+        <v>160</v>
+      </c>
+      <c r="X27" s="61">
+        <v>120</v>
+      </c>
       <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
+      <c r="Z27" s="61">
+        <v>30</v>
+      </c>
       <c r="AA27" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB27" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="AC27" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>30</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A28" s="63">
         <v>43399</v>
       </c>
@@ -10873,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A29" s="63">
         <v>43400</v>
       </c>
@@ -10932,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A30" s="63">
         <v>43401</v>
       </c>
@@ -10991,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A31" s="63">
         <v>43402</v>
       </c>
@@ -11050,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A32" s="63">
         <v>43403</v>
       </c>
@@ -11109,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A33" s="63">
         <v>43404</v>
       </c>
@@ -11168,17 +11421,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>518</v>
+        <v>593</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>3650</v>
+        <v>3910</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -11186,7 +11439,7 @@
       </c>
       <c r="S34" s="4">
         <f t="shared" si="1"/>
-        <v>4168</v>
+        <v>4503</v>
       </c>
       <c r="W34" s="4">
         <f t="shared" si="5"/>
@@ -11194,18 +11447,18 @@
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>4711</v>
+        <v>5101</v>
       </c>
       <c r="AB34" s="4">
         <f t="shared" si="3"/>
-        <v>8879</v>
+        <v>9604</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>4.9295698924731184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+        <v>5.4215053763440855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -11214,14 +11467,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>8.6333333333333329</v>
+        <v>9.8833333333333329</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>60.833333333333336</v>
+        <v>65.166666666666671</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -11232,35 +11485,35 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>69.466666666666669</v>
+        <v>75.05</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>78.516666666666666</v>
+        <v>85.016666666666666</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>147.98333333333332</v>
+        <v>160.06666666666666</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>147.98333333333332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+        <v>160.06666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
       <c r="H36" s="4">
         <f>H35/23</f>
-        <v>0.37536231884057969</v>
+        <v>0.42971014492753623</v>
       </c>
       <c r="N36" s="4">
         <f>N35/23</f>
-        <v>2.6449275362318843</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="R36" s="4">
         <f>R35/16</f>
@@ -11268,18 +11521,18 @@
       </c>
       <c r="S36" s="4">
         <f>S35/16</f>
-        <v>4.3416666666666668</v>
+        <v>4.6906249999999998</v>
       </c>
       <c r="AA36" s="4">
         <f>AA35/23</f>
-        <v>3.413768115942029</v>
+        <v>3.6963768115942028</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>4.9295698924731184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+        <v>5.4215053763440855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -11302,17 +11555,17 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>0.1514734299516908</v>
+        <v>0.20582125603864734</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>2.1594202898550741E-2</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -11320,18 +11573,18 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>1.3516666666666666</v>
+        <v>1.7006249999999996</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>0.17376811594202879</v>
+        <v>0.45637681159420262</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-1.6570967741935467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+        <v>-1.1651612903225796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -11339,7 +11592,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -11349,14 +11602,14 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>147.98333333333332</v>
+        <v>160.06666666666666</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.3672043010752688</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0.39718775847808108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
       <c r="D41" s="39"/>
     </row>
   </sheetData>
@@ -11377,7 +11630,1171 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FA3BB6-099A-4AC3-88F4-8C9D0446935C}">
+  <dimension ref="A1:W34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.69921875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.19921875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.3984375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>43313</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="4">
+        <v>300</v>
+      </c>
+      <c r="D3" s="4">
+        <v>500</v>
+      </c>
+      <c r="E3" s="4">
+        <v>500</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM(C3:G3)</f>
+        <v>1300</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>43314</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="4">
+        <v>550</v>
+      </c>
+      <c r="D4" s="4">
+        <v>400</v>
+      </c>
+      <c r="E4" s="4">
+        <v>800</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H34" si="0">SUM(C4:G4)</f>
+        <v>1750</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <f>L5-J4+24</f>
+        <v>23.8125</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>43315</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4">
+        <v>550</v>
+      </c>
+      <c r="D5" s="4">
+        <v>300</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K5" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>43316</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4">
+        <v>205</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>43317</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>43318</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>43319</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>600</v>
+      </c>
+      <c r="D9" s="4">
+        <v>440</v>
+      </c>
+      <c r="E9" s="4">
+        <v>200</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>43320</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4">
+        <v>500</v>
+      </c>
+      <c r="D10" s="4">
+        <v>600</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="K10" s="4">
+        <v>6</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>43321</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4">
+        <v>600</v>
+      </c>
+      <c r="D11" s="4">
+        <v>440</v>
+      </c>
+      <c r="E11" s="4">
+        <v>600</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+      <c r="I11" s="4">
+        <v>320</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>11</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>43322</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4">
+        <f>350+120+260</f>
+        <v>730</v>
+      </c>
+      <c r="D12" s="4">
+        <f>120+300+80</f>
+        <v>500</v>
+      </c>
+      <c r="E12" s="4">
+        <v>420</v>
+      </c>
+      <c r="F12" s="4">
+        <v>500</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>2150</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>43323</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4">
+        <v>515</v>
+      </c>
+      <c r="D13" s="4">
+        <v>300</v>
+      </c>
+      <c r="E13" s="4">
+        <v>500</v>
+      </c>
+      <c r="F13" s="4">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>1415</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="K13" s="4">
+        <v>6</v>
+      </c>
+      <c r="L13" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>43324</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4">
+        <v>600</v>
+      </c>
+      <c r="D14" s="4">
+        <v>500</v>
+      </c>
+      <c r="E14" s="4">
+        <v>200</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>43325</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4">
+        <v>550</v>
+      </c>
+      <c r="D15" s="4">
+        <v>500</v>
+      </c>
+      <c r="E15" s="4">
+        <v>260</v>
+      </c>
+      <c r="F15" s="4">
+        <v>400</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>1710</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>43326</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4">
+        <v>130</v>
+      </c>
+      <c r="D16" s="4">
+        <v>500</v>
+      </c>
+      <c r="E16" s="4">
+        <v>380</v>
+      </c>
+      <c r="F16" s="4">
+        <v>600</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="M16" s="4">
+        <v>20</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>43327</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4">
+        <v>250</v>
+      </c>
+      <c r="D17" s="4">
+        <v>400</v>
+      </c>
+      <c r="E17" s="4">
+        <v>650</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.1875</v>
+      </c>
+      <c r="K17" s="4">
+        <v>4</v>
+      </c>
+      <c r="L17" s="19">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <v>43328</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>43329</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>43330</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>43331</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>43332</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <v>43333</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <v>43334</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="K24" s="4">
+        <v>4</v>
+      </c>
+      <c r="L24" s="19">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M24" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
+        <v>43335</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="4">
+        <v>300</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.1875</v>
+      </c>
+      <c r="K25" s="4">
+        <v>4</v>
+      </c>
+      <c r="L25" s="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
+        <v>43336</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <v>43337</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
+        <v>43338</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4">
+        <v>600</v>
+      </c>
+      <c r="D28" s="4">
+        <v>700</v>
+      </c>
+      <c r="E28" s="4">
+        <v>330</v>
+      </c>
+      <c r="F28" s="4">
+        <v>330</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
+        <v>43339</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A30" s="5">
+        <v>43340</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
+        <v>43341</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A32" s="5">
+        <v>43342</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="5">
+        <v>43343</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0132E9-0673-4490-BC8A-D02254140BA6}">
+  <dimension ref="A2:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A3" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{8C43F690-7EA1-4512-8516-5BEB2B2DFFA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D242-F6FD-4240-8881-ADCF447DCF9B}">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="13">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="13"/>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D9" s="86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D11" s="88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FAD2E4-F57C-4B56-8052-2B023BA397C4}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
@@ -11388,18 +12805,18 @@
       <selection pane="bottomRight" activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.25" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.59765625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.19921875" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="4"/>
@@ -11407,66 +12824,66 @@
     <col min="22" max="22" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4"/>
     <col min="31" max="31" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="73" t="s">
+      <c r="U1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73" t="s">
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AD1" s="71" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AD1" s="72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -11548,7 +12965,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="72"/>
+      <c r="AD2" s="73"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -11556,7 +12973,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43344</v>
       </c>
@@ -11606,7 +13023,7 @@
       </c>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43345</v>
       </c>
@@ -11650,7 +13067,7 @@
       </c>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43346</v>
       </c>
@@ -11702,7 +13119,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43347</v>
       </c>
@@ -11757,7 +13174,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43348</v>
       </c>
@@ -11827,7 +13244,7 @@
         <v>8.3666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43349</v>
       </c>
@@ -11891,7 +13308,7 @@
         <v>11.566666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43350</v>
       </c>
@@ -11943,7 +13360,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43351</v>
       </c>
@@ -12010,7 +13427,7 @@
         <v>7.8166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43352</v>
       </c>
@@ -12059,7 +13476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>43353</v>
       </c>
@@ -12102,7 +13519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>43354</v>
       </c>
@@ -12154,7 +13571,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="24">
         <v>43355</v>
       </c>
@@ -12213,7 +13630,7 @@
         <v>7.2166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="24">
         <v>43356</v>
       </c>
@@ -12269,7 +13686,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="24">
         <v>43357</v>
       </c>
@@ -12327,7 +13744,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>43358</v>
       </c>
@@ -12385,7 +13802,7 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43359</v>
       </c>
@@ -12431,7 +13848,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43360</v>
       </c>
@@ -12483,7 +13900,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20" s="32">
         <v>43361</v>
       </c>
@@ -12554,7 +13971,7 @@
         <v>8.3833333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
         <v>43362</v>
       </c>
@@ -12624,7 +14041,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43363</v>
       </c>
@@ -12689,7 +14106,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43364</v>
       </c>
@@ -12752,7 +14169,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43365</v>
       </c>
@@ -12812,7 +14229,7 @@
         <v>9.3166666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" s="40">
         <v>43366</v>
       </c>
@@ -12869,7 +14286,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26" s="40">
         <v>43367</v>
       </c>
@@ -12921,7 +14338,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27" s="40">
         <v>43368</v>
       </c>
@@ -12967,7 +14384,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28" s="40">
         <v>43369</v>
       </c>
@@ -13016,7 +14433,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43370</v>
       </c>
@@ -13075,7 +14492,7 @@
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43371</v>
       </c>
@@ -13131,7 +14548,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43372</v>
       </c>
@@ -13180,7 +14597,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43373</v>
       </c>
@@ -13223,7 +14640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="H33" s="4">
         <f t="shared" si="7"/>
@@ -13258,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
@@ -13295,7 +14712,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -13344,7 +14761,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
@@ -13377,7 +14794,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -13403,7 +14820,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
@@ -13436,7 +14853,7 @@
         <v>0.25870967741935402</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -13444,7 +14861,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -13461,7 +14878,7 @@
         <v>0.5066666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <f>13*30</f>
         <v>390</v>
@@ -13493,7 +14910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF94F40-59B1-4822-A84E-AA06485819CC}">
   <dimension ref="A1:AF38"/>
   <sheetViews>
@@ -13501,18 +14918,18 @@
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
@@ -13523,65 +14940,65 @@
     <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="30" max="30" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A1" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73" t="s">
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AC1" s="71" t="s">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AC1" s="72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -13660,12 +15077,12 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="72"/>
+      <c r="AC2" s="73"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -13720,7 +15137,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -13782,7 +15199,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -13836,7 +15253,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -13887,7 +15304,7 @@
         <v>10.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -13933,7 +15350,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -13979,7 +15396,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -14043,7 +15460,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -14086,7 +15503,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -14142,7 +15559,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -14207,7 +15624,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -14257,7 +15674,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -14303,7 +15720,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -14363,7 +15780,7 @@
         <v>7.7833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -14428,7 +15845,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -14489,7 +15906,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -14544,7 +15961,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -14593,7 +16010,7 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -14645,7 +16062,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -14685,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -14731,7 +16148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -14786,7 +16203,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -14829,7 +16246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -14878,7 +16295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -14924,7 +16341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -14973,7 +16390,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -15016,7 +16433,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -15062,7 +16479,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -15114,7 +16531,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -15166,7 +16583,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -15227,7 +16644,7 @@
         <v>10.833333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -15285,7 +16702,7 @@
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
         <v>320</v>
@@ -15319,7 +16736,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" s="58"/>
       <c r="G35" s="38" t="s">
         <v>1</v>
@@ -15358,7 +16775,7 @@
         <v>190.88333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" s="58"/>
       <c r="H36" s="4">
         <f>H35/31</f>
@@ -15381,10 +16798,10 @@
         <v>4.5822580645161297</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" s="58"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A38" s="58"/>
     </row>
   </sheetData>
@@ -15405,7 +16822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5132EE09-5567-4AE4-ABCB-3A2396D7F227}">
   <dimension ref="A1:AB46"/>
   <sheetViews>
@@ -15413,85 +16830,85 @@
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="76" t="s">
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AB1" s="74" t="s">
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AB1" s="75" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -15567,9 +16984,9 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="75"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB2" s="76"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -15626,7 +17043,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -15685,7 +17102,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -15740,7 +17157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -15796,7 +17213,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -15857,7 +17274,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43288</v>
       </c>
@@ -15915,7 +17332,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43289</v>
       </c>
@@ -15974,7 +17391,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
@@ -16046,7 +17463,7 @@
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -16112,7 +17529,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -16181,7 +17598,7 @@
         <v>6.9333333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
@@ -16246,7 +17663,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -16310,7 +17727,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43295</v>
       </c>
@@ -16372,7 +17789,7 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43296</v>
       </c>
@@ -16426,7 +17843,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -16485,7 +17902,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
@@ -16543,7 +17960,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="48">
         <v>43299</v>
       </c>
@@ -16613,7 +18030,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -16674,7 +18091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -16740,7 +18157,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43302</v>
       </c>
@@ -16800,7 +18217,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43303</v>
       </c>
@@ -16852,7 +18269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -16913,7 +18330,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -16979,7 +18396,7 @@
         <v>5.9333333333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -17038,7 +18455,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -17099,7 +18516,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -17151,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43309</v>
       </c>
@@ -17215,7 +18632,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43310</v>
       </c>
@@ -17267,7 +18684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -17319,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -17371,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -17396,7 +18813,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -17423,7 +18840,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>142</v>
       </c>
@@ -17484,7 +18901,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -17545,7 +18962,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -17570,7 +18987,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -17595,7 +19012,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -17620,7 +19037,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -17645,7 +19062,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -17670,7 +19087,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -17695,7 +19112,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -17720,7 +19137,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -17745,7 +19162,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -17770,7 +19187,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -17812,7 +19229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2C9B6E-941B-4CD3-BA3E-A3014B233365}">
   <dimension ref="A2:I23"/>
   <sheetViews>
@@ -17820,9 +19237,9 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>122</v>
       </c>
@@ -17845,220 +19262,220 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="77" t="s">
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="77"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="77"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="77"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="80" t="s">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="82" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="80"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78" t="s">
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77" t="s">
+      <c r="D14" s="81"/>
+      <c r="E14" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="79"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="81"/>
+      <c r="H14" s="84"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="79"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="84"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="83" t="s">
+      <c r="E16" s="81"/>
+      <c r="F16" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="79"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="84"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="79"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="84"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="79"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="84"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="77"/>
+      <c r="E19" s="81"/>
       <c r="F19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="83"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="80"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
         <v>0.875000000000001</v>
@@ -18066,14 +19483,14 @@
       <c r="C20" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
       <c r="G20" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="13">
         <f>B21-B3</f>
         <v>0.75000000000000133</v>
@@ -18081,22 +19498,25 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -18113,16 +19533,13 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52EBFB0-B869-4AD5-BCA7-B34D9E49C96B}">
   <dimension ref="H2:I4"/>
   <sheetViews>
@@ -18130,12 +19547,12 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H2" t="s">
         <v>114</v>
       </c>
@@ -18143,7 +19560,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H3" t="s">
         <v>115</v>
       </c>
@@ -18151,7 +19568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H4" t="s">
         <v>117</v>
       </c>
@@ -18169,7 +19586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0874332-8002-44A5-B424-770295AF5464}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -18177,15 +19594,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -18208,7 +19625,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -18225,7 +19642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -18242,7 +19659,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -18259,7 +19676,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
@@ -18279,7 +19696,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -18296,7 +19713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
@@ -18316,7 +19733,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>7</v>
       </c>
@@ -18336,57 +19753,57 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>18</v>
       </c>
@@ -18395,857 +19812,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FA3BB6-099A-4AC3-88F4-8C9D0446935C}">
-  <dimension ref="A1:W34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
-    <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.75" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>43313</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="4">
-        <v>300</v>
-      </c>
-      <c r="D3" s="4">
-        <v>500</v>
-      </c>
-      <c r="E3" s="4">
-        <v>500</v>
-      </c>
-      <c r="H3" s="4">
-        <f>SUM(C3:G3)</f>
-        <v>1300</v>
-      </c>
-      <c r="N3" s="13">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>43314</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="4">
-        <v>550</v>
-      </c>
-      <c r="D4" s="4">
-        <v>400</v>
-      </c>
-      <c r="E4" s="4">
-        <v>800</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H34" si="0">SUM(C4:G4)</f>
-        <v>1750</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="K4" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
-        <f>L5-J4+24</f>
-        <v>23.8125</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>43315</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="4">
-        <v>550</v>
-      </c>
-      <c r="D5" s="4">
-        <v>300</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="K5" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>43316</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4">
-        <v>205</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>43317</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>43318</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>43319</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>600</v>
-      </c>
-      <c r="D9" s="4">
-        <v>440</v>
-      </c>
-      <c r="E9" s="4">
-        <v>200</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>1240</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.125</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>43320</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4">
-        <v>500</v>
-      </c>
-      <c r="D10" s="4">
-        <v>600</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.17916666666666667</v>
-      </c>
-      <c r="K10" s="4">
-        <v>6</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>43321</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4">
-        <v>600</v>
-      </c>
-      <c r="D11" s="4">
-        <v>440</v>
-      </c>
-      <c r="E11" s="4">
-        <v>600</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>1640</v>
-      </c>
-      <c r="I11" s="4">
-        <v>320</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>11</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>43322</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4">
-        <f>350+120+260</f>
-        <v>730</v>
-      </c>
-      <c r="D12" s="4">
-        <f>120+300+80</f>
-        <v>500</v>
-      </c>
-      <c r="E12" s="4">
-        <v>420</v>
-      </c>
-      <c r="F12" s="4">
-        <v>500</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>2150</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="L12" s="19">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>43323</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4">
-        <v>515</v>
-      </c>
-      <c r="D13" s="4">
-        <v>300</v>
-      </c>
-      <c r="E13" s="4">
-        <v>500</v>
-      </c>
-      <c r="F13" s="4">
-        <v>100</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>1415</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="K13" s="4">
-        <v>6</v>
-      </c>
-      <c r="L13" s="12">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>43324</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="4">
-        <v>600</v>
-      </c>
-      <c r="D14" s="4">
-        <v>500</v>
-      </c>
-      <c r="E14" s="4">
-        <v>200</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0.125</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>43325</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="4">
-        <v>550</v>
-      </c>
-      <c r="D15" s="4">
-        <v>500</v>
-      </c>
-      <c r="E15" s="4">
-        <v>260</v>
-      </c>
-      <c r="F15" s="4">
-        <v>400</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>1710</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="K15" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>43326</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="4">
-        <v>130</v>
-      </c>
-      <c r="D16" s="4">
-        <v>500</v>
-      </c>
-      <c r="E16" s="4">
-        <v>380</v>
-      </c>
-      <c r="F16" s="4">
-        <v>600</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>1610</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="K16" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="M16" s="4">
-        <v>20</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>43327</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4">
-        <v>250</v>
-      </c>
-      <c r="D17" s="4">
-        <v>400</v>
-      </c>
-      <c r="E17" s="4">
-        <v>650</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0.1875</v>
-      </c>
-      <c r="K17" s="4">
-        <v>4</v>
-      </c>
-      <c r="L17" s="19">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="U17" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>43328</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>43329</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>43330</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>43331</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>43332</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>43333</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>43334</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="K24" s="4">
-        <v>4</v>
-      </c>
-      <c r="L24" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="M24" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>43335</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="4">
-        <v>300</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0.1875</v>
-      </c>
-      <c r="K25" s="4">
-        <v>4</v>
-      </c>
-      <c r="L25" s="19">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>43336</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>43337</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>43338</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="4">
-        <v>600</v>
-      </c>
-      <c r="D28" s="4">
-        <v>700</v>
-      </c>
-      <c r="E28" s="4">
-        <v>330</v>
-      </c>
-      <c r="F28" s="4">
-        <v>330</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>43339</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>43340</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>43341</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>43342</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>43343</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EDF51A17-91C2-4B0F-B7D0-D8C47E0F2482}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8109AE99-D919-4089-BFC2-1A33C984E6E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" activeTab="2" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="9" r:id="rId1"/>
@@ -1169,6 +1169,138 @@
         </r>
       </text>
     </comment>
+    <comment ref="A28" authorId="1" shapeId="0" xr:uid="{BF9F9070-73B1-48E5-80CB-F3D4EDB64AFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잠</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> + 2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 30</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일어남</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A40" authorId="0" shapeId="0" xr:uid="{32C4D61D-0EB7-49CE-A5C8-0DADD2C4B428}">
       <text>
         <r>
@@ -7423,7 +7555,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="189">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -8233,6 +8365,10 @@
     <t>노래</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>10월27일부터 본격적으로 시작하겠습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8816,45 +8952,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8867,7 +8964,46 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9198,11 +9334,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F43CBC-5398-4E85-BE74-DE8164C70A1F}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9228,55 +9364,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74" t="s">
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AB1" s="72" t="s">
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AB1" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
@@ -9352,7 +9488,7 @@
       <c r="AA2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="73"/>
+      <c r="AB2" s="77"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -11086,11 +11222,13 @@
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
       <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
+      <c r="L28" s="61">
+        <v>245</v>
+      </c>
       <c r="M28" s="61"/>
       <c r="N28" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="O28" s="61"/>
       <c r="P28" s="61"/>
@@ -11101,29 +11239,40 @@
       </c>
       <c r="S28" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
+      <c r="U28" s="61">
+        <v>5</v>
+      </c>
+      <c r="V28" s="61">
+        <v>30</v>
+      </c>
       <c r="W28" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
+        <v>35</v>
+      </c>
+      <c r="X28" s="61">
+        <v>150</v>
+      </c>
+      <c r="Y28" s="61">
+        <v>260</v>
+      </c>
       <c r="Z28" s="61"/>
       <c r="AA28" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AB28" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="AC28" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11.5</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.4">
@@ -11362,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A33" s="63">
         <v>43404</v>
       </c>
@@ -11421,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
@@ -11431,7 +11580,7 @@
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>3910</v>
+        <v>4155</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -11439,7 +11588,7 @@
       </c>
       <c r="S34" s="4">
         <f t="shared" si="1"/>
-        <v>4503</v>
+        <v>4748</v>
       </c>
       <c r="W34" s="4">
         <f t="shared" si="5"/>
@@ -11447,18 +11596,18 @@
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>5101</v>
+        <v>5511</v>
       </c>
       <c r="AB34" s="4">
         <f t="shared" si="3"/>
-        <v>9604</v>
+        <v>10259</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>5.4215053763440855</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
+        <v>5.7924731182795695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -11474,7 +11623,7 @@
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>65.166666666666671</v>
+        <v>69.25</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -11485,54 +11634,62 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>75.05</v>
+        <v>79.13333333333334</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>85.016666666666666</v>
+        <v>91.85</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>160.06666666666666</v>
+        <v>170.98333333333332</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>160.06666666666666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
+        <v>170.98333333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
       <c r="H36" s="4">
-        <f>H35/23</f>
-        <v>0.42971014492753623</v>
+        <f>H35/26</f>
+        <v>0.38012820512820511</v>
       </c>
       <c r="N36" s="4">
-        <f>N35/23</f>
-        <v>2.8333333333333335</v>
+        <f>N35/26</f>
+        <v>2.6634615384615383</v>
       </c>
       <c r="R36" s="4">
-        <f>R35/16</f>
+        <f>R35/26</f>
         <v>0</v>
       </c>
       <c r="S36" s="4">
         <f>S35/16</f>
-        <v>4.6906249999999998</v>
+        <v>4.9458333333333337</v>
       </c>
       <c r="AA36" s="4">
-        <f>AA35/23</f>
-        <v>3.6963768115942028</v>
+        <f>AA35/26</f>
+        <v>3.5326923076923076</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>5.4215053763440855</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
+        <v>5.7924731182795695</v>
+      </c>
+      <c r="AD36" s="11">
+        <f>30/26</f>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="AE36">
+        <f>AC36*AD36</f>
+        <v>6.6836228287841184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -11555,17 +11712,17 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>0.20582125603864734</v>
+        <v>0.15623931623931622</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>0.20999999999999996</v>
+        <v>4.0128205128204808E-2</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -11573,18 +11730,18 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>1.7006249999999996</v>
+        <v>1.9558333333333335</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>0.45637681159420262</v>
+        <v>0.29269230769230736</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-1.1651612903225796</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
+        <v>-0.79419354838709566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -11592,7 +11749,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -11602,14 +11759,14 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>160.06666666666666</v>
+        <v>170.98333333333332</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.39718775847808108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
+        <v>0.42427626137303553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D41" s="39"/>
     </row>
   </sheetData>
@@ -11660,10 +11817,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
@@ -11700,10 +11857,10 @@
       <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
@@ -12485,10 +12642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0132E9-0673-4490-BC8A-D02254140BA6}">
-  <dimension ref="A2:K13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12502,6 +12659,11 @@
     <col min="11" max="11" width="66.59765625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="71"/>
       <c r="B2" s="71" t="s">
@@ -12560,7 +12722,7 @@
       <c r="J3" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="72" t="s">
         <v>159</v>
       </c>
     </row>
@@ -12698,8 +12860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D242-F6FD-4240-8881-ADCF447DCF9B}">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12716,10 +12878,10 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="73" t="s">
         <v>184</v>
       </c>
     </row>
@@ -12727,12 +12889,12 @@
       <c r="B4" s="13">
         <v>0.375</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="74" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="73" t="s">
         <v>184</v>
       </c>
     </row>
@@ -12740,7 +12902,7 @@
       <c r="B6" s="13">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="74" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12754,12 +12916,12 @@
       <c r="B8" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="74" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="73" t="s">
         <v>184</v>
       </c>
     </row>
@@ -12767,12 +12929,12 @@
       <c r="B10" s="13">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="74" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="75" t="s">
         <v>145</v>
       </c>
     </row>
@@ -12780,10 +12942,10 @@
       <c r="B12" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12833,57 +12995,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="74" t="s">
+      <c r="U1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74" t="s">
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AD1" s="72" t="s">
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AD1" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -12965,7 +13127,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="73"/>
+      <c r="AD2" s="77"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -14949,56 +15111,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74" t="s">
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AC1" s="72" t="s">
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AC1" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -15077,7 +15239,7 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="73"/>
+      <c r="AC2" s="77"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
@@ -16860,55 +17022,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74" t="s">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="77" t="s">
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AB1" s="75" t="s">
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AB1" s="80" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -16984,7 +17146,7 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="76"/>
+      <c r="AB2" s="81"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
@@ -19266,25 +19428,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="83" t="s">
         <v>125</v>
       </c>
     </row>
@@ -19292,42 +19454,42 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="83"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="82" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="86" t="s">
         <v>1</v>
       </c>
     </row>
@@ -19335,47 +19497,47 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="86"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="83" t="s">
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84" t="s">
         <v>129</v>
       </c>
     </row>
@@ -19383,97 +19545,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="84"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="85"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81" t="s">
+      <c r="D14" s="83"/>
+      <c r="E14" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="84"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="85"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="84"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="80" t="s">
+      <c r="E16" s="83"/>
+      <c r="F16" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="84"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="84"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="85"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="84"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="81"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="80"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
@@ -19483,9 +19645,9 @@
       <c r="C20" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="23" t="s">
         <v>126</v>
       </c>
@@ -19498,13 +19660,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
@@ -19514,6 +19676,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="C13:G13"/>
@@ -19530,9 +19695,6 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8109AE99-D919-4089-BFC2-1A33C984E6E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{33F3B938-4CF1-40DF-8F69-59C8619CBA86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
@@ -1169,6 +1169,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="A27" authorId="1" shapeId="0" xr:uid="{175C70AF-B6C5-446B-8568-B07DFB7D9251}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Turning Point!
+Mind changed
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A28" authorId="1" shapeId="0" xr:uid="{BF9F9070-73B1-48E5-80CB-F3D4EDB64AFF}">
       <text>
         <r>
@@ -1221,7 +1236,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> + 2</t>
+          <t xml:space="preserve"> +
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새벽</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
         </r>
         <r>
           <rPr>
@@ -1297,6 +1334,534 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="1" shapeId="0" xr:uid="{606ED873-8C93-4460-987B-EC0655170B59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새벽</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>집</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>청소좀하고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, 4</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스터디</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아침시간</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공부랑</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> +</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유산소</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="1" shapeId="0" xr:uid="{26B18DFB-EDBE-4456-BDE3-8C6F49840807}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~ 9</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ~ 3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~
+6</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정도는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잔</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같음</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새벽</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시반에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기상함
 </t>
         </r>
       </text>
@@ -7555,7 +8120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="190">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -8369,6 +8934,10 @@
     <t>10월27일부터 본격적으로 시작하겠습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>30(검색)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8381,7 +8950,7 @@
     <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8569,8 +9138,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8662,6 +9239,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -8709,7 +9292,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8734,8 +9317,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9006,8 +9592,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
+    <cellStyle name="20% - 강조색4" xfId="8" builtinId="42"/>
     <cellStyle name="강조색2" xfId="1" builtinId="33"/>
     <cellStyle name="강조색4" xfId="2" builtinId="41"/>
     <cellStyle name="강조색5" xfId="4" builtinId="45"/>
@@ -9335,10 +9931,10 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="28" ySplit="2" topLeftCell="AC18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9359,7 +9955,7 @@
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="4"/>
     <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.09765625" style="11" customWidth="1"/>
     <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9493,7 +10089,7 @@
         <v>29</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.4">
@@ -11118,78 +11714,78 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="63">
+      <c r="A27" s="90">
         <v>43398</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61">
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91">
         <v>40</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="91">
         <v>5</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="91">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61">
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91">
         <v>80</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="91">
         <v>20</v>
       </c>
-      <c r="N27" s="61">
+      <c r="N27" s="91">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61">
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S27" s="61">
+      <c r="S27" s="91">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="T27" s="61">
+      <c r="T27" s="91">
         <v>120</v>
       </c>
-      <c r="U27" s="61">
+      <c r="U27" s="91">
         <v>10</v>
       </c>
-      <c r="V27" s="61">
+      <c r="V27" s="91">
         <v>30</v>
       </c>
-      <c r="W27" s="61">
+      <c r="W27" s="91">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="X27" s="61">
+      <c r="X27" s="91">
         <v>120</v>
       </c>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61">
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91">
         <v>30</v>
       </c>
-      <c r="AA27" s="61">
+      <c r="AA27" s="91">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="AB27" s="61">
+      <c r="AB27" s="91">
         <f t="shared" si="3"/>
         <v>455</v>
       </c>
-      <c r="AC27" s="62">
+      <c r="AC27" s="92">
         <f t="shared" si="6"/>
         <v>7.583333333333333</v>
       </c>
@@ -11286,19 +11882,25 @@
       <c r="D29" s="61"/>
       <c r="E29" s="61"/>
       <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="G29" s="61">
+        <v>25</v>
+      </c>
       <c r="H29" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
+      <c r="J29" s="61">
+        <v>90</v>
+      </c>
       <c r="K29" s="61"/>
       <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
+      <c r="M29" s="61">
+        <v>170</v>
+      </c>
       <c r="N29" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="O29" s="61"/>
       <c r="P29" s="61"/>
@@ -11309,7 +11911,7 @@
       </c>
       <c r="S29" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="T29" s="61"/>
       <c r="U29" s="61"/>
@@ -11327,11 +11929,14 @@
       </c>
       <c r="AB29" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="AC29" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.75</v>
+      </c>
+      <c r="AE29">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.4">
@@ -11370,12 +11975,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
+      <c r="T30" s="61">
+        <v>10</v>
+      </c>
+      <c r="U30" s="61">
+        <v>10</v>
+      </c>
       <c r="V30" s="61"/>
       <c r="W30" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X30" s="61"/>
       <c r="Y30" s="61"/>
@@ -11386,11 +11995,14 @@
       </c>
       <c r="AB30" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC30" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.4">
@@ -11576,11 +12188,11 @@
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>4155</v>
+        <v>4415</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -11588,7 +12200,7 @@
       </c>
       <c r="S34" s="4">
         <f t="shared" si="1"/>
-        <v>4748</v>
+        <v>5033</v>
       </c>
       <c r="W34" s="4">
         <f t="shared" si="5"/>
@@ -11600,11 +12212,11 @@
       </c>
       <c r="AB34" s="4">
         <f t="shared" si="3"/>
-        <v>10259</v>
+        <v>10544</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>5.7924731182795695</v>
+        <v>5.9564516129032263</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.4">
@@ -11616,14 +12228,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>9.8833333333333329</v>
+        <v>10.3</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>69.25</v>
+        <v>73.583333333333329</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -11634,7 +12246,7 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>79.13333333333334</v>
+        <v>83.88333333333334</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
@@ -11645,11 +12257,11 @@
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>170.98333333333332</v>
+        <v>175.73333333333332</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>170.98333333333332</v>
+        <v>175.73333333333332</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.4">
@@ -11657,28 +12269,28 @@
         <v>131</v>
       </c>
       <c r="H36" s="4">
-        <f>H35/26</f>
-        <v>0.38012820512820511</v>
+        <f>H35/31</f>
+        <v>0.33225806451612905</v>
       </c>
       <c r="N36" s="4">
-        <f>N35/26</f>
-        <v>2.6634615384615383</v>
+        <f>N35/31</f>
+        <v>2.3736559139784945</v>
       </c>
       <c r="R36" s="4">
-        <f>R35/26</f>
+        <f>R35/31</f>
         <v>0</v>
       </c>
       <c r="S36" s="4">
-        <f>S35/16</f>
-        <v>4.9458333333333337</v>
+        <f>S35/31</f>
+        <v>2.7059139784946238</v>
       </c>
       <c r="AA36" s="4">
-        <f>AA35/26</f>
-        <v>3.5326923076923076</v>
+        <f>AA35/31</f>
+        <v>2.9629032258064516</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>5.7924731182795695</v>
+        <v>5.9564516129032263</v>
       </c>
       <c r="AD36" s="11">
         <f>30/26</f>
@@ -11686,7 +12298,7 @@
       </c>
       <c r="AE36">
         <f>AC36*AD36</f>
-        <v>6.6836228287841184</v>
+        <v>6.8728287841191067</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.4">
@@ -11718,11 +12330,11 @@
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>0.15623931623931622</v>
+        <v>0.10836917562724016</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>4.0128205128204808E-2</v>
+        <v>-0.249677419354839</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -11730,15 +12342,15 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>1.9558333333333335</v>
+        <v>-0.28408602150537643</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>0.29269230769230736</v>
+        <v>-0.27709677419354861</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-0.79419354838709566</v>
+        <v>-0.63021505376343878</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.4">
@@ -11759,11 +12371,11 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>170.98333333333332</v>
+        <v>175.73333333333332</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.42427626137303553</v>
+        <v>0.43606286186931342</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.4">
@@ -19676,12 +20288,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -19695,6 +20301,12 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{33F3B938-4CF1-40DF-8F69-59C8619CBA86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24BDCF7-D962-49CB-A467-2FD787D465D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="9" r:id="rId1"/>
@@ -24,10 +24,15 @@
     <sheet name="할일 목록" sheetId="5" r:id="rId9"/>
     <sheet name="식단" sheetId="2" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1866,6 +1871,289 @@
         </r>
       </text>
     </comment>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{9A8CF5E6-FFF4-458F-BB83-956DCB87A204}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새벽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시인가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, 5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일어난듯</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자고
+취침은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 25</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">분
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{58C709DF-94BC-4AF7-845E-CE92ED403E92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 20</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">분
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A40" authorId="0" shapeId="0" xr:uid="{32C4D61D-0EB7-49CE-A5C8-0DADD2C4B428}">
       <text>
         <r>
@@ -8120,7 +8408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="192">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -8938,6 +9226,14 @@
     <t>30(검색)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>20(운동영상)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -9550,6 +9846,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9571,18 +9876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9592,14 +9885,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9931,84 +10227,84 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="28" ySplit="2" topLeftCell="AC22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X30" sqref="X30"/>
+      <selection pane="bottomRight" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.59765625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.19921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="4" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="4"/>
     <col min="20" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="4"/>
     <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.09765625" style="11" customWidth="1"/>
-    <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="11" customWidth="1"/>
+    <col min="31" max="31" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78" t="s">
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AB1" s="76" t="s">
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AB1" s="79" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
@@ -10031,7 +10327,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="K2" s="60" t="s">
         <v>150</v>
@@ -10084,7 +10380,7 @@
       <c r="AA2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="77"/>
+      <c r="AB2" s="80"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -10092,7 +10388,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="63">
         <v>43374</v>
       </c>
@@ -10166,7 +10462,7 @@
       </c>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="63">
         <v>43375</v>
       </c>
@@ -10242,7 +10538,7 @@
       </c>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="66">
         <v>43376</v>
       </c>
@@ -10303,7 +10599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="63">
         <v>43377</v>
       </c>
@@ -10374,7 +10670,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="63">
         <v>43378</v>
       </c>
@@ -10441,7 +10737,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="63">
         <v>43379</v>
       </c>
@@ -10510,7 +10806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="63">
         <v>43380</v>
       </c>
@@ -10571,7 +10867,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="63">
         <v>43381</v>
       </c>
@@ -10640,7 +10936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="69">
         <v>43382</v>
       </c>
@@ -10707,7 +11003,7 @@
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="63">
         <v>43383</v>
       </c>
@@ -10776,7 +11072,7 @@
         <v>9.8333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="63">
         <v>43384</v>
       </c>
@@ -10847,7 +11143,7 @@
         <v>9.6333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="63">
         <v>43385</v>
       </c>
@@ -10918,7 +11214,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="63">
         <v>43386</v>
       </c>
@@ -10983,7 +11279,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="63">
         <v>43387</v>
       </c>
@@ -11044,7 +11340,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="63">
         <v>43388</v>
       </c>
@@ -11109,7 +11405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="63">
         <v>43389</v>
       </c>
@@ -11178,7 +11474,7 @@
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="63">
         <v>43390</v>
       </c>
@@ -11243,7 +11539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="63">
         <v>43391</v>
       </c>
@@ -11314,7 +11610,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="63">
         <v>43392</v>
       </c>
@@ -11381,7 +11677,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="63">
         <v>43393</v>
       </c>
@@ -11446,7 +11742,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="63">
         <v>43394</v>
       </c>
@@ -11505,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="63">
         <v>43395</v>
       </c>
@@ -11571,7 +11867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="63">
         <v>43396</v>
       </c>
@@ -11646,7 +11942,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="63">
         <v>43397</v>
       </c>
@@ -11713,79 +12009,79 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="90">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27" s="76">
         <v>43398</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91">
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77">
         <v>40</v>
       </c>
-      <c r="G27" s="91">
+      <c r="G27" s="77">
         <v>5</v>
       </c>
-      <c r="H27" s="91">
+      <c r="H27" s="77">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91">
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77">
         <v>80</v>
       </c>
-      <c r="M27" s="91">
+      <c r="M27" s="77">
         <v>20</v>
       </c>
-      <c r="N27" s="91">
+      <c r="N27" s="77">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91">
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S27" s="91">
+      <c r="S27" s="77">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="T27" s="91">
+      <c r="T27" s="77">
         <v>120</v>
       </c>
-      <c r="U27" s="91">
+      <c r="U27" s="77">
         <v>10</v>
       </c>
-      <c r="V27" s="91">
+      <c r="V27" s="77">
         <v>30</v>
       </c>
-      <c r="W27" s="91">
+      <c r="W27" s="77">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="X27" s="91">
+      <c r="X27" s="77">
         <v>120</v>
       </c>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91">
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77">
         <v>30</v>
       </c>
-      <c r="AA27" s="91">
+      <c r="AA27" s="77">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="AB27" s="91">
+      <c r="AB27" s="77">
         <f t="shared" si="3"/>
         <v>455</v>
       </c>
-      <c r="AC27" s="92">
+      <c r="AC27" s="78">
         <f t="shared" si="6"/>
         <v>7.583333333333333</v>
       </c>
@@ -11799,7 +12095,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="63">
         <v>43399</v>
       </c>
@@ -11871,7 +12167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="63">
         <v>43400</v>
       </c>
@@ -11939,7 +12235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="63">
         <v>43401</v>
       </c>
@@ -11976,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="61">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="U30" s="61">
         <v>10</v>
@@ -11984,7 +12280,7 @@
       <c r="V30" s="61"/>
       <c r="W30" s="61">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="X30" s="61"/>
       <c r="Y30" s="61"/>
@@ -11995,40 +12291,46 @@
       </c>
       <c r="AB30" s="61">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AC30" s="62">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AE30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="63">
         <v>43402</v>
       </c>
       <c r="B31" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="61">
+        <v>50</v>
+      </c>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="G31" s="61">
+        <v>10</v>
+      </c>
       <c r="H31" s="61">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
+      <c r="J31" s="61">
+        <v>120</v>
+      </c>
       <c r="K31" s="61"/>
       <c r="L31" s="61"/>
       <c r="M31" s="61"/>
       <c r="N31" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="O31" s="61"/>
       <c r="P31" s="61"/>
@@ -12039,32 +12341,42 @@
       </c>
       <c r="S31" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="T31" s="61"/>
       <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
+      <c r="V31" s="61">
+        <v>70</v>
+      </c>
       <c r="W31" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
+      <c r="Y31" s="61">
+        <v>230</v>
+      </c>
       <c r="Z31" s="61"/>
       <c r="AA31" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AB31" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AC31" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>30</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="63">
         <v>43403</v>
       </c>
@@ -12100,12 +12412,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T32" s="61"/>
+      <c r="T32" s="61">
+        <v>10</v>
+      </c>
       <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
+      <c r="V32" s="61">
+        <v>30</v>
+      </c>
       <c r="W32" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X32" s="61"/>
       <c r="Y32" s="61"/>
@@ -12116,14 +12432,14 @@
       </c>
       <c r="AB32" s="61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC32" s="62">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="63">
         <v>43404</v>
       </c>
@@ -12182,17 +12498,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>4415</v>
+        <v>4535</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -12200,7 +12516,7 @@
       </c>
       <c r="S34" s="4">
         <f t="shared" si="1"/>
-        <v>5033</v>
+        <v>5213</v>
       </c>
       <c r="W34" s="4">
         <f t="shared" si="5"/>
@@ -12208,18 +12524,18 @@
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>5511</v>
+        <v>5741</v>
       </c>
       <c r="AB34" s="4">
         <f t="shared" si="3"/>
-        <v>10544</v>
+        <v>10954</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>5.9564516129032263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+        <v>6.2682795698924734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -12228,14 +12544,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>73.583333333333329</v>
+        <v>75.583333333333329</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -12246,35 +12562,35 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>83.88333333333334</v>
+        <v>86.88333333333334</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>91.85</v>
+        <v>95.683333333333337</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>175.73333333333332</v>
+        <v>182.56666666666666</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>175.73333333333332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+        <v>182.56666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
       <c r="H36" s="4">
         <f>H35/31</f>
-        <v>0.33225806451612905</v>
+        <v>0.36451612903225811</v>
       </c>
       <c r="N36" s="4">
         <f>N35/31</f>
-        <v>2.3736559139784945</v>
+        <v>2.4381720430107525</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
@@ -12282,15 +12598,15 @@
       </c>
       <c r="S36" s="4">
         <f>S35/31</f>
-        <v>2.7059139784946238</v>
+        <v>2.8026881720430108</v>
       </c>
       <c r="AA36" s="4">
         <f>AA35/31</f>
-        <v>2.9629032258064516</v>
+        <v>3.0865591397849466</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>5.9564516129032263</v>
+        <v>6.2682795698924734</v>
       </c>
       <c r="AD36" s="11">
         <f>30/26</f>
@@ -12298,10 +12614,10 @@
       </c>
       <c r="AE36">
         <f>AC36*AD36</f>
-        <v>6.8728287841191067</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+        <v>7.2326302729528535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -12324,17 +12640,17 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>0.10836917562724016</v>
+        <v>0.14062724014336922</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>-0.249677419354839</v>
+        <v>-0.185161290322581</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -12342,18 +12658,18 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>-0.28408602150537643</v>
+        <v>-0.18731182795698942</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>-0.27709677419354861</v>
+        <v>-0.15344086021505365</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-0.63021505376343878</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+        <v>-0.31838709677419175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -12361,7 +12677,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -12371,14 +12687,14 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>175.73333333333332</v>
+        <v>182.56666666666666</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.43606286186931342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+        <v>0.45301902398676591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="D41" s="39"/>
     </row>
   </sheetData>
@@ -12407,32 +12723,32 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.69921875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.19921875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.3984375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.375" style="4" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
@@ -12468,11 +12784,11 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
@@ -12514,7 +12830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -12547,7 +12863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -12599,7 +12915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -12635,7 +12951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -12650,7 +12966,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -12662,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -12674,7 +12990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -12707,7 +13023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -12734,7 +13050,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -12767,7 +13083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -12808,7 +13124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -12844,7 +13160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -12883,7 +13199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -12922,7 +13238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -12961,7 +13277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -12994,7 +13310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -13006,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -13018,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -13033,7 +13349,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -13045,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -13057,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -13069,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -13093,7 +13409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -13123,7 +13439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -13135,7 +13451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -13147,7 +13463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -13171,7 +13487,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -13183,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -13195,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -13207,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -13222,7 +13538,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -13234,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13260,23 +13576,23 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="66.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="71"/>
       <c r="B2" s="71" t="s">
         <v>122</v>
@@ -13306,7 +13622,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>162</v>
       </c>
@@ -13338,7 +13654,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -13361,7 +13677,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -13384,7 +13700,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -13407,7 +13723,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -13430,12 +13746,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>179</v>
       </c>
@@ -13446,7 +13762,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>180</v>
       </c>
@@ -13454,7 +13770,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>181</v>
       </c>
@@ -13476,17 +13792,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
@@ -13497,7 +13813,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.375</v>
       </c>
@@ -13505,12 +13821,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D5" s="73" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.47916666666666669</v>
       </c>
@@ -13518,13 +13834,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>0.54166666666666663</v>
       </c>
@@ -13532,12 +13848,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" s="73" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.66666666666666663</v>
       </c>
@@ -13545,19 +13861,19 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D11" s="75" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13579,18 +13895,18 @@
       <selection pane="bottomRight" activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.19921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="4"/>
@@ -13598,66 +13914,66 @@
     <col min="22" max="22" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4"/>
     <col min="31" max="31" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="U1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AD1" s="76" t="s">
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AD1" s="79" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -13739,7 +14055,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="77"/>
+      <c r="AD2" s="80"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -13747,7 +14063,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43344</v>
       </c>
@@ -13797,7 +14113,7 @@
       </c>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43345</v>
       </c>
@@ -13841,7 +14157,7 @@
       </c>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43346</v>
       </c>
@@ -13893,7 +14209,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43347</v>
       </c>
@@ -13948,7 +14264,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43348</v>
       </c>
@@ -14018,7 +14334,7 @@
         <v>8.3666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43349</v>
       </c>
@@ -14082,7 +14398,7 @@
         <v>11.566666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43350</v>
       </c>
@@ -14134,7 +14450,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43351</v>
       </c>
@@ -14201,7 +14517,7 @@
         <v>7.8166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43352</v>
       </c>
@@ -14250,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43353</v>
       </c>
@@ -14293,7 +14609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43354</v>
       </c>
@@ -14345,7 +14661,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43355</v>
       </c>
@@ -14404,7 +14720,7 @@
         <v>7.2166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43356</v>
       </c>
@@ -14460,7 +14776,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43357</v>
       </c>
@@ -14518,7 +14834,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43358</v>
       </c>
@@ -14576,7 +14892,7 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43359</v>
       </c>
@@ -14622,7 +14938,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43360</v>
       </c>
@@ -14674,7 +14990,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>43361</v>
       </c>
@@ -14745,7 +15061,7 @@
         <v>8.3833333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>43362</v>
       </c>
@@ -14815,7 +15131,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43363</v>
       </c>
@@ -14880,7 +15196,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43364</v>
       </c>
@@ -14943,7 +15259,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43365</v>
       </c>
@@ -15003,7 +15319,7 @@
         <v>9.3166666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43366</v>
       </c>
@@ -15060,7 +15376,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43367</v>
       </c>
@@ -15112,7 +15428,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43368</v>
       </c>
@@ -15158,7 +15474,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43369</v>
       </c>
@@ -15207,7 +15523,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43370</v>
       </c>
@@ -15266,7 +15582,7 @@
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43371</v>
       </c>
@@ -15322,7 +15638,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43372</v>
       </c>
@@ -15371,7 +15687,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43373</v>
       </c>
@@ -15414,7 +15730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="H33" s="4">
         <f t="shared" si="7"/>
@@ -15449,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
@@ -15486,7 +15802,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>139</v>
       </c>
@@ -15535,7 +15851,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>131</v>
       </c>
@@ -15568,7 +15884,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>130</v>
       </c>
@@ -15594,7 +15910,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="59" t="s">
         <v>147</v>
       </c>
@@ -15627,7 +15943,7 @@
         <v>0.25870967741935402</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -15635,7 +15951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>140</v>
       </c>
@@ -15652,7 +15968,7 @@
         <v>0.5066666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f>13*30</f>
         <v>390</v>
@@ -15692,18 +16008,18 @@
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
@@ -15714,65 +16030,65 @@
     <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="30" max="30" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78" t="s">
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AC1" s="76" t="s">
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AC1" s="79" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -15851,12 +16167,12 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="77"/>
+      <c r="AC2" s="80"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -15911,7 +16227,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -15973,7 +16289,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -16027,7 +16343,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -16078,7 +16394,7 @@
         <v>10.533333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -16124,7 +16440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -16170,7 +16486,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -16234,7 +16550,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -16277,7 +16593,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -16333,7 +16649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -16398,7 +16714,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -16448,7 +16764,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -16494,7 +16810,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -16554,7 +16870,7 @@
         <v>7.7833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -16619,7 +16935,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -16680,7 +16996,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -16735,7 +17051,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -16784,7 +17100,7 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -16836,7 +17152,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -16876,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -16922,7 +17238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -16977,7 +17293,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -17020,7 +17336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -17069,7 +17385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -17115,7 +17431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -17164,7 +17480,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -17207,7 +17523,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -17253,7 +17569,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -17305,7 +17621,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -17357,7 +17673,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -17418,7 +17734,7 @@
         <v>10.833333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -17476,7 +17792,7 @@
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
         <v>320</v>
@@ -17510,7 +17826,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="G35" s="38" t="s">
         <v>1</v>
@@ -17549,7 +17865,7 @@
         <v>190.88333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="H36" s="4">
         <f>H35/31</f>
@@ -17572,10 +17888,10 @@
         <v>4.5822580645161297</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
     </row>
   </sheetData>
@@ -17604,85 +17920,85 @@
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.59765625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.75" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="82" t="s">
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AB1" s="80" t="s">
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AB1" s="83" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -17758,9 +18074,9 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="81"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB2" s="84"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -17817,7 +18133,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -17876,7 +18192,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -17931,7 +18247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -17987,7 +18303,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -18048,7 +18364,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43288</v>
       </c>
@@ -18106,7 +18422,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43289</v>
       </c>
@@ -18165,7 +18481,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
@@ -18237,7 +18553,7 @@
         <v>8.5833333333333339</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -18303,7 +18619,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -18372,7 +18688,7 @@
         <v>6.9333333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
@@ -18437,7 +18753,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -18501,7 +18817,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43295</v>
       </c>
@@ -18563,7 +18879,7 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43296</v>
       </c>
@@ -18617,7 +18933,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -18676,7 +18992,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
@@ -18734,7 +19050,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48">
         <v>43299</v>
       </c>
@@ -18804,7 +19120,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -18865,7 +19181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -18931,7 +19247,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43302</v>
       </c>
@@ -18991,7 +19307,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43303</v>
       </c>
@@ -19043,7 +19359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -19104,7 +19420,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -19170,7 +19486,7 @@
         <v>5.9333333333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -19229,7 +19545,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -19290,7 +19606,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -19342,7 +19658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43309</v>
       </c>
@@ -19406,7 +19722,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43310</v>
       </c>
@@ -19458,7 +19774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -19510,7 +19826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -19562,7 +19878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -19587,7 +19903,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -19614,7 +19930,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>142</v>
       </c>
@@ -19675,7 +19991,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -19736,7 +20052,7 @@
         <v>107.06666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -19761,7 +20077,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -19786,7 +20102,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -19811,7 +20127,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -19836,7 +20152,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -19861,7 +20177,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -19886,7 +20202,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -19911,7 +20227,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -19936,7 +20252,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -19961,7 +20277,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -20011,9 +20327,9 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>122</v>
       </c>
@@ -20036,220 +20352,220 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="83" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="83"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="83"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="83"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="86" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="86"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84" t="s">
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="91" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="85"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="92"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83" t="s">
+      <c r="D14" s="89"/>
+      <c r="E14" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="85"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G14" s="89"/>
+      <c r="H14" s="92"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="85"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="92"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="89" t="s">
+      <c r="E16" s="89"/>
+      <c r="F16" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="89" t="s">
+      <c r="G16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="85"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H16" s="92"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="85"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="92"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="85"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="92"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="89"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G19" s="88"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
         <v>0.875000000000001</v>
@@ -20257,14 +20573,14 @@
       <c r="C20" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <f>B21-B3</f>
         <v>0.75000000000000133</v>
@@ -20272,22 +20588,25 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -20304,9 +20623,6 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20321,12 +20637,12 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="43.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>114</v>
       </c>
@@ -20334,7 +20650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
         <v>115</v>
       </c>
@@ -20342,7 +20658,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
         <v>117</v>
       </c>
@@ -20368,15 +20684,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.09765625" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -20399,7 +20715,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -20416,7 +20732,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -20433,7 +20749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -20450,7 +20766,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -20470,7 +20786,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -20487,7 +20803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -20507,7 +20823,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -20527,57 +20843,57 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>18</v>
       </c>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{33F3B938-4CF1-40DF-8F69-59C8619CBA86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3C4950D-4B89-434D-97E2-19656C1E498F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" activeTab="1" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="9" r:id="rId1"/>
@@ -8120,7 +8120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="192">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -8938,6 +8938,14 @@
     <t>30(검색)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>삼두근(딥스)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>덤벨로우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -9550,6 +9558,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9591,15 +9608,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9930,11 +9938,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F43CBC-5398-4E85-BE74-DE8164C70A1F}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="28" ySplit="2" topLeftCell="AC18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X30" sqref="X30"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9960,55 +9968,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78" t="s">
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AB1" s="76" t="s">
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AB1" s="79" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
@@ -10084,7 +10092,7 @@
       <c r="AA2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="77"/>
+      <c r="AB2" s="80"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -11714,78 +11722,78 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A27" s="90">
+      <c r="A27" s="76">
         <v>43398</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91">
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77">
         <v>40</v>
       </c>
-      <c r="G27" s="91">
+      <c r="G27" s="77">
         <v>5</v>
       </c>
-      <c r="H27" s="91">
+      <c r="H27" s="77">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91">
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77">
         <v>80</v>
       </c>
-      <c r="M27" s="91">
+      <c r="M27" s="77">
         <v>20</v>
       </c>
-      <c r="N27" s="91">
+      <c r="N27" s="77">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91">
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S27" s="91">
+      <c r="S27" s="77">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="T27" s="91">
+      <c r="T27" s="77">
         <v>120</v>
       </c>
-      <c r="U27" s="91">
+      <c r="U27" s="77">
         <v>10</v>
       </c>
-      <c r="V27" s="91">
+      <c r="V27" s="77">
         <v>30</v>
       </c>
-      <c r="W27" s="91">
+      <c r="W27" s="77">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="X27" s="91">
+      <c r="X27" s="77">
         <v>120</v>
       </c>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91">
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77">
         <v>30</v>
       </c>
-      <c r="AA27" s="91">
+      <c r="AA27" s="77">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="AB27" s="91">
+      <c r="AB27" s="77">
         <f t="shared" si="3"/>
         <v>455</v>
       </c>
-      <c r="AC27" s="92">
+      <c r="AC27" s="78">
         <f t="shared" si="6"/>
         <v>7.583333333333333</v>
       </c>
@@ -12429,10 +12437,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
@@ -12469,10 +12477,10 @@
       <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
@@ -13256,8 +13264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0132E9-0673-4490-BC8A-D02254140BA6}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13369,7 +13377,7 @@
         <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
         <v>173</v>
@@ -13412,7 +13420,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
         <v>171</v>
@@ -13554,10 +13562,10 @@
       <c r="B12" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13607,57 +13615,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="U1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AD1" s="76" t="s">
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AD1" s="79" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -13739,7 +13747,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="77"/>
+      <c r="AD2" s="80"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -15723,56 +15731,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78" t="s">
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AC1" s="76" t="s">
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AC1" s="79" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -15851,7 +15859,7 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="77"/>
+      <c r="AC2" s="80"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
@@ -17634,55 +17642,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="82" t="s">
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AB1" s="80" t="s">
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AB1" s="83" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -17758,7 +17766,7 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="81"/>
+      <c r="AB2" s="84"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
@@ -20040,25 +20048,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="83" t="s">
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="86" t="s">
         <v>125</v>
       </c>
     </row>
@@ -20066,42 +20074,42 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="83"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="86"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="83"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="83"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="86"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="86" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="89" t="s">
         <v>1</v>
       </c>
     </row>
@@ -20109,47 +20117,47 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="89"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84" t="s">
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87" t="s">
         <v>129</v>
       </c>
     </row>
@@ -20157,97 +20165,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="85"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83" t="s">
+      <c r="D14" s="86"/>
+      <c r="E14" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="89" t="s">
+      <c r="E16" s="86"/>
+      <c r="F16" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="89" t="s">
+      <c r="G16" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="85"/>
+      <c r="H16" s="88"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="85"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="88"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="85"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="88"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="89"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
@@ -20257,9 +20265,9 @@
       <c r="C20" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="23" t="s">
         <v>126</v>
       </c>
@@ -20272,13 +20280,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
@@ -20288,6 +20296,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -20301,12 +20315,6 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F39FED56-2666-4D5B-A29A-A1F4FB5758FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483DEA0-6B98-4D8C-9688-42FEEF4AAA35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" activeTab="5" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="11월" sheetId="12" r:id="rId1"/>
@@ -24,10 +24,15 @@
     <sheet name="운동" sheetId="10" r:id="rId9"/>
     <sheet name="식단" sheetId="2" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -10144,80 +10149,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="19" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10231,31 +10173,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -10267,41 +10185,14 @@
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="19" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -10341,6 +10232,120 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="19" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -14304,91 +14309,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7B0487-FEF9-4373-BCF3-2F8B7A9F707B}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:AA1"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
-    <col min="3" max="7" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.59765625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.59765625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" style="4" customWidth="1"/>
-    <col min="24" max="25" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93" t="s">
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="94" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95" t="s">
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="100" t="s">
+      <c r="S1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="91" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="96" t="s">
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="75" t="s">
         <v>128</v>
       </c>
@@ -14434,7 +14439,7 @@
       <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="95" t="s">
+      <c r="R2" s="78" t="s">
         <v>56</v>
       </c>
       <c r="S2" s="75" t="s">
@@ -14464,34 +14469,40 @@
       <c r="AA2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="97"/>
+      <c r="AB2" s="105"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="62">
         <v>43405</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11">
+        <v>45</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11">
+        <v>13</v>
+      </c>
       <c r="G3" s="11">
-        <f>SUM(C3:F3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="11"/>
+        <f t="shared" ref="G3:G32" si="0">SUM(C3:F3)</f>
+        <v>58</v>
+      </c>
+      <c r="H3" s="11">
+        <v>83</v>
+      </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11">
-        <f>SUM(H3:L3)</f>
-        <v>0</v>
+        <f t="shared" ref="M3:M32" si="1">SUM(H3:L3)</f>
+        <v>83</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -14501,35 +14512,43 @@
         <v>0</v>
       </c>
       <c r="R3" s="11">
-        <f>G3+M3+Q3</f>
-        <v>0</v>
+        <f t="shared" ref="R3:R32" si="2">G3+M3+Q3</f>
+        <v>141</v>
       </c>
       <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
+      <c r="T3" s="11">
+        <v>10</v>
+      </c>
+      <c r="U3" s="11">
+        <v>20</v>
+      </c>
       <c r="V3" s="11"/>
       <c r="W3" s="11">
-        <f>SUM(S3:V3)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="11"/>
+        <f t="shared" ref="W3:W32" si="3">SUM(S3:V3)</f>
+        <v>30</v>
+      </c>
+      <c r="X3" s="11">
+        <v>240</v>
+      </c>
       <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
+      <c r="Z3" s="11">
+        <v>90</v>
+      </c>
       <c r="AA3" s="11">
-        <f t="shared" ref="AA3:AA32" si="0">SUM(X3:Z3)</f>
-        <v>0</v>
+        <f t="shared" ref="AA3:AA32" si="4">SUM(X3:Z3)</f>
+        <v>330</v>
       </c>
       <c r="AB3" s="11">
-        <f>R3+W3+AA3</f>
-        <v>0</v>
+        <f t="shared" ref="AB3:AB32" si="5">R3+W3+AA3</f>
+        <v>501</v>
       </c>
       <c r="AC3" s="11">
         <f>AB3/60</f>
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="AD3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="62">
         <v>43406</v>
       </c>
@@ -14541,7 +14560,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
-        <f>SUM(C4:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="11"/>
@@ -14550,18 +14569,18 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11">
-        <f>SUM(H4:L4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11">
-        <f t="shared" ref="Q4:Q32" si="1">SUM(N4:P4)</f>
+        <f t="shared" ref="Q4:Q32" si="6">SUM(N4:P4)</f>
         <v>0</v>
       </c>
       <c r="R4" s="11">
-        <f>G4+M4+Q4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S4" s="11"/>
@@ -14569,27 +14588,27 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11">
-        <f>SUM(S4:V4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB4" s="11">
-        <f>R4+W4+AA4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC4" s="11">
-        <f t="shared" ref="AC4:AC32" si="2">AB4/60</f>
+        <f t="shared" ref="AC4:AC32" si="7">AB4/60</f>
         <v>0</v>
       </c>
       <c r="AD4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="62">
         <v>43407</v>
       </c>
@@ -14601,7 +14620,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11">
-        <f>SUM(C5:F5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="11"/>
@@ -14610,18 +14629,18 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11">
-        <f>SUM(H5:L5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R5" s="11">
-        <f>G5+M5+Q5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S5" s="11"/>
@@ -14629,27 +14648,27 @@
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11">
-        <f>SUM(S5:V5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB5" s="11">
-        <f>R5+W5+AA5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD5" s="11"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>43408</v>
       </c>
@@ -14661,7 +14680,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11">
-        <f>SUM(C6:F6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
@@ -14670,18 +14689,18 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11">
-        <f>SUM(H6:L6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R6" s="11">
-        <f>G6+M6+Q6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S6" s="11"/>
@@ -14689,27 +14708,27 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11">
-        <f>SUM(S6:V6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB6" s="11">
-        <f>R6+W6+AA6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC6" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <v>43409</v>
       </c>
@@ -14721,7 +14740,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11">
-        <f>SUM(C7:F7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="11"/>
@@ -14730,18 +14749,18 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11">
-        <f>SUM(H7:L7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R7" s="11">
-        <f>G7+M7+Q7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="11"/>
@@ -14749,27 +14768,27 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11">
-        <f>SUM(S7:V7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB7" s="11">
-        <f>R7+W7+AA7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <v>43410</v>
       </c>
@@ -14781,7 +14800,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11">
-        <f>SUM(C8:F8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
@@ -14790,18 +14809,18 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11">
-        <f>SUM(H8:L8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R8" s="11">
-        <f>G8+M8+Q8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S8" s="11"/>
@@ -14809,27 +14828,27 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11">
-        <f>SUM(S8:V8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB8" s="11">
-        <f>R8+W8+AA8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD8" s="11"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>43411</v>
       </c>
@@ -14841,7 +14860,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11">
-        <f>SUM(C9:F9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="11"/>
@@ -14850,18 +14869,18 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11">
-        <f>SUM(H9:L9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R9" s="11">
-        <f>G9+M9+Q9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S9" s="11"/>
@@ -14869,27 +14888,27 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11">
-        <f>SUM(S9:V9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB9" s="11">
-        <f>R9+W9+AA9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD9" s="11"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <v>43412</v>
       </c>
@@ -14901,7 +14920,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11">
-        <f>SUM(C10:F10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="11"/>
@@ -14910,18 +14929,18 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11">
-        <f>SUM(H10:L10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R10" s="11">
-        <f>G10+M10+Q10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S10" s="11"/>
@@ -14929,27 +14948,27 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11">
-        <f>SUM(S10:V10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB10" s="11">
-        <f>R10+W10+AA10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD10" s="11"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="62">
         <v>43413</v>
       </c>
@@ -14961,7 +14980,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11">
-        <f>SUM(C11:F11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="11"/>
@@ -14970,18 +14989,18 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11">
-        <f>SUM(H11:L11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R11" s="11">
-        <f>G11+M11+Q11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S11" s="11"/>
@@ -14989,27 +15008,27 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11">
-        <f>SUM(S11:V11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
       <c r="AA11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB11" s="11">
-        <f>R11+W11+AA11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD11" s="11"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="62">
         <v>43414</v>
       </c>
@@ -15021,7 +15040,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11">
-        <f>SUM(C12:F12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="11"/>
@@ -15030,18 +15049,18 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11">
-        <f>SUM(H12:L12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R12" s="11">
-        <f>G12+M12+Q12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S12" s="11"/>
@@ -15049,27 +15068,27 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11">
-        <f>SUM(S12:V12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB12" s="11">
-        <f>R12+W12+AA12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD12" s="11"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>43415</v>
       </c>
@@ -15081,7 +15100,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
-        <f>SUM(C13:F13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="11"/>
@@ -15090,18 +15109,18 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11">
-        <f>SUM(H13:L13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R13" s="11">
-        <f>G13+M13+Q13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13" s="11"/>
@@ -15109,27 +15128,27 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11">
-        <f>SUM(S13:V13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB13" s="11">
-        <f>R13+W13+AA13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD13" s="11"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>43416</v>
       </c>
@@ -15141,7 +15160,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
-        <f>SUM(C14:F14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="11"/>
@@ -15150,18 +15169,18 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11">
-        <f>SUM(H14:L14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R14" s="11">
-        <f>G14+M14+Q14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14" s="11"/>
@@ -15169,27 +15188,27 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11">
-        <f>SUM(S14:V14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB14" s="11">
-        <f>R14+W14+AA14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD14" s="11"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>43417</v>
       </c>
@@ -15201,7 +15220,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
-        <f>SUM(C15:F15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="11"/>
@@ -15210,18 +15229,18 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11">
-        <f>SUM(H15:L15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R15" s="11">
-        <f>G15+M15+Q15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S15" s="11"/>
@@ -15229,27 +15248,27 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11">
-        <f>SUM(S15:V15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB15" s="11">
-        <f>R15+W15+AA15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC15" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD15" s="11"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>43418</v>
       </c>
@@ -15261,7 +15280,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11">
-        <f>SUM(C16:F16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="11"/>
@@ -15270,7 +15289,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11">
-        <f>SUM(H16:L16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="11"/>
@@ -15281,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="11">
-        <f>G16+M16+Q16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S16" s="11"/>
@@ -15289,27 +15308,27 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11">
-        <f>SUM(S16:V16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB16" s="11">
-        <f>R16+W16+AA16</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD16" s="11"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>43419</v>
       </c>
@@ -15321,7 +15340,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11">
-        <f>SUM(C17:F17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="11"/>
@@ -15330,18 +15349,18 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11">
-        <f>SUM(H17:L17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R17" s="11">
-        <f>G17+M17+Q17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S17" s="11"/>
@@ -15349,27 +15368,27 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11">
-        <f>SUM(S17:V17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB17" s="11">
-        <f>R17+W17+AA17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD17" s="11"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>43420</v>
       </c>
@@ -15381,7 +15400,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
-        <f>SUM(C18:F18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="11"/>
@@ -15390,18 +15409,18 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11">
-        <f>SUM(H18:L18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R18" s="11">
-        <f>G18+M18+Q18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S18" s="11"/>
@@ -15409,27 +15428,27 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11">
-        <f>SUM(S18:V18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB18" s="11">
-        <f>R18+W18+AA18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD18" s="11"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>43421</v>
       </c>
@@ -15441,7 +15460,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
-        <f>SUM(C19:F19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="11"/>
@@ -15450,18 +15469,18 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11">
-        <f>SUM(H19:L19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R19" s="11">
-        <f>G19+M19+Q19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S19" s="11"/>
@@ -15469,27 +15488,27 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11">
-        <f>SUM(S19:V19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB19" s="11">
-        <f>R19+W19+AA19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD19" s="11"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>43422</v>
       </c>
@@ -15501,7 +15520,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
-        <f>SUM(C20:F20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="11"/>
@@ -15510,18 +15529,18 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11">
-        <f>SUM(H20:L20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R20" s="11">
-        <f>G20+M20+Q20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S20" s="11"/>
@@ -15529,27 +15548,27 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11">
-        <f>SUM(S20:V20)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB20" s="11">
-        <f>R20+W20+AA20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD20" s="11"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>43423</v>
       </c>
@@ -15561,7 +15580,7 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11">
-        <f>SUM(C21:F21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="11"/>
@@ -15570,18 +15589,18 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11">
-        <f>SUM(H21:L21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R21" s="11">
-        <f>G21+M21+Q21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S21" s="11"/>
@@ -15589,27 +15608,27 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11">
-        <f>SUM(S21:V21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB21" s="11">
-        <f>R21+W21+AA21</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD21" s="11"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
         <v>43424</v>
       </c>
@@ -15621,7 +15640,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11">
-        <f>SUM(C22:F22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="11"/>
@@ -15630,18 +15649,18 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11">
-        <f>SUM(H22:L22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R22" s="11">
-        <f>G22+M22+Q22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S22" s="11"/>
@@ -15649,27 +15668,27 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11">
-        <f>SUM(S22:V22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB22" s="11">
-        <f>R22+W22+AA22</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD22" s="11"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>43425</v>
       </c>
@@ -15681,7 +15700,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
-        <f>SUM(C23:F23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="11"/>
@@ -15690,18 +15709,18 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11">
-        <f>SUM(H23:L23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R23" s="11">
-        <f>G23+M23+Q23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S23" s="11"/>
@@ -15709,27 +15728,27 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11">
-        <f>SUM(S23:V23)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
       <c r="AA23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB23" s="11">
-        <f>R23+W23+AA23</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC23" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD23" s="11"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>43426</v>
       </c>
@@ -15741,7 +15760,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
-        <f>SUM(C24:F24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="11"/>
@@ -15750,18 +15769,18 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11">
-        <f>SUM(H24:L24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="11">
-        <f>G24+M24+Q24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S24" s="11"/>
@@ -15769,27 +15788,27 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11">
-        <f>SUM(S24:V24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
       <c r="AA24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB24" s="11">
-        <f>R24+W24+AA24</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC24" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
         <v>43427</v>
       </c>
@@ -15801,7 +15820,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11">
-        <f>SUM(C25:F25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="11"/>
@@ -15810,18 +15829,18 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11">
-        <f>SUM(H25:L25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R25" s="11">
-        <f>G25+M25+Q25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S25" s="11"/>
@@ -15829,31 +15848,31 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11">
-        <f>SUM(S25:V25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB25" s="11">
-        <f>R25+W25+AA25</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD25" s="11"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A26" s="89">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="76">
         <v>43428</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="77" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="11"/>
@@ -15861,7 +15880,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11">
-        <f>SUM(C26:F26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="11"/>
@@ -15870,18 +15889,18 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11">
-        <f>SUM(H26:L26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R26" s="11">
-        <f>G26+M26+Q26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S26" s="11"/>
@@ -15889,27 +15908,27 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11">
-        <f>SUM(S26:V26)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB26" s="11">
-        <f>R26+W26+AA26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC26" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD26" s="11"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="62">
         <v>43429</v>
       </c>
@@ -15921,7 +15940,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11">
-        <f>SUM(C27:F27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="11"/>
@@ -15930,18 +15949,18 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11">
-        <f>SUM(H27:L27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R27" s="11">
-        <f>G27+M27+Q27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S27" s="11"/>
@@ -15949,27 +15968,27 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11">
-        <f>SUM(S27:V27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
       <c r="AA27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB27" s="11">
-        <f>R27+W27+AA27</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD27" s="11"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>43430</v>
       </c>
@@ -15981,7 +16000,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11">
-        <f>SUM(C28:F28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="11"/>
@@ -15990,18 +16009,18 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11">
-        <f>SUM(H28:L28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R28" s="11">
-        <f>G28+M28+Q28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S28" s="11"/>
@@ -16009,27 +16028,27 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11">
-        <f>SUM(S28:V28)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB28" s="11">
-        <f>R28+W28+AA28</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC28" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD28" s="11"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>43431</v>
       </c>
@@ -16041,7 +16060,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11">
-        <f>SUM(C29:F29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="11"/>
@@ -16050,18 +16069,18 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11">
-        <f>SUM(H29:L29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R29" s="11">
-        <f>G29+M29+Q29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S29" s="11"/>
@@ -16069,27 +16088,27 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11">
-        <f>SUM(S29:V29)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB29" s="11">
-        <f>R29+W29+AA29</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC29" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD29" s="11"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="62">
         <v>43432</v>
       </c>
@@ -16101,7 +16120,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11">
-        <f>SUM(C30:F30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="11"/>
@@ -16110,18 +16129,18 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11">
-        <f>SUM(H30:L30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R30" s="11">
-        <f>G30+M30+Q30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S30" s="11"/>
@@ -16129,27 +16148,27 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11">
-        <f>SUM(S30:V30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB30" s="11">
-        <f>R30+W30+AA30</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC30" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD30" s="11"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>43433</v>
       </c>
@@ -16161,7 +16180,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11">
-        <f>SUM(C31:F31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="11"/>
@@ -16170,18 +16189,18 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11">
-        <f>SUM(H31:L31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R31" s="11">
-        <f>G31+M31+Q31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S31" s="11"/>
@@ -16189,27 +16208,27 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11">
-        <f>SUM(S31:V31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB31" s="11">
-        <f>R31+W31+AA31</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC31" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD31" s="11"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
         <v>43434</v>
       </c>
@@ -16221,7 +16240,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11">
-        <f>SUM(C32:F32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="11"/>
@@ -16230,18 +16249,18 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11">
-        <f>SUM(H32:L32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R32" s="11">
-        <f>G32+M32+Q32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S32" s="11"/>
@@ -16249,27 +16268,27 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11">
-        <f>SUM(S32:V32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB32" s="11">
-        <f>R32+W32+AA32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC32" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD32" s="11"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="62"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -16301,17 +16320,17 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
       <c r="G34" s="4">
         <f>SUM(G3:G33)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M3:M33)</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="Q34" s="4">
         <f>SUM(Q3:Q33)</f>
@@ -16319,26 +16338,26 @@
       </c>
       <c r="R34" s="4">
         <f>G34+M34+Q34</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="W34" s="4">
         <f>SUM(W3:W33)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AB34" s="4">
         <f>R34+W34+AA34</f>
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+        <v>0.26935483870967741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -16347,14 +16366,14 @@
       </c>
       <c r="G35" s="15">
         <f>G34/60</f>
-        <v>0</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="L35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="15">
         <f>M34/60</f>
-        <v>0</v>
+        <v>1.3833333333333333</v>
       </c>
       <c r="P35" s="37" t="s">
         <v>3</v>
@@ -16365,42 +16384,42 @@
       </c>
       <c r="R35" s="15">
         <f>R34/60</f>
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="V35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="W35" s="15">
         <f>W34/60</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
       <c r="G36" s="4">
         <f>G35/31</f>
-        <v>0</v>
+        <v>3.118279569892473E-2</v>
       </c>
       <c r="M36" s="4">
         <f>M35/31</f>
-        <v>0</v>
+        <v>4.4623655913978495E-2</v>
       </c>
       <c r="Q36" s="4">
         <f>Q35/31</f>
@@ -16408,18 +16427,18 @@
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
-        <v>0</v>
+        <v>7.5806451612903225E-2</v>
       </c>
       <c r="AA36" s="4">
         <f>AA35/31</f>
-        <v>0</v>
+        <v>0.17741935483870969</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+        <v>0.26935483870967741</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -16442,17 +16461,17 @@
         <v>6.6715053763440872</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
       <c r="G38" s="4">
         <f>G36-G37</f>
-        <v>-0.39677419354838711</v>
+        <v>-0.36559139784946237</v>
       </c>
       <c r="M38" s="4">
         <f>M36-M37</f>
-        <v>-2.513440860215054</v>
+        <v>-2.4688172043010757</v>
       </c>
       <c r="Q38" s="4">
         <f>Q36-Q37</f>
@@ -16460,18 +16479,18 @@
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
-        <v>-2.9263440860215053</v>
+        <v>-2.8505376344086022</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>-3.3499999999999996</v>
+        <v>-3.1725806451612901</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-6.6715053763440872</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
+        <v>-6.4021505376344097</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -16479,7 +16498,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -16489,14 +16508,14 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
+        <v>2.0719602977667492E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -16506,11 +16525,11 @@
       </c>
       <c r="C41" s="4">
         <f>C40</f>
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="D41" s="39">
         <f>C41/B41</f>
-        <v>0</v>
+        <v>2.9195804195804195E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16538,103 +16557,103 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.69921875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.19921875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.3984375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.375" style="4" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="141" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="78"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="106"/>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
@@ -16670,11 +16689,11 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="78" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -16716,7 +16735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43313</v>
       </c>
@@ -16749,7 +16768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43314</v>
       </c>
@@ -16801,7 +16820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43315</v>
       </c>
@@ -16837,7 +16856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43316</v>
       </c>
@@ -16852,7 +16871,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43317</v>
       </c>
@@ -16864,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43318</v>
       </c>
@@ -16876,7 +16895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43319</v>
       </c>
@@ -16909,7 +16928,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43320</v>
       </c>
@@ -16936,7 +16955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43321</v>
       </c>
@@ -16969,7 +16988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43322</v>
       </c>
@@ -17010,7 +17029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43323</v>
       </c>
@@ -17046,7 +17065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43324</v>
       </c>
@@ -17085,7 +17104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43325</v>
       </c>
@@ -17124,7 +17143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43326</v>
       </c>
@@ -17163,7 +17182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43327</v>
       </c>
@@ -17196,7 +17215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43328</v>
       </c>
@@ -17208,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43329</v>
       </c>
@@ -17220,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43330</v>
       </c>
@@ -17235,7 +17254,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43331</v>
       </c>
@@ -17247,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43332</v>
       </c>
@@ -17259,7 +17278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43333</v>
       </c>
@@ -17271,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43334</v>
       </c>
@@ -17295,7 +17314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43335</v>
       </c>
@@ -17325,7 +17344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43336</v>
       </c>
@@ -17337,7 +17356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43337</v>
       </c>
@@ -17349,7 +17368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43338</v>
       </c>
@@ -17373,7 +17392,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43339</v>
       </c>
@@ -17385,7 +17404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>43340</v>
       </c>
@@ -17397,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>43341</v>
       </c>
@@ -17409,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43342</v>
       </c>
@@ -17424,7 +17443,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>43343</v>
       </c>
@@ -17436,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17466,81 +17485,81 @@
       <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.59765625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.19921875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="4" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="4"/>
     <col min="20" max="22" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" style="4" customWidth="1"/>
     <col min="24" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="4"/>
     <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.09765625" style="11" customWidth="1"/>
-    <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="11" customWidth="1"/>
+    <col min="31" max="31" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78" t="s">
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AB1" s="76" t="s">
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AB1" s="112" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="59" t="s">
         <v>9</v>
       </c>
@@ -17616,7 +17635,7 @@
       <c r="AA2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="77"/>
+      <c r="AB2" s="113"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -17624,7 +17643,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="62">
         <v>43374</v>
       </c>
@@ -17689,7 +17708,7 @@
         <v>240</v>
       </c>
       <c r="AB3" s="60">
-        <f t="shared" ref="AB3:AB34" si="3">S3+W3+AA3</f>
+        <f t="shared" ref="AB3:AB33" si="3">S3+W3+AA3</f>
         <v>586</v>
       </c>
       <c r="AC3" s="61">
@@ -17698,7 +17717,7 @@
       </c>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="62">
         <v>43375</v>
       </c>
@@ -17750,7 +17769,7 @@
       <c r="U4" s="60"/>
       <c r="V4" s="60"/>
       <c r="W4" s="60">
-        <f t="shared" ref="W4:W34" si="5">SUM(T4:V4)</f>
+        <f t="shared" ref="W4:W33" si="5">SUM(T4:V4)</f>
         <v>10</v>
       </c>
       <c r="X4" s="60">
@@ -17774,7 +17793,7 @@
       </c>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="65">
         <v>43376</v>
       </c>
@@ -17835,7 +17854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>43377</v>
       </c>
@@ -17906,7 +17925,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <v>43378</v>
       </c>
@@ -17973,7 +17992,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <v>43379</v>
       </c>
@@ -18042,7 +18061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>43380</v>
       </c>
@@ -18103,7 +18122,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <v>43381</v>
       </c>
@@ -18172,7 +18191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="68">
         <v>43382</v>
       </c>
@@ -18239,7 +18258,7 @@
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="62">
         <v>43383</v>
       </c>
@@ -18308,7 +18327,7 @@
         <v>9.8333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>43384</v>
       </c>
@@ -18379,7 +18398,7 @@
         <v>9.6333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>43385</v>
       </c>
@@ -18450,7 +18469,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>43386</v>
       </c>
@@ -18518,7 +18537,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>43387</v>
       </c>
@@ -18583,7 +18602,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>43388</v>
       </c>
@@ -18655,7 +18674,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>43389</v>
       </c>
@@ -18727,7 +18746,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>43390</v>
       </c>
@@ -18792,7 +18811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>43391</v>
       </c>
@@ -18867,7 +18886,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>43392</v>
       </c>
@@ -18941,7 +18960,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
         <v>43393</v>
       </c>
@@ -19006,7 +19025,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>43394</v>
       </c>
@@ -19065,7 +19084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>43395</v>
       </c>
@@ -19131,7 +19150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
         <v>43396</v>
       </c>
@@ -19209,7 +19228,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="62">
         <v>43397</v>
       </c>
@@ -19276,7 +19295,7 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="72">
         <v>43398</v>
       </c>
@@ -19362,7 +19381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>43399</v>
       </c>
@@ -19434,7 +19453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>43400</v>
       </c>
@@ -19502,7 +19521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="62">
         <v>43401</v>
       </c>
@@ -19568,7 +19587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>43402</v>
       </c>
@@ -19643,7 +19662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
         <v>43403</v>
       </c>
@@ -19718,7 +19737,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="62">
         <v>43404</v>
       </c>
@@ -19791,7 +19810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
@@ -19832,7 +19851,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -19884,7 +19903,7 @@
         <v>215.15</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
@@ -19921,7 +19940,7 @@
         <v>7.7785359801488836</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -19944,7 +19963,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
@@ -19973,7 +19992,7 @@
         <v>0.15473118279570119</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -19981,7 +20000,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -19998,7 +20017,7 @@
         <v>0.53387096774193554</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -20044,18 +20063,18 @@
       <selection pane="bottomRight" activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.19921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="4"/>
@@ -20063,66 +20082,66 @@
     <col min="22" max="22" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4"/>
     <col min="31" max="31" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="U1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78" t="s">
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AD1" s="76" t="s">
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AD1" s="112" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -20204,7 +20223,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="77"/>
+      <c r="AD2" s="113"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -20212,7 +20231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43344</v>
       </c>
@@ -20262,7 +20281,7 @@
       </c>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43345</v>
       </c>
@@ -20306,7 +20325,7 @@
       </c>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43346</v>
       </c>
@@ -20358,7 +20377,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43347</v>
       </c>
@@ -20413,7 +20432,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43348</v>
       </c>
@@ -20483,7 +20502,7 @@
         <v>8.3666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43349</v>
       </c>
@@ -20547,7 +20566,7 @@
         <v>11.566666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43350</v>
       </c>
@@ -20599,7 +20618,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43351</v>
       </c>
@@ -20666,7 +20685,7 @@
         <v>7.8166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43352</v>
       </c>
@@ -20715,7 +20734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43353</v>
       </c>
@@ -20758,7 +20777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43354</v>
       </c>
@@ -20810,7 +20829,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43355</v>
       </c>
@@ -20869,7 +20888,7 @@
         <v>7.2166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43356</v>
       </c>
@@ -20925,7 +20944,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43357</v>
       </c>
@@ -20983,7 +21002,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43358</v>
       </c>
@@ -21041,7 +21060,7 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43359</v>
       </c>
@@ -21087,7 +21106,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43360</v>
       </c>
@@ -21139,7 +21158,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>43361</v>
       </c>
@@ -21210,7 +21229,7 @@
         <v>8.3833333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>43362</v>
       </c>
@@ -21280,7 +21299,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43363</v>
       </c>
@@ -21345,7 +21364,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43364</v>
       </c>
@@ -21408,7 +21427,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43365</v>
       </c>
@@ -21468,7 +21487,7 @@
         <v>9.3166666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43366</v>
       </c>
@@ -21525,7 +21544,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43367</v>
       </c>
@@ -21577,7 +21596,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43368</v>
       </c>
@@ -21623,7 +21642,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43369</v>
       </c>
@@ -21672,7 +21691,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43370</v>
       </c>
@@ -21731,7 +21750,7 @@
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43371</v>
       </c>
@@ -21787,7 +21806,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43372</v>
       </c>
@@ -21836,7 +21855,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43373</v>
       </c>
@@ -21879,7 +21898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="H33" s="4">
         <f t="shared" si="7"/>
@@ -21914,7 +21933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
@@ -21951,7 +21970,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -22000,7 +22019,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
@@ -22033,7 +22052,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -22059,7 +22078,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
@@ -22092,7 +22111,7 @@
         <v>0.25870967741935402</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -22100,7 +22119,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -22117,7 +22136,7 @@
         <v>0.5066666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f>13*30</f>
         <v>390</v>
@@ -22157,18 +22176,18 @@
       <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
@@ -22179,65 +22198,65 @@
     <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="30" max="30" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78" t="s">
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AC1" s="76" t="s">
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AC1" s="112" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -22316,12 +22335,12 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="77"/>
+      <c r="AC2" s="113"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -22376,7 +22395,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -22438,7 +22457,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -22492,7 +22511,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -22539,7 +22558,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -22582,7 +22601,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -22628,7 +22647,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -22692,7 +22711,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -22735,7 +22754,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -22791,7 +22810,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -22856,7 +22875,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -22902,7 +22921,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -22945,7 +22964,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -23005,7 +23024,7 @@
         <v>7.7833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -23070,7 +23089,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -23131,7 +23150,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -23186,7 +23205,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -23235,7 +23254,7 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -23284,7 +23303,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -23324,7 +23343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -23370,7 +23389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -23422,7 +23441,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -23465,7 +23484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -23514,7 +23533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -23560,7 +23579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -23606,7 +23625,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -23649,7 +23668,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -23695,7 +23714,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -23747,7 +23766,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -23799,7 +23818,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -23857,7 +23876,7 @@
         <v>10.333333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -23915,8 +23934,8 @@
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A34" s="126"/>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" s="90"/>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
         <v>320</v>
@@ -23950,8 +23969,8 @@
         <v>5.8736559139784941</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A35" s="126"/>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" s="90"/>
       <c r="G35" s="38" t="s">
         <v>1</v>
       </c>
@@ -23993,8 +24012,8 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A36" s="126"/>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" s="90"/>
       <c r="H36" s="4">
         <f>H35/31</f>
         <v>0.17204301075268816</v>
@@ -24020,8 +24039,8 @@
         <v>4.1279569892473118</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A37" s="126"/>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" s="90"/>
       <c r="G37" s="4" t="s">
         <v>168</v>
       </c>
@@ -24046,14 +24065,14 @@
         <v>127.96666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A38" s="126"/>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A38" s="90"/>
       <c r="Z38" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A39" s="126"/>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A39" s="90"/>
       <c r="N39" s="4" t="s">
         <v>169</v>
       </c>
@@ -24080,89 +24099,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5132EE09-5567-4AE4-ABCB-3A2396D7F227}">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.59765625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.75" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="81" t="s">
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AB1" s="79" t="s">
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AB1" s="114" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -24238,9 +24257,9 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="80"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB2" s="115"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -24297,7 +24316,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -24353,7 +24372,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -24405,7 +24424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -24461,7 +24480,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -24522,7 +24541,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43288</v>
       </c>
@@ -24580,7 +24599,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43289</v>
       </c>
@@ -24639,7 +24658,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
@@ -24708,7 +24727,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -24771,7 +24790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -24838,7 +24857,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
@@ -24903,7 +24922,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -24967,7 +24986,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43295</v>
       </c>
@@ -25026,7 +25045,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43296</v>
       </c>
@@ -25080,7 +25099,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -25139,7 +25158,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
@@ -25197,7 +25216,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48">
         <v>43299</v>
       </c>
@@ -25267,7 +25286,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -25328,7 +25347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -25394,7 +25413,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43302</v>
       </c>
@@ -25451,7 +25470,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43303</v>
       </c>
@@ -25503,7 +25522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -25564,7 +25583,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -25627,7 +25646,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -25686,7 +25705,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -25747,7 +25766,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -25799,7 +25818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43309</v>
       </c>
@@ -25860,7 +25879,7 @@
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43310</v>
       </c>
@@ -25912,7 +25931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -25964,7 +25983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -26016,7 +26035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -26044,7 +26063,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -26071,7 +26090,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -26132,7 +26151,7 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -26193,7 +26212,7 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -26220,7 +26239,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -26245,7 +26264,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -26270,7 +26289,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -26295,7 +26314,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -26320,7 +26339,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -26345,7 +26364,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -26370,7 +26389,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -26395,7 +26414,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -26420,7 +26439,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -26466,69 +26485,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAF7764-7C55-49BD-BF97-6EED0EBC9E4E}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="32" width="5.69921875" customWidth="1"/>
+    <col min="1" max="32" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93" t="s">
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="94" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95" t="s">
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="100" t="s">
+      <c r="S1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="91" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R3" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>203</v>
       </c>
@@ -26570,12 +26589,12 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>203</v>
       </c>
@@ -26608,12 +26627,12 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>203</v>
       </c>
@@ -26652,12 +26671,12 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>203</v>
       </c>
@@ -26699,51 +26718,51 @@
         <v>214.81666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B16" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="I16" s="93" t="s">
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="I16" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="Q16" s="127" t="s">
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="Q16" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="Y16" s="128" t="s">
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="Y16" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -26838,11 +26857,11 @@
         <f xml:space="preserve"> 21 * 24</f>
         <v>504</v>
       </c>
-      <c r="AI17" s="129" t="s">
+      <c r="AI17" s="91" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -26906,7 +26925,7 @@
       <c r="AF18" t="s">
         <v>213</v>
       </c>
-      <c r="AG18" s="129" t="s">
+      <c r="AG18" s="91" t="s">
         <v>219</v>
       </c>
       <c r="AH18">
@@ -26914,11 +26933,11 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AF19" t="s">
         <v>214</v>
       </c>
-      <c r="AG19" s="129" t="s">
+      <c r="AG19" s="91" t="s">
         <v>220</v>
       </c>
       <c r="AH19">
@@ -26926,11 +26945,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF20" t="s">
         <v>221</v>
       </c>
-      <c r="AG20" s="129" t="s">
+      <c r="AG20" s="91" t="s">
         <v>222</v>
       </c>
       <c r="AH20">
@@ -26938,14 +26957,14 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AF21" s="139" t="s">
+    <row r="21" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF21" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="AG21" s="140" t="s">
+      <c r="AG21" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="AH21" s="141">
+      <c r="AH21" s="103">
         <f>21*12</f>
         <v>252</v>
       </c>
@@ -26953,8 +26972,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AG22" s="129" t="s">
+    <row r="22" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AG22" s="91" t="s">
         <v>218</v>
       </c>
       <c r="AH22" s="17">
@@ -26962,34 +26981,34 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="AF23" s="130" t="s">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AF23" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="AG23" s="131" t="s">
+      <c r="AG23" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="AH23" s="132">
+      <c r="AH23" s="94">
         <f>21*14</f>
         <v>294</v>
       </c>
-      <c r="AI23" s="133" t="s">
+      <c r="AI23" s="95" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="AF24" s="134"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="114"/>
-      <c r="AI24" s="135" t="s">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AF24" s="96"/>
+      <c r="AG24" s="85"/>
+      <c r="AH24" s="85"/>
+      <c r="AI24" s="97" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AF25" s="136"/>
-      <c r="AG25" s="137"/>
-      <c r="AH25" s="137"/>
-      <c r="AI25" s="138" t="s">
+    <row r="25" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="100" t="s">
         <v>226</v>
       </c>
     </row>
@@ -27020,150 +27039,150 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="101"/>
-      <c r="C2" s="102" t="s">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="82" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="104">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="K3" s="99" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="122"/>
+      <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="104">
+    <row r="4" spans="2:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="83">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="109" t="s">
+      <c r="C4" s="120"/>
+      <c r="D4" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="122"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="104">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="83">
         <v>0.25</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="108"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="122"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="104">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="83">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="108"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="104">
+      <c r="C6" s="120"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="83">
         <v>0.33333333333333398</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110" t="s">
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="111"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="104">
+      <c r="I7" s="123"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="111"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="123"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="104">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="113" t="s">
+      <c r="D9" s="124"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="111"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="123"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -27171,19 +27190,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B10" s="104">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="115" t="s">
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="111"/>
+      <c r="I10" s="123"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -27191,44 +27210,44 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="104">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107" t="s">
+      <c r="D11" s="121"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="116" t="s">
+      <c r="G11" s="121"/>
+      <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="111"/>
+      <c r="I11" s="123"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="104">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="112" t="s">
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="117" t="s">
+      <c r="G12" s="119"/>
+      <c r="H12" s="126" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="111"/>
+      <c r="I12" s="123"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -27236,21 +27255,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="104">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="83">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="118" t="s">
+      <c r="D13" s="125"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="111"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="123"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -27258,36 +27277,36 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="104">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="113" t="s">
+      <c r="D14" s="124"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="113"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="111"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="123"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="104">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="111"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="123"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -27295,23 +27314,23 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="104">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="120" t="s">
+      <c r="D16" s="88"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="115" t="s">
+      <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="111"/>
+      <c r="I16" s="123"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -27319,44 +27338,44 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="104">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="116" t="s">
+      <c r="C17" s="128"/>
+      <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="116" t="s">
+      <c r="E17" s="120"/>
+      <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="116" t="s">
+      <c r="G17" s="128"/>
+      <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="111"/>
+      <c r="I17" s="123"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="104">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="119" t="s">
+      <c r="C18" s="128"/>
+      <c r="D18" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="119" t="s">
+      <c r="E18" s="120"/>
+      <c r="F18" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120" t="s">
+      <c r="G18" s="128"/>
+      <c r="H18" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="111"/>
+      <c r="I18" s="123"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -27364,17 +27383,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="104">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="111"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="123"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -27382,21 +27401,21 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="104">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="83">
         <v>0.875000000000001</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="116" t="s">
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="105"/>
-      <c r="I20" s="111"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="123"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -27404,22 +27423,32 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="122">
+    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="125"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D4:G7"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:G21"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="H3:I6"/>
@@ -27436,16 +27465,6 @@
     <mergeCell ref="E9:E19"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D4:G7"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27460,9 +27479,9 @@
       <selection activeCell="C9" sqref="C9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>93</v>
       </c>
@@ -27485,220 +27504,220 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="82" t="s">
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="134" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="82"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="134"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="134"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="82"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="134"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="85" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="137" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="85"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="137"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83" t="s">
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="135" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="84"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="136"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82" t="s">
+      <c r="D14" s="134"/>
+      <c r="E14" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="84"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G14" s="134"/>
+      <c r="H14" s="136"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="84"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="136"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="88" t="s">
+      <c r="E16" s="134"/>
+      <c r="F16" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="88" t="s">
+      <c r="G16" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="84"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H16" s="136"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="84"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="136"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="84"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="136"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="82"/>
+      <c r="E19" s="134"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="88"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G19" s="140"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
         <v>0.875000000000001</v>
@@ -27706,14 +27725,14 @@
       <c r="C20" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <f>B21-B3</f>
         <v>0.75000000000000133</v>
@@ -27721,28 +27740,22 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -27756,6 +27769,12 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27770,31 +27789,31 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="66.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="70"/>
       <c r="B2" s="70" t="s">
         <v>93</v>
@@ -27824,7 +27843,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>130</v>
       </c>
@@ -27856,7 +27875,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -27879,7 +27898,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -27902,7 +27921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -27925,7 +27944,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -27948,12 +27967,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>147</v>
       </c>
@@ -27964,7 +27983,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>148</v>
       </c>
@@ -27972,7 +27991,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>149</v>
       </c>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483DEA0-6B98-4D8C-9688-42FEEF4AAA35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC2779-A1D0-4B8D-ABC9-7B32DF868691}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
@@ -8408,7 +8408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="229">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9396,6 +9396,10 @@
     <t>현재</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>집청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -9920,7 +9924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10233,6 +10237,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="22" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10278,10 +10285,40 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10290,49 +10327,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10342,6 +10337,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14313,7 +14320,7 @@
       <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14344,56 +14351,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="109" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="110" t="s">
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
       <c r="R1" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="107" t="s">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="104" t="s">
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="105" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="75" t="s">
         <v>128</v>
       </c>
@@ -14469,9 +14476,12 @@
       <c r="AA2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="105"/>
+      <c r="AB2" s="106"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
+      </c>
+      <c r="AD2" s="104" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -14556,21 +14566,29 @@
         <v>60</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11">
+        <v>45</v>
+      </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11">
+        <v>15</v>
+      </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="H4" s="11">
+        <v>20</v>
+      </c>
+      <c r="I4" s="11">
+        <v>30</v>
+      </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -14581,30 +14599,38 @@
       </c>
       <c r="R4" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="S4" s="11">
+        <v>60</v>
+      </c>
       <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
+      <c r="U4" s="11">
+        <v>40</v>
+      </c>
       <c r="V4" s="11"/>
       <c r="W4" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="X4" s="11">
+        <v>180</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>240</v>
+      </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="AC4" s="11">
         <f t="shared" ref="AC4:AC32" si="7">AB4/60</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" s="11"/>
     </row>
@@ -14624,13 +14650,17 @@
         <v>0</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11">
+        <v>35</v>
+      </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="11">
+        <v>120</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -14641,7 +14671,7 @@
       </c>
       <c r="R5" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -14653,18 +14683,20 @@
       </c>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+      <c r="Z5" s="11">
+        <v>105</v>
+      </c>
       <c r="AA5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AC5" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AD5" s="11"/>
     </row>
@@ -14692,16 +14724,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="11">
+        <v>30</v>
+      </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R6" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
@@ -14720,11 +14754,11 @@
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC6" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" s="11"/>
     </row>
@@ -14764,29 +14798,37 @@
         <v>0</v>
       </c>
       <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
+      <c r="T7" s="11">
+        <v>5</v>
+      </c>
+      <c r="U7" s="11">
+        <v>20</v>
+      </c>
       <c r="V7" s="11"/>
       <c r="W7" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
+      <c r="Y7" s="11">
+        <v>430</v>
+      </c>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="AC7" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11"/>
+        <v>7.583333333333333</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
@@ -16326,35 +16368,35 @@
       </c>
       <c r="G34" s="4">
         <f>SUM(G3:G33)</f>
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M3:M33)</f>
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="Q34" s="4">
         <f>SUM(Q3:Q33)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R34" s="4">
         <f>G34+M34+Q34</f>
-        <v>141</v>
+        <v>436</v>
       </c>
       <c r="W34" s="4">
         <f>SUM(W3:W33)</f>
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>330</v>
+        <v>1285</v>
       </c>
       <c r="AB34" s="4">
         <f>R34+W34+AA34</f>
-        <v>501</v>
+        <v>1876</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>0.26935483870967741</v>
+        <v>1.0086021505376344</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
@@ -16366,47 +16408,47 @@
       </c>
       <c r="G35" s="15">
         <f>G34/60</f>
-        <v>0.96666666666666667</v>
+        <v>1.9666666666666666</v>
       </c>
       <c r="L35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="15">
         <f>M34/60</f>
-        <v>1.3833333333333333</v>
+        <v>4.8</v>
       </c>
       <c r="P35" s="37" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="15">
         <f>Q34/60</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R35" s="15">
         <f>R34/60</f>
-        <v>2.35</v>
+        <v>7.2666666666666666</v>
       </c>
       <c r="V35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="W35" s="15">
         <f>W34/60</f>
-        <v>0.5</v>
+        <v>2.5833333333333335</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>5.5</v>
+        <v>21.416666666666668</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>8.35</v>
+        <v>31.266666666666666</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>8.35</v>
+        <v>31.266666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
@@ -16415,27 +16457,27 @@
       </c>
       <c r="G36" s="4">
         <f>G35/31</f>
-        <v>3.118279569892473E-2</v>
+        <v>6.3440860215053754E-2</v>
       </c>
       <c r="M36" s="4">
         <f>M35/31</f>
-        <v>4.4623655913978495E-2</v>
+        <v>0.15483870967741936</v>
       </c>
       <c r="Q36" s="4">
         <f>Q35/31</f>
-        <v>0</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
-        <v>7.5806451612903225E-2</v>
+        <v>0.23440860215053763</v>
       </c>
       <c r="AA36" s="4">
         <f>AA35/31</f>
-        <v>0.17741935483870969</v>
+        <v>0.69086021505376349</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>0.26935483870967741</v>
+        <v>1.0086021505376344</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
@@ -16467,27 +16509,27 @@
       </c>
       <c r="G38" s="4">
         <f>G36-G37</f>
-        <v>-0.36559139784946237</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="M38" s="4">
         <f>M36-M37</f>
-        <v>-2.4688172043010757</v>
+        <v>-2.3586021505376347</v>
       </c>
       <c r="Q38" s="4">
         <f>Q36-Q37</f>
-        <v>-1.6129032258064516E-2</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
-        <v>-2.8505376344086022</v>
+        <v>-2.6919354838709677</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>-3.1725806451612901</v>
+        <v>-2.6591397849462362</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-6.4021505376344097</v>
+        <v>-5.6629032258064527</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
@@ -16508,11 +16550,11 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>8.35</v>
+        <v>31.266666666666666</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>2.0719602977667492E-2</v>
+        <v>7.7584780810587256E-2</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
@@ -16525,11 +16567,11 @@
       </c>
       <c r="C41" s="4">
         <f>C40</f>
-        <v>8.35</v>
+        <v>31.266666666666666</v>
       </c>
       <c r="D41" s="39">
         <f>C41/B41</f>
-        <v>2.9195804195804195E-2</v>
+        <v>0.10932400932400932</v>
       </c>
     </row>
   </sheetData>
@@ -16553,7 +16595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FA3BB6-099A-4AC3-88F4-8C9D0446935C}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -16579,81 +16621,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="142" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="106"/>
+      <c r="A5" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="107"/>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
@@ -16690,10 +16732,10 @@
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="106"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -17479,10 +17521,10 @@
   <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="28" ySplit="2" topLeftCell="AC17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17511,55 +17553,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="106" t="s">
+      <c r="T1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106" t="s">
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AB1" s="112" t="s">
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AB1" s="113" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="59" t="s">
         <v>9</v>
       </c>
@@ -17635,7 +17677,7 @@
       <c r="AA2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="113"/>
+      <c r="AB2" s="114"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -20057,10 +20099,10 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="30" ySplit="2" topLeftCell="AE18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V43" sqref="V43"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20091,57 +20133,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="106" t="s">
+      <c r="U1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106" t="s">
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AD1" s="112" t="s">
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AD1" s="113" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -20223,7 +20265,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="113"/>
+      <c r="AD2" s="114"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -22172,8 +22214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF94F40-59B1-4822-A84E-AA06485819CC}">
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22207,56 +22249,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="106" t="s">
+      <c r="T1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106" t="s">
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AC1" s="112" t="s">
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AC1" s="113" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -22335,7 +22377,7 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="113"/>
+      <c r="AC2" s="114"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
@@ -24133,55 +24175,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106" t="s">
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="106" t="s">
+      <c r="T1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="116" t="s">
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="116"/>
-      <c r="AB1" s="114" t="s">
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AB1" s="115" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -24257,7 +24299,7 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="115"/>
+      <c r="AB2" s="116"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -26485,8 +26527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAF7764-7C55-49BD-BF97-6EED0EBC9E4E}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26495,47 +26537,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="109" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="110" t="s">
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
       <c r="R1" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="107" t="s">
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R3" s="17" t="s">
@@ -26729,38 +26771,38 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="I16" s="109" t="s">
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="I16" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="Q16" s="117" t="s">
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="Q16" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="Y16" s="118" t="s">
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="Y16" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -27079,14 +27121,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C3" s="120"/>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="133"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
@@ -27096,14 +27138,14 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C4" s="120"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
@@ -27113,12 +27155,12 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="120"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="122"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="133"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
@@ -27128,12 +27170,12 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="C6" s="120"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="83">
@@ -27142,28 +27184,28 @@
       <c r="C7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
       <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="123"/>
+      <c r="I7" s="121"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="123"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="121"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
@@ -27172,17 +27214,17 @@
       <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="124"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="120"/>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="124"/>
+      <c r="G9" s="134"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="123"/>
+      <c r="I9" s="121"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -27194,15 +27236,15 @@
       <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="120"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
       <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="123"/>
+      <c r="I10" s="121"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -27214,19 +27256,19 @@
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="121"/>
+      <c r="D11" s="132"/>
       <c r="E11" s="120"/>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="121"/>
+      <c r="G11" s="132"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="123"/>
+      <c r="I11" s="121"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
@@ -27235,19 +27277,19 @@
       <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="119"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="120"/>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="119"/>
-      <c r="H12" s="126" t="s">
+      <c r="G12" s="124"/>
+      <c r="H12" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="123"/>
+      <c r="I12" s="121"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -27259,17 +27301,17 @@
       <c r="B13" s="83">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="125"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="120"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="125"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="121"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -27281,17 +27323,17 @@
       <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="120"/>
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="124"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="121"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
@@ -27300,13 +27342,13 @@
       <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="120"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="123"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="121"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -27330,7 +27372,7 @@
       <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="123"/>
+      <c r="I16" s="121"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -27354,7 +27396,7 @@
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="123"/>
+      <c r="I17" s="121"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
@@ -27364,18 +27406,18 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="C18" s="128"/>
-      <c r="D18" s="127" t="s">
+      <c r="D18" s="130" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="120"/>
-      <c r="F18" s="127" t="s">
+      <c r="F18" s="130" t="s">
         <v>184</v>
       </c>
       <c r="G18" s="128"/>
       <c r="H18" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="123"/>
+      <c r="I18" s="121"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -27388,12 +27430,12 @@
         <v>0.83333333333333404</v>
       </c>
       <c r="C19" s="128"/>
-      <c r="D19" s="127"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="120"/>
-      <c r="F19" s="127"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="128"/>
       <c r="H19" s="128"/>
-      <c r="I19" s="123"/>
+      <c r="I19" s="121"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -27415,7 +27457,7 @@
         <v>97</v>
       </c>
       <c r="H20" s="120"/>
-      <c r="I20" s="123"/>
+      <c r="I20" s="121"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -27427,28 +27469,22 @@
       <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D4:G7"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="E9:E19"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="H3:I6"/>
@@ -27461,10 +27497,16 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E9:E19"/>
+    <mergeCell ref="D4:G7"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27508,25 +27550,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="134" t="s">
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="138" t="s">
         <v>96</v>
       </c>
     </row>
@@ -27534,42 +27576,42 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="134"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="134"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="134"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="138"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="137" t="s">
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="139" t="s">
         <v>1</v>
       </c>
     </row>
@@ -27577,47 +27619,47 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="139"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="135" t="s">
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="140" t="s">
         <v>100</v>
       </c>
     </row>
@@ -27625,97 +27667,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="136"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="141"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="134"/>
-      <c r="H14" s="136"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="141"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="136"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="141"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="140" t="s">
+      <c r="D16" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="134"/>
-      <c r="F16" s="140" t="s">
+      <c r="E16" s="138"/>
+      <c r="F16" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="140" t="s">
+      <c r="G16" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="136"/>
+      <c r="H16" s="141"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="136"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="141"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="136"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="141"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="140"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="134"/>
+      <c r="E19" s="138"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="137"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -27725,9 +27767,9 @@
       <c r="C20" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
       <c r="G20" s="23" t="s">
         <v>97</v>
       </c>
@@ -27740,13 +27782,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -27756,6 +27798,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -27772,9 +27817,6 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27786,7 +27828,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27801,17 +27843,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="70"/>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7751E1FE-556C-4917-88CE-134E8F85DB2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F415072D-1636-4B07-AF8A-98C1CFA924E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="11월" sheetId="12" r:id="rId1"/>
@@ -24,10 +24,15 @@
     <sheet name="운동" sheetId="10" r:id="rId9"/>
     <sheet name="식단" sheetId="2" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -10353,6 +10358,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="27" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="22" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10398,28 +10409,22 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10434,13 +10439,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10466,12 +10477,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -14436,90 +14441,90 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="28" ySplit="2" topLeftCell="AC10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG17" sqref="AG17"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
-    <col min="3" max="7" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.59765625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.59765625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" style="4" customWidth="1"/>
-    <col min="24" max="25" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111" t="s">
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
       <c r="R1" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="113" t="s">
+      <c r="S1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="109" t="s">
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="106" t="s">
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="108" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="108"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="75" t="s">
         <v>128</v>
       </c>
@@ -14595,7 +14600,7 @@
       <c r="AA2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="107"/>
+      <c r="AB2" s="109"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -14609,7 +14614,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="62">
         <v>43405</v>
       </c>
@@ -14683,7 +14688,7 @@
       </c>
       <c r="AD3" s="11"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="62">
         <v>43406</v>
       </c>
@@ -14759,7 +14764,7 @@
       </c>
       <c r="AD4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="62">
         <v>43407</v>
       </c>
@@ -14825,7 +14830,7 @@
       </c>
       <c r="AD5" s="11"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>43408</v>
       </c>
@@ -14887,7 +14892,7 @@
       </c>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <v>43409</v>
       </c>
@@ -14955,7 +14960,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <v>43410</v>
       </c>
@@ -15023,7 +15028,7 @@
       </c>
       <c r="AD8" s="11"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>43411</v>
       </c>
@@ -15090,7 +15095,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="76">
         <v>43412</v>
       </c>
@@ -15158,7 +15163,7 @@
       </c>
       <c r="AD10" s="11"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="62">
         <v>43413</v>
       </c>
@@ -15230,11 +15235,11 @@
       </c>
       <c r="AD11" s="11"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="144">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="106">
         <v>43414</v>
       </c>
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="107" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="11"/>
@@ -15297,7 +15302,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>43415</v>
       </c>
@@ -15361,29 +15366,35 @@
       </c>
       <c r="AD13" s="11"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>43416</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11">
+        <v>45</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>14</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11">
+        <v>30</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -15394,34 +15405,40 @@
       </c>
       <c r="R14" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
+      <c r="V14" s="11">
+        <v>60</v>
+      </c>
       <c r="W14" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
+      <c r="Y14" s="11">
+        <v>240</v>
+      </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="AC14" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="11"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+        <v>6.4833333333333334</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>43417</v>
       </c>
@@ -15429,12 +15446,16 @@
         <v>50</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>45</v>
+      </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <v>15</v>
+      </c>
       <c r="G15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -15454,7 +15475,7 @@
       </c>
       <c r="R15" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
@@ -15473,15 +15494,15 @@
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC15" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="11"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>43418</v>
       </c>
@@ -15500,10 +15521,12 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="L16" s="11">
+        <v>60</v>
+      </c>
       <c r="M16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -15514,34 +15537,38 @@
       </c>
       <c r="R16" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
+      <c r="U16" s="11">
+        <v>30</v>
+      </c>
       <c r="V16" s="11"/>
       <c r="W16" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="X16" s="11">
+        <v>170</v>
+      </c>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AC16" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AD16" s="11"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>43419</v>
       </c>
@@ -15557,13 +15584,15 @@
         <v>0</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11">
+        <v>159</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -15574,34 +15603,38 @@
       </c>
       <c r="R17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
+      <c r="U17" s="11">
+        <v>60</v>
+      </c>
       <c r="V17" s="11"/>
       <c r="W17" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="X17" s="11">
+        <v>180</v>
+      </c>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="AC17" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="AD17" s="11"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>43420</v>
       </c>
@@ -15638,30 +15671,38 @@
       </c>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
+      <c r="U18" s="11">
+        <v>60</v>
+      </c>
       <c r="V18" s="11"/>
       <c r="W18" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="X18" s="11">
+        <v>180</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>240</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>110</v>
+      </c>
       <c r="AA18" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="AC18" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="AD18" s="11"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>43421</v>
       </c>
@@ -15676,14 +15717,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="11">
+        <v>30</v>
+      </c>
+      <c r="I19" s="11">
+        <v>90</v>
+      </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11">
+        <v>150</v>
+      </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -15694,34 +15741,40 @@
       </c>
       <c r="R19" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
+      <c r="T19" s="11">
+        <v>15</v>
+      </c>
       <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
+      <c r="V19" s="11">
+        <v>20</v>
+      </c>
       <c r="W19" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
+      <c r="Z19" s="11">
+        <v>140</v>
+      </c>
       <c r="AA19" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="AC19" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="AD19" s="11"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>43422</v>
       </c>
@@ -15781,7 +15834,7 @@
       </c>
       <c r="AD20" s="11"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>43423</v>
       </c>
@@ -15841,11 +15894,11 @@
       </c>
       <c r="AD21" s="11"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A22" s="144">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="106">
         <v>43424</v>
       </c>
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="107" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="11"/>
@@ -15901,7 +15954,7 @@
       </c>
       <c r="AD22" s="11"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>43425</v>
       </c>
@@ -15961,7 +16014,7 @@
       </c>
       <c r="AD23" s="11"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>43426</v>
       </c>
@@ -16021,7 +16074,7 @@
       </c>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
         <v>43427</v>
       </c>
@@ -16081,7 +16134,7 @@
       </c>
       <c r="AD25" s="11"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="76">
         <v>43428</v>
       </c>
@@ -16141,7 +16194,7 @@
       </c>
       <c r="AD26" s="11"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="62">
         <v>43429</v>
       </c>
@@ -16201,7 +16254,7 @@
       </c>
       <c r="AD27" s="11"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>43430</v>
       </c>
@@ -16261,7 +16314,7 @@
       </c>
       <c r="AD28" s="11"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>43431</v>
       </c>
@@ -16321,7 +16374,7 @@
       </c>
       <c r="AD29" s="11"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="62">
         <v>43432</v>
       </c>
@@ -16381,7 +16434,7 @@
       </c>
       <c r="AD30" s="11"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>43433</v>
       </c>
@@ -16441,7 +16494,7 @@
       </c>
       <c r="AD31" s="11"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
         <v>43434</v>
       </c>
@@ -16501,7 +16554,7 @@
       </c>
       <c r="AD32" s="11"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="62"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -16533,17 +16586,17 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
       <c r="G34" s="4">
         <f>SUM(G3:G33)</f>
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M3:M33)</f>
-        <v>623</v>
+        <v>1142</v>
       </c>
       <c r="Q34" s="4">
         <f>SUM(Q3:Q33)</f>
@@ -16551,26 +16604,26 @@
       </c>
       <c r="R34" s="4">
         <f>G34+M34+Q34</f>
-        <v>891</v>
+        <v>1529</v>
       </c>
       <c r="W34" s="4">
         <f>SUM(W3:W33)</f>
-        <v>430</v>
+        <v>675</v>
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>2335</v>
+        <v>3595</v>
       </c>
       <c r="AB34" s="4">
         <f>R34+W34+AA34</f>
-        <v>3656</v>
+        <v>5799</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>2.3365591397849466</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+        <v>3.4887096774193549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -16579,14 +16632,14 @@
       </c>
       <c r="G35" s="15">
         <f>G34/60</f>
-        <v>3.9666666666666668</v>
+        <v>5.95</v>
       </c>
       <c r="L35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="15">
         <f>M34/60</f>
-        <v>10.383333333333333</v>
+        <v>19.033333333333335</v>
       </c>
       <c r="P35" s="37" t="s">
         <v>3</v>
@@ -16597,42 +16650,42 @@
       </c>
       <c r="R35" s="15">
         <f>R34/60</f>
-        <v>14.85</v>
+        <v>25.483333333333334</v>
       </c>
       <c r="V35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="W35" s="15">
         <f>W34/60</f>
-        <v>7.166666666666667</v>
+        <v>11.25</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>38.916666666666664</v>
+        <v>59.916666666666664</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>60.93333333333333</v>
+        <v>96.65</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>60.93333333333333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+        <v>96.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
       <c r="G36" s="4">
         <f>G35/31</f>
-        <v>0.12795698924731183</v>
+        <v>0.19193548387096776</v>
       </c>
       <c r="M36" s="4">
         <f>M35/31</f>
-        <v>0.33494623655913974</v>
+        <v>0.61397849462365595</v>
       </c>
       <c r="Q36" s="4">
         <f>Q35/31</f>
@@ -16640,18 +16693,18 @@
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
-        <v>0.4790322580645161</v>
+        <v>0.82204301075268815</v>
       </c>
       <c r="AA36" s="4">
         <f>AA35/31</f>
-        <v>1.2553763440860215</v>
+        <v>1.932795698924731</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>2.3365591397849466</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+        <v>3.4887096774193549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -16674,17 +16727,17 @@
         <v>6.6715053763440872</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
       <c r="G38" s="4">
         <f>G36-G37</f>
-        <v>-0.26881720430107525</v>
+        <v>-0.20483870967741935</v>
       </c>
       <c r="M38" s="4">
         <f>M36-M37</f>
-        <v>-2.1784946236559142</v>
+        <v>-1.899462365591398</v>
       </c>
       <c r="Q38" s="4">
         <f>Q36-Q37</f>
@@ -16692,18 +16745,18 @@
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
-        <v>-2.4473118279569892</v>
+        <v>-2.1043010752688174</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>-2.0946236559139781</v>
+        <v>-1.4172043010752686</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-4.3349462365591407</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
+        <v>-3.1827956989247324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -16711,7 +16764,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -16721,14 +16774,14 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>60.93333333333333</v>
+        <v>96.65</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.15119933829611248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
+        <v>0.23982630272952854</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -16738,11 +16791,11 @@
       </c>
       <c r="C41" s="4">
         <f>C40</f>
-        <v>60.93333333333333</v>
+        <v>96.65</v>
       </c>
       <c r="D41" s="39">
         <f>C41/B41</f>
-        <v>0.21305361305361303</v>
+        <v>0.33793706293706294</v>
       </c>
     </row>
   </sheetData>
@@ -16771,103 +16824,103 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.69921875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.19921875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.3984375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.375" style="4" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="108"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="110"/>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
@@ -16903,11 +16956,11 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="108" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="108"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -16949,7 +17002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43313</v>
       </c>
@@ -16982,7 +17035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43314</v>
       </c>
@@ -17034,7 +17087,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43315</v>
       </c>
@@ -17070,7 +17123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43316</v>
       </c>
@@ -17085,7 +17138,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43317</v>
       </c>
@@ -17097,7 +17150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43318</v>
       </c>
@@ -17109,7 +17162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43319</v>
       </c>
@@ -17142,7 +17195,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43320</v>
       </c>
@@ -17169,7 +17222,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43321</v>
       </c>
@@ -17202,7 +17255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43322</v>
       </c>
@@ -17243,7 +17296,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43323</v>
       </c>
@@ -17279,7 +17332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43324</v>
       </c>
@@ -17318,7 +17371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43325</v>
       </c>
@@ -17357,7 +17410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43326</v>
       </c>
@@ -17396,7 +17449,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43327</v>
       </c>
@@ -17429,7 +17482,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43328</v>
       </c>
@@ -17441,7 +17494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43329</v>
       </c>
@@ -17453,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43330</v>
       </c>
@@ -17468,7 +17521,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43331</v>
       </c>
@@ -17480,7 +17533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43332</v>
       </c>
@@ -17492,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43333</v>
       </c>
@@ -17504,7 +17557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43334</v>
       </c>
@@ -17528,7 +17581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43335</v>
       </c>
@@ -17558,7 +17611,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43336</v>
       </c>
@@ -17570,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43337</v>
       </c>
@@ -17582,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43338</v>
       </c>
@@ -17606,7 +17659,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43339</v>
       </c>
@@ -17618,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>43340</v>
       </c>
@@ -17630,7 +17683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>43341</v>
       </c>
@@ -17642,7 +17695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43342</v>
       </c>
@@ -17657,7 +17710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>43343</v>
       </c>
@@ -17669,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17699,81 +17752,81 @@
       <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.59765625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.19921875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="4" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="4"/>
     <col min="20" max="22" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" style="4" customWidth="1"/>
     <col min="24" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="4"/>
     <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.09765625" style="11" customWidth="1"/>
-    <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="11" customWidth="1"/>
+    <col min="31" max="31" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="108" t="s">
+      <c r="T1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108" t="s">
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AB1" s="114" t="s">
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AB1" s="116" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="108"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="59" t="s">
         <v>9</v>
       </c>
@@ -17849,7 +17902,7 @@
       <c r="AA2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="115"/>
+      <c r="AB2" s="117"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -17857,7 +17910,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="62">
         <v>43374</v>
       </c>
@@ -17931,7 +17984,7 @@
       </c>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="62">
         <v>43375</v>
       </c>
@@ -18007,7 +18060,7 @@
       </c>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="65">
         <v>43376</v>
       </c>
@@ -18068,7 +18121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>43377</v>
       </c>
@@ -18139,7 +18192,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <v>43378</v>
       </c>
@@ -18206,7 +18259,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <v>43379</v>
       </c>
@@ -18275,7 +18328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>43380</v>
       </c>
@@ -18336,7 +18389,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <v>43381</v>
       </c>
@@ -18405,7 +18458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="68">
         <v>43382</v>
       </c>
@@ -18472,7 +18525,7 @@
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="62">
         <v>43383</v>
       </c>
@@ -18541,7 +18594,7 @@
         <v>9.8333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>43384</v>
       </c>
@@ -18612,7 +18665,7 @@
         <v>9.6333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>43385</v>
       </c>
@@ -18683,7 +18736,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>43386</v>
       </c>
@@ -18751,7 +18804,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>43387</v>
       </c>
@@ -18816,7 +18869,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>43388</v>
       </c>
@@ -18888,7 +18941,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>43389</v>
       </c>
@@ -18960,7 +19013,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>43390</v>
       </c>
@@ -19025,7 +19078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>43391</v>
       </c>
@@ -19100,7 +19153,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>43392</v>
       </c>
@@ -19174,7 +19227,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
         <v>43393</v>
       </c>
@@ -19239,7 +19292,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>43394</v>
       </c>
@@ -19298,7 +19351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>43395</v>
       </c>
@@ -19364,7 +19417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
         <v>43396</v>
       </c>
@@ -19442,7 +19495,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="62">
         <v>43397</v>
       </c>
@@ -19509,7 +19562,7 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="72">
         <v>43398</v>
       </c>
@@ -19595,7 +19648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>43399</v>
       </c>
@@ -19667,7 +19720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>43400</v>
       </c>
@@ -19735,7 +19788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="62">
         <v>43401</v>
       </c>
@@ -19801,7 +19854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>43402</v>
       </c>
@@ -19876,7 +19929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
         <v>43403</v>
       </c>
@@ -19951,7 +20004,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="62">
         <v>43404</v>
       </c>
@@ -20024,7 +20077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
@@ -20065,7 +20118,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -20117,7 +20170,7 @@
         <v>215.15</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
@@ -20154,7 +20207,7 @@
         <v>7.7785359801488836</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -20177,7 +20230,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
@@ -20206,7 +20259,7 @@
         <v>0.15473118279570119</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -20214,7 +20267,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -20231,7 +20284,7 @@
         <v>0.53387096774193554</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -20277,18 +20330,18 @@
       <selection pane="bottomRight" activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.19921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="4"/>
@@ -20296,66 +20349,66 @@
     <col min="22" max="22" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4"/>
     <col min="31" max="31" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="108" t="s">
+      <c r="U1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108" t="s">
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AD1" s="114" t="s">
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AD1" s="116" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="108"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -20437,7 +20490,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="115"/>
+      <c r="AD2" s="117"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -20445,7 +20498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43344</v>
       </c>
@@ -20495,7 +20548,7 @@
       </c>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43345</v>
       </c>
@@ -20539,7 +20592,7 @@
       </c>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43346</v>
       </c>
@@ -20591,7 +20644,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43347</v>
       </c>
@@ -20646,7 +20699,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43348</v>
       </c>
@@ -20716,7 +20769,7 @@
         <v>8.3666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43349</v>
       </c>
@@ -20780,7 +20833,7 @@
         <v>11.566666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43350</v>
       </c>
@@ -20832,7 +20885,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43351</v>
       </c>
@@ -20899,7 +20952,7 @@
         <v>7.8166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43352</v>
       </c>
@@ -20948,7 +21001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43353</v>
       </c>
@@ -20991,7 +21044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43354</v>
       </c>
@@ -21043,7 +21096,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43355</v>
       </c>
@@ -21102,7 +21155,7 @@
         <v>7.2166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43356</v>
       </c>
@@ -21158,7 +21211,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43357</v>
       </c>
@@ -21216,7 +21269,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43358</v>
       </c>
@@ -21274,7 +21327,7 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43359</v>
       </c>
@@ -21320,7 +21373,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43360</v>
       </c>
@@ -21372,7 +21425,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>43361</v>
       </c>
@@ -21443,7 +21496,7 @@
         <v>8.3833333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>43362</v>
       </c>
@@ -21513,7 +21566,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43363</v>
       </c>
@@ -21578,7 +21631,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43364</v>
       </c>
@@ -21641,7 +21694,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43365</v>
       </c>
@@ -21701,7 +21754,7 @@
         <v>9.3166666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43366</v>
       </c>
@@ -21758,7 +21811,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43367</v>
       </c>
@@ -21810,7 +21863,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43368</v>
       </c>
@@ -21856,7 +21909,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43369</v>
       </c>
@@ -21905,7 +21958,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43370</v>
       </c>
@@ -21964,7 +22017,7 @@
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43371</v>
       </c>
@@ -22020,7 +22073,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43372</v>
       </c>
@@ -22069,7 +22122,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43373</v>
       </c>
@@ -22112,7 +22165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="H33" s="4">
         <f t="shared" si="7"/>
@@ -22147,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
@@ -22184,7 +22237,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -22233,7 +22286,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
@@ -22266,7 +22319,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -22292,7 +22345,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
@@ -22325,7 +22378,7 @@
         <v>0.25870967741935402</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -22333,7 +22386,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -22350,7 +22403,7 @@
         <v>0.5066666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f>13*30</f>
         <v>390</v>
@@ -22390,18 +22443,18 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
@@ -22412,65 +22465,65 @@
     <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="30" max="30" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="108" t="s">
+      <c r="T1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108" t="s">
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AC1" s="114" t="s">
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AC1" s="116" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="108"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -22549,12 +22602,12 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="115"/>
+      <c r="AC2" s="117"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -22609,7 +22662,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -22671,7 +22724,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -22725,7 +22778,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -22772,7 +22825,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -22815,7 +22868,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -22861,7 +22914,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -22925,7 +22978,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -22968,7 +23021,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -23024,7 +23077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -23089,7 +23142,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -23135,7 +23188,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -23178,7 +23231,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -23238,7 +23291,7 @@
         <v>7.7833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -23303,7 +23356,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -23364,7 +23417,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -23419,7 +23472,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -23468,7 +23521,7 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -23517,7 +23570,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -23557,7 +23610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -23603,7 +23656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -23655,7 +23708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -23698,7 +23751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -23747,7 +23800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -23793,7 +23846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -23839,7 +23892,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -23882,7 +23935,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -23928,7 +23981,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -23980,7 +24033,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -24032,7 +24085,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -24090,7 +24143,7 @@
         <v>10.333333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -24148,7 +24201,7 @@
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
@@ -24183,7 +24236,7 @@
         <v>5.8736559139784941</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="G35" s="38" t="s">
         <v>1</v>
@@ -24226,7 +24279,7 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="H36" s="4">
         <f>H35/31</f>
@@ -24253,7 +24306,7 @@
         <v>4.1279569892473118</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="90"/>
       <c r="G37" s="4" t="s">
         <v>168</v>
@@ -24279,13 +24332,13 @@
         <v>127.96666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="Z38" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="N39" s="4" t="s">
         <v>169</v>
@@ -24317,85 +24370,85 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.59765625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.75" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="108" t="s">
+      <c r="T1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="118" t="s">
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AB1" s="116" t="s">
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AB1" s="118" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="108"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -24471,9 +24524,9 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="117"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB2" s="119"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -24530,7 +24583,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -24586,7 +24639,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -24638,7 +24691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -24694,7 +24747,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -24755,7 +24808,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43288</v>
       </c>
@@ -24813,7 +24866,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43289</v>
       </c>
@@ -24872,7 +24925,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
@@ -24941,7 +24994,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -25004,7 +25057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -25071,7 +25124,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
@@ -25136,7 +25189,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -25200,7 +25253,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43295</v>
       </c>
@@ -25259,7 +25312,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43296</v>
       </c>
@@ -25313,7 +25366,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -25372,7 +25425,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
@@ -25430,7 +25483,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48">
         <v>43299</v>
       </c>
@@ -25500,7 +25553,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -25561,7 +25614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -25627,7 +25680,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43302</v>
       </c>
@@ -25684,7 +25737,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43303</v>
       </c>
@@ -25736,7 +25789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -25797,7 +25850,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -25860,7 +25913,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -25919,7 +25972,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -25980,7 +26033,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -26032,7 +26085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43309</v>
       </c>
@@ -26093,7 +26146,7 @@
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43310</v>
       </c>
@@ -26145,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -26197,7 +26250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -26249,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -26277,7 +26330,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -26304,7 +26357,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -26365,7 +26418,7 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -26426,7 +26479,7 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -26453,7 +26506,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -26478,7 +26531,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -26503,7 +26556,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -26528,7 +26581,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -26553,7 +26606,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -26578,7 +26631,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -26603,7 +26656,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -26628,7 +26681,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -26653,7 +26706,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -26703,65 +26756,65 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="32" width="5.69921875" customWidth="1"/>
+    <col min="1" max="32" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111" t="s">
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
       <c r="R1" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="113" t="s">
+      <c r="S1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="109" t="s">
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R3" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>203</v>
       </c>
@@ -26803,12 +26856,12 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>203</v>
       </c>
@@ -26841,12 +26894,12 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>203</v>
       </c>
@@ -26885,12 +26938,12 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>203</v>
       </c>
@@ -26932,51 +26985,51 @@
         <v>214.81666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B16" s="110" t="s">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B16" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="I16" s="111" t="s">
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="I16" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="Q16" s="119" t="s">
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="Q16" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="119"/>
-      <c r="Y16" s="120" t="s">
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
+      <c r="Y16" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="120"/>
-      <c r="AB16" s="120"/>
-      <c r="AC16" s="120"/>
-      <c r="AD16" s="120"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="122"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="122"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -27075,7 +27128,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -27147,7 +27200,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AF19" t="s">
         <v>214</v>
       </c>
@@ -27159,7 +27212,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF20" t="s">
         <v>221</v>
       </c>
@@ -27171,7 +27224,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF21" s="101" t="s">
         <v>217</v>
       </c>
@@ -27186,7 +27239,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AG22" s="91" t="s">
         <v>218</v>
       </c>
@@ -27195,7 +27248,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AF23" s="92" t="s">
         <v>223</v>
       </c>
@@ -27210,7 +27263,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AF24" s="96"/>
       <c r="AG24" s="85"/>
       <c r="AH24" s="85"/>
@@ -27218,7 +27271,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF25" s="98"/>
       <c r="AG25" s="99"/>
       <c r="AH25" s="99"/>
@@ -27253,18 +27306,18 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
       <c r="E1" s="79"/>
       <c r="F1" s="79"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="80"/>
       <c r="C2" s="81" t="s">
         <v>93</v>
@@ -27288,24 +27341,24 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="83">
         <v>0.16666666666666666</v>
       </c>
       <c r="C3" s="123"/>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="136"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="83">
         <v>0.20833333333333334</v>
       </c>
@@ -27316,13 +27369,13 @@
       <c r="E4" s="130"/>
       <c r="F4" s="130"/>
       <c r="G4" s="130"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="126"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="136"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="83">
         <v>0.25</v>
       </c>
@@ -27331,13 +27384,13 @@
       <c r="E5" s="130"/>
       <c r="F5" s="130"/>
       <c r="G5" s="130"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="126"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="83">
         <v>0.29166666666666702</v>
       </c>
@@ -27346,10 +27399,10 @@
       <c r="E6" s="130"/>
       <c r="F6" s="130"/>
       <c r="G6" s="130"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="83">
         <v>0.33333333333333398</v>
       </c>
@@ -27363,40 +27416,40 @@
       <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="127"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I7" s="124"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="124"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="123"/>
-      <c r="F9" s="128" t="s">
+      <c r="F9" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="128"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="127"/>
+      <c r="I9" s="124"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -27404,19 +27457,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
       <c r="E10" s="123"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="127"/>
+      <c r="I10" s="124"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -27424,44 +27477,44 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="125"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="123"/>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="125"/>
+      <c r="G11" s="135"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="127"/>
+      <c r="I11" s="124"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="124"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="123"/>
-      <c r="F12" s="124" t="s">
+      <c r="F12" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="124"/>
+      <c r="G12" s="127"/>
       <c r="H12" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="127"/>
+      <c r="I12" s="124"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -27469,7 +27522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="83">
         <v>0.58333333333333404</v>
       </c>
@@ -27482,8 +27535,8 @@
         <v>176</v>
       </c>
       <c r="G13" s="129"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="127"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="124"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -27491,36 +27544,36 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="128"/>
+      <c r="D14" s="137"/>
       <c r="E14" s="123"/>
-      <c r="F14" s="128" t="s">
+      <c r="F14" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="128"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="127"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="124"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
       <c r="E15" s="123"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="127"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="124"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -27528,7 +27581,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
@@ -27544,7 +27597,7 @@
       <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="127"/>
+      <c r="I16" s="124"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -27552,7 +27605,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
@@ -27568,28 +27621,28 @@
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="127"/>
+      <c r="I17" s="124"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
       <c r="C18" s="131"/>
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="133" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="123"/>
-      <c r="F18" s="122" t="s">
+      <c r="F18" s="133" t="s">
         <v>184</v>
       </c>
       <c r="G18" s="131"/>
       <c r="H18" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="127"/>
+      <c r="I18" s="124"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -27597,17 +27650,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
       <c r="C19" s="131"/>
-      <c r="D19" s="122"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="123"/>
-      <c r="F19" s="122"/>
+      <c r="F19" s="133"/>
       <c r="G19" s="131"/>
       <c r="H19" s="131"/>
-      <c r="I19" s="127"/>
+      <c r="I19" s="124"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -27615,7 +27668,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="83">
         <v>0.875000000000001</v>
       </c>
@@ -27629,7 +27682,7 @@
         <v>97</v>
       </c>
       <c r="H20" s="123"/>
-      <c r="I20" s="127"/>
+      <c r="I20" s="124"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -27637,32 +27690,22 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="134"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D4:G7"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H18:H19"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="F18:F19"/>
@@ -27679,6 +27722,16 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="D4:G7"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27693,9 +27746,9 @@
       <selection activeCell="C9" sqref="C9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>93</v>
       </c>
@@ -27718,220 +27771,220 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="136" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="138" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="136"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="138"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="136"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="138"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="136"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="138"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="139" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="139"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="141"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="137" t="s">
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="139" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="138"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="140"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="136" t="s">
+      <c r="F14" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="136"/>
-      <c r="H14" s="138"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G14" s="138"/>
+      <c r="H14" s="140"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="138"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="140"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="136"/>
-      <c r="F16" s="142" t="s">
+      <c r="E16" s="138"/>
+      <c r="F16" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="142" t="s">
+      <c r="G16" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="138"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H16" s="140"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="138"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="140"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="138"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="140"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="142"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="138"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="142"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G19" s="144"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
         <v>0.875000000000001</v>
@@ -27939,14 +27992,14 @@
       <c r="C20" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <f>B21-B3</f>
         <v>0.75000000000000133</v>
@@ -27954,28 +28007,22 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -27989,6 +28036,12 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28003,31 +28056,31 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="66.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="70"/>
       <c r="B2" s="70" t="s">
         <v>93</v>
@@ -28057,7 +28110,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>130</v>
       </c>
@@ -28089,7 +28142,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -28112,7 +28165,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -28135,7 +28188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -28158,7 +28211,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -28181,12 +28234,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>147</v>
       </c>
@@ -28197,7 +28250,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>148</v>
       </c>
@@ -28205,7 +28258,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>149</v>
       </c>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F415072D-1636-4B07-AF8A-98C1CFA924E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DAB61560-DE1D-4423-9630-67E908CE9483}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="11월" sheetId="12" r:id="rId1"/>
@@ -24,15 +24,10 @@
     <sheet name="운동" sheetId="10" r:id="rId9"/>
     <sheet name="식단" sheetId="2" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -10409,22 +10404,28 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10439,31 +10440,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10473,6 +10456,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14441,40 +14436,40 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="28" ySplit="2" topLeftCell="AC13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
-    <col min="3" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.59765625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.59765625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" style="4" customWidth="1"/>
-    <col min="24" max="25" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="110" t="s">
         <v>84</v>
       </c>
@@ -14520,7 +14515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
@@ -14614,7 +14609,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="62">
         <v>43405</v>
       </c>
@@ -14688,7 +14683,7 @@
       </c>
       <c r="AD3" s="11"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="62">
         <v>43406</v>
       </c>
@@ -14764,7 +14759,7 @@
       </c>
       <c r="AD4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="62">
         <v>43407</v>
       </c>
@@ -14830,7 +14825,7 @@
       </c>
       <c r="AD5" s="11"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="62">
         <v>43408</v>
       </c>
@@ -14892,7 +14887,7 @@
       </c>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="62">
         <v>43409</v>
       </c>
@@ -14960,7 +14955,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="62">
         <v>43410</v>
       </c>
@@ -15028,7 +15023,7 @@
       </c>
       <c r="AD8" s="11"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="62">
         <v>43411</v>
       </c>
@@ -15095,7 +15090,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="76">
         <v>43412</v>
       </c>
@@ -15163,7 +15158,7 @@
       </c>
       <c r="AD10" s="11"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="62">
         <v>43413</v>
       </c>
@@ -15235,7 +15230,7 @@
       </c>
       <c r="AD11" s="11"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="106">
         <v>43414</v>
       </c>
@@ -15302,7 +15297,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="62">
         <v>43415</v>
       </c>
@@ -15366,7 +15361,7 @@
       </c>
       <c r="AD13" s="11"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="62">
         <v>43416</v>
       </c>
@@ -15438,7 +15433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="62">
         <v>43417</v>
       </c>
@@ -15502,7 +15497,7 @@
       </c>
       <c r="AD15" s="11"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="62">
         <v>43418</v>
       </c>
@@ -15568,7 +15563,7 @@
       </c>
       <c r="AD16" s="11"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" s="62">
         <v>43419</v>
       </c>
@@ -15634,7 +15629,7 @@
       </c>
       <c r="AD17" s="11"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" s="62">
         <v>43420</v>
       </c>
@@ -15702,7 +15697,7 @@
       </c>
       <c r="AD18" s="11"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19" s="62">
         <v>43421</v>
       </c>
@@ -15774,7 +15769,7 @@
       </c>
       <c r="AD19" s="11"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20" s="62">
         <v>43422</v>
       </c>
@@ -15790,13 +15785,15 @@
         <v>0</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11">
+        <v>120</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -15807,7 +15804,7 @@
       </c>
       <c r="R20" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
@@ -15826,15 +15823,17 @@
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AC20" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="11"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+        <f>AB20/60 + SUM(AD20:AF20)/60</f>
+        <v>3</v>
+      </c>
+      <c r="AD20" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" s="62">
         <v>43423</v>
       </c>
@@ -15850,13 +15849,15 @@
         <v>0</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11">
+        <v>120</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
@@ -15867,7 +15868,7 @@
       </c>
       <c r="R21" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
@@ -15878,23 +15879,25 @@
         <v>0</v>
       </c>
       <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
+      <c r="Y21" s="11">
+        <v>240</v>
+      </c>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AC21" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="AC21:AC32" si="8">AB21/60 + SUM(AD21:AF21)/60</f>
+        <v>6</v>
       </c>
       <c r="AD21" s="11"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22" s="106">
         <v>43424</v>
       </c>
@@ -15949,12 +15952,15 @@
         <v>0</v>
       </c>
       <c r="AC22" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="AD22" s="11"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE22">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="62">
         <v>43425</v>
       </c>
@@ -15973,10 +15979,12 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="L23" s="11">
+        <v>90</v>
+      </c>
       <c r="M23" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
@@ -15987,7 +15995,7 @@
       </c>
       <c r="R23" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
@@ -16006,15 +16014,18 @@
       </c>
       <c r="AB23" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AC23" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2.5</v>
       </c>
       <c r="AD23" s="11"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A24" s="62">
         <v>43426</v>
       </c>
@@ -16069,12 +16080,12 @@
         <v>0</v>
       </c>
       <c r="AC24" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" s="62">
         <v>43427</v>
       </c>
@@ -16129,12 +16140,12 @@
         <v>0</v>
       </c>
       <c r="AC25" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD25" s="11"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26" s="76">
         <v>43428</v>
       </c>
@@ -16189,12 +16200,12 @@
         <v>0</v>
       </c>
       <c r="AC26" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD26" s="11"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27" s="62">
         <v>43429</v>
       </c>
@@ -16249,12 +16260,12 @@
         <v>0</v>
       </c>
       <c r="AC27" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD27" s="11"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28" s="62">
         <v>43430</v>
       </c>
@@ -16309,12 +16320,12 @@
         <v>0</v>
       </c>
       <c r="AC28" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD28" s="11"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29" s="62">
         <v>43431</v>
       </c>
@@ -16369,12 +16380,12 @@
         <v>0</v>
       </c>
       <c r="AC29" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD29" s="11"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" s="62">
         <v>43432</v>
       </c>
@@ -16429,12 +16440,12 @@
         <v>0</v>
       </c>
       <c r="AC30" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD30" s="11"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" s="62">
         <v>43433</v>
       </c>
@@ -16489,12 +16500,12 @@
         <v>0</v>
       </c>
       <c r="AC31" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD31" s="11"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" s="62">
         <v>43434</v>
       </c>
@@ -16549,12 +16560,12 @@
         <v>0</v>
       </c>
       <c r="AC32" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD32" s="11"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A33" s="62"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -16586,7 +16597,7 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
@@ -16596,7 +16607,7 @@
       </c>
       <c r="M34" s="4">
         <f>SUM(M3:M33)</f>
-        <v>1142</v>
+        <v>1472</v>
       </c>
       <c r="Q34" s="4">
         <f>SUM(Q3:Q33)</f>
@@ -16604,7 +16615,7 @@
       </c>
       <c r="R34" s="4">
         <f>G34+M34+Q34</f>
-        <v>1529</v>
+        <v>1859</v>
       </c>
       <c r="W34" s="4">
         <f>SUM(W3:W33)</f>
@@ -16612,18 +16623,18 @@
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>3595</v>
+        <v>3835</v>
       </c>
       <c r="AB34" s="4">
         <f>R34+W34+AA34</f>
-        <v>5799</v>
+        <v>6369</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>3.4887096774193549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+        <v>4.2467741935483874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -16639,7 +16650,7 @@
       </c>
       <c r="M35" s="15">
         <f>M34/60</f>
-        <v>19.033333333333335</v>
+        <v>24.533333333333335</v>
       </c>
       <c r="P35" s="37" t="s">
         <v>3</v>
@@ -16650,7 +16661,7 @@
       </c>
       <c r="R35" s="15">
         <f>R34/60</f>
-        <v>25.483333333333334</v>
+        <v>30.983333333333334</v>
       </c>
       <c r="V35" s="37" t="s">
         <v>159</v>
@@ -16664,18 +16675,18 @@
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>59.916666666666664</v>
+        <v>63.916666666666664</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>96.65</v>
+        <v>106.15</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>96.65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+        <v>106.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
@@ -16685,7 +16696,7 @@
       </c>
       <c r="M36" s="4">
         <f>M35/31</f>
-        <v>0.61397849462365595</v>
+        <v>0.79139784946236569</v>
       </c>
       <c r="Q36" s="4">
         <f>Q35/31</f>
@@ -16693,18 +16704,18 @@
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
-        <v>0.82204301075268815</v>
+        <v>0.99946236559139789</v>
       </c>
       <c r="AA36" s="4">
         <f>AA35/31</f>
-        <v>1.932795698924731</v>
+        <v>2.061827956989247</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>3.4887096774193549</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+        <v>4.2467741935483874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -16727,7 +16738,7 @@
         <v>6.6715053763440872</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
@@ -16737,7 +16748,7 @@
       </c>
       <c r="M38" s="4">
         <f>M36-M37</f>
-        <v>-1.899462365591398</v>
+        <v>-1.7220430107526883</v>
       </c>
       <c r="Q38" s="4">
         <f>Q36-Q37</f>
@@ -16745,18 +16756,18 @@
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
-        <v>-2.1043010752688174</v>
+        <v>-1.9268817204301074</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>-1.4172043010752686</v>
+        <v>-1.2881720430107526</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-3.1827956989247324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+        <v>-2.4247311827956999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -16764,7 +16775,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -16774,14 +16785,14 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>96.65</v>
+        <v>106.15</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.23982630272952854</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+        <v>0.26339950372208437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -16791,11 +16802,11 @@
       </c>
       <c r="C41" s="4">
         <f>C40</f>
-        <v>96.65</v>
+        <v>106.15</v>
       </c>
       <c r="D41" s="39">
         <f>C41/B41</f>
-        <v>0.33793706293706294</v>
+        <v>0.37115384615384617</v>
       </c>
     </row>
   </sheetData>
@@ -16824,28 +16835,28 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.75" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.69921875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.19921875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.3984375" style="4" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="145" t="s">
         <v>173</v>
       </c>
@@ -16870,7 +16881,7 @@
       <c r="T1" s="145"/>
       <c r="U1" s="145"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="145"/>
       <c r="B2" s="145"/>
       <c r="C2" s="145"/>
@@ -16893,7 +16904,7 @@
       <c r="T2" s="145"/>
       <c r="U2" s="145"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="145"/>
       <c r="B3" s="145"/>
       <c r="C3" s="145"/>
@@ -16916,7 +16927,7 @@
       <c r="T3" s="145"/>
       <c r="U3" s="145"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="110" t="s">
         <v>0</v>
       </c>
@@ -16956,7 +16967,7 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="110" t="s">
         <v>8</v>
       </c>
@@ -17002,7 +17013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43313</v>
       </c>
@@ -17035,7 +17046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43314</v>
       </c>
@@ -17087,7 +17098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43315</v>
       </c>
@@ -17123,7 +17134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43316</v>
       </c>
@@ -17138,7 +17149,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43317</v>
       </c>
@@ -17150,7 +17161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43318</v>
       </c>
@@ -17162,7 +17173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43319</v>
       </c>
@@ -17195,7 +17206,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43320</v>
       </c>
@@ -17222,7 +17233,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43321</v>
       </c>
@@ -17255,7 +17266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43322</v>
       </c>
@@ -17296,7 +17307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43323</v>
       </c>
@@ -17332,7 +17343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43324</v>
       </c>
@@ -17371,7 +17382,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43325</v>
       </c>
@@ -17410,7 +17421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43326</v>
       </c>
@@ -17449,7 +17460,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43327</v>
       </c>
@@ -17482,7 +17493,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43328</v>
       </c>
@@ -17494,7 +17505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43329</v>
       </c>
@@ -17506,7 +17517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43330</v>
       </c>
@@ -17521,7 +17532,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43331</v>
       </c>
@@ -17533,7 +17544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43332</v>
       </c>
@@ -17545,7 +17556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43333</v>
       </c>
@@ -17557,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43334</v>
       </c>
@@ -17581,7 +17592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43335</v>
       </c>
@@ -17611,7 +17622,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43336</v>
       </c>
@@ -17623,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43337</v>
       </c>
@@ -17635,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43338</v>
       </c>
@@ -17659,7 +17670,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>43339</v>
       </c>
@@ -17671,7 +17682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>43340</v>
       </c>
@@ -17683,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>43341</v>
       </c>
@@ -17695,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>43342</v>
       </c>
@@ -17710,7 +17721,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>43343</v>
       </c>
@@ -17722,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17752,32 +17763,32 @@
       <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.59765625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" style="4" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="4"/>
     <col min="20" max="22" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" style="4" customWidth="1"/>
     <col min="24" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="4"/>
     <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.125" style="11" customWidth="1"/>
-    <col min="31" max="31" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.09765625" style="11" customWidth="1"/>
+    <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" s="110" t="s">
         <v>84</v>
       </c>
@@ -17822,7 +17833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
@@ -17910,7 +17921,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" s="62">
         <v>43374</v>
       </c>
@@ -17984,7 +17995,7 @@
       </c>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="62">
         <v>43375</v>
       </c>
@@ -18060,7 +18071,7 @@
       </c>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="65">
         <v>43376</v>
       </c>
@@ -18121,7 +18132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A6" s="62">
         <v>43377</v>
       </c>
@@ -18192,7 +18203,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A7" s="62">
         <v>43378</v>
       </c>
@@ -18259,7 +18270,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A8" s="62">
         <v>43379</v>
       </c>
@@ -18328,7 +18339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A9" s="62">
         <v>43380</v>
       </c>
@@ -18389,7 +18400,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A10" s="62">
         <v>43381</v>
       </c>
@@ -18458,7 +18469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A11" s="68">
         <v>43382</v>
       </c>
@@ -18525,7 +18536,7 @@
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A12" s="62">
         <v>43383</v>
       </c>
@@ -18594,7 +18605,7 @@
         <v>9.8333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A13" s="62">
         <v>43384</v>
       </c>
@@ -18665,7 +18676,7 @@
         <v>9.6333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A14" s="62">
         <v>43385</v>
       </c>
@@ -18736,7 +18747,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A15" s="62">
         <v>43386</v>
       </c>
@@ -18804,7 +18815,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A16" s="62">
         <v>43387</v>
       </c>
@@ -18869,7 +18880,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A17" s="62">
         <v>43388</v>
       </c>
@@ -18941,7 +18952,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A18" s="62">
         <v>43389</v>
       </c>
@@ -19013,7 +19024,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A19" s="62">
         <v>43390</v>
       </c>
@@ -19078,7 +19089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A20" s="62">
         <v>43391</v>
       </c>
@@ -19153,7 +19164,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A21" s="62">
         <v>43392</v>
       </c>
@@ -19227,7 +19238,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A22" s="62">
         <v>43393</v>
       </c>
@@ -19292,7 +19303,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A23" s="62">
         <v>43394</v>
       </c>
@@ -19351,7 +19362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A24" s="62">
         <v>43395</v>
       </c>
@@ -19417,7 +19428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A25" s="62">
         <v>43396</v>
       </c>
@@ -19495,7 +19506,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A26" s="62">
         <v>43397</v>
       </c>
@@ -19562,7 +19573,7 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A27" s="72">
         <v>43398</v>
       </c>
@@ -19648,7 +19659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A28" s="62">
         <v>43399</v>
       </c>
@@ -19720,7 +19731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A29" s="62">
         <v>43400</v>
       </c>
@@ -19788,7 +19799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A30" s="62">
         <v>43401</v>
       </c>
@@ -19854,7 +19865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A31" s="62">
         <v>43402</v>
       </c>
@@ -19929,7 +19940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A32" s="62">
         <v>43403</v>
       </c>
@@ -20004,7 +20015,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A33" s="62">
         <v>43404</v>
       </c>
@@ -20077,7 +20088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
@@ -20118,7 +20129,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -20170,7 +20181,7 @@
         <v>215.15</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
@@ -20207,7 +20218,7 @@
         <v>7.7785359801488836</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -20230,7 +20241,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
@@ -20259,7 +20270,7 @@
         <v>0.15473118279570119</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -20267,7 +20278,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -20284,7 +20295,7 @@
         <v>0.53387096774193554</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -20330,18 +20341,18 @@
       <selection pane="bottomRight" activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.25" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.59765625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.19921875" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="4"/>
@@ -20349,15 +20360,15 @@
     <col min="22" max="22" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4"/>
     <col min="31" max="31" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="110" t="s">
         <v>84</v>
       </c>
@@ -20404,7 +20415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
@@ -20498,7 +20509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43344</v>
       </c>
@@ -20548,7 +20559,7 @@
       </c>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43345</v>
       </c>
@@ -20592,7 +20603,7 @@
       </c>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43346</v>
       </c>
@@ -20644,7 +20655,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43347</v>
       </c>
@@ -20699,7 +20710,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43348</v>
       </c>
@@ -20769,7 +20780,7 @@
         <v>8.3666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43349</v>
       </c>
@@ -20833,7 +20844,7 @@
         <v>11.566666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43350</v>
       </c>
@@ -20885,7 +20896,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43351</v>
       </c>
@@ -20952,7 +20963,7 @@
         <v>7.8166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43352</v>
       </c>
@@ -21001,7 +21012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>43353</v>
       </c>
@@ -21044,7 +21055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>43354</v>
       </c>
@@ -21096,7 +21107,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="24">
         <v>43355</v>
       </c>
@@ -21155,7 +21166,7 @@
         <v>7.2166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="24">
         <v>43356</v>
       </c>
@@ -21211,7 +21222,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="24">
         <v>43357</v>
       </c>
@@ -21269,7 +21280,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>43358</v>
       </c>
@@ -21327,7 +21338,7 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43359</v>
       </c>
@@ -21373,7 +21384,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43360</v>
       </c>
@@ -21425,7 +21436,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20" s="32">
         <v>43361</v>
       </c>
@@ -21496,7 +21507,7 @@
         <v>8.3833333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
         <v>43362</v>
       </c>
@@ -21566,7 +21577,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43363</v>
       </c>
@@ -21631,7 +21642,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43364</v>
       </c>
@@ -21694,7 +21705,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43365</v>
       </c>
@@ -21754,7 +21765,7 @@
         <v>9.3166666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" s="40">
         <v>43366</v>
       </c>
@@ -21811,7 +21822,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26" s="40">
         <v>43367</v>
       </c>
@@ -21863,7 +21874,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27" s="40">
         <v>43368</v>
       </c>
@@ -21909,7 +21920,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28" s="40">
         <v>43369</v>
       </c>
@@ -21958,7 +21969,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43370</v>
       </c>
@@ -22017,7 +22028,7 @@
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43371</v>
       </c>
@@ -22073,7 +22084,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43372</v>
       </c>
@@ -22122,7 +22133,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43373</v>
       </c>
@@ -22165,7 +22176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="H33" s="4">
         <f t="shared" si="7"/>
@@ -22200,7 +22211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
@@ -22237,7 +22248,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -22286,7 +22297,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
@@ -22319,7 +22330,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -22345,7 +22356,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
@@ -22378,7 +22389,7 @@
         <v>0.25870967741935402</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -22386,7 +22397,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -22403,7 +22414,7 @@
         <v>0.5066666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <f>13*30</f>
         <v>390</v>
@@ -22443,18 +22454,18 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
@@ -22465,15 +22476,15 @@
     <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="30" max="30" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="110" t="s">
         <v>84</v>
       </c>
@@ -22519,7 +22530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
@@ -22607,7 +22618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -22662,7 +22673,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -22724,7 +22735,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -22778,7 +22789,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -22825,7 +22836,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -22868,7 +22879,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -22914,7 +22925,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -22978,7 +22989,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -23021,7 +23032,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -23077,7 +23088,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -23142,7 +23153,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -23188,7 +23199,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -23231,7 +23242,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -23291,7 +23302,7 @@
         <v>7.7833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -23356,7 +23367,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -23417,7 +23428,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -23472,7 +23483,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -23521,7 +23532,7 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -23570,7 +23581,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -23610,7 +23621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -23656,7 +23667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -23708,7 +23719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -23751,7 +23762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -23800,7 +23811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -23846,7 +23857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -23892,7 +23903,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -23935,7 +23946,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -23981,7 +23992,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -24033,7 +24044,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -24085,7 +24096,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -24143,7 +24154,7 @@
         <v>10.333333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -24201,7 +24212,7 @@
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A34" s="90"/>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
@@ -24236,7 +24247,7 @@
         <v>5.8736559139784941</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" s="90"/>
       <c r="G35" s="38" t="s">
         <v>1</v>
@@ -24279,7 +24290,7 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" s="90"/>
       <c r="H36" s="4">
         <f>H35/31</f>
@@ -24306,7 +24317,7 @@
         <v>4.1279569892473118</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" s="90"/>
       <c r="G37" s="4" t="s">
         <v>168</v>
@@ -24332,13 +24343,13 @@
         <v>127.96666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A38" s="90"/>
       <c r="Z38" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A39" s="90"/>
       <c r="N39" s="4" t="s">
         <v>169</v>
@@ -24370,36 +24381,36 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
@@ -24444,7 +24455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="110" t="s">
         <v>8</v>
       </c>
@@ -24526,7 +24537,7 @@
       </c>
       <c r="AB2" s="119"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -24583,7 +24594,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -24639,7 +24650,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -24691,7 +24702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -24747,7 +24758,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -24808,7 +24819,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>43288</v>
       </c>
@@ -24866,7 +24877,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>43289</v>
       </c>
@@ -24925,7 +24936,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
@@ -24994,7 +25005,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -25057,7 +25068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -25124,7 +25135,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
@@ -25189,7 +25200,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -25253,7 +25264,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>43295</v>
       </c>
@@ -25312,7 +25323,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>43296</v>
       </c>
@@ -25366,7 +25377,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -25425,7 +25436,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
@@ -25483,7 +25494,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="48">
         <v>43299</v>
       </c>
@@ -25553,7 +25564,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -25614,7 +25625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -25680,7 +25691,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>43302</v>
       </c>
@@ -25737,7 +25748,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>43303</v>
       </c>
@@ -25789,7 +25800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -25850,7 +25861,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -25913,7 +25924,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -25972,7 +25983,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -26033,7 +26044,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -26085,7 +26096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>43309</v>
       </c>
@@ -26146,7 +26157,7 @@
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>43310</v>
       </c>
@@ -26198,7 +26209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -26250,7 +26261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -26302,7 +26313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -26330,7 +26341,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -26357,7 +26368,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -26418,7 +26429,7 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -26479,7 +26490,7 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -26506,7 +26517,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -26531,7 +26542,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -26556,7 +26567,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -26581,7 +26592,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -26606,7 +26617,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -26631,7 +26642,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -26656,7 +26667,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -26681,7 +26692,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -26706,7 +26717,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -26756,12 +26767,12 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="32" width="5.75" customWidth="1"/>
+    <col min="1" max="32" width="5.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="110" t="s">
         <v>84</v>
       </c>
@@ -26804,17 +26815,17 @@
       <c r="Z1" s="111"/>
       <c r="AA1" s="111"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="R3" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>203</v>
       </c>
@@ -26856,12 +26867,12 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>203</v>
       </c>
@@ -26894,12 +26905,12 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>203</v>
       </c>
@@ -26938,12 +26949,12 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>203</v>
       </c>
@@ -26985,17 +26996,17 @@
         <v>214.81666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B16" s="112" t="s">
         <v>1</v>
       </c>
@@ -27029,7 +27040,7 @@
       <c r="AC16" s="122"/>
       <c r="AD16" s="122"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -27128,7 +27139,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -27200,7 +27211,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
       <c r="AF19" t="s">
         <v>214</v>
       </c>
@@ -27212,7 +27223,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AF20" t="s">
         <v>221</v>
       </c>
@@ -27224,7 +27235,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AF21" s="101" t="s">
         <v>217</v>
       </c>
@@ -27239,7 +27250,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AG22" s="91" t="s">
         <v>218</v>
       </c>
@@ -27248,7 +27259,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
       <c r="AF23" s="92" t="s">
         <v>223</v>
       </c>
@@ -27263,7 +27274,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
       <c r="AF24" s="96"/>
       <c r="AG24" s="85"/>
       <c r="AH24" s="85"/>
@@ -27271,7 +27282,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AF25" s="98"/>
       <c r="AG25" s="99"/>
       <c r="AH25" s="99"/>
@@ -27306,18 +27317,18 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
       <c r="E1" s="79"/>
       <c r="F1" s="79"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="80"/>
       <c r="C2" s="81" t="s">
         <v>93</v>
@@ -27341,115 +27352,115 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="134" t="s">
+      <c r="C3" s="125"/>
+      <c r="D3" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="136"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="83">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="130" t="s">
+      <c r="C4" s="125"/>
+      <c r="D4" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="83">
         <v>0.25</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="83">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="125"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="83">
         <v>0.33333333333333398</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="124"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I7" s="129"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="124"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="129"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="137" t="s">
+      <c r="D9" s="130"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="124"/>
+      <c r="I9" s="129"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -27457,19 +27468,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="124"/>
+      <c r="I10" s="129"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -27477,44 +27488,44 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="135" t="s">
+      <c r="D11" s="127"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="135"/>
+      <c r="G11" s="127"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="124"/>
+      <c r="I11" s="129"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="127" t="s">
+      <c r="D12" s="126"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="132" t="s">
+      <c r="G12" s="126"/>
+      <c r="H12" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="124"/>
+      <c r="I12" s="129"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -27522,21 +27533,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="83">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="129" t="s">
+      <c r="D13" s="131"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="129"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="124"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="129"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -27544,36 +27555,36 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="137" t="s">
+      <c r="D14" s="130"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="137"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="124"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="129"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="124"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="129"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -27581,23 +27592,23 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="133" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="88"/>
-      <c r="E16" s="123"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="131" t="s">
+      <c r="G16" s="133" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="124"/>
+      <c r="I16" s="129"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -27605,44 +27616,44 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="123"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="131"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="124"/>
+      <c r="I17" s="129"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="133" t="s">
+      <c r="C18" s="133"/>
+      <c r="D18" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="133" t="s">
+      <c r="E18" s="125"/>
+      <c r="F18" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131" t="s">
+      <c r="G18" s="133"/>
+      <c r="H18" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="124"/>
+      <c r="I18" s="129"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -27650,17 +27661,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="124"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="129"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -27668,21 +27679,21 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="83">
         <v>0.875000000000001</v>
       </c>
       <c r="C20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="123"/>
-      <c r="I20" s="124"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="129"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -27690,22 +27701,32 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="126"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D4:G7"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="F18:F19"/>
@@ -27722,16 +27743,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="D4:G7"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27746,9 +27757,9 @@
       <selection activeCell="C9" sqref="C9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>93</v>
       </c>
@@ -27771,63 +27782,63 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="138" t="s">
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="141" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="138"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="138"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="141"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="138"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="141"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
@@ -27836,34 +27847,34 @@
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
       <c r="G8" s="120"/>
-      <c r="H8" s="141" t="s">
+      <c r="H8" s="142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="141"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
@@ -27873,118 +27884,118 @@
       <c r="F11" s="120"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="139" t="s">
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="143" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="140"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="144"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138" t="s">
+      <c r="D14" s="141"/>
+      <c r="E14" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="138" t="s">
+      <c r="F14" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="138"/>
-      <c r="H14" s="140"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="141"/>
+      <c r="H14" s="144"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="140"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="144"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="144" t="s">
+      <c r="D16" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="144" t="s">
+      <c r="E16" s="141"/>
+      <c r="F16" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="144" t="s">
+      <c r="G16" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="140"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="144"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="140"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="144"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="140"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="144"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="144"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="138"/>
+      <c r="E19" s="141"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="144"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="140"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
         <v>0.875000000000001</v>
@@ -27999,7 +28010,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="13">
         <f>B21-B3</f>
         <v>0.75000000000000133</v>
@@ -28007,22 +28018,25 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -28039,9 +28053,6 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28056,18 +28067,18 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="66.625" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="120" t="s">
         <v>154</v>
       </c>
@@ -28080,7 +28091,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="70"/>
       <c r="B2" s="70" t="s">
         <v>93</v>
@@ -28110,7 +28121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A3" s="70" t="s">
         <v>130</v>
       </c>
@@ -28142,7 +28153,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -28165,7 +28176,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -28188,7 +28199,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -28211,7 +28222,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -28234,12 +28245,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>147</v>
       </c>
@@ -28250,7 +28261,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>148</v>
       </c>
@@ -28258,7 +28269,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>149</v>
       </c>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DAB61560-DE1D-4423-9630-67E908CE9483}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1E175E22-E11B-4B2F-B32B-1A57934E470D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
@@ -10404,28 +10404,22 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10440,13 +10434,31 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10456,18 +10468,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14439,7 +14439,7 @@
       <pane xSplit="28" ySplit="2" topLeftCell="AC13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14754,7 +14754,7 @@
         <v>630</v>
       </c>
       <c r="AC4" s="11">
-        <f t="shared" ref="AC4:AC32" si="7">AB4/60</f>
+        <f t="shared" ref="AC4:AC19" si="7">AB4/60</f>
         <v>10.5</v>
       </c>
       <c r="AD4" s="11"/>
@@ -15976,7 +15976,9 @@
         <v>0</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="11">
+        <v>420</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11">
@@ -15984,7 +15986,7 @@
       </c>
       <c r="M23" s="11">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>510</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
@@ -15995,15 +15997,19 @@
       </c>
       <c r="R23" s="11">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
+        <v>510</v>
+      </c>
+      <c r="S23" s="11">
+        <v>10</v>
+      </c>
+      <c r="T23" s="11">
+        <v>10</v>
+      </c>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
@@ -16014,11 +16020,11 @@
       </c>
       <c r="AB23" s="11">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>530</v>
       </c>
       <c r="AC23" s="11">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="AD23" s="11"/>
       <c r="AE23">
@@ -16607,7 +16613,7 @@
       </c>
       <c r="M34" s="4">
         <f>SUM(M3:M33)</f>
-        <v>1472</v>
+        <v>1892</v>
       </c>
       <c r="Q34" s="4">
         <f>SUM(Q3:Q33)</f>
@@ -16615,11 +16621,11 @@
       </c>
       <c r="R34" s="4">
         <f>G34+M34+Q34</f>
-        <v>1859</v>
+        <v>2279</v>
       </c>
       <c r="W34" s="4">
         <f>SUM(W3:W33)</f>
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
@@ -16627,11 +16633,11 @@
       </c>
       <c r="AB34" s="4">
         <f>R34+W34+AA34</f>
-        <v>6369</v>
+        <v>6809</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>4.2467741935483874</v>
+        <v>4.4833333333333334</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.4">
@@ -16650,7 +16656,7 @@
       </c>
       <c r="M35" s="15">
         <f>M34/60</f>
-        <v>24.533333333333335</v>
+        <v>31.533333333333335</v>
       </c>
       <c r="P35" s="37" t="s">
         <v>3</v>
@@ -16661,14 +16667,14 @@
       </c>
       <c r="R35" s="15">
         <f>R34/60</f>
-        <v>30.983333333333334</v>
+        <v>37.983333333333334</v>
       </c>
       <c r="V35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="W35" s="15">
         <f>W34/60</f>
-        <v>11.25</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
@@ -16679,11 +16685,11 @@
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>106.15</v>
+        <v>113.48333333333333</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>106.15</v>
+        <v>113.48333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.4">
@@ -16696,7 +16702,7 @@
       </c>
       <c r="M36" s="4">
         <f>M35/31</f>
-        <v>0.79139784946236569</v>
+        <v>1.0172043010752689</v>
       </c>
       <c r="Q36" s="4">
         <f>Q35/31</f>
@@ -16704,7 +16710,7 @@
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
-        <v>0.99946236559139789</v>
+        <v>1.2252688172043011</v>
       </c>
       <c r="AA36" s="4">
         <f>AA35/31</f>
@@ -16712,7 +16718,7 @@
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>4.2467741935483874</v>
+        <v>4.4833333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.4">
@@ -16748,7 +16754,7 @@
       </c>
       <c r="M38" s="4">
         <f>M36-M37</f>
-        <v>-1.7220430107526883</v>
+        <v>-1.496236559139785</v>
       </c>
       <c r="Q38" s="4">
         <f>Q36-Q37</f>
@@ -16756,7 +16762,7 @@
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
-        <v>-1.9268817204301074</v>
+        <v>-1.7010752688172042</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
@@ -16764,7 +16770,7 @@
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-2.4247311827956999</v>
+        <v>-2.1881720430107539</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.4">
@@ -16785,11 +16791,11 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>106.15</v>
+        <v>113.48333333333333</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.26339950372208437</v>
+        <v>0.2815963606286187</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.4">
@@ -16802,11 +16808,11 @@
       </c>
       <c r="C41" s="4">
         <f>C40</f>
-        <v>106.15</v>
+        <v>113.48333333333333</v>
       </c>
       <c r="D41" s="39">
         <f>C41/B41</f>
-        <v>0.37115384615384617</v>
+        <v>0.39679487179487177</v>
       </c>
     </row>
   </sheetData>
@@ -27356,15 +27362,15 @@
       <c r="B3" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="123" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="128"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="136"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
@@ -27373,15 +27379,15 @@
       <c r="B4" s="83">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="132" t="s">
+      <c r="C4" s="123"/>
+      <c r="D4" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="136"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
@@ -27390,13 +27396,13 @@
       <c r="B5" s="83">
         <v>0.25</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="128"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
@@ -27405,13 +27411,13 @@
       <c r="B6" s="83">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="83">
@@ -27420,28 +27426,28 @@
       <c r="C7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="129"/>
+      <c r="I7" s="124"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="129"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="124"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
@@ -27450,17 +27456,17 @@
       <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="130" t="s">
+      <c r="D9" s="137"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="130"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="129"/>
+      <c r="I9" s="124"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -27472,15 +27478,15 @@
       <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="129"/>
+      <c r="I10" s="124"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -27492,19 +27498,19 @@
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="127" t="s">
+      <c r="D11" s="135"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="127"/>
+      <c r="G11" s="135"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="129"/>
+      <c r="I11" s="124"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
@@ -27513,19 +27519,19 @@
       <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126" t="s">
+      <c r="D12" s="127"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="126"/>
-      <c r="H12" s="134" t="s">
+      <c r="G12" s="127"/>
+      <c r="H12" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="129"/>
+      <c r="I12" s="124"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -27537,17 +27543,17 @@
       <c r="B13" s="83">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="131" t="s">
+      <c r="D13" s="129"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="131"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="124"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -27559,17 +27565,17 @@
       <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="130" t="s">
+      <c r="D14" s="137"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="129"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="124"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
@@ -27578,13 +27584,13 @@
       <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="129"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="124"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -27596,19 +27602,19 @@
       <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="131" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="88"/>
-      <c r="E16" s="125"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="133" t="s">
+      <c r="G16" s="131" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="129"/>
+      <c r="I16" s="124"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -27620,19 +27626,19 @@
       <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="125"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="133"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="129"/>
+      <c r="I17" s="124"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
@@ -27641,19 +27647,19 @@
       <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="124" t="s">
+      <c r="C18" s="131"/>
+      <c r="D18" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="124" t="s">
+      <c r="E18" s="123"/>
+      <c r="F18" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133" t="s">
+      <c r="G18" s="131"/>
+      <c r="H18" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="129"/>
+      <c r="I18" s="124"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -27665,13 +27671,13 @@
       <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="129"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="124"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -27686,14 +27692,14 @@
       <c r="C20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
       <c r="G20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="125"/>
-      <c r="I20" s="129"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="124"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -27705,28 +27711,18 @@
       <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="136"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D4:G7"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H18:H19"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="F18:F19"/>
@@ -27743,6 +27739,16 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="D4:G7"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27786,25 +27792,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="141" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="138" t="s">
         <v>96</v>
       </c>
     </row>
@@ -27812,31 +27818,31 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="141"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="141"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="138"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
@@ -27847,7 +27853,7 @@
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
       <c r="G8" s="120"/>
-      <c r="H8" s="142" t="s">
+      <c r="H8" s="141" t="s">
         <v>1</v>
       </c>
     </row>
@@ -27855,24 +27861,24 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="13">
@@ -27888,14 +27894,14 @@
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="143" t="s">
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="139" t="s">
         <v>100</v>
       </c>
     </row>
@@ -27903,97 +27909,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="144"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="140"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="141" t="s">
+      <c r="F14" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="141"/>
-      <c r="H14" s="144"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="140"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="144"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="140"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="140" t="s">
+      <c r="D16" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="141"/>
-      <c r="F16" s="140" t="s">
+      <c r="E16" s="138"/>
+      <c r="F16" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="140" t="s">
+      <c r="G16" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="144"/>
+      <c r="H16" s="140"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="140"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="140"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="140"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="138"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="140"/>
+      <c r="G19" s="144"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
@@ -28018,13 +28024,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
@@ -28034,6 +28040,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="C13:G13"/>
@@ -28050,9 +28059,6 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1E175E22-E11B-4B2F-B32B-1A57934E470D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C0DA326-FE4F-4FBA-8754-049FC5905F4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
@@ -82,6 +82,43 @@
             <charset val="129"/>
           </rPr>
           <t>이사</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S24" authorId="0" shapeId="0" xr:uid="{AC15BCF0-D713-4054-AAE4-CB8C82D4E99F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>팀노바</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">영상시청
+</t>
         </r>
       </text>
     </comment>
@@ -10404,22 +10441,28 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10434,19 +10477,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -14436,10 +14473,10 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -16038,22 +16075,33 @@
       <c r="B24" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="C24" s="11">
+        <v>10</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11">
+        <v>5</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11">
+        <f>115+180</f>
+        <v>295</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="11">
+        <v>40</v>
+      </c>
       <c r="M24" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -16064,15 +16112,19 @@
       </c>
       <c r="R24" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
+        <v>355</v>
+      </c>
+      <c r="S24" s="11">
+        <v>50</v>
+      </c>
+      <c r="T24" s="11">
+        <v>10</v>
+      </c>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -16083,13 +16135,15 @@
       </c>
       <c r="AB24" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="AC24" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="11"/>
+        <v>7.916666666666667</v>
+      </c>
+      <c r="AD24" s="11">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A25" s="62">
@@ -16609,11 +16663,11 @@
       </c>
       <c r="G34" s="4">
         <f>SUM(G3:G33)</f>
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="M34" s="4">
         <f>SUM(M3:M33)</f>
-        <v>1892</v>
+        <v>2227</v>
       </c>
       <c r="Q34" s="4">
         <f>SUM(Q3:Q33)</f>
@@ -16621,11 +16675,11 @@
       </c>
       <c r="R34" s="4">
         <f>G34+M34+Q34</f>
-        <v>2279</v>
+        <v>2634</v>
       </c>
       <c r="W34" s="4">
         <f>SUM(W3:W33)</f>
-        <v>695</v>
+        <v>755</v>
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
@@ -16633,11 +16687,11 @@
       </c>
       <c r="AB34" s="4">
         <f>R34+W34+AA34</f>
-        <v>6809</v>
+        <v>7224</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>4.4833333333333334</v>
+        <v>4.7387096774193553</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.4">
@@ -16649,14 +16703,14 @@
       </c>
       <c r="G35" s="15">
         <f>G34/60</f>
-        <v>5.95</v>
+        <v>6.2833333333333332</v>
       </c>
       <c r="L35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="15">
         <f>M34/60</f>
-        <v>31.533333333333335</v>
+        <v>37.116666666666667</v>
       </c>
       <c r="P35" s="37" t="s">
         <v>3</v>
@@ -16667,14 +16721,14 @@
       </c>
       <c r="R35" s="15">
         <f>R34/60</f>
-        <v>37.983333333333334</v>
+        <v>43.9</v>
       </c>
       <c r="V35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="W35" s="15">
         <f>W34/60</f>
-        <v>11.583333333333334</v>
+        <v>12.583333333333334</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
@@ -16685,11 +16739,11 @@
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>113.48333333333333</v>
+        <v>120.4</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>113.48333333333333</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.4">
@@ -16698,11 +16752,11 @@
       </c>
       <c r="G36" s="4">
         <f>G35/31</f>
-        <v>0.19193548387096776</v>
+        <v>0.20268817204301076</v>
       </c>
       <c r="M36" s="4">
         <f>M35/31</f>
-        <v>1.0172043010752689</v>
+        <v>1.1973118279569892</v>
       </c>
       <c r="Q36" s="4">
         <f>Q35/31</f>
@@ -16710,7 +16764,7 @@
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
-        <v>1.2252688172043011</v>
+        <v>1.4161290322580644</v>
       </c>
       <c r="AA36" s="4">
         <f>AA35/31</f>
@@ -16718,7 +16772,7 @@
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>4.4833333333333334</v>
+        <v>4.7387096774193553</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.4">
@@ -16750,11 +16804,11 @@
       </c>
       <c r="G38" s="4">
         <f>G36-G37</f>
-        <v>-0.20483870967741935</v>
+        <v>-0.19408602150537635</v>
       </c>
       <c r="M38" s="4">
         <f>M36-M37</f>
-        <v>-1.496236559139785</v>
+        <v>-1.3161290322580648</v>
       </c>
       <c r="Q38" s="4">
         <f>Q36-Q37</f>
@@ -16762,7 +16816,7 @@
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
-        <v>-1.7010752688172042</v>
+        <v>-1.5102150537634409</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
@@ -16770,7 +16824,7 @@
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-2.1881720430107539</v>
+        <v>-1.9327956989247319</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.4">
@@ -16791,11 +16845,11 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>113.48333333333333</v>
+        <v>120.4</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.2815963606286187</v>
+        <v>0.29875930521091815</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.4">
@@ -16808,11 +16862,11 @@
       </c>
       <c r="C41" s="4">
         <f>C40</f>
-        <v>113.48333333333333</v>
+        <v>120.4</v>
       </c>
       <c r="D41" s="39">
         <f>C41/B41</f>
-        <v>0.39679487179487177</v>
+        <v>0.42097902097902101</v>
       </c>
     </row>
   </sheetData>
@@ -27362,15 +27416,15 @@
       <c r="B3" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="134" t="s">
+      <c r="C3" s="125"/>
+      <c r="D3" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="136"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
@@ -27379,15 +27433,15 @@
       <c r="B4" s="83">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="130" t="s">
+      <c r="C4" s="125"/>
+      <c r="D4" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
@@ -27396,13 +27450,13 @@
       <c r="B5" s="83">
         <v>0.25</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
@@ -27411,13 +27465,13 @@
       <c r="B6" s="83">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="83">
@@ -27426,28 +27480,28 @@
       <c r="C7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="124"/>
+      <c r="I7" s="129"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="124"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="129"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
@@ -27456,17 +27510,17 @@
       <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="137" t="s">
+      <c r="D9" s="130"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="124"/>
+      <c r="I9" s="129"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -27478,15 +27532,15 @@
       <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="124"/>
+      <c r="I10" s="129"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -27498,19 +27552,19 @@
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="135" t="s">
+      <c r="D11" s="127"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="135"/>
+      <c r="G11" s="127"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="124"/>
+      <c r="I11" s="129"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
@@ -27519,19 +27573,19 @@
       <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="127" t="s">
+      <c r="D12" s="126"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="132" t="s">
+      <c r="G12" s="126"/>
+      <c r="H12" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="124"/>
+      <c r="I12" s="129"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -27543,17 +27597,17 @@
       <c r="B13" s="83">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="129" t="s">
+      <c r="D13" s="131"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="129"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="124"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="129"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -27565,17 +27619,17 @@
       <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="137" t="s">
+      <c r="D14" s="130"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="137"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="124"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="129"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
@@ -27584,13 +27638,13 @@
       <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="124"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="129"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -27602,19 +27656,19 @@
       <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="133" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="88"/>
-      <c r="E16" s="123"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="131" t="s">
+      <c r="G16" s="133" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="124"/>
+      <c r="I16" s="129"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -27626,19 +27680,19 @@
       <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="123"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="131"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="124"/>
+      <c r="I17" s="129"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
@@ -27647,19 +27701,19 @@
       <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="133" t="s">
+      <c r="C18" s="133"/>
+      <c r="D18" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="133" t="s">
+      <c r="E18" s="125"/>
+      <c r="F18" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131" t="s">
+      <c r="G18" s="133"/>
+      <c r="H18" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="124"/>
+      <c r="I18" s="129"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -27671,13 +27725,13 @@
       <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="124"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="129"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -27692,14 +27746,14 @@
       <c r="C20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="123"/>
-      <c r="I20" s="124"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="129"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -27711,18 +27765,28 @@
       <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="126"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D4:G7"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="F18:F19"/>
@@ -27739,16 +27803,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="D4:G7"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28040,12 +28094,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -28059,6 +28107,12 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwdu\taeu.github.io\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C0DA326-FE4F-4FBA-8754-049FC5905F4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA53C14-7D24-4DFA-AC34-B8DE0AD7E824}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" firstSheet="1" activeTab="6" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="11월" sheetId="12" r:id="rId1"/>
@@ -19,15 +19,22 @@
     <sheet name="8월" sheetId="1" r:id="rId4"/>
     <sheet name="7월" sheetId="8" r:id="rId5"/>
     <sheet name="상반기 리뷰" sheetId="13" r:id="rId6"/>
-    <sheet name="11월 Daily schedule" sheetId="11" r:id="rId7"/>
-    <sheet name="9월 Daily Schedule" sheetId="7" r:id="rId8"/>
-    <sheet name="운동" sheetId="10" r:id="rId9"/>
-    <sheet name="식단" sheetId="2" r:id="rId10"/>
+    <sheet name="12월 Daily schedule (2)" sheetId="14" r:id="rId7"/>
+    <sheet name="11월 Daily schedule" sheetId="11" r:id="rId8"/>
+    <sheet name="9월 Daily Schedule" sheetId="7" r:id="rId9"/>
+    <sheet name="운동" sheetId="10" r:id="rId10"/>
+    <sheet name="식단" sheetId="2" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8532,7 +8539,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="253">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9532,6 +9539,94 @@
     <t>행사</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동+식단</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩공부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표기상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>간식 (고구마)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침(1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심(2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁(3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 26일부터 시작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘부터!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1,2월은 추우니 일단 홈트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈도 절약겸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유산소도 필요하긴 한데, 버티는거 하면되니까 뭐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>별, 다른것들은 없을 것 같으니</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>식비조원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상 (집정리 + 하루일과 계획 정리)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일 정도는 잡일 처리 하기도 중간에 넣자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동시간은 영어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의듣기도 괜찮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPACT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -9778,7 +9873,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9909,6 +10004,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10071,7 +10172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10396,6 +10497,9 @@
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="22" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10441,28 +10545,22 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10477,25 +10575,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10507,7 +10599,64 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="17" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10527,12 +10676,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9F2FB"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFFBDDE"/>
       <color rgb="FFFFD9D9"/>
-      <color rgb="FFD9F2FB"/>
-      <color rgb="FFFF5050"/>
       <color rgb="FFFF8B8B"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -14472,91 +14621,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7B0487-FEF9-4373-BCF3-2F8B7A9F707B}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
-    <col min="3" max="7" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.59765625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.59765625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" style="4" customWidth="1"/>
-    <col min="24" max="25" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="112" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
       <c r="R1" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="115" t="s">
+      <c r="S1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="111" t="s">
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="108" t="s">
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="109" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="75" t="s">
         <v>128</v>
       </c>
@@ -14632,7 +14781,7 @@
       <c r="AA2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="109"/>
+      <c r="AB2" s="110"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -14646,7 +14795,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="62">
         <v>43405</v>
       </c>
@@ -14720,7 +14869,7 @@
       </c>
       <c r="AD3" s="11"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="62">
         <v>43406</v>
       </c>
@@ -14796,7 +14945,7 @@
       </c>
       <c r="AD4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="62">
         <v>43407</v>
       </c>
@@ -14862,7 +15011,7 @@
       </c>
       <c r="AD5" s="11"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>43408</v>
       </c>
@@ -14924,7 +15073,7 @@
       </c>
       <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <v>43409</v>
       </c>
@@ -14992,7 +15141,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <v>43410</v>
       </c>
@@ -15060,7 +15209,7 @@
       </c>
       <c r="AD8" s="11"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>43411</v>
       </c>
@@ -15127,7 +15276,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="76">
         <v>43412</v>
       </c>
@@ -15195,7 +15344,7 @@
       </c>
       <c r="AD10" s="11"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="62">
         <v>43413</v>
       </c>
@@ -15267,7 +15416,7 @@
       </c>
       <c r="AD11" s="11"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="106">
         <v>43414</v>
       </c>
@@ -15334,7 +15483,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>43415</v>
       </c>
@@ -15398,7 +15547,7 @@
       </c>
       <c r="AD13" s="11"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>43416</v>
       </c>
@@ -15470,7 +15619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>43417</v>
       </c>
@@ -15534,7 +15683,7 @@
       </c>
       <c r="AD15" s="11"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>43418</v>
       </c>
@@ -15600,7 +15749,7 @@
       </c>
       <c r="AD16" s="11"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>43419</v>
       </c>
@@ -15666,7 +15815,7 @@
       </c>
       <c r="AD17" s="11"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>43420</v>
       </c>
@@ -15734,7 +15883,7 @@
       </c>
       <c r="AD18" s="11"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>43421</v>
       </c>
@@ -15806,7 +15955,7 @@
       </c>
       <c r="AD19" s="11"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>43422</v>
       </c>
@@ -15870,7 +16019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>43423</v>
       </c>
@@ -15934,7 +16083,7 @@
       </c>
       <c r="AD21" s="11"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="106">
         <v>43424</v>
       </c>
@@ -15997,7 +16146,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>43425</v>
       </c>
@@ -16068,7 +16217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>43426</v>
       </c>
@@ -16145,7 +16294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
         <v>43427</v>
       </c>
@@ -16161,13 +16310,19 @@
         <v>0</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="11">
+        <v>180</v>
+      </c>
       <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="K25" s="11">
+        <v>30</v>
+      </c>
+      <c r="L25" s="11">
+        <v>60</v>
+      </c>
       <c r="M25" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
@@ -16178,7 +16333,7 @@
       </c>
       <c r="R25" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
@@ -16189,23 +16344,27 @@
         <v>0</v>
       </c>
       <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
+      <c r="Y25" s="11">
+        <v>210</v>
+      </c>
       <c r="Z25" s="11"/>
       <c r="AA25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB25" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AC25" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="11"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="76">
         <v>43428</v>
       </c>
@@ -16221,13 +16380,19 @@
         <v>0</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11">
+        <v>60</v>
+      </c>
       <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="K26" s="11">
+        <v>220</v>
+      </c>
+      <c r="L26" s="11">
+        <v>20</v>
+      </c>
       <c r="M26" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -16238,7 +16403,7 @@
       </c>
       <c r="R26" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
@@ -16250,22 +16415,24 @@
       </c>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
+      <c r="Z26" s="11">
+        <v>160</v>
+      </c>
       <c r="AA26" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB26" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="AC26" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AD26" s="11"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="62">
         <v>43429</v>
       </c>
@@ -16284,29 +16451,37 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+      <c r="L27" s="11">
+        <v>60</v>
+      </c>
       <c r="M27" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="O27" s="11">
+        <v>20</v>
+      </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R27" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
+      <c r="T27" s="11">
+        <v>5</v>
+      </c>
+      <c r="U27" s="11">
+        <v>30</v>
+      </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
@@ -16317,15 +16492,15 @@
       </c>
       <c r="AB27" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="AC27" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="AD27" s="11"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>43430</v>
       </c>
@@ -16385,7 +16560,7 @@
       </c>
       <c r="AD28" s="11"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>43431</v>
       </c>
@@ -16445,7 +16620,7 @@
       </c>
       <c r="AD29" s="11"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="62">
         <v>43432</v>
       </c>
@@ -16505,7 +16680,7 @@
       </c>
       <c r="AD30" s="11"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>43433</v>
       </c>
@@ -16565,7 +16740,7 @@
       </c>
       <c r="AD31" s="11"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
         <v>43434</v>
       </c>
@@ -16625,7 +16800,7 @@
       </c>
       <c r="AD32" s="11"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="62"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -16657,7 +16832,7 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
@@ -16667,34 +16842,34 @@
       </c>
       <c r="M34" s="4">
         <f>SUM(M3:M33)</f>
-        <v>2227</v>
+        <v>2857</v>
       </c>
       <c r="Q34" s="4">
         <f>SUM(Q3:Q33)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R34" s="4">
         <f>G34+M34+Q34</f>
-        <v>2634</v>
+        <v>3284</v>
       </c>
       <c r="W34" s="4">
         <f>SUM(W3:W33)</f>
-        <v>755</v>
+        <v>790</v>
       </c>
       <c r="AA34" s="4">
         <f>SUM(AA3:AA33)</f>
-        <v>3835</v>
+        <v>4205</v>
       </c>
       <c r="AB34" s="4">
         <f>R34+W34+AA34</f>
-        <v>7224</v>
+        <v>8279</v>
       </c>
       <c r="AC34" s="6">
         <f>SUM(AC3:AC33)/31</f>
-        <v>4.7387096774193553</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+        <v>5.3220430107526875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -16710,43 +16885,43 @@
       </c>
       <c r="M35" s="15">
         <f>M34/60</f>
-        <v>37.116666666666667</v>
+        <v>47.616666666666667</v>
       </c>
       <c r="P35" s="37" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="15">
         <f>Q34/60</f>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R35" s="15">
         <f>R34/60</f>
-        <v>43.9</v>
+        <v>54.733333333333334</v>
       </c>
       <c r="V35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="W35" s="15">
         <f>W34/60</f>
-        <v>12.583333333333334</v>
+        <v>13.166666666666666</v>
       </c>
       <c r="Z35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AA35" s="15">
         <f>AA34/60</f>
-        <v>63.916666666666664</v>
+        <v>70.083333333333329</v>
       </c>
       <c r="AB35" s="4">
         <f>AB34/60</f>
-        <v>120.4</v>
+        <v>137.98333333333332</v>
       </c>
       <c r="AC35" s="15">
         <f>AB34/60</f>
-        <v>120.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+        <v>137.98333333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
@@ -16756,26 +16931,26 @@
       </c>
       <c r="M36" s="4">
         <f>M35/31</f>
-        <v>1.1973118279569892</v>
+        <v>1.5360215053763442</v>
       </c>
       <c r="Q36" s="4">
         <f>Q35/31</f>
-        <v>1.6129032258064516E-2</v>
+        <v>2.6881720430107527E-2</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
-        <v>1.4161290322580644</v>
+        <v>1.7655913978494624</v>
       </c>
       <c r="AA36" s="4">
         <f>AA35/31</f>
-        <v>2.061827956989247</v>
+        <v>2.260752688172043</v>
       </c>
       <c r="AC36" s="6">
         <f>AC34</f>
-        <v>4.7387096774193553</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+        <v>5.3220430107526875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -16798,7 +16973,7 @@
         <v>6.6715053763440872</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
@@ -16808,26 +16983,26 @@
       </c>
       <c r="M38" s="4">
         <f>M36-M37</f>
-        <v>-1.3161290322580648</v>
+        <v>-0.97741935483870979</v>
       </c>
       <c r="Q38" s="4">
         <f>Q36-Q37</f>
-        <v>0</v>
+        <v>1.0752688172043012E-2</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
-        <v>-1.5102150537634409</v>
+        <v>-1.1607526881720429</v>
       </c>
       <c r="AA38" s="4">
         <f>AA36-AA37</f>
-        <v>-1.2881720430107526</v>
+        <v>-1.0892473118279566</v>
       </c>
       <c r="AC38" s="4">
         <f>AC36-AC37</f>
-        <v>-1.9327956989247319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
+        <v>-1.3494623655913998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -16835,7 +17010,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -16845,14 +17020,14 @@
       </c>
       <c r="C40" s="4">
         <f>AC35</f>
-        <v>120.4</v>
+        <v>137.98333333333332</v>
       </c>
       <c r="D40" s="39">
         <f>C40/B40</f>
-        <v>0.29875930521091815</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
+        <v>0.34239040529363107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -16862,11 +17037,11 @@
       </c>
       <c r="C41" s="4">
         <f>C40</f>
-        <v>120.4</v>
+        <v>137.98333333333332</v>
       </c>
       <c r="D41" s="39">
         <f>C41/B41</f>
-        <v>0.42097902097902101</v>
+        <v>0.4824592074592074</v>
       </c>
     </row>
   </sheetData>
@@ -16888,6 +17063,233 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0132E9-0673-4490-BC8A-D02254140BA6}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{8C43F690-7EA1-4512-8516-5BEB2B2DFFA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FA3BB6-099A-4AC3-88F4-8C9D0446935C}">
   <dimension ref="A1:W38"/>
   <sheetViews>
@@ -16895,103 +17297,103 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.69921875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.19921875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.3984375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.375" style="4" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="146" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="110"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="111"/>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
@@ -17027,11 +17429,11 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="110" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="110"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -17073,7 +17475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43313</v>
       </c>
@@ -17106,7 +17508,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43314</v>
       </c>
@@ -17158,7 +17560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43315</v>
       </c>
@@ -17194,7 +17596,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43316</v>
       </c>
@@ -17209,7 +17611,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43317</v>
       </c>
@@ -17221,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43318</v>
       </c>
@@ -17233,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43319</v>
       </c>
@@ -17266,7 +17668,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43320</v>
       </c>
@@ -17293,7 +17695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43321</v>
       </c>
@@ -17326,7 +17728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43322</v>
       </c>
@@ -17367,7 +17769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43323</v>
       </c>
@@ -17403,7 +17805,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43324</v>
       </c>
@@ -17442,7 +17844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43325</v>
       </c>
@@ -17481,7 +17883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43326</v>
       </c>
@@ -17520,7 +17922,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43327</v>
       </c>
@@ -17553,7 +17955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43328</v>
       </c>
@@ -17565,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43329</v>
       </c>
@@ -17577,7 +17979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43330</v>
       </c>
@@ -17592,7 +17994,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43331</v>
       </c>
@@ -17604,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43332</v>
       </c>
@@ -17616,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43333</v>
       </c>
@@ -17628,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43334</v>
       </c>
@@ -17652,7 +18054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43335</v>
       </c>
@@ -17682,7 +18084,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43336</v>
       </c>
@@ -17694,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43337</v>
       </c>
@@ -17706,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43338</v>
       </c>
@@ -17730,7 +18132,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43339</v>
       </c>
@@ -17742,7 +18144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>43340</v>
       </c>
@@ -17754,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>43341</v>
       </c>
@@ -17766,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43342</v>
       </c>
@@ -17781,7 +18183,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>43343</v>
       </c>
@@ -17793,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17823,81 +18225,81 @@
       <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.59765625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.19921875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="4" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="4"/>
     <col min="20" max="22" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5" style="4" customWidth="1"/>
     <col min="24" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="4"/>
     <col min="29" max="29" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.09765625" style="11" customWidth="1"/>
-    <col min="31" max="31" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="11" customWidth="1"/>
+    <col min="31" max="31" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110" t="s">
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="110" t="s">
+      <c r="T1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110" t="s">
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AB1" s="116" t="s">
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AB1" s="117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="59" t="s">
         <v>9</v>
       </c>
@@ -17973,7 +18375,7 @@
       <c r="AA2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="117"/>
+      <c r="AB2" s="118"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -17981,7 +18383,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="62">
         <v>43374</v>
       </c>
@@ -18055,7 +18457,7 @@
       </c>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="62">
         <v>43375</v>
       </c>
@@ -18131,7 +18533,7 @@
       </c>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="65">
         <v>43376</v>
       </c>
@@ -18192,7 +18594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>43377</v>
       </c>
@@ -18263,7 +18665,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <v>43378</v>
       </c>
@@ -18330,7 +18732,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <v>43379</v>
       </c>
@@ -18399,7 +18801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>43380</v>
       </c>
@@ -18460,7 +18862,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <v>43381</v>
       </c>
@@ -18529,7 +18931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="68">
         <v>43382</v>
       </c>
@@ -18596,7 +18998,7 @@
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="62">
         <v>43383</v>
       </c>
@@ -18665,7 +19067,7 @@
         <v>9.8333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>43384</v>
       </c>
@@ -18736,7 +19138,7 @@
         <v>9.6333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>43385</v>
       </c>
@@ -18807,7 +19209,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>43386</v>
       </c>
@@ -18875,7 +19277,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>43387</v>
       </c>
@@ -18940,7 +19342,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>43388</v>
       </c>
@@ -19012,7 +19414,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>43389</v>
       </c>
@@ -19084,7 +19486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>43390</v>
       </c>
@@ -19149,7 +19551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>43391</v>
       </c>
@@ -19224,7 +19626,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>43392</v>
       </c>
@@ -19298,7 +19700,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
         <v>43393</v>
       </c>
@@ -19363,7 +19765,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>43394</v>
       </c>
@@ -19422,7 +19824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>43395</v>
       </c>
@@ -19488,7 +19890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
         <v>43396</v>
       </c>
@@ -19566,7 +19968,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="62">
         <v>43397</v>
       </c>
@@ -19633,7 +20035,7 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="72">
         <v>43398</v>
       </c>
@@ -19719,7 +20121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>43399</v>
       </c>
@@ -19791,7 +20193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>43400</v>
       </c>
@@ -19859,7 +20261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="62">
         <v>43401</v>
       </c>
@@ -19925,7 +20327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>43402</v>
       </c>
@@ -20000,7 +20402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
         <v>43403</v>
       </c>
@@ -20075,7 +20477,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="62">
         <v>43404</v>
       </c>
@@ -20148,7 +20550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
@@ -20189,7 +20591,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -20241,7 +20643,7 @@
         <v>215.15</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
@@ -20278,7 +20680,7 @@
         <v>7.7785359801488836</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -20301,7 +20703,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
@@ -20330,7 +20732,7 @@
         <v>0.15473118279570119</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -20338,7 +20740,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -20355,7 +20757,7 @@
         <v>0.53387096774193554</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -20401,18 +20803,18 @@
       <selection pane="bottomRight" activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.19921875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="4" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="4"/>
@@ -20420,66 +20822,66 @@
     <col min="22" max="22" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4"/>
     <col min="31" max="31" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110" t="s">
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="110" t="s">
+      <c r="U1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110" t="s">
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AD1" s="116" t="s">
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AD1" s="117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -20561,7 +20963,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="117"/>
+      <c r="AD2" s="118"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -20569,7 +20971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43344</v>
       </c>
@@ -20619,7 +21021,7 @@
       </c>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43345</v>
       </c>
@@ -20663,7 +21065,7 @@
       </c>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43346</v>
       </c>
@@ -20715,7 +21117,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43347</v>
       </c>
@@ -20770,7 +21172,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43348</v>
       </c>
@@ -20840,7 +21242,7 @@
         <v>8.3666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43349</v>
       </c>
@@ -20904,7 +21306,7 @@
         <v>11.566666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43350</v>
       </c>
@@ -20956,7 +21358,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43351</v>
       </c>
@@ -21023,7 +21425,7 @@
         <v>7.8166666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43352</v>
       </c>
@@ -21072,7 +21474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43353</v>
       </c>
@@ -21115,7 +21517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43354</v>
       </c>
@@ -21167,7 +21569,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43355</v>
       </c>
@@ -21226,7 +21628,7 @@
         <v>7.2166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43356</v>
       </c>
@@ -21282,7 +21684,7 @@
         <v>7.416666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43357</v>
       </c>
@@ -21340,7 +21742,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43358</v>
       </c>
@@ -21398,7 +21800,7 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43359</v>
       </c>
@@ -21444,7 +21846,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43360</v>
       </c>
@@ -21496,7 +21898,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>43361</v>
       </c>
@@ -21567,7 +21969,7 @@
         <v>8.3833333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>43362</v>
       </c>
@@ -21637,7 +22039,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43363</v>
       </c>
@@ -21702,7 +22104,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43364</v>
       </c>
@@ -21765,7 +22167,7 @@
         <v>8.4166666666666661</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43365</v>
       </c>
@@ -21825,7 +22227,7 @@
         <v>9.3166666666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43366</v>
       </c>
@@ -21882,7 +22284,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43367</v>
       </c>
@@ -21934,7 +22336,7 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43368</v>
       </c>
@@ -21980,7 +22382,7 @@
         <v>5.2833333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43369</v>
       </c>
@@ -22029,7 +22431,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43370</v>
       </c>
@@ -22088,7 +22490,7 @@
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43371</v>
       </c>
@@ -22144,7 +22546,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43372</v>
       </c>
@@ -22193,7 +22595,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43373</v>
       </c>
@@ -22236,7 +22638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="H33" s="4">
         <f t="shared" si="7"/>
@@ -22271,7 +22673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
@@ -22308,7 +22710,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
@@ -22357,7 +22759,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
@@ -22390,7 +22792,7 @@
         <v>6.5866666666666651</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
@@ -22416,7 +22818,7 @@
         <v>6.3279569892473111</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>118</v>
       </c>
@@ -22449,7 +22851,7 @@
         <v>0.25870967741935402</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -22457,7 +22859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -22474,7 +22876,7 @@
         <v>0.5066666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f>13*30</f>
         <v>390</v>
@@ -22514,18 +22916,18 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="4.5" style="4" bestFit="1" customWidth="1"/>
@@ -22536,65 +22938,65 @@
     <col min="24" max="24" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="30" max="30" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110" t="s">
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="110" t="s">
+      <c r="T1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110" t="s">
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AC1" s="116" t="s">
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AC1" s="117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -22673,12 +23075,12 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="117"/>
+      <c r="AC2" s="118"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43313</v>
       </c>
@@ -22733,7 +23135,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43314</v>
       </c>
@@ -22795,7 +23197,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43315</v>
       </c>
@@ -22849,7 +23251,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43316</v>
       </c>
@@ -22896,7 +23298,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43317</v>
       </c>
@@ -22939,7 +23341,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43318</v>
       </c>
@@ -22985,7 +23387,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43319</v>
       </c>
@@ -23049,7 +23451,7 @@
         <v>8.0833333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43320</v>
       </c>
@@ -23092,7 +23494,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43321</v>
       </c>
@@ -23148,7 +23550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43322</v>
       </c>
@@ -23213,7 +23615,7 @@
         <v>10.966666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43323</v>
       </c>
@@ -23259,7 +23661,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43324</v>
       </c>
@@ -23302,7 +23704,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43325</v>
       </c>
@@ -23362,7 +23764,7 @@
         <v>7.7833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43326</v>
       </c>
@@ -23427,7 +23829,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43327</v>
       </c>
@@ -23488,7 +23890,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43328</v>
       </c>
@@ -23543,7 +23945,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43329</v>
       </c>
@@ -23592,7 +23994,7 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43330</v>
       </c>
@@ -23641,7 +24043,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43331</v>
       </c>
@@ -23681,7 +24083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43332</v>
       </c>
@@ -23727,7 +24129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43333</v>
       </c>
@@ -23779,7 +24181,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43334</v>
       </c>
@@ -23822,7 +24224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43335</v>
       </c>
@@ -23871,7 +24273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43336</v>
       </c>
@@ -23917,7 +24319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43337</v>
       </c>
@@ -23963,7 +24365,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43338</v>
       </c>
@@ -24006,7 +24408,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43339</v>
       </c>
@@ -24052,7 +24454,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43340</v>
       </c>
@@ -24104,7 +24506,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43341</v>
       </c>
@@ -24156,7 +24558,7 @@
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43342</v>
       </c>
@@ -24214,7 +24616,7 @@
         <v>10.333333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43343</v>
       </c>
@@ -24272,7 +24674,7 @@
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
@@ -24307,7 +24709,7 @@
         <v>5.8736559139784941</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="G35" s="38" t="s">
         <v>1</v>
@@ -24350,7 +24752,7 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="H36" s="4">
         <f>H35/31</f>
@@ -24377,7 +24779,7 @@
         <v>4.1279569892473118</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="90"/>
       <c r="G37" s="4" t="s">
         <v>168</v>
@@ -24403,13 +24805,13 @@
         <v>127.96666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="Z38" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="N39" s="4" t="s">
         <v>169</v>
@@ -24441,85 +24843,85 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.59765625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
     <col min="7" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.75" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110" t="s">
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="110" t="s">
+      <c r="T1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="120" t="s">
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AB1" s="118" t="s">
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AB1" s="119" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -24595,9 +24997,9 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="119"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB2" s="120"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>43283</v>
       </c>
@@ -24654,7 +25056,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43284</v>
       </c>
@@ -24710,7 +25112,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43285</v>
       </c>
@@ -24762,7 +25164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43286</v>
       </c>
@@ -24818,7 +25220,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43287</v>
       </c>
@@ -24879,7 +25281,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43288</v>
       </c>
@@ -24937,7 +25339,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43289</v>
       </c>
@@ -24996,7 +25398,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43290</v>
       </c>
@@ -25065,7 +25467,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43291</v>
       </c>
@@ -25128,7 +25530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43292</v>
       </c>
@@ -25195,7 +25597,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43293</v>
       </c>
@@ -25260,7 +25662,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43294</v>
       </c>
@@ -25324,7 +25726,7 @@
         <v>7.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43295</v>
       </c>
@@ -25383,7 +25785,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43296</v>
       </c>
@@ -25437,7 +25839,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43297</v>
       </c>
@@ -25496,7 +25898,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43298</v>
       </c>
@@ -25554,7 +25956,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48">
         <v>43299</v>
       </c>
@@ -25624,7 +26026,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43300</v>
       </c>
@@ -25685,7 +26087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43301</v>
       </c>
@@ -25751,7 +26153,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43302</v>
       </c>
@@ -25808,7 +26210,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43303</v>
       </c>
@@ -25860,7 +26262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43304</v>
       </c>
@@ -25921,7 +26323,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43305</v>
       </c>
@@ -25984,7 +26386,7 @@
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43306</v>
       </c>
@@ -26043,7 +26445,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43307</v>
       </c>
@@ -26104,7 +26506,7 @@
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43308</v>
       </c>
@@ -26156,7 +26558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43309</v>
       </c>
@@ -26217,7 +26619,7 @@
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43310</v>
       </c>
@@ -26269,7 +26671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43311</v>
       </c>
@@ -26321,7 +26723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43312</v>
       </c>
@@ -26373,7 +26775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -26401,7 +26803,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -26428,7 +26830,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -26489,7 +26891,7 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -26550,7 +26952,7 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -26577,7 +26979,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -26602,7 +27004,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -26627,7 +27029,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -26652,7 +27054,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -26677,7 +27079,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -26702,7 +27104,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -26727,7 +27129,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -26752,7 +27154,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -26777,7 +27179,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -26827,65 +27229,65 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="32" width="5.69921875" customWidth="1"/>
+    <col min="1" max="32" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="112" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113" t="s">
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
       <c r="R1" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="115" t="s">
+      <c r="S1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="111" t="s">
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R3" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>203</v>
       </c>
@@ -26927,12 +27329,12 @@
         <v>91.949999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>203</v>
       </c>
@@ -26965,12 +27367,12 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>203</v>
       </c>
@@ -27009,12 +27411,12 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>203</v>
       </c>
@@ -27056,51 +27458,51 @@
         <v>214.81666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B16" s="112" t="s">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B16" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="I16" s="113" t="s">
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="I16" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="Q16" s="121" t="s">
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="Q16" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="Y16" s="122" t="s">
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
+      <c r="Y16" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="122"/>
-      <c r="AC16" s="122"/>
-      <c r="AD16" s="122"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="Z16" s="123"/>
+      <c r="AA16" s="123"/>
+      <c r="AB16" s="123"/>
+      <c r="AC16" s="123"/>
+      <c r="AD16" s="123"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -27199,7 +27601,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -27271,7 +27673,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AF19" t="s">
         <v>214</v>
       </c>
@@ -27283,7 +27685,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF20" t="s">
         <v>221</v>
       </c>
@@ -27295,7 +27697,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF21" s="101" t="s">
         <v>217</v>
       </c>
@@ -27310,7 +27712,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AG22" s="91" t="s">
         <v>218</v>
       </c>
@@ -27319,7 +27721,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AF23" s="92" t="s">
         <v>223</v>
       </c>
@@ -27334,7 +27736,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AF24" s="96"/>
       <c r="AG24" s="85"/>
       <c r="AH24" s="85"/>
@@ -27342,7 +27744,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF25" s="98"/>
       <c r="AG25" s="99"/>
       <c r="AH25" s="99"/>
@@ -27370,25 +27772,479 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB8F789-AC3E-42AB-9FD1-E13319743684}">
+  <dimension ref="B1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C1" s="161" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="147"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="K2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="149"/>
+      <c r="C3" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="160" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="160" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="160" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="149">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C4" s="148" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="147"/>
+      <c r="K4" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="M4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="149">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="135" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="147"/>
+      <c r="K5" s="150" t="s">
+        <v>243</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="157">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C6" s="158" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="147"/>
+      <c r="K6" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="O6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="156">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="O7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="156">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="147"/>
+      <c r="K8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="156">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="147"/>
+      <c r="K9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L9" t="s">
+        <v>193</v>
+      </c>
+      <c r="O9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="157">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="147"/>
+      <c r="K10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="157">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="147"/>
+      <c r="K11" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="157">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="153" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="147"/>
+      <c r="K12" t="s">
+        <v>188</v>
+      </c>
+      <c r="L12" t="s">
+        <v>190</v>
+      </c>
+      <c r="O12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="156">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="C13" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="147"/>
+      <c r="K13" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" t="s">
+        <v>191</v>
+      </c>
+      <c r="O13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="156">
+        <v>0.625000000000001</v>
+      </c>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="147"/>
+      <c r="K14" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="157">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="147"/>
+      <c r="K15" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="156">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C16" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="147"/>
+      <c r="K16" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="156">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="C17" s="132"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="132"/>
+      <c r="I17" s="147"/>
+      <c r="K17" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="156">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C18" s="132"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="147"/>
+      <c r="K18" t="s">
+        <v>199</v>
+      </c>
+      <c r="L18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="156">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C19" s="132"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="147"/>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="157">
+        <v>0.875000000000001</v>
+      </c>
+      <c r="C20" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="147"/>
+      <c r="K20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="149">
+        <v>0.91666666666666796</v>
+      </c>
+      <c r="C21" s="151" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="151" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" s="79"/>
+      <c r="I21" s="147"/>
+      <c r="K21" t="s">
+        <v>250</v>
+      </c>
+      <c r="L21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="149">
+        <v>0.95833333333333504</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="C7:H9"/>
+    <mergeCell ref="D16:F19"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C13:G14"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="C6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5282D242-F6FD-4240-8881-ADCF447DCF9B}">
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D4" sqref="D4:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
       <c r="E1" s="79"/>
       <c r="F1" s="79"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="80"/>
       <c r="C2" s="81" t="s">
         <v>93</v>
@@ -27412,115 +28268,115 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="123" t="s">
+      <c r="C3" s="124"/>
+      <c r="D3" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="128"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="137"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="83">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="132" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="83">
         <v>0.25</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="128"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="83">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C6" s="124"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="83">
         <v>0.33333333333333398</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
       <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="129"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I7" s="125"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="129"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="125"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="130" t="s">
+      <c r="D9" s="138"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="130"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="129"/>
+      <c r="I9" s="125"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -27528,19 +28384,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="129"/>
+      <c r="I10" s="125"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -27548,44 +28404,44 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="127" t="s">
+      <c r="D11" s="136"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="127"/>
+      <c r="G11" s="136"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="129"/>
+      <c r="I11" s="125"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126" t="s">
+      <c r="D12" s="128"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="126"/>
-      <c r="H12" s="134" t="s">
+      <c r="G12" s="128"/>
+      <c r="H12" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="129"/>
+      <c r="I12" s="125"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -27593,21 +28449,21 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="83">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="131" t="s">
+      <c r="D13" s="130"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="131"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="129"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="125"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -27615,36 +28471,36 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="130" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="129"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="125"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="129"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="125"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -27652,23 +28508,23 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="132" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="88"/>
-      <c r="E16" s="125"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="133" t="s">
+      <c r="G16" s="132" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="129"/>
+      <c r="I16" s="125"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -27676,44 +28532,44 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="125"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="133"/>
+      <c r="G17" s="132"/>
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="129"/>
+      <c r="I17" s="125"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="124" t="s">
+      <c r="C18" s="132"/>
+      <c r="D18" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="124" t="s">
+      <c r="E18" s="124"/>
+      <c r="F18" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133" t="s">
+      <c r="G18" s="132"/>
+      <c r="H18" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="129"/>
+      <c r="I18" s="125"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -27721,17 +28577,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="129"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="125"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -27739,21 +28595,21 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="83">
         <v>0.875000000000001</v>
       </c>
       <c r="C20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="125"/>
-      <c r="I20" s="129"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="125"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -27761,32 +28617,22 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="136"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D4:G7"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H18:H19"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="F18:F19"/>
@@ -27803,13 +28649,23 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="D4:G7"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2C9B6E-941B-4CD3-BA3E-A3014B233365}">
   <dimension ref="A2:I23"/>
   <sheetViews>
@@ -27817,9 +28673,9 @@
       <selection activeCell="C9" sqref="C9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>93</v>
       </c>
@@ -27842,220 +28698,220 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="138" t="s">
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="142" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="138"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="142"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="138"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="138"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="141" t="s">
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="141"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="139" t="s">
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="144" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="140"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="145"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138" t="s">
+      <c r="D14" s="142"/>
+      <c r="E14" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="138" t="s">
+      <c r="F14" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="138"/>
-      <c r="H14" s="140"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G14" s="142"/>
+      <c r="H14" s="145"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="140"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="145"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="144" t="s">
+      <c r="D16" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="144" t="s">
+      <c r="E16" s="142"/>
+      <c r="F16" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="144" t="s">
+      <c r="G16" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="140"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H16" s="145"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="140"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="145"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="140"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="145"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="144"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="138"/>
+      <c r="E19" s="142"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="144"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G19" s="141"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13">
         <v>0.875000000000001</v>
@@ -28063,14 +28919,14 @@
       <c r="C20" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <f>B21-B3</f>
         <v>0.75000000000000133</v>
@@ -28078,22 +28934,25 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -28110,238 +28969,8 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0132E9-0673-4490-BC8A-D02254140BA6}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="66.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="120" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A3" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{8C43F690-7EA1-4512-8516-5BEB2B2DFFA9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087F8E1-AA10-4806-ACAF-02F796C73089}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8849A013-42B5-4607-A91C-E9D02B3A0B5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="7" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="12월" sheetId="15" r:id="rId1"/>
@@ -47,6 +47,71 @@
     <author>김태우</author>
   </authors>
   <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{EF0F9340-4F8A-4FC8-9D14-22669B1C924A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부모님</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">올라오심
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A5" authorId="0" shapeId="0" xr:uid="{4B800FCD-5D1D-4706-960B-8614E8ED2A4B}">
       <text>
         <r>
@@ -79,6 +144,149 @@
           </rPr>
           <t xml:space="preserve">
 burning again!
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{4C6C93C2-6756-4782-AFD4-79C1FBBF1A08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시기상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아점저</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>먹었으니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>패스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -8586,7 +8794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="262">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9662,15 +9870,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>coin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>COMPACT, PERFECT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기상 (집정리 + 하루일과 계획 정리 + 간단요가)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -9691,6 +9891,30 @@
   </si>
   <si>
     <t>추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상 (집정리 + 하루일과 계획 정리 + 40분요가)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -10244,7 +10468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10602,6 +10826,21 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="22" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10609,9 +10848,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10624,6 +10860,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10647,6 +10886,9 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10659,13 +10901,10 @@
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10713,18 +10952,6 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10734,20 +10961,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -14733,93 +14960,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C5E9D4-A33B-4E66-BC74-B2584FA3C4B4}">
-  <dimension ref="A1:AF41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="29" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="4" customWidth="1"/>
-    <col min="3" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5" style="4" customWidth="1"/>
-    <col min="24" max="25" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="123" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="124" t="s">
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125" t="s">
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="117" t="s">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="126" t="s">
+      <c r="T1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="119" t="s">
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="124" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="116" t="s">
         <v>128</v>
       </c>
@@ -14829,87 +15057,90 @@
       <c r="E2" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="116" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="119" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="116" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="116" t="s">
-        <v>250</v>
-      </c>
       <c r="I2" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="116" t="s">
-        <v>164</v>
-      </c>
       <c r="K2" s="116" t="s">
+        <v>257</v>
+      </c>
+      <c r="L2" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="116" t="s">
+      <c r="M2" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="116" t="s">
+      <c r="O2" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="116" t="s">
+      <c r="P2" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="116" t="s">
+      <c r="Q2" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="117" t="s">
+      <c r="S2" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="116" t="s">
+      <c r="T2" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="116" t="s">
+      <c r="U2" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="U2" s="116" t="s">
+      <c r="V2" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="W2" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="116" t="s">
+      <c r="X2" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="116" t="s">
+      <c r="Z2" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="116" t="s">
+      <c r="AA2" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="116" t="s">
+      <c r="AB2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="116" t="s">
+      <c r="AE2" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="AE2" s="116" t="s">
+      <c r="AF2" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="AF2" s="116" t="s">
+      <c r="AG2" s="116" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="62">
         <v>43435</v>
       </c>
@@ -14920,66 +15151,67 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="11">
-        <f t="shared" ref="G3:G32" si="0">SUM(C3:F3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H32" si="0">SUM(C3:G3)</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="11">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11">
         <v>130</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>30</v>
       </c>
-      <c r="M3" s="11">
-        <f t="shared" ref="M3:M32" si="1">SUM(H3:L3)</f>
+      <c r="N3" s="11">
+        <f t="shared" ref="N3:N32" si="1">SUM(I3:M3)</f>
         <v>160</v>
       </c>
-      <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="11">
-        <f>SUM(N3:P3)</f>
-        <v>0</v>
-      </c>
+      <c r="Q3" s="11"/>
       <c r="R3" s="11">
-        <f t="shared" ref="R3:R32" si="2">G3+M3+Q3</f>
+        <f>SUM(O3:Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
+        <f t="shared" ref="S3:S32" si="2">H3+N3+R3</f>
         <v>160</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11">
         <v>20</v>
-      </c>
-      <c r="U3" s="11">
-        <v>30</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="11">
-        <f t="shared" ref="W3:W32" si="3">SUM(S3:V3)</f>
+        <v>30</v>
+      </c>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11">
+        <f t="shared" ref="Y3:Y32" si="3">SUM(T3:X3)</f>
         <v>50</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11">
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11">
         <v>120</v>
       </c>
-      <c r="AA3" s="11">
-        <f t="shared" ref="AA3:AA32" si="4">SUM(X3:Z3)</f>
+      <c r="AB3" s="11">
+        <f t="shared" ref="AB3:AB32" si="4">SUM(Z3:AA3)</f>
         <v>120</v>
       </c>
-      <c r="AB3" s="11">
-        <f t="shared" ref="AB3:AB32" si="5">R3+W3+AA3</f>
+      <c r="AC3" s="11">
+        <f t="shared" ref="AC3:AC32" si="5">S3+Y3+AB3</f>
         <v>330</v>
       </c>
-      <c r="AC3" s="11">
-        <f t="shared" ref="AC3:AC25" si="6">AB3/60 + SUM(AD3:AF3)/60</f>
+      <c r="AD3" s="11">
+        <f t="shared" ref="AD3:AD25" si="6">AC3/60 + SUM(AE3:AG3)/60</f>
         <v>5.5</v>
       </c>
-      <c r="AD3" s="11"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE3" s="11"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="62">
         <v>43436</v>
       </c>
@@ -14990,116 +15222,126 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="11">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="11">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="11">
-        <f t="shared" ref="Q4:Q32" si="7">SUM(N4:P4)</f>
-        <v>0</v>
-      </c>
+      <c r="Q4" s="11"/>
       <c r="R4" s="11">
+        <f t="shared" ref="R4:R32" si="7">SUM(O4:Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="11">
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="11">
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AC4" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AD4" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="11"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="165">
+      <c r="AE4" s="11"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="121">
         <v>43437</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="166"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11">
+        <v>40</v>
+      </c>
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="11"/>
+        <v>40</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="11">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="11">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R5" s="11">
+      <c r="S5" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="11"/>
+        <v>40</v>
+      </c>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11">
+      <c r="V5" s="11">
+        <v>60</v>
+      </c>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>230</v>
+      </c>
       <c r="AA5" s="11">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="11">
+        <v>240</v>
+      </c>
+      <c r="AC5" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="11">
+        <v>340</v>
+      </c>
+      <c r="AD5" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="11"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AE5" s="11"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>43438</v>
       </c>
@@ -15111,55 +15353,62 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11">
+        <v>40</v>
+      </c>
+      <c r="H6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>40</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11">
+      <c r="L6" s="11">
+        <v>5</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="11"/>
+        <v>5</v>
+      </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="11">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R6" s="11">
+      <c r="S6" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="11"/>
+        <v>45</v>
+      </c>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="11">
+      <c r="W6" s="11"/>
+      <c r="X6" s="11">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
+        <v>40</v>
+      </c>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="11">
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AC6" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11">
+        <v>85</v>
+      </c>
+      <c r="AD6" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="AE6" s="11"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <v>43439</v>
       </c>
@@ -15169,57 +15418,70 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11">
+        <v>45</v>
+      </c>
       <c r="G7" s="11">
+        <v>40</v>
+      </c>
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="11"/>
+        <v>85</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="11">
+        <v>290</v>
+      </c>
+      <c r="L7" s="11">
+        <v>10</v>
+      </c>
       <c r="M7" s="11">
+        <v>20</v>
+      </c>
+      <c r="N7" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="11"/>
+        <v>320</v>
+      </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="11">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R7" s="11">
+      <c r="S7" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="11"/>
+        <v>405</v>
+      </c>
       <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
+      <c r="U7" s="11">
+        <v>5</v>
+      </c>
       <c r="V7" s="11"/>
-      <c r="W7" s="11">
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
+        <v>5</v>
+      </c>
       <c r="Z7" s="11"/>
-      <c r="AA7" s="11">
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AC7" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="11">
+        <v>410</v>
+      </c>
+      <c r="AD7" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="AE7" s="11"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <v>43440</v>
       </c>
@@ -15230,56 +15492,57 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="11">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="11">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="11">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R8" s="11">
+      <c r="S8" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="11">
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="11">
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AC8" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AD8" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="11"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE8" s="11"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>43441</v>
       </c>
@@ -15290,56 +15553,57 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="11">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="11">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R9" s="11">
+      <c r="S9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
-      <c r="W9" s="11">
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
-      <c r="AA9" s="11">
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AC9" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AD9" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="11"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE9" s="11"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <v>43442</v>
       </c>
@@ -15350,56 +15614,57 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="11">
+      <c r="M10" s="11"/>
+      <c r="N10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="11">
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R10" s="11">
+      <c r="S10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S10" s="11"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="11">
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="11">
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AC10" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AD10" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="11"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE10" s="11"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="62">
         <v>43443</v>
       </c>
@@ -15410,56 +15675,57 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="11">
+      <c r="M11" s="11"/>
+      <c r="N11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="11">
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R11" s="11">
+      <c r="S11" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="11">
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
-      <c r="AA11" s="11">
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AC11" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AD11" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="11"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE11" s="11"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="62">
         <v>43444</v>
       </c>
@@ -15470,56 +15736,57 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="11">
+      <c r="M12" s="11"/>
+      <c r="N12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="11">
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R12" s="11">
+      <c r="S12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="11">
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="11">
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AC12" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AD12" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="11"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE12" s="11"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>43445</v>
       </c>
@@ -15530,56 +15797,57 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="11">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="11">
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R13" s="11">
+      <c r="S13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
-      <c r="W13" s="11">
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
-      <c r="AA13" s="11">
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AC13" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AD13" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="11"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE13" s="11"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>43446</v>
       </c>
@@ -15590,56 +15858,57 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="11">
+      <c r="M14" s="11"/>
+      <c r="N14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="11">
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R14" s="11">
+      <c r="S14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="11">
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="11">
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AC14" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="11">
+      <c r="AD14" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="11"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE14" s="11"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>43447</v>
       </c>
@@ -15650,56 +15919,57 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="11">
+      <c r="M15" s="11"/>
+      <c r="N15" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="11">
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R15" s="11">
+      <c r="S15" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="11">
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="11">
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="11">
+      <c r="AC15" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="11">
+      <c r="AD15" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="11"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE15" s="11"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>43448</v>
       </c>
@@ -15710,56 +15980,57 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="11">
+      <c r="M16" s="11"/>
+      <c r="N16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="11">
-        <f>SUM(N16:P16)</f>
-        <v>0</v>
-      </c>
+      <c r="Q16" s="11"/>
       <c r="R16" s="11">
+        <f>SUM(O16:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11">
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="11">
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="11">
+      <c r="AC16" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="11">
+      <c r="AD16" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="11"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE16" s="11"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>43449</v>
       </c>
@@ -15770,56 +16041,57 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="11">
+      <c r="M17" s="11"/>
+      <c r="N17" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="11">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R17" s="11">
+      <c r="S17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="11">
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="11">
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="11">
+      <c r="AC17" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="11">
+      <c r="AD17" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="11"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE17" s="11"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>43450</v>
       </c>
@@ -15830,56 +16102,57 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="11">
+      <c r="M18" s="11"/>
+      <c r="N18" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="11">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R18" s="11">
+      <c r="S18" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="11">
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="11">
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AC18" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="11">
+      <c r="AD18" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="11"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE18" s="11"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>43451</v>
       </c>
@@ -15890,56 +16163,57 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="11">
+      <c r="M19" s="11"/>
+      <c r="N19" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="11">
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R19" s="11">
+      <c r="S19" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="11">
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="11">
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="11">
+      <c r="AC19" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="11">
+      <c r="AD19" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="11"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE19" s="11"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>43452</v>
       </c>
@@ -15950,56 +16224,57 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="11">
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="11">
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R20" s="11">
+      <c r="S20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="11">
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="11">
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="11">
+      <c r="AC20" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="11">
+      <c r="AD20" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="11"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE20" s="11"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>43453</v>
       </c>
@@ -16010,56 +16285,57 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="11">
+      <c r="M21" s="11"/>
+      <c r="N21" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="11">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R21" s="11">
+      <c r="S21" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="11">
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="11">
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="11">
+      <c r="AC21" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="11">
+      <c r="AD21" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="11"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE21" s="11"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
         <v>43454</v>
       </c>
@@ -16070,56 +16346,57 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="11">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="11">
+      <c r="M22" s="11"/>
+      <c r="N22" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="11">
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R22" s="11">
+      <c r="S22" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="11">
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="11">
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="11">
+      <c r="AC22" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="11">
+      <c r="AD22" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="11"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE22" s="11"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>43455</v>
       </c>
@@ -16130,56 +16407,57 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="11">
+      <c r="M23" s="11"/>
+      <c r="N23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="11">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R23" s="11">
+      <c r="S23" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="11">
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
-      <c r="AA23" s="11">
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="11">
+      <c r="AC23" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="11">
+      <c r="AD23" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="11"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE23" s="11"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>43456</v>
       </c>
@@ -16190,56 +16468,57 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="11">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11">
+      <c r="M24" s="11"/>
+      <c r="N24" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="11">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R24" s="11">
+      <c r="S24" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="11">
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="11">
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="11">
+      <c r="AC24" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="11">
+      <c r="AD24" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE24" s="11"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
         <v>43457</v>
       </c>
@@ -16250,56 +16529,57 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="11">
+      <c r="M25" s="11"/>
+      <c r="N25" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="11">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R25" s="11">
+      <c r="S25" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="11">
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="11">
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="11">
+      <c r="AC25" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="11">
+      <c r="AD25" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="11"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE25" s="11"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="62">
         <v>43458</v>
       </c>
@@ -16310,56 +16590,57 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="11">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="11">
+      <c r="M26" s="11"/>
+      <c r="N26" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="11">
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R26" s="11">
+      <c r="S26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="11">
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
-      <c r="AA26" s="11">
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="11">
+      <c r="AC26" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="11">
-        <f t="shared" ref="AC21:AC32" si="8">AB26/60 + SUM(AD26:AF26)/60</f>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD26" s="11">
+        <f t="shared" ref="AD26:AD32" si="8">AC26/60 + SUM(AE26:AG26)/60</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="11"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="62">
         <v>43459</v>
       </c>
@@ -16370,56 +16651,57 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="11">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="11">
+      <c r="M27" s="11"/>
+      <c r="N27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="11">
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R27" s="11">
+      <c r="S27" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="11">
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
-      <c r="AA27" s="11">
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="11">
+      <c r="AC27" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="11">
+      <c r="AD27" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="11"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE27" s="11"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>43460</v>
       </c>
@@ -16430,56 +16712,57 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="11">
+      <c r="G28" s="11"/>
+      <c r="H28" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="11">
+      <c r="M28" s="11"/>
+      <c r="N28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="11">
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R28" s="11">
+      <c r="S28" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="11">
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
-      <c r="AA28" s="11">
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="11">
+      <c r="AC28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="11">
+      <c r="AD28" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="11"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE28" s="11"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>43461</v>
       </c>
@@ -16490,56 +16773,57 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="11">
+      <c r="G29" s="11"/>
+      <c r="H29" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="11">
+      <c r="M29" s="11"/>
+      <c r="N29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="11">
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R29" s="11">
+      <c r="S29" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="11">
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
-      <c r="AA29" s="11">
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="11">
+      <c r="AC29" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="11">
+      <c r="AD29" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="11"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE29" s="11"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="62">
         <v>43462</v>
       </c>
@@ -16550,56 +16834,57 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="11">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="11">
+      <c r="M30" s="11"/>
+      <c r="N30" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="11">
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R30" s="11">
+      <c r="S30" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="11">
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
-      <c r="AA30" s="11">
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="11">
+      <c r="AC30" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="11">
+      <c r="AD30" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="11"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE30" s="11"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>43463</v>
       </c>
@@ -16610,56 +16895,57 @@
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="11">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="11">
+      <c r="M31" s="11"/>
+      <c r="N31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="11">
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R31" s="11">
+      <c r="S31" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="11">
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
-      <c r="AA31" s="11">
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="11">
+      <c r="AC31" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="11">
+      <c r="AD31" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="11"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE31" s="11"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
         <v>43464</v>
       </c>
@@ -16670,56 +16956,57 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="11">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="11">
+      <c r="M32" s="11"/>
+      <c r="N32" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="11">
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R32" s="11">
+      <c r="S32" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="11">
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
-      <c r="AA32" s="11">
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="11">
+      <c r="AC32" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="11">
+      <c r="AD32" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="11"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE32" s="11"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="62">
         <v>43465</v>
       </c>
@@ -16754,178 +17041,179 @@
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE33" s="11"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="4">
-        <f>SUM(G3:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="4">
-        <f>SUM(M3:M33)</f>
-        <v>160</v>
-      </c>
-      <c r="Q34" s="4">
-        <f>SUM(Q3:Q33)</f>
-        <v>0</v>
+      <c r="H34" s="4">
+        <f>SUM(H3:H33)</f>
+        <v>165</v>
+      </c>
+      <c r="N34" s="4">
+        <f>SUM(N3:N33)</f>
+        <v>485</v>
       </c>
       <c r="R34" s="4">
-        <f>G34+M34+Q34</f>
-        <v>160</v>
-      </c>
-      <c r="W34" s="4">
-        <f>SUM(W3:W33)</f>
-        <v>50</v>
-      </c>
-      <c r="AA34" s="4">
-        <f>SUM(AA3:AA33)</f>
-        <v>120</v>
+        <f>SUM(R3:R33)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <f>H34+N34+R34</f>
+        <v>650</v>
+      </c>
+      <c r="Y34" s="4">
+        <f>SUM(Y3:Y33)</f>
+        <v>155</v>
       </c>
       <c r="AB34" s="4">
-        <f>R34+W34+AA34</f>
-        <v>330</v>
-      </c>
-      <c r="AC34" s="6">
-        <f>SUM(AC3:AC33)/31</f>
-        <v>0.17741935483870969</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+        <f>SUM(AB3:AB33)</f>
+        <v>360</v>
+      </c>
+      <c r="AC34" s="4">
+        <f>S34+Y34+AB34</f>
+        <v>1165</v>
+      </c>
+      <c r="AD34" s="6">
+        <f>SUM(AD3:AD33)/31</f>
+        <v>0.62634408602150538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="G35" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="15">
-        <f>G34/60</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="37" t="s">
+      <c r="H35" s="15">
+        <f>H34/60</f>
+        <v>2.75</v>
+      </c>
+      <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M35" s="15">
-        <f>M34/60</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="P35" s="37" t="s">
+      <c r="N35" s="15">
+        <f>N34/60</f>
+        <v>8.0833333333333339</v>
+      </c>
+      <c r="Q35" s="37" t="s">
         <v>3</v>
-      </c>
-      <c r="Q35" s="15">
-        <f>Q34/60</f>
-        <v>0</v>
       </c>
       <c r="R35" s="15">
         <f>R34/60</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="V35" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <f>S34/60</f>
+        <v>10.833333333333334</v>
+      </c>
+      <c r="X35" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="W35" s="15">
-        <f>W34/60</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Z35" s="37" t="s">
+      <c r="Y35" s="15">
+        <f>Y34/60</f>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="AA35" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AA35" s="15">
-        <f>AA34/60</f>
-        <v>2</v>
-      </c>
-      <c r="AB35" s="4">
+      <c r="AB35" s="15">
         <f>AB34/60</f>
-        <v>5.5</v>
-      </c>
-      <c r="AC35" s="15">
-        <f>SUM(AC3:AC33)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="AC35" s="4">
+        <f>AC34/60</f>
+        <v>19.416666666666668</v>
+      </c>
+      <c r="AD35" s="15">
+        <f>SUM(AD3:AD33)</f>
+        <v>19.416666666666668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="4">
-        <f>G35/31</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="4">
-        <f>M35/31</f>
-        <v>8.6021505376344079E-2</v>
-      </c>
-      <c r="Q36" s="4">
-        <f>Q35/31</f>
-        <v>0</v>
+      <c r="H36" s="4">
+        <f>H35/31</f>
+        <v>8.8709677419354843E-2</v>
+      </c>
+      <c r="N36" s="4">
+        <f>N35/31</f>
+        <v>0.26075268817204306</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
-        <v>8.6021505376344079E-2</v>
-      </c>
-      <c r="AA36" s="4">
-        <f>AA35/31</f>
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="AC36" s="6">
-        <f>AC34</f>
-        <v>0.17741935483870969</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <f>S35/31</f>
+        <v>0.34946236559139787</v>
+      </c>
+      <c r="AB36" s="4">
+        <f>AB35/31</f>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="AD36" s="6">
+        <f>AD34</f>
+        <v>0.62634408602150538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>0.20268817204301076</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>1.6865591397849462</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <v>2.6881720430107527E-2</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>1.9161290322580644</v>
       </c>
-      <c r="AA37" s="11">
+      <c r="AB37" s="11">
         <v>2.4973118279569895</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>6.06</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="G38" s="4">
-        <f>G36-G37</f>
-        <v>-0.20268817204301076</v>
-      </c>
-      <c r="M38" s="4">
-        <f>M36-M37</f>
-        <v>-1.6005376344086022</v>
-      </c>
-      <c r="Q38" s="4">
-        <f>Q36-Q37</f>
-        <v>-2.6881720430107527E-2</v>
+      <c r="H38" s="4">
+        <f>H36-H37</f>
+        <v>-0.11397849462365592</v>
+      </c>
+      <c r="N38" s="4">
+        <f>N36-N37</f>
+        <v>-1.4258064516129032</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
-        <v>-1.8301075268817204</v>
-      </c>
-      <c r="AA38" s="4">
-        <f>AA36-AA37</f>
-        <v>-2.4327956989247315</v>
-      </c>
-      <c r="AC38" s="4">
-        <f>AC36-AC37</f>
-        <v>-5.8825806451612896</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+        <v>-2.6881720430107527E-2</v>
+      </c>
+      <c r="S38" s="4">
+        <f>S36-S37</f>
+        <v>-1.5666666666666664</v>
+      </c>
+      <c r="AB38" s="4">
+        <f>AB36-AB37</f>
+        <v>-2.3037634408602155</v>
+      </c>
+      <c r="AD38" s="4">
+        <f>AD36-AD37</f>
+        <v>-5.4336559139784946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
@@ -16933,7 +17221,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>111</v>
       </c>
@@ -16946,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -16961,14 +17249,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17014,25 +17302,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="160" t="s">
+      <c r="D3" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="156" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="164" t="s">
         <v>96</v>
       </c>
     </row>
@@ -17040,42 +17328,42 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="156"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="164"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="156"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="164"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="156"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>0.375</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="159" t="s">
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="165" t="s">
         <v>1</v>
       </c>
     </row>
@@ -17083,47 +17371,47 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="159"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="157" t="s">
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="166" t="s">
         <v>100</v>
       </c>
     </row>
@@ -17131,97 +17419,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="158"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="167"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="156" t="s">
+      <c r="C14" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156" t="s">
+      <c r="D14" s="164"/>
+      <c r="E14" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="156" t="s">
+      <c r="F14" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="156"/>
-      <c r="H14" s="158"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="167"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="158"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="167"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="162" t="s">
+      <c r="C16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="156"/>
-      <c r="F16" s="162" t="s">
+      <c r="E16" s="164"/>
+      <c r="F16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="162" t="s">
+      <c r="G16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="158"/>
+      <c r="H16" s="167"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="158"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="158"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="167"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="162"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="156"/>
+      <c r="E19" s="164"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="162"/>
+      <c r="G19" s="163"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -17231,9 +17519,9 @@
       <c r="C20" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
       <c r="G20" s="23" t="s">
         <v>97</v>
       </c>
@@ -17246,13 +17534,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="160" t="s">
+      <c r="C21" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -17262,9 +17550,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="C13:G13"/>
@@ -17281,6 +17566,9 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17307,17 +17595,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="70"/>
@@ -17544,81 +17832,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="168" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="121"/>
+      <c r="A5" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="126"/>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
@@ -17655,10 +17943,10 @@
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="121"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -18478,56 +18766,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="123" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="124" t="s">
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125" t="s">
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
       <c r="R1" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="126" t="s">
+      <c r="S1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="122" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="119" t="s">
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="124" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="75" t="s">
         <v>128</v>
       </c>
@@ -18603,7 +18891,7 @@
       <c r="AA2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="120"/>
+      <c r="AB2" s="125"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -20323,7 +20611,7 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="164">
+      <c r="A28" s="120">
         <v>43430</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -20391,7 +20679,7 @@
       <c r="AD28" s="11"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="164">
+      <c r="A29" s="120">
         <v>43431</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -20454,7 +20742,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" s="164">
+      <c r="A30" s="120">
         <v>43432</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -20944,55 +21232,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="121" t="s">
+      <c r="T1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AB1" s="127" t="s">
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AB1" s="132" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="59" t="s">
         <v>9</v>
       </c>
@@ -21068,7 +21356,7 @@
       <c r="AA2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="128"/>
+      <c r="AB2" s="133"/>
       <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
@@ -23524,57 +23812,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
       <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="121" t="s">
+      <c r="U1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121" t="s">
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AD1" s="127" t="s">
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AD1" s="132" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
@@ -23656,7 +23944,7 @@
       <c r="AC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="128"/>
+      <c r="AD2" s="133"/>
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
@@ -25640,56 +25928,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="121" t="s">
+      <c r="T1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AC1" s="127" t="s">
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AC1" s="132" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -25768,7 +26056,7 @@
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="128"/>
+      <c r="AC2" s="133"/>
       <c r="AD2" s="7" t="s">
         <v>29</v>
       </c>
@@ -27566,55 +27854,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121" t="s">
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
       <c r="S1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="121" t="s">
+      <c r="T1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="131" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AB1" s="129" t="s">
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AB1" s="134" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
@@ -27690,7 +27978,7 @@
       <c r="AA2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="130"/>
+      <c r="AB2" s="135"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -29928,47 +30216,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="123" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="124" t="s">
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125" t="s">
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
       <c r="R1" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="126" t="s">
+      <c r="S1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="122" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R3" s="17" t="s">
@@ -30216,38 +30504,38 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="I16" s="124" t="s">
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="I16" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="Q16" s="132" t="s">
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="Q16" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="Y16" s="133" t="s">
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="Y16" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="Z16" s="133"/>
-      <c r="AA16" s="133"/>
-      <c r="AB16" s="133"/>
-      <c r="AC16" s="133"/>
-      <c r="AD16" s="133"/>
+      <c r="Z16" s="138"/>
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="138"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -30534,9 +30822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB8F789-AC3E-42AB-9FD1-E13319743684}">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -30544,24 +30830,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="138" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
+      <c r="B1" s="139" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
       <c r="K2" t="s">
         <v>241</v>
       </c>
@@ -30597,14 +30883,14 @@
       <c r="B4" s="110">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="146" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
       <c r="I4" s="109"/>
       <c r="K4" s="17"/>
       <c r="M4" t="s">
@@ -30615,14 +30901,14 @@
       <c r="B5" s="110">
         <v>0.25</v>
       </c>
-      <c r="C5" s="134" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
+      <c r="C5" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
       <c r="I5" s="109"/>
       <c r="K5" s="111"/>
       <c r="O5" s="17" t="s">
@@ -30633,14 +30919,14 @@
       <c r="B6" s="113">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="143" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
       <c r="I6" s="109"/>
       <c r="K6" s="79"/>
       <c r="O6" t="s">
@@ -30651,14 +30937,14 @@
       <c r="B7" s="112">
         <v>0.33333333333333398</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
       <c r="I7" s="109" t="s">
         <v>243</v>
       </c>
@@ -30670,12 +30956,12 @@
       <c r="B8" s="112">
         <v>0.375</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
       <c r="I8" s="109"/>
       <c r="K8" s="17" t="s">
         <v>30</v>
@@ -30688,12 +30974,12 @@
       <c r="B9" s="112">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
       <c r="I9" s="109"/>
       <c r="K9" t="s">
         <v>188</v>
@@ -30709,14 +30995,14 @@
       <c r="B10" s="113">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
       <c r="I10" s="109"/>
       <c r="K10" t="s">
         <v>189</v>
@@ -30725,30 +31011,30 @@
         <v>193</v>
       </c>
       <c r="P10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="113">
         <v>0.5</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
       <c r="I11" s="109"/>
       <c r="K11" s="17" t="s">
         <v>1</v>
@@ -30768,14 +31054,14 @@
       <c r="B12" s="113">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="143" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="135" t="s">
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="141" t="s">
         <v>185</v>
       </c>
       <c r="I12" s="109"/>
@@ -30805,14 +31091,14 @@
       <c r="B13" s="112">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="136"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="142"/>
       <c r="I13" s="109"/>
       <c r="K13" t="s">
         <v>189</v>
@@ -30840,12 +31126,12 @@
       <c r="B14" s="112">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="136"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="142"/>
       <c r="I14" s="109"/>
       <c r="K14" s="17" t="s">
         <v>2</v>
@@ -30861,14 +31147,14 @@
       <c r="B15" s="113">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="143" t="s">
         <v>238</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="136"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="109"/>
       <c r="K15" t="s">
         <v>188</v>
@@ -30884,15 +31170,15 @@
       <c r="B16" s="112">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="143" t="s">
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="148" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="114" t="s">
@@ -30910,11 +31196,11 @@
       <c r="B17" s="112">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="143"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="148"/>
       <c r="I17" s="109"/>
       <c r="K17" s="17" t="s">
         <v>3</v>
@@ -30924,12 +31210,12 @@
       <c r="B18" s="112">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143" t="s">
+      <c r="C18" s="148"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="109"/>
@@ -30944,12 +31230,12 @@
       <c r="B19" s="112">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
       <c r="I19" s="109"/>
       <c r="K19" t="s">
         <v>200</v>
@@ -30962,14 +31248,14 @@
       <c r="B20" s="113">
         <v>0.875000000000001</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
       <c r="I20" s="109"/>
       <c r="K20" t="s">
         <v>201</v>
@@ -30985,9 +31271,9 @@
       <c r="C21" s="118" t="s">
         <v>239</v>
       </c>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
       <c r="G21" s="118" t="s">
         <v>239</v>
       </c>
@@ -31004,31 +31290,38 @@
       <c r="B22" s="110">
         <v>0.95833333333333504</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C5:H5"/>
     <mergeCell ref="C7:H9"/>
     <mergeCell ref="D16:F19"/>
     <mergeCell ref="C15:G15"/>
@@ -31039,13 +31332,6 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31099,15 +31385,15 @@
       <c r="B3" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="134" t="s">
+      <c r="C3" s="149"/>
+      <c r="D3" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="154"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="159"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
@@ -31116,15 +31402,15 @@
       <c r="B4" s="83">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="151" t="s">
+      <c r="C4" s="149"/>
+      <c r="D4" s="156" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="154"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="159"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
@@ -31133,13 +31419,13 @@
       <c r="B5" s="83">
         <v>0.25</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="154"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="159"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
@@ -31148,13 +31434,13 @@
       <c r="B6" s="83">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="154"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="159"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="83">
@@ -31163,28 +31449,28 @@
       <c r="C7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="145"/>
+      <c r="I7" s="150"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="148" t="s">
+      <c r="C8" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="145"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="150"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
@@ -31193,17 +31479,17 @@
       <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="155"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="155" t="s">
+      <c r="D9" s="160"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="155"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="145"/>
+      <c r="I9" s="150"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -31215,15 +31501,15 @@
       <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
       <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="145"/>
+      <c r="I10" s="150"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -31235,19 +31521,19 @@
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="142"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="142" t="s">
+      <c r="D11" s="147"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="142"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="145"/>
+      <c r="I11" s="150"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
@@ -31256,19 +31542,19 @@
       <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="148" t="s">
+      <c r="D12" s="153"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="148"/>
-      <c r="H12" s="152" t="s">
+      <c r="G12" s="153"/>
+      <c r="H12" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="145"/>
+      <c r="I12" s="150"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -31280,17 +31566,17 @@
       <c r="B13" s="83">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="155" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="150" t="s">
+      <c r="D13" s="155"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="155" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="150"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="145"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="150"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -31302,17 +31588,17 @@
       <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="155"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="155" t="s">
+      <c r="D14" s="160"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="155"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="145"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="150"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
@@ -31321,13 +31607,13 @@
       <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="145"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="150"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -31339,19 +31625,19 @@
       <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="148" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="88"/>
-      <c r="E16" s="144"/>
+      <c r="E16" s="149"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="143" t="s">
+      <c r="G16" s="148" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="145"/>
+      <c r="I16" s="150"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -31363,19 +31649,19 @@
       <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="143"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="144"/>
+      <c r="E17" s="149"/>
       <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="143"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="145"/>
+      <c r="I17" s="150"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
@@ -31384,19 +31670,19 @@
       <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="153" t="s">
+      <c r="C18" s="148"/>
+      <c r="D18" s="158" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="144"/>
-      <c r="F18" s="153" t="s">
+      <c r="E18" s="149"/>
+      <c r="F18" s="158" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143" t="s">
+      <c r="G18" s="148"/>
+      <c r="H18" s="148" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="145"/>
+      <c r="I18" s="150"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -31408,13 +31694,13 @@
       <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="145"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="150"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -31429,14 +31715,14 @@
       <c r="C20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
       <c r="G20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="150"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -31448,15 +31734,15 @@
       <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="147"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8849A013-42B5-4607-A91C-E9D02B3A0B5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA16C69-C057-4064-85D0-764EA98C7AF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="12월" sheetId="15" r:id="rId1"/>
@@ -288,6 +288,98 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{E89472CC-3822-4D04-90D5-A35B065A7AE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>...</t>
         </r>
       </text>
     </comment>
@@ -10886,6 +10978,9 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10911,9 +11006,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10952,6 +11044,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10959,18 +11063,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14966,7 +15058,7 @@
       <pane xSplit="29" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15499,12 +15591,19 @@
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="K8" s="11">
+        <f>290+50</f>
+        <v>340</v>
+      </c>
+      <c r="L8" s="11">
+        <v>10</v>
+      </c>
+      <c r="M8" s="11">
+        <v>20</v>
+      </c>
       <c r="N8" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -15515,16 +15614,22 @@
       </c>
       <c r="S8" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
+        <v>370</v>
+      </c>
+      <c r="T8" s="11">
+        <v>20</v>
+      </c>
+      <c r="U8" s="11">
+        <v>10</v>
+      </c>
       <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="W8" s="11">
+        <v>30</v>
+      </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
@@ -15534,11 +15639,11 @@
       </c>
       <c r="AC8" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AD8" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="AE8" s="11"/>
     </row>
@@ -17053,7 +17158,7 @@
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>485</v>
+        <v>855</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -17061,11 +17166,11 @@
       </c>
       <c r="S34" s="4">
         <f>H34+N34+R34</f>
-        <v>650</v>
+        <v>1020</v>
       </c>
       <c r="Y34" s="4">
         <f>SUM(Y3:Y33)</f>
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="AB34" s="4">
         <f>SUM(AB3:AB33)</f>
@@ -17073,11 +17178,11 @@
       </c>
       <c r="AC34" s="4">
         <f>S34+Y34+AB34</f>
-        <v>1165</v>
+        <v>1595</v>
       </c>
       <c r="AD34" s="6">
         <f>SUM(AD3:AD33)/31</f>
-        <v>0.62634408602150538</v>
+        <v>0.85752688172043023</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -17096,7 +17201,7 @@
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>8.0833333333333339</v>
+        <v>14.25</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -17107,14 +17212,14 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>10.833333333333334</v>
+        <v>17</v>
       </c>
       <c r="X35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="Y35" s="15">
         <f>Y34/60</f>
-        <v>2.5833333333333335</v>
+        <v>3.5833333333333335</v>
       </c>
       <c r="AA35" s="37" t="s">
         <v>87</v>
@@ -17125,11 +17230,11 @@
       </c>
       <c r="AC35" s="4">
         <f>AC34/60</f>
-        <v>19.416666666666668</v>
+        <v>26.583333333333332</v>
       </c>
       <c r="AD35" s="15">
         <f>SUM(AD3:AD33)</f>
-        <v>19.416666666666668</v>
+        <v>26.583333333333336</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -17142,7 +17247,7 @@
       </c>
       <c r="N36" s="4">
         <f>N35/31</f>
-        <v>0.26075268817204306</v>
+        <v>0.45967741935483869</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
@@ -17150,7 +17255,7 @@
       </c>
       <c r="S36" s="4">
         <f>S35/31</f>
-        <v>0.34946236559139787</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="AB36" s="4">
         <f>AB35/31</f>
@@ -17158,7 +17263,7 @@
       </c>
       <c r="AD36" s="6">
         <f>AD34</f>
-        <v>0.62634408602150538</v>
+        <v>0.85752688172043023</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -17194,7 +17299,7 @@
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>-1.4258064516129032</v>
+        <v>-1.2268817204301075</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -17202,7 +17307,7 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>-1.5666666666666664</v>
+        <v>-1.3677419354838709</v>
       </c>
       <c r="AB38" s="4">
         <f>AB36-AB37</f>
@@ -17210,7 +17315,7 @@
       </c>
       <c r="AD38" s="4">
         <f>AD36-AD37</f>
-        <v>-5.4336559139784946</v>
+        <v>-5.2024731182795696</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -17302,25 +17407,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="164" t="s">
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="161" t="s">
         <v>96</v>
       </c>
     </row>
@@ -17328,31 +17433,31 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="164"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="161"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="164"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="161"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="164"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="161"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
@@ -17363,7 +17468,7 @@
       <c r="E8" s="136"/>
       <c r="F8" s="136"/>
       <c r="G8" s="136"/>
-      <c r="H8" s="165" t="s">
+      <c r="H8" s="164" t="s">
         <v>1</v>
       </c>
     </row>
@@ -17371,24 +17476,24 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="164" t="s">
+      <c r="C9" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="165"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="164"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
@@ -17404,14 +17509,14 @@
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="166" t="s">
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162" t="s">
         <v>100</v>
       </c>
     </row>
@@ -17419,97 +17524,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="167"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="163"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="164" t="s">
+      <c r="C14" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164" t="s">
+      <c r="D14" s="161"/>
+      <c r="E14" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="164"/>
-      <c r="H14" s="167"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="163"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="167"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="163"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="163" t="s">
+      <c r="D16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="163" t="s">
+      <c r="E16" s="161"/>
+      <c r="F16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="163" t="s">
+      <c r="G16" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="167"/>
+      <c r="H16" s="163"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="167"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="163"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="163"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="163"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="164"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="163"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -17534,13 +17639,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="161" t="s">
+      <c r="C21" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -17550,9 +17655,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -17569,6 +17671,9 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30830,24 +30935,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="K2" t="s">
         <v>241</v>
       </c>
@@ -30883,14 +30988,14 @@
       <c r="B4" s="110">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="147" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
       <c r="I4" s="109"/>
       <c r="K4" s="17"/>
       <c r="M4" t="s">
@@ -30901,14 +31006,14 @@
       <c r="B5" s="110">
         <v>0.25</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="141" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="109"/>
       <c r="K5" s="111"/>
       <c r="O5" s="17" t="s">
@@ -30919,14 +31024,14 @@
       <c r="B6" s="113">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="144" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
       <c r="I6" s="109"/>
       <c r="K6" s="79"/>
       <c r="O6" t="s">
@@ -30937,14 +31042,14 @@
       <c r="B7" s="112">
         <v>0.33333333333333398</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="145" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="109" t="s">
         <v>243</v>
       </c>
@@ -30956,12 +31061,12 @@
       <c r="B8" s="112">
         <v>0.375</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
       <c r="I8" s="109"/>
       <c r="K8" s="17" t="s">
         <v>30</v>
@@ -30974,12 +31079,12 @@
       <c r="B9" s="112">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
       <c r="I9" s="109"/>
       <c r="K9" t="s">
         <v>188</v>
@@ -30995,14 +31100,14 @@
       <c r="B10" s="113">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="144" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
       <c r="I10" s="109"/>
       <c r="K10" t="s">
         <v>189</v>
@@ -31027,14 +31132,14 @@
       <c r="B11" s="113">
         <v>0.5</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
       <c r="I11" s="109"/>
       <c r="K11" s="17" t="s">
         <v>1</v>
@@ -31054,14 +31159,14 @@
       <c r="B12" s="113">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="144" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="141" t="s">
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="142" t="s">
         <v>185</v>
       </c>
       <c r="I12" s="109"/>
@@ -31091,14 +31196,14 @@
       <c r="B13" s="112">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="142"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="143"/>
       <c r="I13" s="109"/>
       <c r="K13" t="s">
         <v>189</v>
@@ -31126,12 +31231,12 @@
       <c r="B14" s="112">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="142"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="143"/>
       <c r="I14" s="109"/>
       <c r="K14" s="17" t="s">
         <v>2</v>
@@ -31147,14 +31252,14 @@
       <c r="B15" s="113">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="144" t="s">
         <v>238</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="142"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="109"/>
       <c r="K15" t="s">
         <v>188</v>
@@ -31170,15 +31275,15 @@
       <c r="B16" s="112">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="148" t="s">
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="139" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="114" t="s">
@@ -31196,11 +31301,11 @@
       <c r="B17" s="112">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="139"/>
       <c r="I17" s="109"/>
       <c r="K17" s="17" t="s">
         <v>3</v>
@@ -31210,12 +31315,12 @@
       <c r="B18" s="112">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148" t="s">
+      <c r="C18" s="139"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="109"/>
@@ -31230,12 +31335,12 @@
       <c r="B19" s="112">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
       <c r="I19" s="109"/>
       <c r="K19" t="s">
         <v>200</v>
@@ -31248,14 +31353,14 @@
       <c r="B20" s="113">
         <v>0.875000000000001</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
       <c r="I20" s="109"/>
       <c r="K20" t="s">
         <v>201</v>
@@ -31290,13 +31395,13 @@
       <c r="B22" s="110">
         <v>0.95833333333333504</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
@@ -31315,6 +31420,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="C22:G22"/>
@@ -31330,8 +31437,6 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31386,13 +31491,13 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C3" s="149"/>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="147"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="148"/>
       <c r="I3" s="159"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
@@ -31409,7 +31514,7 @@
       <c r="E4" s="156"/>
       <c r="F4" s="156"/>
       <c r="G4" s="156"/>
-      <c r="H4" s="147"/>
+      <c r="H4" s="148"/>
       <c r="I4" s="159"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
@@ -31424,7 +31529,7 @@
       <c r="E5" s="156"/>
       <c r="F5" s="156"/>
       <c r="G5" s="156"/>
-      <c r="H5" s="147"/>
+      <c r="H5" s="148"/>
       <c r="I5" s="159"/>
       <c r="K5" t="s">
         <v>194</v>
@@ -31439,7 +31544,7 @@
       <c r="E6" s="156"/>
       <c r="F6" s="156"/>
       <c r="G6" s="156"/>
-      <c r="H6" s="147"/>
+      <c r="H6" s="148"/>
       <c r="I6" s="159"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -31521,15 +31626,15 @@
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="147"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="149"/>
-      <c r="F11" s="147" t="s">
+      <c r="F11" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="147"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
@@ -31625,13 +31730,13 @@
       <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="139" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="88"/>
       <c r="E16" s="149"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="148" t="s">
+      <c r="G16" s="139" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="86" t="s">
@@ -31649,7 +31754,7 @@
       <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="148"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
@@ -31657,7 +31762,7 @@
       <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="148"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
@@ -31670,7 +31775,7 @@
       <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="148"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="158" t="s">
         <v>184</v>
       </c>
@@ -31678,8 +31783,8 @@
       <c r="F18" s="158" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148" t="s">
+      <c r="G18" s="139"/>
+      <c r="H18" s="139" t="s">
         <v>177</v>
       </c>
       <c r="I18" s="150"/>
@@ -31694,12 +31799,12 @@
       <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="148"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="158"/>
       <c r="E19" s="149"/>
       <c r="F19" s="158"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
       <c r="I19" s="150"/>
       <c r="K19" t="s">
         <v>200</v>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA16C69-C057-4064-85D0-764EA98C7AF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9400FAD8-4B13-4438-9C1C-79B9C965657E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="12월" sheetId="15" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="식단" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -380,6 +381,52 @@
             <family val="2"/>
           </rPr>
           <t>...</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{C2D193B0-6F4A-4364-89D6-E1E5B2CFB599}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">집들이
+</t>
         </r>
       </text>
     </comment>
@@ -10006,7 +10053,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>통합</t>
+    <t>전신</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -10978,10 +11025,10 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11002,10 +11049,10 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11044,18 +11091,6 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11063,6 +11098,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11085,8 +11132,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFF5050"/>
       <color rgb="FFD9F2FB"/>
       <color rgb="FFFFBDDE"/>
       <color rgb="FFFFD9D9"/>
@@ -15058,7 +15105,7 @@
       <pane xSplit="29" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15665,12 +15712,16 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="11">
+        <v>18</v>
+      </c>
+      <c r="L9" s="11">
+        <v>40</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -15681,30 +15732,40 @@
       </c>
       <c r="S9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="U9" s="11">
+        <v>5</v>
+      </c>
+      <c r="V9" s="11">
+        <v>15</v>
+      </c>
+      <c r="W9" s="11">
+        <v>35</v>
+      </c>
       <c r="X9" s="11"/>
       <c r="Y9" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>240</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>50</v>
+      </c>
       <c r="AB9" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AC9" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="AD9" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.7166666666666668</v>
       </c>
       <c r="AE9" s="11"/>
     </row>
@@ -15727,11 +15788,13 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="11">
+        <v>210</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -15742,30 +15805,34 @@
       </c>
       <c r="S10" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
+      <c r="X10" s="11">
+        <v>40</v>
+      </c>
       <c r="Y10" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
+      <c r="AA10" s="11">
+        <v>165</v>
+      </c>
       <c r="AB10" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="AC10" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="AD10" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="AE10" s="11"/>
     </row>
@@ -15805,14 +15872,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T11" s="11"/>
+      <c r="T11" s="11">
+        <v>30</v>
+      </c>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
@@ -15822,13 +15891,15 @@
       </c>
       <c r="AC11" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD11" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="62">
@@ -15875,19 +15946,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="11"/>
+      <c r="Z12" s="11">
+        <v>240</v>
+      </c>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AC12" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AD12" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE12" s="11"/>
     </row>
@@ -15927,14 +16000,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
+      <c r="T13" s="11">
+        <v>5</v>
+      </c>
+      <c r="U13" s="11">
+        <v>5</v>
+      </c>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
@@ -15944,38 +16021,49 @@
       </c>
       <c r="AC13" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD13" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AE13" s="11"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="62">
+      <c r="A14" s="121">
         <v>43446</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="E14" s="11">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11">
+        <v>35</v>
+      </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="11">
+        <f>60+100+90+82</f>
+        <v>332</v>
+      </c>
       <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="M14" s="11">
+        <v>10</v>
+      </c>
       <c r="N14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -15986,16 +16074,22 @@
       </c>
       <c r="S14" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
+        <v>412</v>
+      </c>
+      <c r="T14" s="11">
+        <v>5</v>
+      </c>
+      <c r="U14" s="11">
+        <v>5</v>
+      </c>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
+      <c r="X14" s="11">
+        <v>40</v>
+      </c>
       <c r="Y14" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
@@ -16005,13 +16099,15 @@
       </c>
       <c r="AC14" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="AD14" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="11"/>
+        <v>8.0333333333333332</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
@@ -17154,11 +17250,11 @@
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>855</v>
+        <v>1465</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -17166,23 +17262,23 @@
       </c>
       <c r="S34" s="4">
         <f>H34+N34+R34</f>
-        <v>1020</v>
+        <v>1700</v>
       </c>
       <c r="Y34" s="4">
         <f>SUM(Y3:Y33)</f>
-        <v>215</v>
+        <v>400</v>
       </c>
       <c r="AB34" s="4">
         <f>SUM(AB3:AB33)</f>
-        <v>360</v>
+        <v>1055</v>
       </c>
       <c r="AC34" s="4">
         <f>S34+Y34+AB34</f>
-        <v>1595</v>
+        <v>3155</v>
       </c>
       <c r="AD34" s="6">
         <f>SUM(AD3:AD33)/31</f>
-        <v>0.85752688172043023</v>
+        <v>1.771505376344086</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -17194,14 +17290,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>2.75</v>
+        <v>3.9166666666666665</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>14.25</v>
+        <v>24.416666666666668</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -17212,29 +17308,29 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>17</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="X35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="Y35" s="15">
         <f>Y34/60</f>
-        <v>3.5833333333333335</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AA35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AB35" s="15">
         <f>AB34/60</f>
-        <v>6</v>
+        <v>17.583333333333332</v>
       </c>
       <c r="AC35" s="4">
         <f>AC34/60</f>
-        <v>26.583333333333332</v>
+        <v>52.583333333333336</v>
       </c>
       <c r="AD35" s="15">
         <f>SUM(AD3:AD33)</f>
-        <v>26.583333333333336</v>
+        <v>54.916666666666664</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -17243,11 +17339,11 @@
       </c>
       <c r="H36" s="4">
         <f>H35/31</f>
-        <v>8.8709677419354843E-2</v>
+        <v>0.12634408602150538</v>
       </c>
       <c r="N36" s="4">
         <f>N35/31</f>
-        <v>0.45967741935483869</v>
+        <v>0.78763440860215062</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
@@ -17255,15 +17351,15 @@
       </c>
       <c r="S36" s="4">
         <f>S35/31</f>
-        <v>0.54838709677419351</v>
+        <v>0.91397849462365588</v>
       </c>
       <c r="AB36" s="4">
         <f>AB35/31</f>
-        <v>0.19354838709677419</v>
+        <v>0.56720430107526876</v>
       </c>
       <c r="AD36" s="6">
         <f>AD34</f>
-        <v>0.85752688172043023</v>
+        <v>1.771505376344086</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -17295,11 +17391,11 @@
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>-0.11397849462365592</v>
+        <v>-7.6344086021505386E-2</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>-1.2268817204301075</v>
+        <v>-0.89892473118279559</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -17307,15 +17403,15 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>-1.3677419354838709</v>
+        <v>-1.0021505376344084</v>
       </c>
       <c r="AB38" s="4">
         <f>AB36-AB37</f>
-        <v>-2.3037634408602155</v>
+        <v>-1.9301075268817207</v>
       </c>
       <c r="AD38" s="4">
         <f>AD36-AD37</f>
-        <v>-5.2024731182795696</v>
+        <v>-4.2884946236559136</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -17407,25 +17503,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="161" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="164" t="s">
         <v>96</v>
       </c>
     </row>
@@ -17433,31 +17529,31 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="161"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="164"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="161"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="164"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="161"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
@@ -17468,7 +17564,7 @@
       <c r="E8" s="136"/>
       <c r="F8" s="136"/>
       <c r="G8" s="136"/>
-      <c r="H8" s="164" t="s">
+      <c r="H8" s="165" t="s">
         <v>1</v>
       </c>
     </row>
@@ -17476,24 +17572,24 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
@@ -17509,14 +17605,14 @@
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="162" t="s">
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="166" t="s">
         <v>100</v>
       </c>
     </row>
@@ -17524,97 +17620,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="164" t="s">
+      <c r="C13" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="163"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="167"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161" t="s">
+      <c r="D14" s="164"/>
+      <c r="E14" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="161" t="s">
+      <c r="F14" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="163"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="167"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="163"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="167"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="167" t="s">
+      <c r="E16" s="164"/>
+      <c r="F16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="167" t="s">
+      <c r="G16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="163"/>
+      <c r="H16" s="167"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="167"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="167"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="161"/>
+      <c r="E19" s="164"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="167"/>
+      <c r="G19" s="163"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -17639,13 +17735,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="165" t="s">
+      <c r="C21" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -17655,6 +17751,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -17671,9 +17770,6 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30935,24 +31031,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="139" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
       <c r="K2" t="s">
         <v>241</v>
       </c>
@@ -30988,14 +31084,14 @@
       <c r="B4" s="110">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="140" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
       <c r="I4" s="109"/>
       <c r="K4" s="17"/>
       <c r="M4" t="s">
@@ -31132,14 +31228,14 @@
       <c r="B11" s="113">
         <v>0.5</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
       <c r="I11" s="109"/>
       <c r="K11" s="17" t="s">
         <v>1</v>
@@ -31275,7 +31371,7 @@
       <c r="B16" s="112">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="148" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="146" t="s">
@@ -31283,7 +31379,7 @@
       </c>
       <c r="E16" s="146"/>
       <c r="F16" s="146"/>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="148" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="114" t="s">
@@ -31301,11 +31397,11 @@
       <c r="B17" s="112">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="139"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="146"/>
       <c r="E17" s="146"/>
       <c r="F17" s="146"/>
-      <c r="G17" s="139"/>
+      <c r="G17" s="148"/>
       <c r="I17" s="109"/>
       <c r="K17" s="17" t="s">
         <v>3</v>
@@ -31315,12 +31411,12 @@
       <c r="B18" s="112">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="146"/>
       <c r="E18" s="146"/>
       <c r="F18" s="146"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139" t="s">
+      <c r="G18" s="148"/>
+      <c r="H18" s="148" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="109"/>
@@ -31335,12 +31431,12 @@
       <c r="B19" s="112">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="139"/>
+      <c r="C19" s="148"/>
       <c r="D19" s="146"/>
       <c r="E19" s="146"/>
       <c r="F19" s="146"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
       <c r="I19" s="109"/>
       <c r="K19" t="s">
         <v>200</v>
@@ -31420,10 +31516,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="B1:H2"/>
+    <mergeCell ref="C4:H4"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="C6:H6"/>
@@ -31433,10 +31528,11 @@
     <mergeCell ref="D16:F19"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C13:G14"/>
-    <mergeCell ref="C4:H4"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31497,7 +31593,7 @@
       <c r="E3" s="141"/>
       <c r="F3" s="141"/>
       <c r="G3" s="141"/>
-      <c r="H3" s="148"/>
+      <c r="H3" s="147"/>
       <c r="I3" s="159"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
@@ -31514,7 +31610,7 @@
       <c r="E4" s="156"/>
       <c r="F4" s="156"/>
       <c r="G4" s="156"/>
-      <c r="H4" s="148"/>
+      <c r="H4" s="147"/>
       <c r="I4" s="159"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
@@ -31529,7 +31625,7 @@
       <c r="E5" s="156"/>
       <c r="F5" s="156"/>
       <c r="G5" s="156"/>
-      <c r="H5" s="148"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="159"/>
       <c r="K5" t="s">
         <v>194</v>
@@ -31544,7 +31640,7 @@
       <c r="E6" s="156"/>
       <c r="F6" s="156"/>
       <c r="G6" s="156"/>
-      <c r="H6" s="148"/>
+      <c r="H6" s="147"/>
       <c r="I6" s="159"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -31626,15 +31722,15 @@
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="148"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="149"/>
-      <c r="F11" s="148" t="s">
+      <c r="F11" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="148"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
@@ -31730,13 +31826,13 @@
       <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="148" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="88"/>
       <c r="E16" s="149"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="148" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="86" t="s">
@@ -31754,7 +31850,7 @@
       <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="139"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
@@ -31762,7 +31858,7 @@
       <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
@@ -31775,7 +31871,7 @@
       <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="158" t="s">
         <v>184</v>
       </c>
@@ -31783,8 +31879,8 @@
       <c r="F18" s="158" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139" t="s">
+      <c r="G18" s="148"/>
+      <c r="H18" s="148" t="s">
         <v>177</v>
       </c>
       <c r="I18" s="150"/>
@@ -31799,12 +31895,12 @@
       <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="139"/>
+      <c r="C19" s="148"/>
       <c r="D19" s="158"/>
       <c r="E19" s="149"/>
       <c r="F19" s="158"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
       <c r="I19" s="150"/>
       <c r="K19" t="s">
         <v>200</v>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9400FAD8-4B13-4438-9C1C-79B9C965657E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA515C5-E163-4BDB-BE6B-32DD8FB1F20F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="12월" sheetId="15" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="식단" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -427,6 +426,191 @@
           </rPr>
           <t xml:space="preserve">집들이
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{39AB8818-7D5A-48C5-898B-179E105DDBA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+restart
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{4A74ECEA-A9EB-4843-912A-4993CF86D74E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오전</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취침</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -11025,6 +11209,9 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11052,25 +11239,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11082,13 +11266,25 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11098,18 +11294,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -15105,7 +15289,7 @@
       <pane xSplit="29" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16059,11 +16243,11 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="1"/>
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -16074,22 +16258,24 @@
       </c>
       <c r="S14" s="11">
         <f t="shared" si="2"/>
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="T14" s="11">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="U14" s="11">
         <v>5</v>
       </c>
       <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="11">
+        <v>40</v>
+      </c>
       <c r="X14" s="11">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
@@ -16099,11 +16285,11 @@
       </c>
       <c r="AC14" s="11">
         <f t="shared" si="5"/>
-        <v>462</v>
+        <v>592</v>
       </c>
       <c r="AD14" s="11">
         <f t="shared" si="6"/>
-        <v>8.0333333333333332</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="AE14" s="11">
         <v>20</v>
@@ -16120,10 +16306,12 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11">
+        <v>40</v>
+      </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -16143,7 +16331,7 @@
       </c>
       <c r="S15" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
@@ -16162,11 +16350,11 @@
       </c>
       <c r="AC15" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AD15" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE15" s="11"/>
     </row>
@@ -17250,11 +17438,11 @@
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>1465</v>
+        <v>1485</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -17262,11 +17450,11 @@
       </c>
       <c r="S34" s="4">
         <f>H34+N34+R34</f>
-        <v>1700</v>
+        <v>1760</v>
       </c>
       <c r="Y34" s="4">
         <f>SUM(Y3:Y33)</f>
-        <v>400</v>
+        <v>510</v>
       </c>
       <c r="AB34" s="4">
         <f>SUM(AB3:AB33)</f>
@@ -17274,11 +17462,11 @@
       </c>
       <c r="AC34" s="4">
         <f>S34+Y34+AB34</f>
-        <v>3155</v>
+        <v>3325</v>
       </c>
       <c r="AD34" s="6">
         <f>SUM(AD3:AD33)/31</f>
-        <v>1.771505376344086</v>
+        <v>1.8629032258064515</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -17290,14 +17478,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>3.9166666666666665</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>24.416666666666668</v>
+        <v>24.75</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -17308,14 +17496,14 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>28.333333333333332</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="X35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="Y35" s="15">
         <f>Y34/60</f>
-        <v>6.666666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="AA35" s="37" t="s">
         <v>87</v>
@@ -17326,11 +17514,11 @@
       </c>
       <c r="AC35" s="4">
         <f>AC34/60</f>
-        <v>52.583333333333336</v>
+        <v>55.416666666666664</v>
       </c>
       <c r="AD35" s="15">
         <f>SUM(AD3:AD33)</f>
-        <v>54.916666666666664</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -17339,11 +17527,11 @@
       </c>
       <c r="H36" s="4">
         <f>H35/31</f>
-        <v>0.12634408602150538</v>
+        <v>0.14784946236559138</v>
       </c>
       <c r="N36" s="4">
         <f>N35/31</f>
-        <v>0.78763440860215062</v>
+        <v>0.79838709677419351</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
@@ -17351,7 +17539,7 @@
       </c>
       <c r="S36" s="4">
         <f>S35/31</f>
-        <v>0.91397849462365588</v>
+        <v>0.94623655913978488</v>
       </c>
       <c r="AB36" s="4">
         <f>AB35/31</f>
@@ -17359,7 +17547,7 @@
       </c>
       <c r="AD36" s="6">
         <f>AD34</f>
-        <v>1.771505376344086</v>
+        <v>1.8629032258064515</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -17391,11 +17579,11 @@
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>-7.6344086021505386E-2</v>
+        <v>-5.4838709677419384E-2</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>-0.89892473118279559</v>
+        <v>-0.8881720430107527</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -17403,7 +17591,7 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>-1.0021505376344084</v>
+        <v>-0.96989247311827953</v>
       </c>
       <c r="AB38" s="4">
         <f>AB36-AB37</f>
@@ -17411,7 +17599,7 @@
       </c>
       <c r="AD38" s="4">
         <f>AD36-AD37</f>
-        <v>-4.2884946236559136</v>
+        <v>-4.1970967741935485</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -17503,25 +17691,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="164" t="s">
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="161" t="s">
         <v>96</v>
       </c>
     </row>
@@ -17529,31 +17717,31 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="164"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="161"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="164"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="161"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="164"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="161"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
@@ -17564,7 +17752,7 @@
       <c r="E8" s="136"/>
       <c r="F8" s="136"/>
       <c r="G8" s="136"/>
-      <c r="H8" s="165" t="s">
+      <c r="H8" s="164" t="s">
         <v>1</v>
       </c>
     </row>
@@ -17572,24 +17760,24 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="164" t="s">
+      <c r="C9" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="165"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="164"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
@@ -17605,14 +17793,14 @@
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="166" t="s">
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162" t="s">
         <v>100</v>
       </c>
     </row>
@@ -17620,97 +17808,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="167"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="163"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="164" t="s">
+      <c r="C14" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164" t="s">
+      <c r="D14" s="161"/>
+      <c r="E14" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="164"/>
-      <c r="H14" s="167"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="163"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="167"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="163"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="163" t="s">
+      <c r="D16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="163" t="s">
+      <c r="E16" s="161"/>
+      <c r="F16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="163" t="s">
+      <c r="G16" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="167"/>
+      <c r="H16" s="163"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="167"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="163"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="163"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="163"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="164"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="163"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -17735,13 +17923,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="161" t="s">
+      <c r="C21" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -17751,6 +17939,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="C13:G13"/>
@@ -17767,9 +17958,6 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31031,24 +31219,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="K2" t="s">
         <v>241</v>
       </c>
@@ -31084,14 +31272,14 @@
       <c r="B4" s="110">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
       <c r="I4" s="109"/>
       <c r="K4" s="17"/>
       <c r="M4" t="s">
@@ -31102,14 +31290,14 @@
       <c r="B5" s="110">
         <v>0.25</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="142" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
       <c r="I5" s="109"/>
       <c r="K5" s="111"/>
       <c r="O5" s="17" t="s">
@@ -31120,14 +31308,14 @@
       <c r="B6" s="113">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
       <c r="I6" s="109"/>
       <c r="K6" s="79"/>
       <c r="O6" t="s">
@@ -31138,14 +31326,14 @@
       <c r="B7" s="112">
         <v>0.33333333333333398</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="146" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
       <c r="I7" s="109" t="s">
         <v>243</v>
       </c>
@@ -31157,12 +31345,12 @@
       <c r="B8" s="112">
         <v>0.375</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
       <c r="I8" s="109"/>
       <c r="K8" s="17" t="s">
         <v>30</v>
@@ -31175,12 +31363,12 @@
       <c r="B9" s="112">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
       <c r="I9" s="109"/>
       <c r="K9" t="s">
         <v>188</v>
@@ -31196,14 +31384,14 @@
       <c r="B10" s="113">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="145" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
       <c r="I10" s="109"/>
       <c r="K10" t="s">
         <v>189</v>
@@ -31228,14 +31416,14 @@
       <c r="B11" s="113">
         <v>0.5</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
       <c r="I11" s="109"/>
       <c r="K11" s="17" t="s">
         <v>1</v>
@@ -31255,14 +31443,14 @@
       <c r="B12" s="113">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="145" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="142" t="s">
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="143" t="s">
         <v>185</v>
       </c>
       <c r="I12" s="109"/>
@@ -31292,14 +31480,14 @@
       <c r="B13" s="112">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="143"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="144"/>
       <c r="I13" s="109"/>
       <c r="K13" t="s">
         <v>189</v>
@@ -31327,12 +31515,12 @@
       <c r="B14" s="112">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="143"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="109"/>
       <c r="K14" s="17" t="s">
         <v>2</v>
@@ -31348,14 +31536,14 @@
       <c r="B15" s="113">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="144" t="s">
+      <c r="C15" s="145" t="s">
         <v>238</v>
       </c>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="143"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="109"/>
       <c r="K15" t="s">
         <v>188</v>
@@ -31371,15 +31559,15 @@
       <c r="B16" s="112">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="146" t="s">
+      <c r="D16" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="148" t="s">
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="139" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="114" t="s">
@@ -31397,11 +31585,11 @@
       <c r="B17" s="112">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="139"/>
       <c r="I17" s="109"/>
       <c r="K17" s="17" t="s">
         <v>3</v>
@@ -31411,12 +31599,12 @@
       <c r="B18" s="112">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148" t="s">
+      <c r="C18" s="139"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="109"/>
@@ -31431,12 +31619,12 @@
       <c r="B19" s="112">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
       <c r="I19" s="109"/>
       <c r="K19" t="s">
         <v>200</v>
@@ -31449,14 +31637,14 @@
       <c r="B20" s="113">
         <v>0.875000000000001</v>
       </c>
-      <c r="C20" s="144" t="s">
+      <c r="C20" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
       <c r="I20" s="109"/>
       <c r="K20" t="s">
         <v>201</v>
@@ -31491,13 +31679,13 @@
       <c r="B22" s="110">
         <v>0.95833333333333504</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
@@ -31516,6 +31704,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="C4:H4"/>
@@ -31532,7 +31721,6 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31586,15 +31774,15 @@
       <c r="B3" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="141" t="s">
+      <c r="C3" s="150"/>
+      <c r="D3" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="159"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="152"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
@@ -31603,15 +31791,15 @@
       <c r="B4" s="83">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="156" t="s">
         <v>181</v>
       </c>
       <c r="E4" s="156"/>
       <c r="F4" s="156"/>
       <c r="G4" s="156"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="159"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
@@ -31620,13 +31808,13 @@
       <c r="B5" s="83">
         <v>0.25</v>
       </c>
-      <c r="C5" s="149"/>
+      <c r="C5" s="150"/>
       <c r="D5" s="156"/>
       <c r="E5" s="156"/>
       <c r="F5" s="156"/>
       <c r="G5" s="156"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="159"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="152"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
@@ -31635,13 +31823,13 @@
       <c r="B6" s="83">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="156"/>
       <c r="E6" s="156"/>
       <c r="F6" s="156"/>
       <c r="G6" s="156"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="159"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="152"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="83">
@@ -31657,21 +31845,21 @@
       <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="150"/>
+      <c r="I7" s="153"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="150"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="153"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
@@ -31680,17 +31868,17 @@
       <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="160" t="s">
+      <c r="D9" s="154"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="160"/>
+      <c r="G9" s="154"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="150"/>
+      <c r="I9" s="153"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -31702,15 +31890,15 @@
       <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
       <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="150"/>
+      <c r="I10" s="153"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -31722,19 +31910,19 @@
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="147" t="s">
+      <c r="D11" s="148"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="147"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="150"/>
+      <c r="I11" s="153"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
@@ -31743,19 +31931,19 @@
       <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="153"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="153" t="s">
+      <c r="D12" s="151"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="153"/>
+      <c r="G12" s="151"/>
       <c r="H12" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="150"/>
+      <c r="I12" s="153"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -31771,13 +31959,13 @@
         <v>176</v>
       </c>
       <c r="D13" s="155"/>
-      <c r="E13" s="149"/>
+      <c r="E13" s="150"/>
       <c r="F13" s="155" t="s">
         <v>176</v>
       </c>
       <c r="G13" s="155"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="150"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="153"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -31789,17 +31977,17 @@
       <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="160" t="s">
+      <c r="D14" s="154"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="160"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="150"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="153"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
@@ -31808,13 +31996,13 @@
       <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="150"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="153"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -31826,19 +32014,19 @@
       <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="139" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="88"/>
-      <c r="E16" s="149"/>
+      <c r="E16" s="150"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="148" t="s">
+      <c r="G16" s="139" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="150"/>
+      <c r="I16" s="153"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -31850,19 +32038,19 @@
       <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="148"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="149"/>
+      <c r="E17" s="150"/>
       <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="148"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="150"/>
+      <c r="I17" s="153"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
@@ -31871,19 +32059,19 @@
       <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="158" t="s">
+      <c r="C18" s="139"/>
+      <c r="D18" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="149"/>
-      <c r="F18" s="158" t="s">
+      <c r="E18" s="150"/>
+      <c r="F18" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148" t="s">
+      <c r="G18" s="139"/>
+      <c r="H18" s="139" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="150"/>
+      <c r="I18" s="153"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -31895,13 +32083,13 @@
       <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="150"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="153"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -31916,14 +32104,14 @@
       <c r="C20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
       <c r="G20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="149"/>
-      <c r="I20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="153"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -31935,18 +32123,28 @@
       <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D4:G7"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="F18:F19"/>
@@ -31963,16 +32161,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="D4:G7"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA515C5-E163-4BDB-BE6B-32DD8FB1F20F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1056EEBD-31F9-4617-8BCA-7D8C3198FB78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="12월" sheetId="15" r:id="rId1"/>
@@ -614,6 +614,298 @@
         </r>
       </text>
     </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{FA0B2096-DF81-48B3-BE67-5A3608C90058}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">일어남
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{5043E46E-A6D1-474A-B406-47D0D7D7B751}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 20</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기상
+중간
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 40</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">낮잠
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{F2932CB3-44CF-4A48-8B0A-1A8A2D824759}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연말</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">정리
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -9117,7 +9409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="267">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -10240,6 +10532,26 @@
     <t>전신</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>상체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>식단</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3끼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4끼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3끼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -11275,18 +11587,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11294,6 +11594,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -15289,7 +15601,7 @@
       <pane xSplit="29" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15372,10 +15684,10 @@
       </c>
       <c r="B2" s="126"/>
       <c r="C2" s="116" t="s">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="D2" s="116" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="E2" s="116" t="s">
         <v>11</v>
@@ -16220,7 +16532,9 @@
       <c r="B14" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="122"/>
+      <c r="C14" s="122" t="s">
+        <v>264</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11">
         <v>15</v>
@@ -16302,25 +16616,37 @@
       <c r="B15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="11">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11">
+        <v>10</v>
+      </c>
+      <c r="F15" s="11">
+        <v>15</v>
+      </c>
       <c r="G15" s="11">
         <v>40</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="11">
+        <v>50</v>
+      </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="M15" s="11">
+        <v>10</v>
+      </c>
       <c r="N15" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -16331,16 +16657,22 @@
       </c>
       <c r="S15" s="11">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
+      <c r="U15" s="11">
+        <v>5</v>
+      </c>
       <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
+      <c r="W15" s="11">
+        <v>20</v>
+      </c>
+      <c r="X15" s="11">
+        <v>90</v>
+      </c>
       <c r="Y15" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
@@ -16350,11 +16682,11 @@
       </c>
       <c r="AC15" s="11">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="AD15" s="11">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AE15" s="11"/>
     </row>
@@ -16365,23 +16697,29 @@
       <c r="B16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="11">
+        <v>10</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11">
+        <v>70</v>
+      </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -16392,32 +16730,42 @@
       </c>
       <c r="S16" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="V16" s="11">
+        <v>50</v>
+      </c>
+      <c r="W16" s="11">
+        <v>50</v>
+      </c>
+      <c r="X16" s="11">
+        <v>100</v>
+      </c>
       <c r="Y16" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="11"/>
+        <v>200</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>230</v>
+      </c>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AC16" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="AD16" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
@@ -16438,11 +16786,13 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="L17" s="11">
+        <v>210</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -16453,16 +16803,20 @@
       </c>
       <c r="S17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
+      <c r="V17" s="11">
+        <v>30</v>
+      </c>
       <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
+      <c r="X17" s="11">
+        <v>100</v>
+      </c>
       <c r="Y17" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
@@ -16472,11 +16826,11 @@
       </c>
       <c r="AC17" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AD17" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="AE17" s="11"/>
     </row>
@@ -16516,14 +16870,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="11"/>
+      <c r="T18" s="11">
+        <v>30</v>
+      </c>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
+      <c r="X18" s="11">
+        <v>30</v>
+      </c>
       <c r="Y18" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
@@ -16533,11 +16891,11 @@
       </c>
       <c r="AC18" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AD18" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="11"/>
     </row>
@@ -16548,7 +16906,9 @@
       <c r="B19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -16559,12 +16919,14 @@
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11">
+        <v>80</v>
+      </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
@@ -16575,7 +16937,7 @@
       </c>
       <c r="S19" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
@@ -16586,19 +16948,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="11"/>
+      <c r="Z19" s="11">
+        <v>220</v>
+      </c>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AC19" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AD19" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE19" s="11"/>
     </row>
@@ -16609,23 +16973,36 @@
       <c r="B20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="11">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11">
+        <v>15</v>
+      </c>
+      <c r="F20" s="11">
+        <v>15</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="K20" s="11">
+        <f>255+55</f>
+        <v>310</v>
+      </c>
+      <c r="L20" s="11">
+        <v>20</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
@@ -16636,16 +17013,20 @@
       </c>
       <c r="S20" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
+      <c r="U20" s="11">
+        <v>5</v>
+      </c>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
+      <c r="X20" s="11">
+        <v>10</v>
+      </c>
       <c r="Y20" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -16655,11 +17036,11 @@
       </c>
       <c r="AC20" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AD20" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" s="11"/>
     </row>
@@ -17438,11 +17819,11 @@
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>1485</v>
+        <v>2235</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -17450,23 +17831,23 @@
       </c>
       <c r="S34" s="4">
         <f>H34+N34+R34</f>
-        <v>1760</v>
+        <v>2600</v>
       </c>
       <c r="Y34" s="4">
         <f>SUM(Y3:Y33)</f>
-        <v>510</v>
+        <v>1030</v>
       </c>
       <c r="AB34" s="4">
         <f>SUM(AB3:AB33)</f>
-        <v>1055</v>
+        <v>1505</v>
       </c>
       <c r="AC34" s="4">
         <f>S34+Y34+AB34</f>
-        <v>3325</v>
+        <v>5135</v>
       </c>
       <c r="AD34" s="6">
         <f>SUM(AD3:AD33)/31</f>
-        <v>1.8629032258064515</v>
+        <v>2.852150537634409</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -17478,14 +17859,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>4.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>24.75</v>
+        <v>37.25</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -17496,29 +17877,29 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>29.333333333333332</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="X35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="Y35" s="15">
         <f>Y34/60</f>
-        <v>8.5</v>
+        <v>17.166666666666668</v>
       </c>
       <c r="AA35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AB35" s="15">
         <f>AB34/60</f>
-        <v>17.583333333333332</v>
+        <v>25.083333333333332</v>
       </c>
       <c r="AC35" s="4">
         <f>AC34/60</f>
-        <v>55.416666666666664</v>
+        <v>85.583333333333329</v>
       </c>
       <c r="AD35" s="15">
         <f>SUM(AD3:AD33)</f>
-        <v>57.75</v>
+        <v>88.416666666666671</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -17527,11 +17908,11 @@
       </c>
       <c r="H36" s="4">
         <f>H35/31</f>
-        <v>0.14784946236559138</v>
+        <v>0.19623655913978494</v>
       </c>
       <c r="N36" s="4">
         <f>N35/31</f>
-        <v>0.79838709677419351</v>
+        <v>1.2016129032258065</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
@@ -17539,15 +17920,15 @@
       </c>
       <c r="S36" s="4">
         <f>S35/31</f>
-        <v>0.94623655913978488</v>
+        <v>1.3978494623655915</v>
       </c>
       <c r="AB36" s="4">
         <f>AB35/31</f>
-        <v>0.56720430107526876</v>
+        <v>0.80913978494623651</v>
       </c>
       <c r="AD36" s="6">
         <f>AD34</f>
-        <v>1.8629032258064515</v>
+        <v>2.852150537634409</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -17579,11 +17960,11 @@
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>-5.4838709677419384E-2</v>
+        <v>-6.4516129032258229E-3</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>-0.8881720430107527</v>
+        <v>-0.48494623655913971</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -17591,15 +17972,15 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>-0.96989247311827953</v>
+        <v>-0.51827956989247292</v>
       </c>
       <c r="AB38" s="4">
         <f>AB36-AB37</f>
-        <v>-1.9301075268817207</v>
+        <v>-1.688172043010753</v>
       </c>
       <c r="AD38" s="4">
         <f>AD36-AD37</f>
-        <v>-4.1970967741935485</v>
+        <v>-3.2078494623655907</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -17691,25 +18072,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="161" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="164" t="s">
         <v>96</v>
       </c>
     </row>
@@ -17717,31 +18098,31 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="161"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="164"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="161"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="164"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="161"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
@@ -17752,7 +18133,7 @@
       <c r="E8" s="136"/>
       <c r="F8" s="136"/>
       <c r="G8" s="136"/>
-      <c r="H8" s="164" t="s">
+      <c r="H8" s="165" t="s">
         <v>1</v>
       </c>
     </row>
@@ -17760,24 +18141,24 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
@@ -17793,14 +18174,14 @@
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="162" t="s">
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="166" t="s">
         <v>100</v>
       </c>
     </row>
@@ -17808,97 +18189,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="164" t="s">
+      <c r="C13" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="163"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="167"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161" t="s">
+      <c r="D14" s="164"/>
+      <c r="E14" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="161" t="s">
+      <c r="F14" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="163"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="167"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="163"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="167"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="167" t="s">
+      <c r="E16" s="164"/>
+      <c r="F16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="167" t="s">
+      <c r="G16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="163"/>
+      <c r="H16" s="167"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="167"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="167"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="161"/>
+      <c r="E19" s="164"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="167"/>
+      <c r="G19" s="163"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -17923,13 +18304,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="165" t="s">
+      <c r="C21" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -17939,9 +18320,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C9:G10"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="C13:G13"/>
@@ -17958,6 +18336,9 @@
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31704,10 +32085,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="C4:H4"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="C6:H6"/>
@@ -31721,6 +32098,10 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1056EEBD-31F9-4617-8BCA-7D8C3198FB78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071EE7A-631D-4B9B-9469-D30C39D94B4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="12월" sheetId="15" r:id="rId1"/>
@@ -836,7 +836,464 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">낮잠
+          <t>낮잠
+새벽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">취침
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>11</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ~ 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 17</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> awake</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{B86A6B63-A577-4C15-9CA3-D8231DE54591}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새벽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ~ </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기상
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취침
+중간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 40</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취침
+총</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 40</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취침</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{B92CF4A1-29BD-4C86-B38A-61B546A2C33C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김태우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기상
 </t>
         </r>
       </text>
@@ -9409,7 +9866,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="269">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -10552,6 +11009,14 @@
     <t>3끼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>3끼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3끼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -11551,22 +12016,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11578,13 +12043,25 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11594,18 +12071,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -15598,10 +16063,10 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="29" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="29" ySplit="2" topLeftCell="AD12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16974,7 +17439,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="D20" s="11">
         <v>15</v>
@@ -17015,18 +17480,22 @@
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="T20" s="11"/>
+      <c r="T20" s="11">
+        <v>20</v>
+      </c>
       <c r="U20" s="11">
         <v>5</v>
       </c>
       <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="W20" s="11">
+        <v>10</v>
+      </c>
       <c r="X20" s="11">
         <v>10</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -17036,13 +17505,15 @@
       </c>
       <c r="AC20" s="11">
         <f t="shared" si="5"/>
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="AD20" s="11">
         <f t="shared" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="AE20" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
@@ -17051,7 +17522,9 @@
       <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>267</v>
+      </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -17062,12 +17535,18 @@
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="11">
+        <f>162+113+15</f>
+        <v>290</v>
+      </c>
       <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="M21" s="11">
+        <f>95+15</f>
+        <v>110</v>
+      </c>
       <c r="N21" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -17078,32 +17557,40 @@
       </c>
       <c r="S21" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
+        <v>400</v>
+      </c>
+      <c r="T21" s="11">
+        <v>5</v>
+      </c>
+      <c r="U21" s="11">
+        <v>5</v>
+      </c>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
+      <c r="AA21" s="11">
+        <v>15</v>
+      </c>
       <c r="AB21" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC21" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="AD21" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="11"/>
+        <v>7.583333333333333</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
@@ -17112,23 +17599,36 @@
       <c r="B22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="11">
+        <v>10</v>
+      </c>
+      <c r="E22" s="11">
+        <v>15</v>
+      </c>
+      <c r="F22" s="11">
+        <v>15</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="11">
+        <f>70+70+40+110</f>
+        <v>290</v>
+      </c>
       <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="M22" s="11">
+        <v>70</v>
+      </c>
       <c r="N22" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -17139,30 +17639,38 @@
       </c>
       <c r="S22" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
+        <v>400</v>
+      </c>
+      <c r="T22" s="11">
+        <v>5</v>
+      </c>
+      <c r="U22" s="11">
+        <v>5</v>
+      </c>
       <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="W22" s="11">
+        <v>10</v>
+      </c>
       <c r="X22" s="11"/>
       <c r="Y22" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
+      <c r="AA22" s="11">
+        <v>110</v>
+      </c>
       <c r="AB22" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AC22" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AD22" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="AE22" s="11"/>
     </row>
@@ -17186,10 +17694,12 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="M23" s="11">
+        <v>80</v>
+      </c>
       <c r="N23" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -17200,7 +17710,7 @@
       </c>
       <c r="S23" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
@@ -17219,11 +17729,11 @@
       </c>
       <c r="AC23" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD23" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AE23" s="11"/>
     </row>
@@ -17819,11 +18329,11 @@
       </c>
       <c r="H34" s="4">
         <f>SUM(H3:H33)</f>
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>2235</v>
+        <v>3075</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -17831,23 +18341,23 @@
       </c>
       <c r="S34" s="4">
         <f>H34+N34+R34</f>
-        <v>2600</v>
+        <v>3480</v>
       </c>
       <c r="Y34" s="4">
         <f>SUM(Y3:Y33)</f>
-        <v>1030</v>
+        <v>1090</v>
       </c>
       <c r="AB34" s="4">
         <f>SUM(AB3:AB33)</f>
-        <v>1505</v>
+        <v>1630</v>
       </c>
       <c r="AC34" s="4">
         <f>S34+Y34+AB34</f>
-        <v>5135</v>
+        <v>6200</v>
       </c>
       <c r="AD34" s="6">
         <f>SUM(AD3:AD33)/31</f>
-        <v>2.852150537634409</v>
+        <v>3.4731182795698921</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -17859,14 +18369,14 @@
       </c>
       <c r="H35" s="15">
         <f>H34/60</f>
-        <v>6.083333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="M35" s="37" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>37.25</v>
+        <v>51.25</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -17877,29 +18387,29 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>43.333333333333336</v>
+        <v>58</v>
       </c>
       <c r="X35" s="37" t="s">
         <v>159</v>
       </c>
       <c r="Y35" s="15">
         <f>Y34/60</f>
-        <v>17.166666666666668</v>
+        <v>18.166666666666668</v>
       </c>
       <c r="AA35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="AB35" s="15">
         <f>AB34/60</f>
-        <v>25.083333333333332</v>
+        <v>27.166666666666668</v>
       </c>
       <c r="AC35" s="4">
         <f>AC34/60</f>
-        <v>85.583333333333329</v>
+        <v>103.33333333333333</v>
       </c>
       <c r="AD35" s="15">
         <f>SUM(AD3:AD33)</f>
-        <v>88.416666666666671</v>
+        <v>107.66666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -17908,11 +18418,11 @@
       </c>
       <c r="H36" s="4">
         <f>H35/31</f>
-        <v>0.19623655913978494</v>
+        <v>0.21774193548387097</v>
       </c>
       <c r="N36" s="4">
         <f>N35/31</f>
-        <v>1.2016129032258065</v>
+        <v>1.653225806451613</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
@@ -17920,15 +18430,15 @@
       </c>
       <c r="S36" s="4">
         <f>S35/31</f>
-        <v>1.3978494623655915</v>
+        <v>1.8709677419354838</v>
       </c>
       <c r="AB36" s="4">
         <f>AB35/31</f>
-        <v>0.80913978494623651</v>
+        <v>0.87634408602150538</v>
       </c>
       <c r="AD36" s="6">
         <f>AD34</f>
-        <v>2.852150537634409</v>
+        <v>3.4731182795698921</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -17960,11 +18470,11 @@
       </c>
       <c r="H38" s="4">
         <f>H36-H37</f>
-        <v>-6.4516129032258229E-3</v>
+        <v>1.5053763440860207E-2</v>
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>-0.48494623655913971</v>
+        <v>-3.3333333333333215E-2</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -17972,15 +18482,15 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>-0.51827956989247292</v>
+        <v>-4.5161290322580649E-2</v>
       </c>
       <c r="AB38" s="4">
         <f>AB36-AB37</f>
-        <v>-1.688172043010753</v>
+        <v>-1.620967741935484</v>
       </c>
       <c r="AD38" s="4">
         <f>AD36-AD37</f>
-        <v>-3.2078494623655907</v>
+        <v>-2.5868817204301076</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -18072,25 +18582,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="164" t="s">
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="161" t="s">
         <v>96</v>
       </c>
     </row>
@@ -18098,31 +18608,31 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="164"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="161"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="164"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="161"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="164"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="161"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
@@ -18133,7 +18643,7 @@
       <c r="E8" s="136"/>
       <c r="F8" s="136"/>
       <c r="G8" s="136"/>
-      <c r="H8" s="165" t="s">
+      <c r="H8" s="164" t="s">
         <v>1</v>
       </c>
     </row>
@@ -18141,24 +18651,24 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="164" t="s">
+      <c r="C9" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="165"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="164"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
@@ -18174,14 +18684,14 @@
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="166" t="s">
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162" t="s">
         <v>100</v>
       </c>
     </row>
@@ -18189,97 +18699,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="167"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="163"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="164" t="s">
+      <c r="C14" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164" t="s">
+      <c r="D14" s="161"/>
+      <c r="E14" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="164"/>
-      <c r="H14" s="167"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="163"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="167"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="163"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="163" t="s">
+      <c r="D16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="163" t="s">
+      <c r="E16" s="161"/>
+      <c r="F16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="163" t="s">
+      <c r="G16" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="167"/>
+      <c r="H16" s="163"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="167"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="163"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="163"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="163"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="164"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="163"/>
+      <c r="G19" s="167"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -18304,13 +18814,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="161" t="s">
+      <c r="C21" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -18320,9 +18830,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -18339,6 +18846,9 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19502,10 +20012,10 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="28" ySplit="2" topLeftCell="AC30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28590,7 +29100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5132EE09-5567-4AE4-ABCB-3A2396D7F227}">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -30977,7 +31487,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="T5" sqref="S5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32155,7 +32665,7 @@
       <c r="B3" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C3" s="150"/>
+      <c r="C3" s="149"/>
       <c r="D3" s="142" t="s">
         <v>31</v>
       </c>
@@ -32163,7 +32673,7 @@
       <c r="F3" s="142"/>
       <c r="G3" s="142"/>
       <c r="H3" s="148"/>
-      <c r="I3" s="152"/>
+      <c r="I3" s="159"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
@@ -32172,7 +32682,7 @@
       <c r="B4" s="83">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="150"/>
+      <c r="C4" s="149"/>
       <c r="D4" s="156" t="s">
         <v>181</v>
       </c>
@@ -32180,7 +32690,7 @@
       <c r="F4" s="156"/>
       <c r="G4" s="156"/>
       <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="I4" s="159"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
@@ -32189,13 +32699,13 @@
       <c r="B5" s="83">
         <v>0.25</v>
       </c>
-      <c r="C5" s="150"/>
+      <c r="C5" s="149"/>
       <c r="D5" s="156"/>
       <c r="E5" s="156"/>
       <c r="F5" s="156"/>
       <c r="G5" s="156"/>
       <c r="H5" s="148"/>
-      <c r="I5" s="152"/>
+      <c r="I5" s="159"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
@@ -32204,13 +32714,13 @@
       <c r="B6" s="83">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="150"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="156"/>
       <c r="E6" s="156"/>
       <c r="F6" s="156"/>
       <c r="G6" s="156"/>
       <c r="H6" s="148"/>
-      <c r="I6" s="152"/>
+      <c r="I6" s="159"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="83">
@@ -32226,21 +32736,21 @@
       <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="153"/>
+      <c r="I7" s="150"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="150"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
@@ -32249,17 +32759,17 @@
       <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="154" t="s">
+      <c r="D9" s="160"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="154"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="153"/>
+      <c r="I9" s="150"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -32271,15 +32781,15 @@
       <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
       <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="153"/>
+      <c r="I10" s="150"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -32295,7 +32805,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="148"/>
-      <c r="E11" s="150"/>
+      <c r="E11" s="149"/>
       <c r="F11" s="148" t="s">
         <v>1</v>
       </c>
@@ -32303,7 +32813,7 @@
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="153"/>
+      <c r="I11" s="150"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
@@ -32312,19 +32822,19 @@
       <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151" t="s">
+      <c r="D12" s="153"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="151"/>
+      <c r="G12" s="153"/>
       <c r="H12" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="153"/>
+      <c r="I12" s="150"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -32340,13 +32850,13 @@
         <v>176</v>
       </c>
       <c r="D13" s="155"/>
-      <c r="E13" s="150"/>
+      <c r="E13" s="149"/>
       <c r="F13" s="155" t="s">
         <v>176</v>
       </c>
       <c r="G13" s="155"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="153"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="150"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -32358,17 +32868,17 @@
       <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="154" t="s">
+      <c r="D14" s="160"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="154"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="153"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="150"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
@@ -32377,13 +32887,13 @@
       <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="153"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="150"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -32399,7 +32909,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="88"/>
-      <c r="E16" s="150"/>
+      <c r="E16" s="149"/>
       <c r="F16" s="88"/>
       <c r="G16" s="139" t="s">
         <v>26</v>
@@ -32407,7 +32917,7 @@
       <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="153"/>
+      <c r="I16" s="150"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -32423,7 +32933,7 @@
       <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="150"/>
+      <c r="E17" s="149"/>
       <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
@@ -32431,7 +32941,7 @@
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="153"/>
+      <c r="I17" s="150"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
@@ -32441,18 +32951,18 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="C18" s="139"/>
-      <c r="D18" s="149" t="s">
+      <c r="D18" s="158" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="149" t="s">
+      <c r="E18" s="149"/>
+      <c r="F18" s="158" t="s">
         <v>184</v>
       </c>
       <c r="G18" s="139"/>
       <c r="H18" s="139" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="153"/>
+      <c r="I18" s="150"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -32465,12 +32975,12 @@
         <v>0.83333333333333404</v>
       </c>
       <c r="C19" s="139"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="149"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="158"/>
       <c r="G19" s="139"/>
       <c r="H19" s="139"/>
-      <c r="I19" s="153"/>
+      <c r="I19" s="150"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -32485,14 +32995,14 @@
       <c r="C20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
       <c r="G20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="150"/>
-      <c r="I20" s="153"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="150"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -32504,28 +33014,18 @@
       <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="160" t="s">
+      <c r="C21" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D4:G7"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H18:H19"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="F18:F19"/>
@@ -32542,6 +33042,16 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="D4:G7"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/18년도_Record.xlsx
+++ b/record/18년도_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\taeu.github.io\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071EE7A-631D-4B9B-9469-D30C39D94B4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170CF61D-3362-4C5F-98E9-F744D6DB9DF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="20490" windowHeight="7500" xr2:uid="{8136DDE6-2A14-4426-AB5C-8D0CC7F241C8}"/>
   </bookViews>
   <sheets>
     <sheet name="12월" sheetId="15" r:id="rId1"/>
@@ -11986,15 +11986,6 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12016,22 +12007,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12043,25 +12043,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12071,6 +12059,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -16063,10 +16063,10 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="29" ySplit="2" topLeftCell="AD12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="29" ySplit="2" topLeftCell="AD20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17695,11 +17695,12 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11">
-        <v>80</v>
+        <f>80+25</f>
+        <v>105</v>
       </c>
       <c r="N23" s="11">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -17710,7 +17711,7 @@
       </c>
       <c r="S23" s="11">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
@@ -17729,11 +17730,11 @@
       </c>
       <c r="AC23" s="11">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AD23" s="11">
         <f t="shared" si="6"/>
-        <v>1.3333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="AE23" s="11"/>
     </row>
@@ -18333,7 +18334,7 @@
       </c>
       <c r="N34" s="4">
         <f>SUM(N3:N33)</f>
-        <v>3075</v>
+        <v>3100</v>
       </c>
       <c r="R34" s="4">
         <f>SUM(R3:R33)</f>
@@ -18341,7 +18342,7 @@
       </c>
       <c r="S34" s="4">
         <f>H34+N34+R34</f>
-        <v>3480</v>
+        <v>3505</v>
       </c>
       <c r="Y34" s="4">
         <f>SUM(Y3:Y33)</f>
@@ -18353,11 +18354,11 @@
       </c>
       <c r="AC34" s="4">
         <f>S34+Y34+AB34</f>
-        <v>6200</v>
+        <v>6225</v>
       </c>
       <c r="AD34" s="6">
         <f>SUM(AD3:AD33)/31</f>
-        <v>3.4731182795698921</v>
+        <v>3.486559139784946</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -18376,7 +18377,7 @@
       </c>
       <c r="N35" s="15">
         <f>N34/60</f>
-        <v>51.25</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="Q35" s="37" t="s">
         <v>3</v>
@@ -18387,7 +18388,7 @@
       </c>
       <c r="S35" s="15">
         <f>S34/60</f>
-        <v>58</v>
+        <v>58.416666666666664</v>
       </c>
       <c r="X35" s="37" t="s">
         <v>159</v>
@@ -18405,11 +18406,11 @@
       </c>
       <c r="AC35" s="4">
         <f>AC34/60</f>
-        <v>103.33333333333333</v>
+        <v>103.75</v>
       </c>
       <c r="AD35" s="15">
         <f>SUM(AD3:AD33)</f>
-        <v>107.66666666666666</v>
+        <v>108.08333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -18422,7 +18423,7 @@
       </c>
       <c r="N36" s="4">
         <f>N35/31</f>
-        <v>1.653225806451613</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="R36" s="4">
         <f>R35/31</f>
@@ -18430,7 +18431,7 @@
       </c>
       <c r="S36" s="4">
         <f>S35/31</f>
-        <v>1.8709677419354838</v>
+        <v>1.8844086021505375</v>
       </c>
       <c r="AB36" s="4">
         <f>AB35/31</f>
@@ -18438,7 +18439,7 @@
       </c>
       <c r="AD36" s="6">
         <f>AD34</f>
-        <v>3.4731182795698921</v>
+        <v>3.486559139784946</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -18474,7 +18475,7 @@
       </c>
       <c r="N38" s="4">
         <f>N36-N37</f>
-        <v>-3.3333333333333215E-2</v>
+        <v>-1.9892473118279685E-2</v>
       </c>
       <c r="R38" s="4">
         <f>R36-R37</f>
@@ -18482,7 +18483,7 @@
       </c>
       <c r="S38" s="4">
         <f>S36-S37</f>
-        <v>-4.5161290322580649E-2</v>
+        <v>-3.1720430107526898E-2</v>
       </c>
       <c r="AB38" s="4">
         <f>AB36-AB37</f>
@@ -18490,7 +18491,7 @@
       </c>
       <c r="AD38" s="4">
         <f>AD36-AD37</f>
-        <v>-2.5868817204301076</v>
+        <v>-2.5734408602150536</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -18582,25 +18583,25 @@
       <c r="B3" s="13">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="161" t="s">
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="164" t="s">
         <v>96</v>
       </c>
     </row>
@@ -18608,31 +18609,31 @@
       <c r="B5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="161"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="164"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>0.29166666666666702</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="161"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="164"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>0.33333333333333398</v>
       </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="161"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
@@ -18643,7 +18644,7 @@
       <c r="E8" s="136"/>
       <c r="F8" s="136"/>
       <c r="G8" s="136"/>
-      <c r="H8" s="164" t="s">
+      <c r="H8" s="165" t="s">
         <v>1</v>
       </c>
     </row>
@@ -18651,24 +18652,24 @@
       <c r="B9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
@@ -18684,14 +18685,14 @@
       <c r="B12" s="13">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="162" t="s">
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="166" t="s">
         <v>100</v>
       </c>
     </row>
@@ -18699,97 +18700,97 @@
       <c r="B13" s="13">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="164" t="s">
+      <c r="C13" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="163"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="167"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161" t="s">
+      <c r="D14" s="164"/>
+      <c r="E14" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="161" t="s">
+      <c r="F14" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="163"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="167"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="163"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="167"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="167" t="s">
+      <c r="E16" s="164"/>
+      <c r="F16" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="167" t="s">
+      <c r="G16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="163"/>
+      <c r="H16" s="167"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="167"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="167"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="161"/>
+      <c r="E19" s="164"/>
       <c r="F19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="167"/>
+      <c r="G19" s="163"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -18814,13 +18815,13 @@
       <c r="B21" s="13">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="165" t="s">
+      <c r="C21" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
@@ -18830,6 +18831,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="D4:G7"/>
@@ -18846,9 +18850,6 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32110,24 +32111,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="147" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
       <c r="K2" t="s">
         <v>241</v>
       </c>
@@ -32163,14 +32164,14 @@
       <c r="B4" s="110">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="148" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
       <c r="I4" s="109"/>
       <c r="K4" s="17"/>
       <c r="M4" t="s">
@@ -32181,14 +32182,14 @@
       <c r="B5" s="110">
         <v>0.25</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="139" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
       <c r="I5" s="109"/>
       <c r="K5" s="111"/>
       <c r="O5" s="17" t="s">
@@ -32199,14 +32200,14 @@
       <c r="B6" s="113">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="142" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="109"/>
       <c r="K6" s="79"/>
       <c r="O6" t="s">
@@ -32217,14 +32218,14 @@
       <c r="B7" s="112">
         <v>0.33333333333333398</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="143" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
       <c r="I7" s="109" t="s">
         <v>243</v>
       </c>
@@ -32236,12 +32237,12 @@
       <c r="B8" s="112">
         <v>0.375</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
       <c r="I8" s="109"/>
       <c r="K8" s="17" t="s">
         <v>30</v>
@@ -32254,12 +32255,12 @@
       <c r="B9" s="112">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
       <c r="I9" s="109"/>
       <c r="K9" t="s">
         <v>188</v>
@@ -32275,14 +32276,14 @@
       <c r="B10" s="113">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="142" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
       <c r="I10" s="109"/>
       <c r="K10" t="s">
         <v>189</v>
@@ -32307,14 +32308,14 @@
       <c r="B11" s="113">
         <v>0.5</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
       <c r="I11" s="109"/>
       <c r="K11" s="17" t="s">
         <v>1</v>
@@ -32334,14 +32335,14 @@
       <c r="B12" s="113">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="142" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="143" t="s">
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="140" t="s">
         <v>185</v>
       </c>
       <c r="I12" s="109"/>
@@ -32371,14 +32372,14 @@
       <c r="B13" s="112">
         <v>0.58333333333333404</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="144"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="141"/>
       <c r="I13" s="109"/>
       <c r="K13" t="s">
         <v>189</v>
@@ -32406,12 +32407,12 @@
       <c r="B14" s="112">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="144"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="109"/>
       <c r="K14" s="17" t="s">
         <v>2</v>
@@ -32427,14 +32428,14 @@
       <c r="B15" s="113">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="142" t="s">
         <v>238</v>
       </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="144"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="109"/>
       <c r="K15" t="s">
         <v>188</v>
@@ -32450,15 +32451,15 @@
       <c r="B16" s="112">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="147" t="s">
+      <c r="D16" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="139" t="s">
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="146" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="114" t="s">
@@ -32476,11 +32477,11 @@
       <c r="B17" s="112">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="139"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="146"/>
       <c r="I17" s="109"/>
       <c r="K17" s="17" t="s">
         <v>3</v>
@@ -32490,12 +32491,12 @@
       <c r="B18" s="112">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139" t="s">
+      <c r="C18" s="146"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="109"/>
@@ -32510,12 +32511,12 @@
       <c r="B19" s="112">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
       <c r="I19" s="109"/>
       <c r="K19" t="s">
         <v>200</v>
@@ -32528,14 +32529,14 @@
       <c r="B20" s="113">
         <v>0.875000000000001</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
       <c r="I20" s="109"/>
       <c r="K20" t="s">
         <v>201</v>
@@ -32570,13 +32571,13 @@
       <c r="B22" s="110">
         <v>0.95833333333333504</v>
       </c>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
@@ -32595,6 +32596,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="C4:H4"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="C6:H6"/>
@@ -32610,8 +32613,6 @@
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32665,15 +32666,15 @@
       <c r="B3" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="142" t="s">
+      <c r="C3" s="150"/>
+      <c r="D3" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="159"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="152"/>
       <c r="K3" s="79" t="s">
         <v>182</v>
       </c>
@@ -32682,15 +32683,15 @@
       <c r="B4" s="83">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C4" s="149"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="156" t="s">
         <v>181</v>
       </c>
       <c r="E4" s="156"/>
       <c r="F4" s="156"/>
       <c r="G4" s="156"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="159"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="152"/>
       <c r="K4" s="17" t="s">
         <v>183</v>
       </c>
@@ -32699,13 +32700,13 @@
       <c r="B5" s="83">
         <v>0.25</v>
       </c>
-      <c r="C5" s="149"/>
+      <c r="C5" s="150"/>
       <c r="D5" s="156"/>
       <c r="E5" s="156"/>
       <c r="F5" s="156"/>
       <c r="G5" s="156"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="159"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="152"/>
       <c r="K5" t="s">
         <v>194</v>
       </c>
@@ -32714,13 +32715,13 @@
       <c r="B6" s="83">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="156"/>
       <c r="E6" s="156"/>
       <c r="F6" s="156"/>
       <c r="G6" s="156"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="159"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="152"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="83">
@@ -32736,21 +32737,21 @@
       <c r="H7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="150"/>
+      <c r="I7" s="153"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="83">
         <v>0.375</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="150"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="153"/>
       <c r="K8" s="17" t="s">
         <v>192</v>
       </c>
@@ -32759,17 +32760,17 @@
       <c r="B9" s="83">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="160" t="s">
+      <c r="D9" s="154"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="160"/>
+      <c r="G9" s="154"/>
       <c r="H9" s="85"/>
-      <c r="I9" s="150"/>
+      <c r="I9" s="153"/>
       <c r="K9" t="s">
         <v>188</v>
       </c>
@@ -32781,15 +32782,15 @@
       <c r="B10" s="83">
         <v>0.45833333333333398</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
       <c r="H10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="150"/>
+      <c r="I10" s="153"/>
       <c r="K10" t="s">
         <v>189</v>
       </c>
@@ -32801,19 +32802,19 @@
       <c r="B11" s="83">
         <v>0.5</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="148" t="s">
+      <c r="D11" s="145"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="148"/>
+      <c r="G11" s="145"/>
       <c r="H11" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="150"/>
+      <c r="I11" s="153"/>
       <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
@@ -32822,19 +32823,19 @@
       <c r="B12" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="153"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="153" t="s">
+      <c r="D12" s="151"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="153"/>
+      <c r="G12" s="151"/>
       <c r="H12" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="150"/>
+      <c r="I12" s="153"/>
       <c r="K12" t="s">
         <v>188</v>
       </c>
@@ -32850,13 +32851,13 @@
         <v>176</v>
       </c>
       <c r="D13" s="155"/>
-      <c r="E13" s="149"/>
+      <c r="E13" s="150"/>
       <c r="F13" s="155" t="s">
         <v>176</v>
       </c>
       <c r="G13" s="155"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="150"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="153"/>
       <c r="K13" t="s">
         <v>189</v>
       </c>
@@ -32868,17 +32869,17 @@
       <c r="B14" s="83">
         <v>0.625000000000001</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="160" t="s">
+      <c r="D14" s="154"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="160"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="150"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="153"/>
       <c r="K14" s="17" t="s">
         <v>184</v>
       </c>
@@ -32887,13 +32888,13 @@
       <c r="B15" s="83">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="150"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="153"/>
       <c r="K15" t="s">
         <v>188</v>
       </c>
@@ -32905,19 +32906,19 @@
       <c r="B16" s="83">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="146" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="88"/>
-      <c r="E16" s="149"/>
+      <c r="E16" s="150"/>
       <c r="F16" s="88"/>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="146" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="150"/>
+      <c r="I16" s="153"/>
       <c r="K16" t="s">
         <v>189</v>
       </c>
@@ -32929,19 +32930,19 @@
       <c r="B17" s="83">
         <v>0.750000000000001</v>
       </c>
-      <c r="C17" s="139"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="149"/>
+      <c r="E17" s="150"/>
       <c r="F17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="146"/>
       <c r="H17" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="150"/>
+      <c r="I17" s="153"/>
       <c r="K17" s="17" t="s">
         <v>196</v>
       </c>
@@ -32950,19 +32951,19 @@
       <c r="B18" s="83">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="158" t="s">
+      <c r="C18" s="146"/>
+      <c r="D18" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="149"/>
-      <c r="F18" s="158" t="s">
+      <c r="E18" s="150"/>
+      <c r="F18" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139" t="s">
+      <c r="G18" s="146"/>
+      <c r="H18" s="146" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="150"/>
+      <c r="I18" s="153"/>
       <c r="K18" t="s">
         <v>199</v>
       </c>
@@ -32974,13 +32975,13 @@
       <c r="B19" s="83">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="150"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="153"/>
       <c r="K19" t="s">
         <v>200</v>
       </c>
@@ -32995,14 +32996,14 @@
       <c r="C20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
       <c r="G20" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="149"/>
-      <c r="I20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="153"/>
       <c r="K20" t="s">
         <v>201</v>
       </c>
@@ -33014,18 +33015,28 @@
       <c r="B21" s="89">
         <v>0.91666666666666796</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D20:F20"/>
+